--- a/Bibsam_tidskriftslistor/scifree_data_brill.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_brill.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1891" uniqueCount="953">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1897" uniqueCount="956">
   <si>
     <t>ISSN Electronic</t>
   </si>
@@ -2878,13 +2878,22 @@
   </si>
   <si>
     <t>Open</t>
+  </si>
+  <si>
+    <t>https://brill.com/bafr</t>
+  </si>
+  <si>
+    <t>0974-4061</t>
+  </si>
+  <si>
+    <t>Africa Review</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2896,6 +2905,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2918,17 +2935,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -2946,16 +2976,6 @@
         <scheme val="minor"/>
       </font>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2970,10 +2990,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G315" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:G315"/>
-  <sortState ref="A2:G315">
-    <sortCondition ref="D1:D315"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G316" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:G316"/>
+  <sortState ref="A2:G316">
+    <sortCondition ref="D1:D316"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" name="Imprint"/>
@@ -3251,9 +3271,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G315"/>
+  <dimension ref="A1:G316"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3314,13 +3336,13 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>325</v>
+        <v>954</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>639</v>
+        <v>955</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>953</v>
       </c>
       <c r="F3" t="s">
         <v>7</v>
@@ -3334,13 +3356,13 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F4" t="s">
         <v>7</v>
@@ -3354,13 +3376,13 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F5" t="s">
         <v>7</v>
@@ -3374,13 +3396,13 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F6" t="s">
         <v>7</v>
@@ -3394,13 +3416,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -3414,13 +3436,13 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F8" t="s">
         <v>7</v>
@@ -3434,13 +3456,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F9" t="s">
         <v>7</v>
@@ -3454,13 +3476,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F10" t="s">
         <v>7</v>
@@ -3474,13 +3496,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F11" t="s">
         <v>7</v>
@@ -3494,13 +3516,13 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F12" t="s">
         <v>7</v>
@@ -3514,13 +3536,13 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="F13" t="s">
         <v>7</v>
@@ -3534,13 +3556,13 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F14" t="s">
         <v>7</v>
@@ -3554,13 +3576,13 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F15" t="s">
         <v>7</v>
@@ -3574,13 +3596,13 @@
         <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F16" t="s">
         <v>7</v>
@@ -3594,13 +3616,13 @@
         <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E17" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F17" t="s">
         <v>7</v>
@@ -3614,13 +3636,13 @@
         <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E18" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F18" t="s">
         <v>7</v>
@@ -3634,13 +3656,13 @@
         <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E19" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F19" t="s">
         <v>7</v>
@@ -3654,13 +3676,13 @@
         <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E20" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F20" t="s">
         <v>7</v>
@@ -3674,13 +3696,13 @@
         <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E21" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F21" t="s">
         <v>7</v>
@@ -3694,13 +3716,13 @@
         <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E22" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F22" t="s">
         <v>7</v>
@@ -3714,13 +3736,13 @@
         <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E23" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F23" t="s">
         <v>7</v>
@@ -3734,13 +3756,13 @@
         <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E24" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F24" t="s">
         <v>7</v>
@@ -3754,13 +3776,13 @@
         <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E25" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F25" t="s">
         <v>7</v>
@@ -3774,13 +3796,13 @@
         <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E26" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F26" t="s">
         <v>7</v>
@@ -3794,13 +3816,13 @@
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E27" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F27" t="s">
         <v>7</v>
@@ -3814,16 +3836,16 @@
         <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E28" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F28" t="s">
-        <v>952</v>
+        <v>7</v>
       </c>
       <c r="G28" t="s">
         <v>8</v>
@@ -3834,16 +3856,16 @@
         <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E29" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F29" t="s">
-        <v>7</v>
+        <v>952</v>
       </c>
       <c r="G29" t="s">
         <v>8</v>
@@ -3854,13 +3876,13 @@
         <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E30" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F30" t="s">
         <v>7</v>
@@ -3874,13 +3896,13 @@
         <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E31" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F31" t="s">
         <v>7</v>
@@ -3894,13 +3916,13 @@
         <v>9</v>
       </c>
       <c r="B32" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E32" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F32" t="s">
         <v>7</v>
@@ -3914,13 +3936,13 @@
         <v>9</v>
       </c>
       <c r="B33" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E33" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="F33" t="s">
         <v>7</v>
@@ -3934,13 +3956,13 @@
         <v>9</v>
       </c>
       <c r="B34" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E34" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="F34" t="s">
         <v>7</v>
@@ -3954,13 +3976,13 @@
         <v>9</v>
       </c>
       <c r="B35" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E35" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="F35" t="s">
         <v>7</v>
@@ -3974,13 +3996,13 @@
         <v>9</v>
       </c>
       <c r="B36" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E36" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F36" t="s">
         <v>7</v>
@@ -3994,13 +4016,13 @@
         <v>9</v>
       </c>
       <c r="B37" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E37" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F37" t="s">
         <v>7</v>
@@ -4014,16 +4036,16 @@
         <v>9</v>
       </c>
       <c r="B38" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E38" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F38" t="s">
-        <v>952</v>
+        <v>7</v>
       </c>
       <c r="G38" t="s">
         <v>8</v>
@@ -4034,13 +4056,13 @@
         <v>9</v>
       </c>
       <c r="B39" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E39" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F39" t="s">
         <v>952</v>
@@ -4054,16 +4076,16 @@
         <v>9</v>
       </c>
       <c r="B40" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E40" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="F40" t="s">
-        <v>7</v>
+        <v>952</v>
       </c>
       <c r="G40" t="s">
         <v>8</v>
@@ -4074,16 +4096,16 @@
         <v>9</v>
       </c>
       <c r="B41" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E41" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F41" t="s">
-        <v>952</v>
+        <v>7</v>
       </c>
       <c r="G41" t="s">
         <v>8</v>
@@ -4094,16 +4116,16 @@
         <v>9</v>
       </c>
       <c r="B42" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E42" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F42" t="s">
-        <v>7</v>
+        <v>952</v>
       </c>
       <c r="G42" t="s">
         <v>8</v>
@@ -4114,13 +4136,13 @@
         <v>9</v>
       </c>
       <c r="B43" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E43" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F43" t="s">
         <v>7</v>
@@ -4134,13 +4156,13 @@
         <v>9</v>
       </c>
       <c r="B44" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E44" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F44" t="s">
         <v>7</v>
@@ -4154,13 +4176,13 @@
         <v>9</v>
       </c>
       <c r="B45" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E45" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F45" t="s">
         <v>7</v>
@@ -4174,13 +4196,13 @@
         <v>9</v>
       </c>
       <c r="B46" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D46" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E46" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F46" t="s">
         <v>7</v>
@@ -4194,13 +4216,13 @@
         <v>9</v>
       </c>
       <c r="B47" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E47" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F47" t="s">
         <v>7</v>
@@ -4214,13 +4236,13 @@
         <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E48" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F48" t="s">
         <v>7</v>
@@ -4234,13 +4256,13 @@
         <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D49" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E49" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="F49" t="s">
         <v>7</v>
@@ -4254,13 +4276,13 @@
         <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D50" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E50" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F50" t="s">
         <v>7</v>
@@ -4274,13 +4296,13 @@
         <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D51" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E51" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="F51" t="s">
         <v>7</v>
@@ -4294,13 +4316,13 @@
         <v>9</v>
       </c>
       <c r="B52" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D52" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E52" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="F52" t="s">
         <v>7</v>
@@ -4314,13 +4336,13 @@
         <v>9</v>
       </c>
       <c r="B53" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D53" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E53" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F53" t="s">
         <v>7</v>
@@ -4334,16 +4356,16 @@
         <v>9</v>
       </c>
       <c r="B54" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D54" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E54" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="F54" t="s">
-        <v>952</v>
+        <v>7</v>
       </c>
       <c r="G54" t="s">
         <v>8</v>
@@ -4354,13 +4376,13 @@
         <v>9</v>
       </c>
       <c r="B55" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D55" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E55" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F55" t="s">
         <v>952</v>
@@ -4374,16 +4396,16 @@
         <v>9</v>
       </c>
       <c r="B56" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D56" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E56" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F56" t="s">
-        <v>7</v>
+        <v>952</v>
       </c>
       <c r="G56" t="s">
         <v>8</v>
@@ -4394,13 +4416,13 @@
         <v>9</v>
       </c>
       <c r="B57" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D57" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E57" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="F57" t="s">
         <v>7</v>
@@ -4414,13 +4436,13 @@
         <v>9</v>
       </c>
       <c r="B58" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D58" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E58" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F58" t="s">
         <v>7</v>
@@ -4434,13 +4456,13 @@
         <v>9</v>
       </c>
       <c r="B59" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D59" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E59" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F59" t="s">
         <v>7</v>
@@ -4454,13 +4476,13 @@
         <v>9</v>
       </c>
       <c r="B60" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D60" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E60" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="F60" t="s">
         <v>7</v>
@@ -4474,13 +4496,13 @@
         <v>9</v>
       </c>
       <c r="B61" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D61" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E61" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F61" t="s">
         <v>7</v>
@@ -4494,13 +4516,13 @@
         <v>9</v>
       </c>
       <c r="B62" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D62" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E62" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F62" t="s">
         <v>7</v>
@@ -4514,13 +4536,13 @@
         <v>9</v>
       </c>
       <c r="B63" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D63" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E63" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F63" t="s">
         <v>7</v>
@@ -4534,13 +4556,13 @@
         <v>9</v>
       </c>
       <c r="B64" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D64" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E64" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F64" t="s">
         <v>7</v>
@@ -4554,13 +4576,13 @@
         <v>9</v>
       </c>
       <c r="B65" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D65" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E65" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F65" t="s">
         <v>7</v>
@@ -4574,13 +4596,13 @@
         <v>9</v>
       </c>
       <c r="B66" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D66" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E66" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="F66" t="s">
         <v>7</v>
@@ -4594,13 +4616,13 @@
         <v>9</v>
       </c>
       <c r="B67" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D67" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E67" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="F67" t="s">
         <v>7</v>
@@ -4614,13 +4636,13 @@
         <v>9</v>
       </c>
       <c r="B68" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D68" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E68" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F68" t="s">
         <v>7</v>
@@ -4634,13 +4656,13 @@
         <v>9</v>
       </c>
       <c r="B69" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D69" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E69" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F69" t="s">
         <v>7</v>
@@ -4654,13 +4676,13 @@
         <v>9</v>
       </c>
       <c r="B70" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D70" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E70" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F70" t="s">
         <v>7</v>
@@ -4674,13 +4696,13 @@
         <v>9</v>
       </c>
       <c r="B71" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D71" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E71" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F71" t="s">
         <v>7</v>
@@ -4694,13 +4716,13 @@
         <v>9</v>
       </c>
       <c r="B72" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D72" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E72" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F72" t="s">
         <v>7</v>
@@ -4714,13 +4736,13 @@
         <v>9</v>
       </c>
       <c r="B73" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D73" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E73" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F73" t="s">
         <v>7</v>
@@ -4734,13 +4756,13 @@
         <v>9</v>
       </c>
       <c r="B74" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D74" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E74" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F74" t="s">
         <v>7</v>
@@ -4754,13 +4776,13 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D75" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E75" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F75" t="s">
         <v>7</v>
@@ -4774,13 +4796,13 @@
         <v>9</v>
       </c>
       <c r="B76" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D76" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E76" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="F76" t="s">
         <v>7</v>
@@ -4794,13 +4816,13 @@
         <v>9</v>
       </c>
       <c r="B77" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D77" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E77" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F77" t="s">
         <v>7</v>
@@ -4814,13 +4836,13 @@
         <v>9</v>
       </c>
       <c r="B78" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D78" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E78" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="F78" t="s">
         <v>7</v>
@@ -4834,13 +4856,13 @@
         <v>9</v>
       </c>
       <c r="B79" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D79" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E79" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F79" t="s">
         <v>7</v>
@@ -4854,13 +4876,13 @@
         <v>9</v>
       </c>
       <c r="B80" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D80" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E80" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="F80" t="s">
         <v>7</v>
@@ -4874,13 +4896,13 @@
         <v>9</v>
       </c>
       <c r="B81" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D81" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E81" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F81" t="s">
         <v>7</v>
@@ -4894,13 +4916,13 @@
         <v>9</v>
       </c>
       <c r="B82" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D82" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E82" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F82" t="s">
         <v>7</v>
@@ -4914,13 +4936,13 @@
         <v>9</v>
       </c>
       <c r="B83" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D83" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E83" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F83" t="s">
         <v>7</v>
@@ -4934,13 +4956,13 @@
         <v>9</v>
       </c>
       <c r="B84" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D84" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E84" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F84" t="s">
         <v>7</v>
@@ -4954,13 +4976,13 @@
         <v>9</v>
       </c>
       <c r="B85" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D85" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E85" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F85" t="s">
         <v>7</v>
@@ -4974,13 +4996,13 @@
         <v>9</v>
       </c>
       <c r="B86" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D86" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E86" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F86" t="s">
         <v>7</v>
@@ -4994,13 +5016,13 @@
         <v>9</v>
       </c>
       <c r="B87" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D87" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E87" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="F87" t="s">
         <v>7</v>
@@ -5014,13 +5036,13 @@
         <v>9</v>
       </c>
       <c r="B88" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D88" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E88" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="F88" t="s">
         <v>7</v>
@@ -5034,16 +5056,16 @@
         <v>9</v>
       </c>
       <c r="B89" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D89" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E89" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="F89" t="s">
-        <v>952</v>
+        <v>7</v>
       </c>
       <c r="G89" t="s">
         <v>8</v>
@@ -5054,16 +5076,16 @@
         <v>9</v>
       </c>
       <c r="B90" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D90" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E90" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="F90" t="s">
-        <v>7</v>
+        <v>952</v>
       </c>
       <c r="G90" t="s">
         <v>8</v>
@@ -5074,13 +5096,13 @@
         <v>9</v>
       </c>
       <c r="B91" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D91" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E91" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="F91" t="s">
         <v>7</v>
@@ -5094,13 +5116,13 @@
         <v>9</v>
       </c>
       <c r="B92" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D92" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E92" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F92" t="s">
         <v>7</v>
@@ -5114,13 +5136,13 @@
         <v>9</v>
       </c>
       <c r="B93" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D93" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E93" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="F93" t="s">
         <v>7</v>
@@ -5134,13 +5156,13 @@
         <v>9</v>
       </c>
       <c r="B94" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D94" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E94" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="F94" t="s">
         <v>7</v>
@@ -5154,13 +5176,13 @@
         <v>9</v>
       </c>
       <c r="B95" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D95" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E95" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="F95" t="s">
         <v>7</v>
@@ -5174,13 +5196,13 @@
         <v>9</v>
       </c>
       <c r="B96" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D96" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E96" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="F96" t="s">
         <v>7</v>
@@ -5194,13 +5216,13 @@
         <v>9</v>
       </c>
       <c r="B97" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D97" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E97" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="F97" t="s">
         <v>7</v>
@@ -5214,13 +5236,13 @@
         <v>9</v>
       </c>
       <c r="B98" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D98" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E98" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="F98" t="s">
         <v>7</v>
@@ -5234,13 +5256,13 @@
         <v>9</v>
       </c>
       <c r="B99" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D99" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E99" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="F99" t="s">
         <v>7</v>
@@ -5254,13 +5276,13 @@
         <v>9</v>
       </c>
       <c r="B100" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D100" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E100" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="F100" t="s">
         <v>7</v>
@@ -5274,13 +5296,13 @@
         <v>9</v>
       </c>
       <c r="B101" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D101" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E101" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="F101" t="s">
         <v>7</v>
@@ -5294,13 +5316,13 @@
         <v>9</v>
       </c>
       <c r="B102" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D102" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E102" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F102" t="s">
         <v>7</v>
@@ -5314,13 +5336,13 @@
         <v>9</v>
       </c>
       <c r="B103" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D103" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E103" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F103" t="s">
         <v>7</v>
@@ -5334,13 +5356,13 @@
         <v>9</v>
       </c>
       <c r="B104" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D104" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E104" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F104" t="s">
         <v>7</v>
@@ -5354,13 +5376,13 @@
         <v>9</v>
       </c>
       <c r="B105" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D105" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E105" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F105" t="s">
         <v>7</v>
@@ -5374,13 +5396,13 @@
         <v>9</v>
       </c>
       <c r="B106" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D106" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E106" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F106" t="s">
         <v>7</v>
@@ -5394,16 +5416,16 @@
         <v>9</v>
       </c>
       <c r="B107" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D107" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E107" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="F107" t="s">
-        <v>952</v>
+        <v>7</v>
       </c>
       <c r="G107" t="s">
         <v>8</v>
@@ -5414,16 +5436,16 @@
         <v>9</v>
       </c>
       <c r="B108" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D108" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E108" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="F108" t="s">
-        <v>7</v>
+        <v>952</v>
       </c>
       <c r="G108" t="s">
         <v>8</v>
@@ -5434,13 +5456,13 @@
         <v>9</v>
       </c>
       <c r="B109" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E109" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F109" t="s">
         <v>7</v>
@@ -5454,13 +5476,13 @@
         <v>9</v>
       </c>
       <c r="B110" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D110" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E110" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="F110" t="s">
         <v>7</v>
@@ -5474,13 +5496,13 @@
         <v>9</v>
       </c>
       <c r="B111" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D111" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E111" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="F111" t="s">
         <v>7</v>
@@ -5494,13 +5516,13 @@
         <v>9</v>
       </c>
       <c r="B112" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D112" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E112" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="F112" t="s">
         <v>7</v>
@@ -5514,13 +5536,13 @@
         <v>9</v>
       </c>
       <c r="B113" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D113" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E113" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="F113" t="s">
         <v>7</v>
@@ -5534,13 +5556,13 @@
         <v>9</v>
       </c>
       <c r="B114" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D114" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E114" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="F114" t="s">
         <v>7</v>
@@ -5554,13 +5576,13 @@
         <v>9</v>
       </c>
       <c r="B115" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D115" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E115" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F115" t="s">
         <v>7</v>
@@ -5574,13 +5596,13 @@
         <v>9</v>
       </c>
       <c r="B116" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D116" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E116" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="F116" t="s">
         <v>7</v>
@@ -5594,13 +5616,13 @@
         <v>9</v>
       </c>
       <c r="B117" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D117" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E117" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="F117" t="s">
         <v>7</v>
@@ -5614,13 +5636,13 @@
         <v>9</v>
       </c>
       <c r="B118" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D118" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E118" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="F118" t="s">
         <v>7</v>
@@ -5634,13 +5656,13 @@
         <v>9</v>
       </c>
       <c r="B119" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D119" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E119" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="F119" t="s">
         <v>7</v>
@@ -5654,13 +5676,13 @@
         <v>9</v>
       </c>
       <c r="B120" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D120" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E120" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="F120" t="s">
         <v>7</v>
@@ -5674,13 +5696,13 @@
         <v>9</v>
       </c>
       <c r="B121" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D121" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E121" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="F121" t="s">
         <v>7</v>
@@ -5694,13 +5716,13 @@
         <v>9</v>
       </c>
       <c r="B122" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D122" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E122" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F122" t="s">
         <v>7</v>
@@ -5714,13 +5736,13 @@
         <v>9</v>
       </c>
       <c r="B123" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D123" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E123" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="F123" t="s">
         <v>7</v>
@@ -5734,13 +5756,13 @@
         <v>9</v>
       </c>
       <c r="B124" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D124" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E124" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="F124" t="s">
         <v>7</v>
@@ -5754,13 +5776,13 @@
         <v>9</v>
       </c>
       <c r="B125" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D125" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E125" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="F125" t="s">
         <v>7</v>
@@ -5774,13 +5796,13 @@
         <v>9</v>
       </c>
       <c r="B126" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D126" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E126" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="F126" t="s">
         <v>7</v>
@@ -5794,13 +5816,13 @@
         <v>9</v>
       </c>
       <c r="B127" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D127" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E127" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="F127" t="s">
         <v>7</v>
@@ -5814,13 +5836,13 @@
         <v>9</v>
       </c>
       <c r="B128" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D128" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E128" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="F128" t="s">
         <v>7</v>
@@ -5834,13 +5856,13 @@
         <v>9</v>
       </c>
       <c r="B129" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D129" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E129" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="F129" t="s">
         <v>7</v>
@@ -5854,13 +5876,13 @@
         <v>9</v>
       </c>
       <c r="B130" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D130" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E130" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="F130" t="s">
         <v>7</v>
@@ -5874,13 +5896,13 @@
         <v>9</v>
       </c>
       <c r="B131" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D131" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E131" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="F131" t="s">
         <v>7</v>
@@ -5894,13 +5916,13 @@
         <v>9</v>
       </c>
       <c r="B132" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D132" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E132" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="F132" t="s">
         <v>7</v>
@@ -5914,13 +5936,13 @@
         <v>9</v>
       </c>
       <c r="B133" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D133" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E133" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F133" t="s">
         <v>7</v>
@@ -5934,13 +5956,13 @@
         <v>9</v>
       </c>
       <c r="B134" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D134" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E134" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F134" t="s">
         <v>7</v>
@@ -5954,13 +5976,13 @@
         <v>9</v>
       </c>
       <c r="B135" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D135" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E135" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="F135" t="s">
         <v>7</v>
@@ -5974,13 +5996,13 @@
         <v>9</v>
       </c>
       <c r="B136" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D136" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E136" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F136" t="s">
         <v>7</v>
@@ -5994,13 +6016,13 @@
         <v>9</v>
       </c>
       <c r="B137" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D137" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E137" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F137" t="s">
         <v>7</v>
@@ -6014,13 +6036,13 @@
         <v>9</v>
       </c>
       <c r="B138" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D138" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E138" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="F138" t="s">
         <v>7</v>
@@ -6034,13 +6056,13 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D139" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E139" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F139" t="s">
         <v>7</v>
@@ -6054,13 +6076,13 @@
         <v>9</v>
       </c>
       <c r="B140" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D140" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E140" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="F140" t="s">
         <v>7</v>
@@ -6074,13 +6096,13 @@
         <v>9</v>
       </c>
       <c r="B141" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D141" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E141" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F141" t="s">
         <v>7</v>
@@ -6094,13 +6116,13 @@
         <v>9</v>
       </c>
       <c r="B142" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D142" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E142" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F142" t="s">
         <v>7</v>
@@ -6114,13 +6136,13 @@
         <v>9</v>
       </c>
       <c r="B143" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D143" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E143" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F143" t="s">
         <v>7</v>
@@ -6134,13 +6156,13 @@
         <v>9</v>
       </c>
       <c r="B144" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D144" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E144" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F144" t="s">
         <v>7</v>
@@ -6154,13 +6176,13 @@
         <v>9</v>
       </c>
       <c r="B145" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D145" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E145" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="F145" t="s">
         <v>7</v>
@@ -6174,13 +6196,13 @@
         <v>9</v>
       </c>
       <c r="B146" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D146" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E146" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F146" t="s">
         <v>7</v>
@@ -6194,13 +6216,13 @@
         <v>9</v>
       </c>
       <c r="B147" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D147" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E147" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="F147" t="s">
         <v>7</v>
@@ -6214,13 +6236,13 @@
         <v>9</v>
       </c>
       <c r="B148" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D148" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E148" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="F148" t="s">
         <v>7</v>
@@ -6234,13 +6256,13 @@
         <v>9</v>
       </c>
       <c r="B149" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D149" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E149" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F149" t="s">
         <v>7</v>
@@ -6254,13 +6276,13 @@
         <v>9</v>
       </c>
       <c r="B150" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D150" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E150" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="F150" t="s">
         <v>7</v>
@@ -6274,13 +6296,13 @@
         <v>9</v>
       </c>
       <c r="B151" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D151" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E151" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F151" t="s">
         <v>7</v>
@@ -6294,13 +6316,13 @@
         <v>9</v>
       </c>
       <c r="B152" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D152" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E152" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="F152" t="s">
         <v>7</v>
@@ -6314,13 +6336,13 @@
         <v>9</v>
       </c>
       <c r="B153" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D153" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E153" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="F153" t="s">
         <v>7</v>
@@ -6334,16 +6356,16 @@
         <v>9</v>
       </c>
       <c r="B154" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D154" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E154" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="F154" t="s">
-        <v>952</v>
+        <v>7</v>
       </c>
       <c r="G154" t="s">
         <v>8</v>
@@ -6354,16 +6376,16 @@
         <v>9</v>
       </c>
       <c r="B155" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D155" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E155" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="F155" t="s">
-        <v>7</v>
+        <v>952</v>
       </c>
       <c r="G155" t="s">
         <v>8</v>
@@ -6374,13 +6396,13 @@
         <v>9</v>
       </c>
       <c r="B156" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D156" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E156" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="F156" t="s">
         <v>7</v>
@@ -6394,13 +6416,13 @@
         <v>9</v>
       </c>
       <c r="B157" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D157" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E157" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="F157" t="s">
         <v>7</v>
@@ -6414,13 +6436,13 @@
         <v>9</v>
       </c>
       <c r="B158" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D158" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E158" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="F158" t="s">
         <v>7</v>
@@ -6434,16 +6456,16 @@
         <v>9</v>
       </c>
       <c r="B159" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D159" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E159" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F159" t="s">
-        <v>952</v>
+        <v>7</v>
       </c>
       <c r="G159" t="s">
         <v>8</v>
@@ -6454,16 +6476,16 @@
         <v>9</v>
       </c>
       <c r="B160" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D160" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E160" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F160" t="s">
-        <v>7</v>
+        <v>952</v>
       </c>
       <c r="G160" t="s">
         <v>8</v>
@@ -6474,13 +6496,13 @@
         <v>9</v>
       </c>
       <c r="B161" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D161" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E161" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F161" t="s">
         <v>7</v>
@@ -6494,13 +6516,13 @@
         <v>9</v>
       </c>
       <c r="B162" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D162" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E162" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F162" t="s">
         <v>7</v>
@@ -6514,13 +6536,13 @@
         <v>9</v>
       </c>
       <c r="B163" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D163" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E163" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F163" t="s">
         <v>7</v>
@@ -6534,13 +6556,13 @@
         <v>9</v>
       </c>
       <c r="B164" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D164" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E164" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F164" t="s">
         <v>7</v>
@@ -6554,16 +6576,16 @@
         <v>9</v>
       </c>
       <c r="B165" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D165" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E165" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F165" t="s">
-        <v>952</v>
+        <v>7</v>
       </c>
       <c r="G165" t="s">
         <v>8</v>
@@ -6574,16 +6596,16 @@
         <v>9</v>
       </c>
       <c r="B166" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D166" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E166" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F166" t="s">
-        <v>7</v>
+        <v>952</v>
       </c>
       <c r="G166" t="s">
         <v>8</v>
@@ -6594,13 +6616,13 @@
         <v>9</v>
       </c>
       <c r="B167" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D167" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E167" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="F167" t="s">
         <v>7</v>
@@ -6614,16 +6636,16 @@
         <v>9</v>
       </c>
       <c r="B168" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D168" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E168" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="F168" t="s">
-        <v>952</v>
+        <v>7</v>
       </c>
       <c r="G168" t="s">
         <v>8</v>
@@ -6634,16 +6656,16 @@
         <v>9</v>
       </c>
       <c r="B169" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D169" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E169" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F169" t="s">
-        <v>7</v>
+        <v>952</v>
       </c>
       <c r="G169" t="s">
         <v>8</v>
@@ -6654,13 +6676,13 @@
         <v>9</v>
       </c>
       <c r="B170" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D170" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E170" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="F170" t="s">
         <v>7</v>
@@ -6674,16 +6696,16 @@
         <v>9</v>
       </c>
       <c r="B171" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D171" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E171" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="F171" t="s">
-        <v>952</v>
+        <v>7</v>
       </c>
       <c r="G171" t="s">
         <v>8</v>
@@ -6694,16 +6716,16 @@
         <v>9</v>
       </c>
       <c r="B172" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D172" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E172" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="F172" t="s">
-        <v>7</v>
+        <v>952</v>
       </c>
       <c r="G172" t="s">
         <v>8</v>
@@ -6714,16 +6736,16 @@
         <v>9</v>
       </c>
       <c r="B173" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D173" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E173" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F173" t="s">
-        <v>952</v>
+        <v>7</v>
       </c>
       <c r="G173" t="s">
         <v>8</v>
@@ -6734,16 +6756,16 @@
         <v>9</v>
       </c>
       <c r="B174" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D174" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E174" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F174" t="s">
-        <v>7</v>
+        <v>952</v>
       </c>
       <c r="G174" t="s">
         <v>8</v>
@@ -6754,13 +6776,13 @@
         <v>9</v>
       </c>
       <c r="B175" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D175" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E175" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="F175" t="s">
         <v>7</v>
@@ -6774,13 +6796,13 @@
         <v>9</v>
       </c>
       <c r="B176" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D176" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E176" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F176" t="s">
         <v>7</v>
@@ -6794,13 +6816,13 @@
         <v>9</v>
       </c>
       <c r="B177" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D177" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E177" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="F177" t="s">
         <v>7</v>
@@ -6814,13 +6836,13 @@
         <v>9</v>
       </c>
       <c r="B178" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D178" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E178" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="F178" t="s">
         <v>7</v>
@@ -6834,13 +6856,13 @@
         <v>9</v>
       </c>
       <c r="B179" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D179" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E179" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="F179" t="s">
         <v>7</v>
@@ -6854,13 +6876,13 @@
         <v>9</v>
       </c>
       <c r="B180" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D180" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E180" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="F180" t="s">
         <v>7</v>
@@ -6874,13 +6896,13 @@
         <v>9</v>
       </c>
       <c r="B181" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D181" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E181" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="F181" t="s">
         <v>7</v>
@@ -6894,13 +6916,13 @@
         <v>9</v>
       </c>
       <c r="B182" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D182" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E182" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="F182" t="s">
         <v>7</v>
@@ -6914,13 +6936,13 @@
         <v>9</v>
       </c>
       <c r="B183" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D183" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E183" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="F183" t="s">
         <v>7</v>
@@ -6934,13 +6956,13 @@
         <v>9</v>
       </c>
       <c r="B184" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D184" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E184" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="F184" t="s">
         <v>7</v>
@@ -6954,13 +6976,13 @@
         <v>9</v>
       </c>
       <c r="B185" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D185" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E185" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="F185" t="s">
         <v>7</v>
@@ -6974,13 +6996,13 @@
         <v>9</v>
       </c>
       <c r="B186" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D186" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E186" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="F186" t="s">
         <v>7</v>
@@ -6994,13 +7016,13 @@
         <v>9</v>
       </c>
       <c r="B187" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D187" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E187" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="F187" t="s">
         <v>7</v>
@@ -7014,13 +7036,13 @@
         <v>9</v>
       </c>
       <c r="B188" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D188" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E188" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F188" t="s">
         <v>7</v>
@@ -7034,13 +7056,13 @@
         <v>9</v>
       </c>
       <c r="B189" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D189" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E189" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="F189" t="s">
         <v>7</v>
@@ -7054,13 +7076,13 @@
         <v>9</v>
       </c>
       <c r="B190" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D190" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E190" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="F190" t="s">
         <v>7</v>
@@ -7074,13 +7096,13 @@
         <v>9</v>
       </c>
       <c r="B191" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D191" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E191" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="F191" t="s">
         <v>7</v>
@@ -7094,13 +7116,13 @@
         <v>9</v>
       </c>
       <c r="B192" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D192" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E192" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F192" t="s">
         <v>7</v>
@@ -7114,13 +7136,13 @@
         <v>9</v>
       </c>
       <c r="B193" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D193" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E193" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="F193" t="s">
         <v>7</v>
@@ -7134,13 +7156,13 @@
         <v>9</v>
       </c>
       <c r="B194" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D194" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E194" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="F194" t="s">
         <v>7</v>
@@ -7154,13 +7176,13 @@
         <v>9</v>
       </c>
       <c r="B195" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D195" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E195" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="F195" t="s">
         <v>7</v>
@@ -7174,13 +7196,13 @@
         <v>9</v>
       </c>
       <c r="B196" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D196" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E196" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="F196" t="s">
         <v>7</v>
@@ -7194,13 +7216,13 @@
         <v>9</v>
       </c>
       <c r="B197" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E197" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="F197" t="s">
         <v>7</v>
@@ -7214,13 +7236,13 @@
         <v>9</v>
       </c>
       <c r="B198" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D198" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E198" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="F198" t="s">
         <v>7</v>
@@ -7234,13 +7256,13 @@
         <v>9</v>
       </c>
       <c r="B199" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D199" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E199" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="F199" t="s">
         <v>7</v>
@@ -7254,13 +7276,13 @@
         <v>9</v>
       </c>
       <c r="B200" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D200" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E200" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F200" t="s">
         <v>7</v>
@@ -7274,16 +7296,16 @@
         <v>9</v>
       </c>
       <c r="B201" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D201" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E201" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="F201" t="s">
-        <v>952</v>
+        <v>7</v>
       </c>
       <c r="G201" t="s">
         <v>8</v>
@@ -7294,16 +7316,16 @@
         <v>9</v>
       </c>
       <c r="B202" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D202" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E202" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="F202" t="s">
-        <v>7</v>
+        <v>952</v>
       </c>
       <c r="G202" t="s">
         <v>8</v>
@@ -7314,13 +7336,13 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D203" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E203" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="F203" t="s">
         <v>7</v>
@@ -7334,13 +7356,13 @@
         <v>9</v>
       </c>
       <c r="B204" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D204" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E204" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="F204" t="s">
         <v>7</v>
@@ -7354,13 +7376,13 @@
         <v>9</v>
       </c>
       <c r="B205" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D205" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E205" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="F205" t="s">
         <v>7</v>
@@ -7374,13 +7396,13 @@
         <v>9</v>
       </c>
       <c r="B206" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D206" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E206" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="F206" t="s">
         <v>7</v>
@@ -7394,13 +7416,13 @@
         <v>9</v>
       </c>
       <c r="B207" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D207" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E207" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="F207" t="s">
         <v>7</v>
@@ -7414,13 +7436,13 @@
         <v>9</v>
       </c>
       <c r="B208" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D208" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E208" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="F208" t="s">
         <v>7</v>
@@ -7434,13 +7456,13 @@
         <v>9</v>
       </c>
       <c r="B209" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D209" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E209" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="F209" t="s">
         <v>7</v>
@@ -7454,13 +7476,13 @@
         <v>9</v>
       </c>
       <c r="B210" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D210" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E210" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="F210" t="s">
         <v>7</v>
@@ -7474,13 +7496,13 @@
         <v>9</v>
       </c>
       <c r="B211" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D211" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E211" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="F211" t="s">
         <v>7</v>
@@ -7494,13 +7516,13 @@
         <v>9</v>
       </c>
       <c r="B212" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D212" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E212" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="F212" t="s">
         <v>7</v>
@@ -7514,13 +7536,13 @@
         <v>9</v>
       </c>
       <c r="B213" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D213" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E213" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="F213" t="s">
         <v>7</v>
@@ -7534,13 +7556,13 @@
         <v>9</v>
       </c>
       <c r="B214" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D214" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E214" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="F214" t="s">
         <v>7</v>
@@ -7554,13 +7576,13 @@
         <v>9</v>
       </c>
       <c r="B215" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D215" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E215" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="F215" t="s">
         <v>7</v>
@@ -7574,13 +7596,13 @@
         <v>9</v>
       </c>
       <c r="B216" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D216" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E216" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="F216" t="s">
         <v>7</v>
@@ -7594,13 +7616,13 @@
         <v>9</v>
       </c>
       <c r="B217" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D217" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E217" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="F217" t="s">
         <v>7</v>
@@ -7614,13 +7636,13 @@
         <v>9</v>
       </c>
       <c r="B218" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D218" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E218" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F218" t="s">
         <v>7</v>
@@ -7634,13 +7656,13 @@
         <v>9</v>
       </c>
       <c r="B219" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D219" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E219" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F219" t="s">
         <v>7</v>
@@ -7654,16 +7676,16 @@
         <v>9</v>
       </c>
       <c r="B220" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D220" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E220" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="F220" t="s">
-        <v>952</v>
+        <v>7</v>
       </c>
       <c r="G220" t="s">
         <v>8</v>
@@ -7674,16 +7696,16 @@
         <v>9</v>
       </c>
       <c r="B221" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D221" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E221" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="F221" t="s">
-        <v>7</v>
+        <v>952</v>
       </c>
       <c r="G221" t="s">
         <v>8</v>
@@ -7694,13 +7716,13 @@
         <v>9</v>
       </c>
       <c r="B222" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D222" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E222" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="F222" t="s">
         <v>7</v>
@@ -7714,13 +7736,13 @@
         <v>9</v>
       </c>
       <c r="B223" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D223" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E223" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="F223" t="s">
         <v>7</v>
@@ -7734,13 +7756,13 @@
         <v>9</v>
       </c>
       <c r="B224" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D224" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E224" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F224" t="s">
         <v>7</v>
@@ -7754,13 +7776,13 @@
         <v>9</v>
       </c>
       <c r="B225" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D225" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E225" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="F225" t="s">
         <v>7</v>
@@ -7774,13 +7796,13 @@
         <v>9</v>
       </c>
       <c r="B226" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D226" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E226" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="F226" t="s">
         <v>7</v>
@@ -7794,16 +7816,16 @@
         <v>9</v>
       </c>
       <c r="B227" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D227" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E227" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="F227" t="s">
-        <v>952</v>
+        <v>7</v>
       </c>
       <c r="G227" t="s">
         <v>8</v>
@@ -7814,16 +7836,16 @@
         <v>9</v>
       </c>
       <c r="B228" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D228" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E228" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="F228" t="s">
-        <v>7</v>
+        <v>952</v>
       </c>
       <c r="G228" t="s">
         <v>8</v>
@@ -7834,13 +7856,13 @@
         <v>9</v>
       </c>
       <c r="B229" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D229" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E229" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="F229" t="s">
         <v>7</v>
@@ -7854,13 +7876,13 @@
         <v>9</v>
       </c>
       <c r="B230" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D230" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E230" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F230" t="s">
         <v>7</v>
@@ -7874,13 +7896,13 @@
         <v>9</v>
       </c>
       <c r="B231" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D231" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E231" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="F231" t="s">
         <v>7</v>
@@ -7894,13 +7916,13 @@
         <v>9</v>
       </c>
       <c r="B232" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D232" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E232" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="F232" t="s">
         <v>7</v>
@@ -7914,13 +7936,13 @@
         <v>9</v>
       </c>
       <c r="B233" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D233" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E233" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="F233" t="s">
         <v>7</v>
@@ -7934,13 +7956,13 @@
         <v>9</v>
       </c>
       <c r="B234" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D234" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E234" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F234" t="s">
         <v>7</v>
@@ -7954,13 +7976,13 @@
         <v>9</v>
       </c>
       <c r="B235" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D235" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E235" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="F235" t="s">
         <v>7</v>
@@ -7974,13 +7996,13 @@
         <v>9</v>
       </c>
       <c r="B236" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D236" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E236" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="F236" t="s">
         <v>7</v>
@@ -7994,13 +8016,13 @@
         <v>9</v>
       </c>
       <c r="B237" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D237" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E237" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="F237" t="s">
         <v>7</v>
@@ -8014,13 +8036,13 @@
         <v>9</v>
       </c>
       <c r="B238" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D238" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E238" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="F238" t="s">
         <v>7</v>
@@ -8034,13 +8056,13 @@
         <v>9</v>
       </c>
       <c r="B239" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D239" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E239" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="F239" t="s">
         <v>7</v>
@@ -8054,13 +8076,13 @@
         <v>9</v>
       </c>
       <c r="B240" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D240" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E240" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="F240" t="s">
         <v>7</v>
@@ -8074,13 +8096,13 @@
         <v>9</v>
       </c>
       <c r="B241" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D241" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E241" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="F241" t="s">
         <v>7</v>
@@ -8094,13 +8116,13 @@
         <v>9</v>
       </c>
       <c r="B242" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D242" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E242" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="F242" t="s">
         <v>7</v>
@@ -8114,13 +8136,13 @@
         <v>9</v>
       </c>
       <c r="B243" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D243" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E243" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="F243" t="s">
         <v>7</v>
@@ -8134,13 +8156,13 @@
         <v>9</v>
       </c>
       <c r="B244" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D244" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E244" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="F244" t="s">
         <v>7</v>
@@ -8154,13 +8176,13 @@
         <v>9</v>
       </c>
       <c r="B245" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D245" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E245" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="F245" t="s">
         <v>7</v>
@@ -8174,13 +8196,13 @@
         <v>9</v>
       </c>
       <c r="B246" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D246" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E246" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="F246" t="s">
         <v>7</v>
@@ -8194,13 +8216,13 @@
         <v>9</v>
       </c>
       <c r="B247" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D247" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E247" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F247" t="s">
         <v>7</v>
@@ -8214,13 +8236,13 @@
         <v>9</v>
       </c>
       <c r="B248" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D248" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E248" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="F248" t="s">
         <v>7</v>
@@ -8234,13 +8256,13 @@
         <v>9</v>
       </c>
       <c r="B249" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D249" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E249" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="F249" t="s">
         <v>7</v>
@@ -8254,16 +8276,16 @@
         <v>9</v>
       </c>
       <c r="B250" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D250" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E250" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="F250" t="s">
-        <v>952</v>
+        <v>7</v>
       </c>
       <c r="G250" t="s">
         <v>8</v>
@@ -8274,16 +8296,16 @@
         <v>9</v>
       </c>
       <c r="B251" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D251" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E251" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="F251" t="s">
-        <v>7</v>
+        <v>952</v>
       </c>
       <c r="G251" t="s">
         <v>8</v>
@@ -8294,13 +8316,13 @@
         <v>9</v>
       </c>
       <c r="B252" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D252" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E252" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="F252" t="s">
         <v>7</v>
@@ -8314,13 +8336,13 @@
         <v>9</v>
       </c>
       <c r="B253" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D253" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E253" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="F253" t="s">
         <v>7</v>
@@ -8334,13 +8356,13 @@
         <v>9</v>
       </c>
       <c r="B254" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D254" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E254" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="F254" t="s">
         <v>7</v>
@@ -8354,13 +8376,13 @@
         <v>9</v>
       </c>
       <c r="B255" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D255" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E255" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="F255" t="s">
         <v>7</v>
@@ -8374,13 +8396,13 @@
         <v>9</v>
       </c>
       <c r="B256" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D256" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E256" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="F256" t="s">
         <v>7</v>
@@ -8394,13 +8416,13 @@
         <v>9</v>
       </c>
       <c r="B257" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D257" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E257" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="F257" t="s">
         <v>7</v>
@@ -8414,13 +8436,13 @@
         <v>9</v>
       </c>
       <c r="B258" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D258" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E258" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="F258" t="s">
         <v>7</v>
@@ -8434,13 +8456,13 @@
         <v>9</v>
       </c>
       <c r="B259" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D259" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E259" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="F259" t="s">
         <v>7</v>
@@ -8454,16 +8476,16 @@
         <v>9</v>
       </c>
       <c r="B260" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D260" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E260" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="F260" t="s">
-        <v>952</v>
+        <v>7</v>
       </c>
       <c r="G260" t="s">
         <v>8</v>
@@ -8474,16 +8496,16 @@
         <v>9</v>
       </c>
       <c r="B261" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D261" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E261" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="F261" t="s">
-        <v>7</v>
+        <v>952</v>
       </c>
       <c r="G261" t="s">
         <v>8</v>
@@ -8494,13 +8516,13 @@
         <v>9</v>
       </c>
       <c r="B262" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D262" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E262" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="F262" t="s">
         <v>7</v>
@@ -8514,13 +8536,13 @@
         <v>9</v>
       </c>
       <c r="B263" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D263" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E263" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F263" t="s">
         <v>7</v>
@@ -8534,13 +8556,13 @@
         <v>9</v>
       </c>
       <c r="B264" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D264" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E264" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="F264" t="s">
         <v>7</v>
@@ -8554,13 +8576,13 @@
         <v>9</v>
       </c>
       <c r="B265" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D265" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E265" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F265" t="s">
         <v>7</v>
@@ -8574,13 +8596,13 @@
         <v>9</v>
       </c>
       <c r="B266" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D266" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E266" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="F266" t="s">
         <v>7</v>
@@ -8594,13 +8616,13 @@
         <v>9</v>
       </c>
       <c r="B267" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D267" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E267" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="F267" t="s">
         <v>7</v>
@@ -8614,13 +8636,13 @@
         <v>9</v>
       </c>
       <c r="B268" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D268" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E268" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="F268" t="s">
         <v>7</v>
@@ -8634,13 +8656,13 @@
         <v>9</v>
       </c>
       <c r="B269" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D269" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E269" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="F269" t="s">
         <v>7</v>
@@ -8654,13 +8676,13 @@
         <v>9</v>
       </c>
       <c r="B270" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D270" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E270" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F270" t="s">
         <v>7</v>
@@ -8674,13 +8696,13 @@
         <v>9</v>
       </c>
       <c r="B271" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D271" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E271" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="F271" t="s">
         <v>7</v>
@@ -8694,13 +8716,13 @@
         <v>9</v>
       </c>
       <c r="B272" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D272" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E272" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="F272" t="s">
         <v>7</v>
@@ -8714,13 +8736,13 @@
         <v>9</v>
       </c>
       <c r="B273" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D273" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E273" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="F273" t="s">
         <v>7</v>
@@ -8734,13 +8756,13 @@
         <v>9</v>
       </c>
       <c r="B274" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D274" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E274" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="F274" t="s">
         <v>7</v>
@@ -8754,13 +8776,13 @@
         <v>9</v>
       </c>
       <c r="B275" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D275" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E275" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="F275" t="s">
         <v>7</v>
@@ -8774,13 +8796,13 @@
         <v>9</v>
       </c>
       <c r="B276" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D276" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E276" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="F276" t="s">
         <v>7</v>
@@ -8794,16 +8816,16 @@
         <v>9</v>
       </c>
       <c r="B277" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D277" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E277" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="F277" t="s">
-        <v>952</v>
+        <v>7</v>
       </c>
       <c r="G277" t="s">
         <v>8</v>
@@ -8814,16 +8836,16 @@
         <v>9</v>
       </c>
       <c r="B278" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D278" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E278" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="F278" t="s">
-        <v>7</v>
+        <v>952</v>
       </c>
       <c r="G278" t="s">
         <v>8</v>
@@ -8834,13 +8856,13 @@
         <v>9</v>
       </c>
       <c r="B279" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D279" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E279" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="F279" t="s">
         <v>7</v>
@@ -8854,13 +8876,13 @@
         <v>9</v>
       </c>
       <c r="B280" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D280" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E280" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="F280" t="s">
         <v>7</v>
@@ -8874,13 +8896,13 @@
         <v>9</v>
       </c>
       <c r="B281" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D281" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E281" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="F281" t="s">
         <v>7</v>
@@ -8894,13 +8916,13 @@
         <v>9</v>
       </c>
       <c r="B282" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D282" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E282" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="F282" t="s">
         <v>7</v>
@@ -8914,13 +8936,13 @@
         <v>9</v>
       </c>
       <c r="B283" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D283" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E283" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="F283" t="s">
         <v>7</v>
@@ -8934,13 +8956,13 @@
         <v>9</v>
       </c>
       <c r="B284" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D284" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E284" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="F284" t="s">
         <v>7</v>
@@ -8954,13 +8976,13 @@
         <v>9</v>
       </c>
       <c r="B285" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D285" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E285" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="F285" t="s">
         <v>7</v>
@@ -8974,13 +8996,13 @@
         <v>9</v>
       </c>
       <c r="B286" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D286" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E286" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F286" t="s">
         <v>7</v>
@@ -8994,13 +9016,13 @@
         <v>9</v>
       </c>
       <c r="B287" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D287" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E287" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F287" t="s">
         <v>7</v>
@@ -9014,13 +9036,13 @@
         <v>9</v>
       </c>
       <c r="B288" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D288" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E288" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="F288" t="s">
         <v>7</v>
@@ -9034,13 +9056,13 @@
         <v>9</v>
       </c>
       <c r="B289" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D289" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E289" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="F289" t="s">
         <v>7</v>
@@ -9054,13 +9076,13 @@
         <v>9</v>
       </c>
       <c r="B290" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D290" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E290" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="F290" t="s">
         <v>7</v>
@@ -9074,13 +9096,13 @@
         <v>9</v>
       </c>
       <c r="B291" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D291" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E291" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="F291" t="s">
         <v>7</v>
@@ -9094,13 +9116,13 @@
         <v>9</v>
       </c>
       <c r="B292" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D292" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E292" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="F292" t="s">
         <v>7</v>
@@ -9114,13 +9136,13 @@
         <v>9</v>
       </c>
       <c r="B293" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D293" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E293" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="F293" t="s">
         <v>7</v>
@@ -9134,13 +9156,13 @@
         <v>9</v>
       </c>
       <c r="B294" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D294" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E294" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="F294" t="s">
         <v>7</v>
@@ -9154,13 +9176,13 @@
         <v>9</v>
       </c>
       <c r="B295" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D295" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E295" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="F295" t="s">
         <v>7</v>
@@ -9174,13 +9196,13 @@
         <v>9</v>
       </c>
       <c r="B296" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D296" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E296" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="F296" t="s">
         <v>7</v>
@@ -9194,13 +9216,13 @@
         <v>9</v>
       </c>
       <c r="B297" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D297" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E297" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="F297" t="s">
         <v>7</v>
@@ -9214,13 +9236,13 @@
         <v>9</v>
       </c>
       <c r="B298" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D298" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E298" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="F298" t="s">
         <v>7</v>
@@ -9234,13 +9256,13 @@
         <v>9</v>
       </c>
       <c r="B299" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D299" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E299" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F299" t="s">
         <v>7</v>
@@ -9254,16 +9276,16 @@
         <v>9</v>
       </c>
       <c r="B300" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D300" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E300" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="F300" t="s">
-        <v>952</v>
+        <v>7</v>
       </c>
       <c r="G300" t="s">
         <v>8</v>
@@ -9274,16 +9296,16 @@
         <v>9</v>
       </c>
       <c r="B301" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D301" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E301" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="F301" t="s">
-        <v>7</v>
+        <v>952</v>
       </c>
       <c r="G301" t="s">
         <v>8</v>
@@ -9294,13 +9316,13 @@
         <v>9</v>
       </c>
       <c r="B302" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D302" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E302" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F302" t="s">
         <v>7</v>
@@ -9314,13 +9336,13 @@
         <v>9</v>
       </c>
       <c r="B303" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D303" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E303" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="F303" t="s">
         <v>7</v>
@@ -9334,16 +9356,16 @@
         <v>9</v>
       </c>
       <c r="B304" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D304" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E304" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="F304" t="s">
-        <v>952</v>
+        <v>7</v>
       </c>
       <c r="G304" t="s">
         <v>8</v>
@@ -9354,16 +9376,16 @@
         <v>9</v>
       </c>
       <c r="B305" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D305" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E305" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F305" t="s">
-        <v>7</v>
+        <v>952</v>
       </c>
       <c r="G305" t="s">
         <v>8</v>
@@ -9374,13 +9396,13 @@
         <v>9</v>
       </c>
       <c r="B306" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D306" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E306" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F306" t="s">
         <v>7</v>
@@ -9394,13 +9416,13 @@
         <v>9</v>
       </c>
       <c r="B307" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D307" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E307" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="F307" t="s">
         <v>7</v>
@@ -9414,13 +9436,13 @@
         <v>9</v>
       </c>
       <c r="B308" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D308" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E308" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="F308" t="s">
         <v>7</v>
@@ -9454,13 +9476,13 @@
         <v>9</v>
       </c>
       <c r="B310" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D310" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E310" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F310" t="s">
         <v>7</v>
@@ -9474,13 +9496,13 @@
         <v>9</v>
       </c>
       <c r="B311" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D311" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E311" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="F311" t="s">
         <v>7</v>
@@ -9494,13 +9516,13 @@
         <v>9</v>
       </c>
       <c r="B312" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D312" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E312" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="F312" t="s">
         <v>7</v>
@@ -9514,13 +9536,13 @@
         <v>9</v>
       </c>
       <c r="B313" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D313" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E313" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="F313" t="s">
         <v>7</v>
@@ -9534,13 +9556,13 @@
         <v>9</v>
       </c>
       <c r="B314" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D314" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E314" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="F314" t="s">
         <v>7</v>
@@ -9554,29 +9576,52 @@
         <v>9</v>
       </c>
       <c r="B315" t="s">
+        <v>636</v>
+      </c>
+      <c r="D315" t="s">
+        <v>322</v>
+      </c>
+      <c r="E315" t="s">
+        <v>950</v>
+      </c>
+      <c r="F315" t="s">
+        <v>7</v>
+      </c>
+      <c r="G315" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>9</v>
+      </c>
+      <c r="B316" t="s">
         <v>637</v>
       </c>
-      <c r="D315" t="s">
+      <c r="D316" t="s">
         <v>323</v>
       </c>
-      <c r="E315" t="s">
+      <c r="E316" t="s">
         <v>951</v>
       </c>
-      <c r="F315" t="s">
-        <v>7</v>
-      </c>
-      <c r="G315" t="s">
+      <c r="F316" t="s">
+        <v>7</v>
+      </c>
+      <c r="G316" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Bibsam_tidskriftslistor/scifree_data_brill.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_brill.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_B8A85F4F591D7C17B25102653C0077E43A6883BB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC1FBD6A-CABB-449E-B3D3-C3F774E068F5}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1897" uniqueCount="956">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2065" uniqueCount="1040">
   <si>
     <t>ISSN Electronic</t>
   </si>
@@ -168,9 +169,6 @@
     <t>Brill's Journal of Afroasiatic Languages and Linguistics</t>
   </si>
   <si>
-    <t>Bulletin of Chinese Linguistics</t>
-  </si>
-  <si>
     <t>Cahiers de Linguistique Asie Orientale</t>
   </si>
   <si>
@@ -876,9 +874,6 @@
     <t>The Australian Year Book of International Law Online</t>
   </si>
   <si>
-    <t>The Chinese Journal of Global Governance</t>
-  </si>
-  <si>
     <t>The Dostoevsky Journal</t>
   </si>
   <si>
@@ -1110,9 +1105,6 @@
     <t>1877-6930</t>
   </si>
   <si>
-    <t>2405-478X</t>
-  </si>
-  <si>
     <t>1960-6028</t>
   </si>
   <si>
@@ -1818,9 +1810,6 @@
     <t>2666-0229</t>
   </si>
   <si>
-    <t>2352-5207</t>
-  </si>
-  <si>
     <t>2375-2122</t>
   </si>
   <si>
@@ -2052,9 +2041,6 @@
     <t>https://brill.com/aall</t>
   </si>
   <si>
-    <t>https://brill.com/bcl</t>
-  </si>
-  <si>
     <t>https://brill.com/clao</t>
   </si>
   <si>
@@ -2760,9 +2746,6 @@
     <t>https://brill.com/auso</t>
   </si>
   <si>
-    <t>https://brill.com/cjgg</t>
-  </si>
-  <si>
     <t>https://brill.com/djir</t>
   </si>
   <si>
@@ -2887,12 +2870,282 @@
   </si>
   <si>
     <t>Africa Review</t>
+  </si>
+  <si>
+    <t>1600-0390</t>
+  </si>
+  <si>
+    <t>Acta Archaeologica</t>
+  </si>
+  <si>
+    <t>https://brill.com/acar</t>
+  </si>
+  <si>
+    <t>2772-7629</t>
+  </si>
+  <si>
+    <t>Artes</t>
+  </si>
+  <si>
+    <t>https://brill.com/ars</t>
+  </si>
+  <si>
+    <t>0976-3457</t>
+  </si>
+  <si>
+    <t>Diaspora Studies</t>
+  </si>
+  <si>
+    <t>https://brill.com/bdia</t>
+  </si>
+  <si>
+    <t>2376-1202</t>
+  </si>
+  <si>
+    <t>Caucasus Survey</t>
+  </si>
+  <si>
+    <t>https://brill.com/casu</t>
+  </si>
+  <si>
+    <t>2161-007X</t>
+  </si>
+  <si>
+    <t>Counseling and Values</t>
+  </si>
+  <si>
+    <t>https://brill.com/cvj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2949-7833 </t>
+  </si>
+  <si>
+    <t>Dabir</t>
+  </si>
+  <si>
+    <t>https://brill.com/dbr</t>
+  </si>
+  <si>
+    <t>2772-5472</t>
+  </si>
+  <si>
+    <t>Evangelical Quarterly: An International Review of Bible and Theology</t>
+  </si>
+  <si>
+    <t>https://brill.com/evqu</t>
+  </si>
+  <si>
+    <t>1421-9980</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Folia Primatologica </t>
+  </si>
+  <si>
+    <t>https://brill.com/ijfp</t>
+  </si>
+  <si>
+    <t>2772-7866</t>
+  </si>
+  <si>
+    <t>International Journal of Social Imaginaries</t>
+  </si>
+  <si>
+    <t>https://brill.com/ijsi</t>
+  </si>
+  <si>
+    <t>2772-3194</t>
+  </si>
+  <si>
+    <t>International Journal of Wood Culture</t>
+  </si>
+  <si>
+    <t>https://brill.com/ijwc</t>
+  </si>
+  <si>
+    <t>2524-8502</t>
+  </si>
+  <si>
+    <t>Innovation and Education</t>
+  </si>
+  <si>
+    <t>https://brill.com/ined</t>
+  </si>
+  <si>
+    <t>2772-5650</t>
+  </si>
+  <si>
+    <t>Italian Review of International and Comparative Law, The</t>
+  </si>
+  <si>
+    <t>https://brill.com/iric</t>
+  </si>
+  <si>
+    <t>2773-0611</t>
+  </si>
+  <si>
+    <t>Innovation in the Social Sciences</t>
+  </si>
+  <si>
+    <t>https://brill.com/iss</t>
+  </si>
+  <si>
+    <t>2772-2856</t>
+  </si>
+  <si>
+    <t>Journal of Belonging and Human Connection</t>
+  </si>
+  <si>
+    <t>https://brill.com/jbhc</t>
+  </si>
+  <si>
+    <t>2772-7963</t>
+  </si>
+  <si>
+    <t>Journal of Black Religious Thought</t>
+  </si>
+  <si>
+    <t>https://brill.com/jbrt</t>
+  </si>
+  <si>
+    <t>1755-0920</t>
+  </si>
+  <si>
+    <t>Contemporary Arab Affairs</t>
+  </si>
+  <si>
+    <t>https://brill.com/jcaa</t>
+  </si>
+  <si>
+    <t>2772-8668</t>
+  </si>
+  <si>
+    <t>Journal of Central Asian History</t>
+  </si>
+  <si>
+    <t>https://brill.com/jcah</t>
+  </si>
+  <si>
+    <t>2772-6606</t>
+  </si>
+  <si>
+    <t>Journal of Chinese Theology</t>
+  </si>
+  <si>
+    <t>https://brill.com/jct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2773-2363 </t>
+  </si>
+  <si>
+    <t>Journal of Digital Islamicate Research</t>
+  </si>
+  <si>
+    <t>https://brill.com/jdir</t>
+  </si>
+  <si>
+    <t>1783-1520</t>
+  </si>
+  <si>
+    <t>Journal of Eastern Christian Studies</t>
+  </si>
+  <si>
+    <t>https://brill.com/jecs</t>
+  </si>
+  <si>
+    <t>2667-324X</t>
+  </si>
+  <si>
+    <t>Journal of Literary Multilingualism</t>
+  </si>
+  <si>
+    <t>https://brill.com/jlm</t>
+  </si>
+  <si>
+    <t>2471-4607</t>
+  </si>
+  <si>
+    <t>Journal of Labor and Society</t>
+  </si>
+  <si>
+    <t>https://brill.com/jlso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2772-7882 </t>
+  </si>
+  <si>
+    <t>Journal of Pacifism and Nonviolence</t>
+  </si>
+  <si>
+    <t>https://brill.com/jpn</t>
+  </si>
+  <si>
+    <t>2949-7841</t>
+  </si>
+  <si>
+    <t>Al-Karmil</t>
+  </si>
+  <si>
+    <t>https://brill.com/krml</t>
+  </si>
+  <si>
+    <t>2772-8250</t>
+  </si>
+  <si>
+    <t>Al-Markaz</t>
+  </si>
+  <si>
+    <t>https://brill.com/mrkz</t>
+  </si>
+  <si>
+    <t>2667-372X</t>
+  </si>
+  <si>
+    <t>Protest</t>
+  </si>
+  <si>
+    <t>https://brill.com/prot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2773-2142 </t>
+  </si>
+  <si>
+    <t>Journal of Religious Minorities under Muslim Rule</t>
+  </si>
+  <si>
+    <t>https://brill.com/rmmr</t>
+  </si>
+  <si>
+    <t>2750-7955</t>
+  </si>
+  <si>
+    <t>Religion and Development</t>
+  </si>
+  <si>
+    <t>https://brill.com/rnd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2773-0840 </t>
+  </si>
+  <si>
+    <t>Scottish Educational Review</t>
+  </si>
+  <si>
+    <t>https://brill.com/ser</t>
+  </si>
+  <si>
+    <t>2772-6673</t>
+  </si>
+  <si>
+    <t>Research in Integrated STEM Education</t>
+  </si>
+  <si>
+    <t>https://brill.com/stem</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2951,16 +3204,6 @@
   <dxfs count="2">
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -2976,6 +3219,16 @@
         <scheme val="minor"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2990,19 +3243,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G316" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:G316"/>
-  <sortState ref="A2:G316">
-    <sortCondition ref="D1:D316"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G344" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:G344" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G344">
+    <sortCondition ref="D1:D344"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" name="Imprint"/>
-    <tableColumn id="2" name="ISSN Electronic"/>
-    <tableColumn id="3" name="ISSN Print"/>
-    <tableColumn id="4" name="Journal Name"/>
-    <tableColumn id="5" name="JournalURL"/>
-    <tableColumn id="6" name="Publishing model"/>
-    <tableColumn id="7" name="CC License options"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Imprint"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ISSN Electronic"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="ISSN Print"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Journal Name"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="JournalURL"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Publishing model"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="CC License options"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3270,11 +3523,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G316"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G344"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A271" workbookViewId="0">
+      <selection activeCell="I295" sqref="I295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3316,13 +3569,13 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
@@ -3336,13 +3589,13 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="D3" t="s">
-        <v>955</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>953</v>
+        <v>951</v>
+      </c>
+      <c r="E3" t="s">
+        <v>952</v>
       </c>
       <c r="F3" t="s">
         <v>7</v>
@@ -3356,13 +3609,13 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>325</v>
+        <v>948</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>639</v>
+        <v>949</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>947</v>
       </c>
       <c r="F4" t="s">
         <v>7</v>
@@ -3376,13 +3629,13 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="F5" t="s">
         <v>7</v>
@@ -3396,13 +3649,13 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="F6" t="s">
         <v>7</v>
@@ -3416,13 +3669,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -3436,13 +3689,13 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="F8" t="s">
         <v>7</v>
@@ -3456,13 +3709,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="F9" t="s">
         <v>7</v>
@@ -3476,13 +3729,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="F10" t="s">
         <v>7</v>
@@ -3496,13 +3749,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="F11" t="s">
         <v>7</v>
@@ -3516,13 +3769,13 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>333</v>
+        <v>1019</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>1020</v>
       </c>
       <c r="E12" t="s">
-        <v>647</v>
+        <v>1021</v>
       </c>
       <c r="F12" t="s">
         <v>7</v>
@@ -3536,16 +3789,16 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>334</v>
+        <v>1022</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>1023</v>
       </c>
       <c r="E13" t="s">
-        <v>648</v>
+        <v>1024</v>
       </c>
       <c r="F13" t="s">
-        <v>7</v>
+        <v>946</v>
       </c>
       <c r="G13" t="s">
         <v>8</v>
@@ -3556,13 +3809,13 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E14" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="F14" t="s">
         <v>7</v>
@@ -3576,13 +3829,13 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E15" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="F15" t="s">
         <v>7</v>
@@ -3596,13 +3849,13 @@
         <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E16" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="F16" t="s">
         <v>7</v>
@@ -3616,13 +3869,13 @@
         <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E17" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="F17" t="s">
         <v>7</v>
@@ -3636,13 +3889,13 @@
         <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="D18" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E18" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="F18" t="s">
         <v>7</v>
@@ -3656,13 +3909,13 @@
         <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E19" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="F19" t="s">
         <v>7</v>
@@ -3676,13 +3929,13 @@
         <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E20" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="F20" t="s">
         <v>7</v>
@@ -3696,13 +3949,13 @@
         <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="D21" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E21" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="F21" t="s">
         <v>7</v>
@@ -3716,13 +3969,13 @@
         <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="D22" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E22" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="F22" t="s">
         <v>7</v>
@@ -3736,13 +3989,13 @@
         <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="D23" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E23" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="F23" t="s">
         <v>7</v>
@@ -3756,13 +4009,13 @@
         <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="D24" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E24" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="F24" t="s">
         <v>7</v>
@@ -3776,13 +4029,13 @@
         <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="D25" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E25" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="F25" t="s">
         <v>7</v>
@@ -3796,13 +4049,13 @@
         <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>347</v>
+        <v>953</v>
       </c>
       <c r="D26" t="s">
-        <v>33</v>
+        <v>954</v>
       </c>
       <c r="E26" t="s">
-        <v>661</v>
+        <v>955</v>
       </c>
       <c r="F26" t="s">
         <v>7</v>
@@ -3816,13 +4069,13 @@
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="D27" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E27" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="F27" t="s">
         <v>7</v>
@@ -3836,13 +4089,13 @@
         <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="D28" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E28" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="F28" t="s">
         <v>7</v>
@@ -3856,16 +4109,16 @@
         <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="D29" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E29" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="F29" t="s">
-        <v>952</v>
+        <v>7</v>
       </c>
       <c r="G29" t="s">
         <v>8</v>
@@ -3876,13 +4129,13 @@
         <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="D30" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E30" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="F30" t="s">
         <v>7</v>
@@ -3896,13 +4149,13 @@
         <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="D31" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E31" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="F31" t="s">
         <v>7</v>
@@ -3916,13 +4169,13 @@
         <v>9</v>
       </c>
       <c r="B32" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="D32" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E32" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="F32" t="s">
         <v>7</v>
@@ -3936,16 +4189,16 @@
         <v>9</v>
       </c>
       <c r="B33" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="D33" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E33" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="F33" t="s">
-        <v>7</v>
+        <v>946</v>
       </c>
       <c r="G33" t="s">
         <v>8</v>
@@ -3956,13 +4209,13 @@
         <v>9</v>
       </c>
       <c r="B34" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="D34" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E34" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="F34" t="s">
         <v>7</v>
@@ -3976,13 +4229,13 @@
         <v>9</v>
       </c>
       <c r="B35" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="D35" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E35" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F35" t="s">
         <v>7</v>
@@ -3996,13 +4249,13 @@
         <v>9</v>
       </c>
       <c r="B36" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="D36" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E36" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="F36" t="s">
         <v>7</v>
@@ -4016,16 +4269,16 @@
         <v>9</v>
       </c>
       <c r="B37" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="D37" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E37" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="F37" t="s">
-        <v>7</v>
+        <v>946</v>
       </c>
       <c r="G37" t="s">
         <v>8</v>
@@ -4036,13 +4289,13 @@
         <v>9</v>
       </c>
       <c r="B38" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="D38" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E38" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="F38" t="s">
         <v>7</v>
@@ -4056,16 +4309,16 @@
         <v>9</v>
       </c>
       <c r="B39" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="D39" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E39" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="F39" t="s">
-        <v>952</v>
+        <v>7</v>
       </c>
       <c r="G39" t="s">
         <v>8</v>
@@ -4076,16 +4329,16 @@
         <v>9</v>
       </c>
       <c r="B40" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="D40" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E40" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="F40" t="s">
-        <v>952</v>
+        <v>7</v>
       </c>
       <c r="G40" t="s">
         <v>8</v>
@@ -4096,13 +4349,13 @@
         <v>9</v>
       </c>
       <c r="B41" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="D41" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E41" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="F41" t="s">
         <v>7</v>
@@ -4116,16 +4369,16 @@
         <v>9</v>
       </c>
       <c r="B42" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="D42" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E42" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="F42" t="s">
-        <v>952</v>
+        <v>7</v>
       </c>
       <c r="G42" t="s">
         <v>8</v>
@@ -4136,16 +4389,16 @@
         <v>9</v>
       </c>
       <c r="B43" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="D43" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E43" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="F43" t="s">
-        <v>7</v>
+        <v>946</v>
       </c>
       <c r="G43" t="s">
         <v>8</v>
@@ -4156,16 +4409,16 @@
         <v>9</v>
       </c>
       <c r="B44" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="D44" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E44" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="F44" t="s">
-        <v>7</v>
+        <v>946</v>
       </c>
       <c r="G44" t="s">
         <v>8</v>
@@ -4176,13 +4429,13 @@
         <v>9</v>
       </c>
       <c r="B45" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="D45" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E45" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="F45" t="s">
         <v>7</v>
@@ -4196,13 +4449,13 @@
         <v>9</v>
       </c>
       <c r="B46" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="D46" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E46" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="F46" t="s">
         <v>7</v>
@@ -4216,13 +4469,13 @@
         <v>9</v>
       </c>
       <c r="B47" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="D47" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E47" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="F47" t="s">
         <v>7</v>
@@ -4236,13 +4489,13 @@
         <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>369</v>
+        <v>959</v>
       </c>
       <c r="D48" t="s">
-        <v>55</v>
+        <v>960</v>
       </c>
       <c r="E48" t="s">
-        <v>683</v>
+        <v>961</v>
       </c>
       <c r="F48" t="s">
         <v>7</v>
@@ -4256,13 +4509,13 @@
         <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="D49" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E49" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="F49" t="s">
         <v>7</v>
@@ -4276,13 +4529,13 @@
         <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="D50" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E50" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="F50" t="s">
         <v>7</v>
@@ -4296,13 +4549,13 @@
         <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="D51" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E51" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
       <c r="F51" t="s">
         <v>7</v>
@@ -4316,13 +4569,13 @@
         <v>9</v>
       </c>
       <c r="B52" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="D52" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E52" t="s">
-        <v>687</v>
+        <v>678</v>
       </c>
       <c r="F52" t="s">
         <v>7</v>
@@ -4336,13 +4589,13 @@
         <v>9</v>
       </c>
       <c r="B53" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="D53" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E53" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="F53" t="s">
         <v>7</v>
@@ -4356,13 +4609,13 @@
         <v>9</v>
       </c>
       <c r="B54" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="D54" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E54" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="F54" t="s">
         <v>7</v>
@@ -4376,16 +4629,16 @@
         <v>9</v>
       </c>
       <c r="B55" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="D55" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E55" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="F55" t="s">
-        <v>952</v>
+        <v>7</v>
       </c>
       <c r="G55" t="s">
         <v>8</v>
@@ -4396,16 +4649,16 @@
         <v>9</v>
       </c>
       <c r="B56" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="D56" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E56" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="F56" t="s">
-        <v>952</v>
+        <v>7</v>
       </c>
       <c r="G56" t="s">
         <v>8</v>
@@ -4416,13 +4669,13 @@
         <v>9</v>
       </c>
       <c r="B57" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="D57" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E57" t="s">
-        <v>692</v>
+        <v>683</v>
       </c>
       <c r="F57" t="s">
         <v>7</v>
@@ -4436,13 +4689,13 @@
         <v>9</v>
       </c>
       <c r="B58" t="s">
-        <v>379</v>
+        <v>995</v>
       </c>
       <c r="D58" t="s">
-        <v>65</v>
+        <v>996</v>
       </c>
       <c r="E58" t="s">
-        <v>693</v>
+        <v>997</v>
       </c>
       <c r="F58" t="s">
         <v>7</v>
@@ -4456,13 +4709,13 @@
         <v>9</v>
       </c>
       <c r="B59" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="D59" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E59" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="F59" t="s">
         <v>7</v>
@@ -4476,16 +4729,16 @@
         <v>9</v>
       </c>
       <c r="B60" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="D60" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E60" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
       <c r="F60" t="s">
-        <v>7</v>
+        <v>946</v>
       </c>
       <c r="G60" t="s">
         <v>8</v>
@@ -4496,16 +4749,16 @@
         <v>9</v>
       </c>
       <c r="B61" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="D61" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E61" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="F61" t="s">
-        <v>7</v>
+        <v>946</v>
       </c>
       <c r="G61" t="s">
         <v>8</v>
@@ -4516,13 +4769,13 @@
         <v>9</v>
       </c>
       <c r="B62" t="s">
-        <v>383</v>
+        <v>962</v>
       </c>
       <c r="D62" t="s">
-        <v>69</v>
+        <v>963</v>
       </c>
       <c r="E62" t="s">
-        <v>697</v>
+        <v>964</v>
       </c>
       <c r="F62" t="s">
         <v>7</v>
@@ -4536,13 +4789,13 @@
         <v>9</v>
       </c>
       <c r="B63" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="D63" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E63" t="s">
-        <v>698</v>
+        <v>687</v>
       </c>
       <c r="F63" t="s">
         <v>7</v>
@@ -4556,13 +4809,13 @@
         <v>9</v>
       </c>
       <c r="B64" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="D64" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E64" t="s">
-        <v>699</v>
+        <v>688</v>
       </c>
       <c r="F64" t="s">
         <v>7</v>
@@ -4576,13 +4829,13 @@
         <v>9</v>
       </c>
       <c r="B65" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="D65" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E65" t="s">
-        <v>700</v>
+        <v>689</v>
       </c>
       <c r="F65" t="s">
         <v>7</v>
@@ -4596,13 +4849,13 @@
         <v>9</v>
       </c>
       <c r="B66" t="s">
-        <v>387</v>
+        <v>965</v>
       </c>
       <c r="D66" t="s">
-        <v>73</v>
+        <v>966</v>
       </c>
       <c r="E66" t="s">
-        <v>701</v>
+        <v>967</v>
       </c>
       <c r="F66" t="s">
         <v>7</v>
@@ -4616,13 +4869,13 @@
         <v>9</v>
       </c>
       <c r="B67" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="D67" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>702</v>
+        <v>690</v>
       </c>
       <c r="F67" t="s">
         <v>7</v>
@@ -4636,13 +4889,13 @@
         <v>9</v>
       </c>
       <c r="B68" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="D68" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>703</v>
+        <v>691</v>
       </c>
       <c r="F68" t="s">
         <v>7</v>
@@ -4656,13 +4909,13 @@
         <v>9</v>
       </c>
       <c r="B69" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="D69" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>704</v>
+        <v>692</v>
       </c>
       <c r="F69" t="s">
         <v>7</v>
@@ -4676,13 +4929,13 @@
         <v>9</v>
       </c>
       <c r="B70" t="s">
-        <v>391</v>
+        <v>956</v>
       </c>
       <c r="D70" t="s">
-        <v>77</v>
+        <v>957</v>
       </c>
       <c r="E70" t="s">
-        <v>705</v>
+        <v>958</v>
       </c>
       <c r="F70" t="s">
         <v>7</v>
@@ -4696,13 +4949,13 @@
         <v>9</v>
       </c>
       <c r="B71" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="D71" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E71" t="s">
-        <v>706</v>
+        <v>693</v>
       </c>
       <c r="F71" t="s">
         <v>7</v>
@@ -4716,13 +4969,13 @@
         <v>9</v>
       </c>
       <c r="B72" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="D72" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E72" t="s">
-        <v>707</v>
+        <v>694</v>
       </c>
       <c r="F72" t="s">
         <v>7</v>
@@ -4736,13 +4989,13 @@
         <v>9</v>
       </c>
       <c r="B73" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="D73" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E73" t="s">
-        <v>708</v>
+        <v>695</v>
       </c>
       <c r="F73" t="s">
         <v>7</v>
@@ -4756,13 +5009,13 @@
         <v>9</v>
       </c>
       <c r="B74" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="D74" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E74" t="s">
-        <v>709</v>
+        <v>696</v>
       </c>
       <c r="F74" t="s">
         <v>7</v>
@@ -4776,13 +5029,13 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="D75" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E75" t="s">
-        <v>710</v>
+        <v>697</v>
       </c>
       <c r="F75" t="s">
         <v>7</v>
@@ -4796,13 +5049,13 @@
         <v>9</v>
       </c>
       <c r="B76" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="D76" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="E76" t="s">
-        <v>711</v>
+        <v>698</v>
       </c>
       <c r="F76" t="s">
         <v>7</v>
@@ -4816,13 +5069,13 @@
         <v>9</v>
       </c>
       <c r="B77" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="D77" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="E77" t="s">
-        <v>712</v>
+        <v>699</v>
       </c>
       <c r="F77" t="s">
         <v>7</v>
@@ -4836,13 +5089,13 @@
         <v>9</v>
       </c>
       <c r="B78" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="D78" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="E78" t="s">
-        <v>713</v>
+        <v>700</v>
       </c>
       <c r="F78" t="s">
         <v>7</v>
@@ -4856,13 +5109,13 @@
         <v>9</v>
       </c>
       <c r="B79" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="D79" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="E79" t="s">
-        <v>714</v>
+        <v>701</v>
       </c>
       <c r="F79" t="s">
         <v>7</v>
@@ -4876,13 +5129,13 @@
         <v>9</v>
       </c>
       <c r="B80" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="D80" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="E80" t="s">
-        <v>715</v>
+        <v>702</v>
       </c>
       <c r="F80" t="s">
         <v>7</v>
@@ -4896,13 +5149,13 @@
         <v>9</v>
       </c>
       <c r="B81" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="D81" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="E81" t="s">
-        <v>716</v>
+        <v>703</v>
       </c>
       <c r="F81" t="s">
         <v>7</v>
@@ -4916,13 +5169,13 @@
         <v>9</v>
       </c>
       <c r="B82" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="D82" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E82" t="s">
-        <v>717</v>
+        <v>704</v>
       </c>
       <c r="F82" t="s">
         <v>7</v>
@@ -4936,13 +5189,13 @@
         <v>9</v>
       </c>
       <c r="B83" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="D83" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E83" t="s">
-        <v>718</v>
+        <v>705</v>
       </c>
       <c r="F83" t="s">
         <v>7</v>
@@ -4956,13 +5209,13 @@
         <v>9</v>
       </c>
       <c r="B84" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="D84" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E84" t="s">
-        <v>719</v>
+        <v>706</v>
       </c>
       <c r="F84" t="s">
         <v>7</v>
@@ -4976,13 +5229,13 @@
         <v>9</v>
       </c>
       <c r="B85" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="D85" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E85" t="s">
-        <v>720</v>
+        <v>707</v>
       </c>
       <c r="F85" t="s">
         <v>7</v>
@@ -4996,13 +5249,13 @@
         <v>9</v>
       </c>
       <c r="B86" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="D86" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="E86" t="s">
-        <v>721</v>
+        <v>708</v>
       </c>
       <c r="F86" t="s">
         <v>7</v>
@@ -5016,13 +5269,13 @@
         <v>9</v>
       </c>
       <c r="B87" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="D87" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E87" t="s">
-        <v>722</v>
+        <v>709</v>
       </c>
       <c r="F87" t="s">
         <v>7</v>
@@ -5036,13 +5289,13 @@
         <v>9</v>
       </c>
       <c r="B88" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="D88" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="E88" t="s">
-        <v>723</v>
+        <v>710</v>
       </c>
       <c r="F88" t="s">
         <v>7</v>
@@ -5056,13 +5309,13 @@
         <v>9</v>
       </c>
       <c r="B89" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="D89" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E89" t="s">
-        <v>724</v>
+        <v>711</v>
       </c>
       <c r="F89" t="s">
         <v>7</v>
@@ -5076,16 +5329,16 @@
         <v>9</v>
       </c>
       <c r="B90" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="D90" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="E90" t="s">
-        <v>725</v>
+        <v>712</v>
       </c>
       <c r="F90" t="s">
-        <v>952</v>
+        <v>7</v>
       </c>
       <c r="G90" t="s">
         <v>8</v>
@@ -5096,13 +5349,13 @@
         <v>9</v>
       </c>
       <c r="B91" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="D91" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="E91" t="s">
-        <v>726</v>
+        <v>713</v>
       </c>
       <c r="F91" t="s">
         <v>7</v>
@@ -5116,13 +5369,13 @@
         <v>9</v>
       </c>
       <c r="B92" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="D92" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="E92" t="s">
-        <v>727</v>
+        <v>714</v>
       </c>
       <c r="F92" t="s">
         <v>7</v>
@@ -5136,13 +5389,13 @@
         <v>9</v>
       </c>
       <c r="B93" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="D93" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E93" t="s">
-        <v>728</v>
+        <v>715</v>
       </c>
       <c r="F93" t="s">
         <v>7</v>
@@ -5156,13 +5409,13 @@
         <v>9</v>
       </c>
       <c r="B94" t="s">
-        <v>415</v>
+        <v>968</v>
       </c>
       <c r="D94" t="s">
-        <v>101</v>
+        <v>969</v>
       </c>
       <c r="E94" t="s">
-        <v>729</v>
+        <v>970</v>
       </c>
       <c r="F94" t="s">
         <v>7</v>
@@ -5176,13 +5429,13 @@
         <v>9</v>
       </c>
       <c r="B95" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="D95" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="E95" t="s">
-        <v>730</v>
+        <v>716</v>
       </c>
       <c r="F95" t="s">
         <v>7</v>
@@ -5196,13 +5449,13 @@
         <v>9</v>
       </c>
       <c r="B96" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="D96" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="E96" t="s">
-        <v>731</v>
+        <v>717</v>
       </c>
       <c r="F96" t="s">
         <v>7</v>
@@ -5216,13 +5469,13 @@
         <v>9</v>
       </c>
       <c r="B97" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="D97" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="E97" t="s">
-        <v>732</v>
+        <v>718</v>
       </c>
       <c r="F97" t="s">
         <v>7</v>
@@ -5236,13 +5489,13 @@
         <v>9</v>
       </c>
       <c r="B98" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="D98" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="E98" t="s">
-        <v>733</v>
+        <v>719</v>
       </c>
       <c r="F98" t="s">
         <v>7</v>
@@ -5256,16 +5509,16 @@
         <v>9</v>
       </c>
       <c r="B99" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="D99" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="E99" t="s">
-        <v>734</v>
+        <v>720</v>
       </c>
       <c r="F99" t="s">
-        <v>7</v>
+        <v>946</v>
       </c>
       <c r="G99" t="s">
         <v>8</v>
@@ -5276,13 +5529,13 @@
         <v>9</v>
       </c>
       <c r="B100" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="D100" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="E100" t="s">
-        <v>735</v>
+        <v>721</v>
       </c>
       <c r="F100" t="s">
         <v>7</v>
@@ -5296,13 +5549,13 @@
         <v>9</v>
       </c>
       <c r="B101" t="s">
-        <v>422</v>
+        <v>971</v>
       </c>
       <c r="D101" t="s">
-        <v>108</v>
+        <v>972</v>
       </c>
       <c r="E101" t="s">
-        <v>736</v>
+        <v>973</v>
       </c>
       <c r="F101" t="s">
         <v>7</v>
@@ -5316,13 +5569,13 @@
         <v>9</v>
       </c>
       <c r="B102" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="D102" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E102" t="s">
-        <v>737</v>
+        <v>722</v>
       </c>
       <c r="F102" t="s">
         <v>7</v>
@@ -5336,13 +5589,13 @@
         <v>9</v>
       </c>
       <c r="B103" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="D103" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="E103" t="s">
-        <v>738</v>
+        <v>723</v>
       </c>
       <c r="F103" t="s">
         <v>7</v>
@@ -5356,13 +5609,13 @@
         <v>9</v>
       </c>
       <c r="B104" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="D104" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="E104" t="s">
-        <v>739</v>
+        <v>724</v>
       </c>
       <c r="F104" t="s">
         <v>7</v>
@@ -5376,13 +5629,13 @@
         <v>9</v>
       </c>
       <c r="B105" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="D105" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="E105" t="s">
-        <v>740</v>
+        <v>725</v>
       </c>
       <c r="F105" t="s">
         <v>7</v>
@@ -5396,13 +5649,13 @@
         <v>9</v>
       </c>
       <c r="B106" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="D106" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="E106" t="s">
-        <v>741</v>
+        <v>726</v>
       </c>
       <c r="F106" t="s">
         <v>7</v>
@@ -5416,13 +5669,13 @@
         <v>9</v>
       </c>
       <c r="B107" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="D107" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E107" t="s">
-        <v>742</v>
+        <v>727</v>
       </c>
       <c r="F107" t="s">
         <v>7</v>
@@ -5436,16 +5689,16 @@
         <v>9</v>
       </c>
       <c r="B108" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
       <c r="D108" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E108" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="F108" t="s">
-        <v>952</v>
+        <v>7</v>
       </c>
       <c r="G108" t="s">
         <v>8</v>
@@ -5456,13 +5709,13 @@
         <v>9</v>
       </c>
       <c r="B109" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
       <c r="D109" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="E109" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="F109" t="s">
         <v>7</v>
@@ -5476,13 +5729,13 @@
         <v>9</v>
       </c>
       <c r="B110" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="D110" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="E110" t="s">
-        <v>745</v>
+        <v>730</v>
       </c>
       <c r="F110" t="s">
         <v>7</v>
@@ -5496,13 +5749,13 @@
         <v>9</v>
       </c>
       <c r="B111" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="D111" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="E111" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
       <c r="F111" t="s">
         <v>7</v>
@@ -5516,13 +5769,13 @@
         <v>9</v>
       </c>
       <c r="B112" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="D112" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E112" t="s">
-        <v>747</v>
+        <v>732</v>
       </c>
       <c r="F112" t="s">
         <v>7</v>
@@ -5536,13 +5789,13 @@
         <v>9</v>
       </c>
       <c r="B113" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="D113" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="E113" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
       <c r="F113" t="s">
         <v>7</v>
@@ -5556,13 +5809,13 @@
         <v>9</v>
       </c>
       <c r="B114" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="D114" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="E114" t="s">
-        <v>749</v>
+        <v>734</v>
       </c>
       <c r="F114" t="s">
         <v>7</v>
@@ -5576,13 +5829,13 @@
         <v>9</v>
       </c>
       <c r="B115" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="D115" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="E115" t="s">
-        <v>750</v>
+        <v>735</v>
       </c>
       <c r="F115" t="s">
         <v>7</v>
@@ -5596,13 +5849,13 @@
         <v>9</v>
       </c>
       <c r="B116" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="D116" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="E116" t="s">
-        <v>751</v>
+        <v>736</v>
       </c>
       <c r="F116" t="s">
         <v>7</v>
@@ -5616,13 +5869,13 @@
         <v>9</v>
       </c>
       <c r="B117" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="D117" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="E117" t="s">
-        <v>752</v>
+        <v>737</v>
       </c>
       <c r="F117" t="s">
         <v>7</v>
@@ -5636,16 +5889,16 @@
         <v>9</v>
       </c>
       <c r="B118" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="D118" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="E118" t="s">
-        <v>753</v>
+        <v>738</v>
       </c>
       <c r="F118" t="s">
-        <v>7</v>
+        <v>946</v>
       </c>
       <c r="G118" t="s">
         <v>8</v>
@@ -5656,13 +5909,13 @@
         <v>9</v>
       </c>
       <c r="B119" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="D119" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="E119" t="s">
-        <v>754</v>
+        <v>739</v>
       </c>
       <c r="F119" t="s">
         <v>7</v>
@@ -5676,13 +5929,13 @@
         <v>9</v>
       </c>
       <c r="B120" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="D120" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="E120" t="s">
-        <v>755</v>
+        <v>740</v>
       </c>
       <c r="F120" t="s">
         <v>7</v>
@@ -5696,16 +5949,16 @@
         <v>9</v>
       </c>
       <c r="B121" t="s">
-        <v>442</v>
+        <v>980</v>
       </c>
       <c r="D121" t="s">
-        <v>128</v>
+        <v>981</v>
       </c>
       <c r="E121" t="s">
-        <v>756</v>
+        <v>982</v>
       </c>
       <c r="F121" t="s">
-        <v>7</v>
+        <v>946</v>
       </c>
       <c r="G121" t="s">
         <v>8</v>
@@ -5716,16 +5969,16 @@
         <v>9</v>
       </c>
       <c r="B122" t="s">
-        <v>443</v>
+        <v>986</v>
       </c>
       <c r="D122" t="s">
-        <v>129</v>
+        <v>987</v>
       </c>
       <c r="E122" t="s">
-        <v>757</v>
+        <v>988</v>
       </c>
       <c r="F122" t="s">
-        <v>7</v>
+        <v>946</v>
       </c>
       <c r="G122" t="s">
         <v>8</v>
@@ -5736,13 +5989,13 @@
         <v>9</v>
       </c>
       <c r="B123" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="D123" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="E123" t="s">
-        <v>758</v>
+        <v>741</v>
       </c>
       <c r="F123" t="s">
         <v>7</v>
@@ -5756,13 +6009,13 @@
         <v>9</v>
       </c>
       <c r="B124" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="D124" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="E124" t="s">
-        <v>759</v>
+        <v>742</v>
       </c>
       <c r="F124" t="s">
         <v>7</v>
@@ -5776,13 +6029,13 @@
         <v>9</v>
       </c>
       <c r="B125" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="D125" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="E125" t="s">
-        <v>760</v>
+        <v>743</v>
       </c>
       <c r="F125" t="s">
         <v>7</v>
@@ -5796,13 +6049,13 @@
         <v>9</v>
       </c>
       <c r="B126" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="D126" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="E126" t="s">
-        <v>761</v>
+        <v>744</v>
       </c>
       <c r="F126" t="s">
         <v>7</v>
@@ -5816,13 +6069,13 @@
         <v>9</v>
       </c>
       <c r="B127" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="D127" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="E127" t="s">
-        <v>762</v>
+        <v>745</v>
       </c>
       <c r="F127" t="s">
         <v>7</v>
@@ -5836,13 +6089,13 @@
         <v>9</v>
       </c>
       <c r="B128" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="D128" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="E128" t="s">
-        <v>763</v>
+        <v>746</v>
       </c>
       <c r="F128" t="s">
         <v>7</v>
@@ -5856,13 +6109,13 @@
         <v>9</v>
       </c>
       <c r="B129" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="D129" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="E129" t="s">
-        <v>764</v>
+        <v>747</v>
       </c>
       <c r="F129" t="s">
         <v>7</v>
@@ -5876,13 +6129,13 @@
         <v>9</v>
       </c>
       <c r="B130" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="D130" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="E130" t="s">
-        <v>765</v>
+        <v>748</v>
       </c>
       <c r="F130" t="s">
         <v>7</v>
@@ -5896,13 +6149,13 @@
         <v>9</v>
       </c>
       <c r="B131" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="D131" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="E131" t="s">
-        <v>766</v>
+        <v>749</v>
       </c>
       <c r="F131" t="s">
         <v>7</v>
@@ -5916,13 +6169,13 @@
         <v>9</v>
       </c>
       <c r="B132" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="D132" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="E132" t="s">
-        <v>767</v>
+        <v>750</v>
       </c>
       <c r="F132" t="s">
         <v>7</v>
@@ -5936,13 +6189,13 @@
         <v>9</v>
       </c>
       <c r="B133" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="D133" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="E133" t="s">
-        <v>768</v>
+        <v>751</v>
       </c>
       <c r="F133" t="s">
         <v>7</v>
@@ -5956,13 +6209,13 @@
         <v>9</v>
       </c>
       <c r="B134" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="D134" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="E134" t="s">
-        <v>769</v>
+        <v>752</v>
       </c>
       <c r="F134" t="s">
         <v>7</v>
@@ -5976,13 +6229,13 @@
         <v>9</v>
       </c>
       <c r="B135" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="D135" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="E135" t="s">
-        <v>770</v>
+        <v>753</v>
       </c>
       <c r="F135" t="s">
         <v>7</v>
@@ -5996,13 +6249,13 @@
         <v>9</v>
       </c>
       <c r="B136" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
       <c r="D136" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="E136" t="s">
-        <v>771</v>
+        <v>754</v>
       </c>
       <c r="F136" t="s">
         <v>7</v>
@@ -6016,13 +6269,13 @@
         <v>9</v>
       </c>
       <c r="B137" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
       <c r="D137" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="E137" t="s">
-        <v>772</v>
+        <v>755</v>
       </c>
       <c r="F137" t="s">
         <v>7</v>
@@ -6036,13 +6289,13 @@
         <v>9</v>
       </c>
       <c r="B138" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="D138" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="E138" t="s">
-        <v>773</v>
+        <v>756</v>
       </c>
       <c r="F138" t="s">
         <v>7</v>
@@ -6056,13 +6309,13 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>460</v>
+        <v>974</v>
       </c>
       <c r="D139" t="s">
-        <v>146</v>
+        <v>975</v>
       </c>
       <c r="E139" t="s">
-        <v>774</v>
+        <v>976</v>
       </c>
       <c r="F139" t="s">
         <v>7</v>
@@ -6076,13 +6329,13 @@
         <v>9</v>
       </c>
       <c r="B140" t="s">
-        <v>461</v>
+        <v>445</v>
       </c>
       <c r="D140" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="E140" t="s">
-        <v>775</v>
+        <v>757</v>
       </c>
       <c r="F140" t="s">
         <v>7</v>
@@ -6096,16 +6349,16 @@
         <v>9</v>
       </c>
       <c r="B141" t="s">
-        <v>462</v>
+        <v>977</v>
       </c>
       <c r="D141" t="s">
-        <v>148</v>
+        <v>978</v>
       </c>
       <c r="E141" t="s">
-        <v>776</v>
+        <v>979</v>
       </c>
       <c r="F141" t="s">
-        <v>7</v>
+        <v>946</v>
       </c>
       <c r="G141" t="s">
         <v>8</v>
@@ -6116,13 +6369,13 @@
         <v>9</v>
       </c>
       <c r="B142" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
       <c r="D142" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="E142" t="s">
-        <v>777</v>
+        <v>758</v>
       </c>
       <c r="F142" t="s">
         <v>7</v>
@@ -6136,13 +6389,13 @@
         <v>9</v>
       </c>
       <c r="B143" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="D143" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="E143" t="s">
-        <v>778</v>
+        <v>759</v>
       </c>
       <c r="F143" t="s">
         <v>7</v>
@@ -6156,13 +6409,13 @@
         <v>9</v>
       </c>
       <c r="B144" t="s">
-        <v>465</v>
+        <v>448</v>
       </c>
       <c r="D144" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="E144" t="s">
-        <v>779</v>
+        <v>760</v>
       </c>
       <c r="F144" t="s">
         <v>7</v>
@@ -6176,13 +6429,13 @@
         <v>9</v>
       </c>
       <c r="B145" t="s">
-        <v>466</v>
+        <v>449</v>
       </c>
       <c r="D145" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="E145" t="s">
-        <v>780</v>
+        <v>761</v>
       </c>
       <c r="F145" t="s">
         <v>7</v>
@@ -6196,13 +6449,13 @@
         <v>9</v>
       </c>
       <c r="B146" t="s">
-        <v>467</v>
+        <v>450</v>
       </c>
       <c r="D146" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="E146" t="s">
-        <v>781</v>
+        <v>762</v>
       </c>
       <c r="F146" t="s">
         <v>7</v>
@@ -6216,13 +6469,13 @@
         <v>9</v>
       </c>
       <c r="B147" t="s">
-        <v>468</v>
+        <v>451</v>
       </c>
       <c r="D147" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="E147" t="s">
-        <v>782</v>
+        <v>763</v>
       </c>
       <c r="F147" t="s">
         <v>7</v>
@@ -6236,13 +6489,13 @@
         <v>9</v>
       </c>
       <c r="B148" t="s">
-        <v>469</v>
+        <v>452</v>
       </c>
       <c r="D148" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="E148" t="s">
-        <v>783</v>
+        <v>764</v>
       </c>
       <c r="F148" t="s">
         <v>7</v>
@@ -6256,13 +6509,13 @@
         <v>9</v>
       </c>
       <c r="B149" t="s">
-        <v>470</v>
+        <v>453</v>
       </c>
       <c r="D149" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E149" t="s">
-        <v>784</v>
+        <v>765</v>
       </c>
       <c r="F149" t="s">
         <v>7</v>
@@ -6276,13 +6529,13 @@
         <v>9</v>
       </c>
       <c r="B150" t="s">
-        <v>471</v>
+        <v>454</v>
       </c>
       <c r="D150" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="E150" t="s">
-        <v>785</v>
+        <v>766</v>
       </c>
       <c r="F150" t="s">
         <v>7</v>
@@ -6296,13 +6549,13 @@
         <v>9</v>
       </c>
       <c r="B151" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
       <c r="D151" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="E151" t="s">
-        <v>786</v>
+        <v>767</v>
       </c>
       <c r="F151" t="s">
         <v>7</v>
@@ -6316,13 +6569,13 @@
         <v>9</v>
       </c>
       <c r="B152" t="s">
-        <v>473</v>
+        <v>456</v>
       </c>
       <c r="D152" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="E152" t="s">
-        <v>787</v>
+        <v>768</v>
       </c>
       <c r="F152" t="s">
         <v>7</v>
@@ -6336,16 +6589,16 @@
         <v>9</v>
       </c>
       <c r="B153" t="s">
-        <v>474</v>
+        <v>983</v>
       </c>
       <c r="D153" t="s">
-        <v>160</v>
+        <v>984</v>
       </c>
       <c r="E153" t="s">
-        <v>788</v>
+        <v>985</v>
       </c>
       <c r="F153" t="s">
-        <v>7</v>
+        <v>946</v>
       </c>
       <c r="G153" t="s">
         <v>8</v>
@@ -6356,13 +6609,13 @@
         <v>9</v>
       </c>
       <c r="B154" t="s">
-        <v>475</v>
+        <v>457</v>
       </c>
       <c r="D154" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="E154" t="s">
-        <v>789</v>
+        <v>769</v>
       </c>
       <c r="F154" t="s">
         <v>7</v>
@@ -6376,16 +6629,16 @@
         <v>9</v>
       </c>
       <c r="B155" t="s">
-        <v>476</v>
+        <v>458</v>
       </c>
       <c r="D155" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="E155" t="s">
-        <v>790</v>
+        <v>770</v>
       </c>
       <c r="F155" t="s">
-        <v>952</v>
+        <v>7</v>
       </c>
       <c r="G155" t="s">
         <v>8</v>
@@ -6396,13 +6649,13 @@
         <v>9</v>
       </c>
       <c r="B156" t="s">
-        <v>477</v>
+        <v>459</v>
       </c>
       <c r="D156" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="E156" t="s">
-        <v>791</v>
+        <v>771</v>
       </c>
       <c r="F156" t="s">
         <v>7</v>
@@ -6416,13 +6669,13 @@
         <v>9</v>
       </c>
       <c r="B157" t="s">
-        <v>478</v>
+        <v>460</v>
       </c>
       <c r="D157" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="E157" t="s">
-        <v>792</v>
+        <v>772</v>
       </c>
       <c r="F157" t="s">
         <v>7</v>
@@ -6436,13 +6689,13 @@
         <v>9</v>
       </c>
       <c r="B158" t="s">
-        <v>479</v>
+        <v>461</v>
       </c>
       <c r="D158" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="E158" t="s">
-        <v>793</v>
+        <v>773</v>
       </c>
       <c r="F158" t="s">
         <v>7</v>
@@ -6456,13 +6709,13 @@
         <v>9</v>
       </c>
       <c r="B159" t="s">
-        <v>480</v>
+        <v>462</v>
       </c>
       <c r="D159" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="E159" t="s">
-        <v>794</v>
+        <v>774</v>
       </c>
       <c r="F159" t="s">
         <v>7</v>
@@ -6476,16 +6729,16 @@
         <v>9</v>
       </c>
       <c r="B160" t="s">
-        <v>481</v>
+        <v>463</v>
       </c>
       <c r="D160" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="E160" t="s">
-        <v>795</v>
+        <v>775</v>
       </c>
       <c r="F160" t="s">
-        <v>952</v>
+        <v>7</v>
       </c>
       <c r="G160" t="s">
         <v>8</v>
@@ -6496,13 +6749,13 @@
         <v>9</v>
       </c>
       <c r="B161" t="s">
-        <v>482</v>
+        <v>464</v>
       </c>
       <c r="D161" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="E161" t="s">
-        <v>796</v>
+        <v>776</v>
       </c>
       <c r="F161" t="s">
         <v>7</v>
@@ -6516,13 +6769,13 @@
         <v>9</v>
       </c>
       <c r="B162" t="s">
-        <v>483</v>
+        <v>465</v>
       </c>
       <c r="D162" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="E162" t="s">
-        <v>797</v>
+        <v>777</v>
       </c>
       <c r="F162" t="s">
         <v>7</v>
@@ -6536,13 +6789,13 @@
         <v>9</v>
       </c>
       <c r="B163" t="s">
-        <v>484</v>
+        <v>466</v>
       </c>
       <c r="D163" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="E163" t="s">
-        <v>798</v>
+        <v>778</v>
       </c>
       <c r="F163" t="s">
         <v>7</v>
@@ -6556,13 +6809,13 @@
         <v>9</v>
       </c>
       <c r="B164" t="s">
-        <v>485</v>
+        <v>467</v>
       </c>
       <c r="D164" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="E164" t="s">
-        <v>799</v>
+        <v>779</v>
       </c>
       <c r="F164" t="s">
         <v>7</v>
@@ -6576,13 +6829,13 @@
         <v>9</v>
       </c>
       <c r="B165" t="s">
-        <v>486</v>
+        <v>468</v>
       </c>
       <c r="D165" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="E165" t="s">
-        <v>800</v>
+        <v>780</v>
       </c>
       <c r="F165" t="s">
         <v>7</v>
@@ -6596,16 +6849,16 @@
         <v>9</v>
       </c>
       <c r="B166" t="s">
-        <v>487</v>
+        <v>469</v>
       </c>
       <c r="D166" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="E166" t="s">
-        <v>801</v>
+        <v>781</v>
       </c>
       <c r="F166" t="s">
-        <v>952</v>
+        <v>7</v>
       </c>
       <c r="G166" t="s">
         <v>8</v>
@@ -6616,13 +6869,13 @@
         <v>9</v>
       </c>
       <c r="B167" t="s">
-        <v>488</v>
+        <v>470</v>
       </c>
       <c r="D167" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="E167" t="s">
-        <v>802</v>
+        <v>782</v>
       </c>
       <c r="F167" t="s">
         <v>7</v>
@@ -6636,13 +6889,13 @@
         <v>9</v>
       </c>
       <c r="B168" t="s">
-        <v>489</v>
+        <v>471</v>
       </c>
       <c r="D168" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="E168" t="s">
-        <v>803</v>
+        <v>783</v>
       </c>
       <c r="F168" t="s">
         <v>7</v>
@@ -6656,16 +6909,16 @@
         <v>9</v>
       </c>
       <c r="B169" t="s">
-        <v>490</v>
+        <v>989</v>
       </c>
       <c r="D169" t="s">
-        <v>176</v>
+        <v>990</v>
       </c>
       <c r="E169" t="s">
-        <v>804</v>
+        <v>991</v>
       </c>
       <c r="F169" t="s">
-        <v>952</v>
+        <v>7</v>
       </c>
       <c r="G169" t="s">
         <v>8</v>
@@ -6676,13 +6929,13 @@
         <v>9</v>
       </c>
       <c r="B170" t="s">
-        <v>491</v>
+        <v>992</v>
       </c>
       <c r="D170" t="s">
-        <v>177</v>
+        <v>993</v>
       </c>
       <c r="E170" t="s">
-        <v>805</v>
+        <v>994</v>
       </c>
       <c r="F170" t="s">
         <v>7</v>
@@ -6696,13 +6949,13 @@
         <v>9</v>
       </c>
       <c r="B171" t="s">
-        <v>492</v>
+        <v>998</v>
       </c>
       <c r="D171" t="s">
-        <v>178</v>
+        <v>999</v>
       </c>
       <c r="E171" t="s">
-        <v>806</v>
+        <v>1000</v>
       </c>
       <c r="F171" t="s">
         <v>7</v>
@@ -6716,16 +6969,16 @@
         <v>9</v>
       </c>
       <c r="B172" t="s">
-        <v>493</v>
+        <v>472</v>
       </c>
       <c r="D172" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="E172" t="s">
-        <v>807</v>
+        <v>784</v>
       </c>
       <c r="F172" t="s">
-        <v>952</v>
+        <v>7</v>
       </c>
       <c r="G172" t="s">
         <v>8</v>
@@ -6736,16 +6989,16 @@
         <v>9</v>
       </c>
       <c r="B173" t="s">
-        <v>494</v>
+        <v>473</v>
       </c>
       <c r="D173" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="E173" t="s">
-        <v>808</v>
+        <v>785</v>
       </c>
       <c r="F173" t="s">
-        <v>7</v>
+        <v>946</v>
       </c>
       <c r="G173" t="s">
         <v>8</v>
@@ -6756,16 +7009,16 @@
         <v>9</v>
       </c>
       <c r="B174" t="s">
-        <v>495</v>
+        <v>474</v>
       </c>
       <c r="D174" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="E174" t="s">
-        <v>809</v>
+        <v>786</v>
       </c>
       <c r="F174" t="s">
-        <v>952</v>
+        <v>7</v>
       </c>
       <c r="G174" t="s">
         <v>8</v>
@@ -6776,13 +7029,13 @@
         <v>9</v>
       </c>
       <c r="B175" t="s">
-        <v>496</v>
+        <v>475</v>
       </c>
       <c r="D175" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="E175" t="s">
-        <v>810</v>
+        <v>787</v>
       </c>
       <c r="F175" t="s">
         <v>7</v>
@@ -6796,13 +7049,13 @@
         <v>9</v>
       </c>
       <c r="B176" t="s">
-        <v>497</v>
+        <v>476</v>
       </c>
       <c r="D176" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="E176" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="F176" t="s">
         <v>7</v>
@@ -6816,13 +7069,13 @@
         <v>9</v>
       </c>
       <c r="B177" t="s">
-        <v>498</v>
+        <v>1001</v>
       </c>
       <c r="D177" t="s">
-        <v>184</v>
+        <v>1002</v>
       </c>
       <c r="E177" t="s">
-        <v>812</v>
+        <v>1003</v>
       </c>
       <c r="F177" t="s">
         <v>7</v>
@@ -6836,13 +7089,13 @@
         <v>9</v>
       </c>
       <c r="B178" t="s">
-        <v>499</v>
+        <v>477</v>
       </c>
       <c r="D178" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="E178" t="s">
-        <v>813</v>
+        <v>789</v>
       </c>
       <c r="F178" t="s">
         <v>7</v>
@@ -6856,13 +7109,13 @@
         <v>9</v>
       </c>
       <c r="B179" t="s">
-        <v>500</v>
+        <v>1004</v>
       </c>
       <c r="D179" t="s">
-        <v>186</v>
+        <v>1005</v>
       </c>
       <c r="E179" t="s">
-        <v>814</v>
+        <v>1006</v>
       </c>
       <c r="F179" t="s">
         <v>7</v>
@@ -6876,16 +7129,16 @@
         <v>9</v>
       </c>
       <c r="B180" t="s">
-        <v>501</v>
+        <v>478</v>
       </c>
       <c r="D180" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="E180" t="s">
-        <v>815</v>
+        <v>790</v>
       </c>
       <c r="F180" t="s">
-        <v>7</v>
+        <v>946</v>
       </c>
       <c r="G180" t="s">
         <v>8</v>
@@ -6896,13 +7149,13 @@
         <v>9</v>
       </c>
       <c r="B181" t="s">
-        <v>502</v>
+        <v>479</v>
       </c>
       <c r="D181" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="E181" t="s">
-        <v>816</v>
+        <v>791</v>
       </c>
       <c r="F181" t="s">
         <v>7</v>
@@ -6916,13 +7169,13 @@
         <v>9</v>
       </c>
       <c r="B182" t="s">
-        <v>503</v>
+        <v>480</v>
       </c>
       <c r="D182" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="E182" t="s">
-        <v>817</v>
+        <v>792</v>
       </c>
       <c r="F182" t="s">
         <v>7</v>
@@ -6936,13 +7189,13 @@
         <v>9</v>
       </c>
       <c r="B183" t="s">
-        <v>504</v>
+        <v>1007</v>
       </c>
       <c r="D183" t="s">
-        <v>190</v>
+        <v>1008</v>
       </c>
       <c r="E183" t="s">
-        <v>818</v>
+        <v>1009</v>
       </c>
       <c r="F183" t="s">
         <v>7</v>
@@ -6956,13 +7209,13 @@
         <v>9</v>
       </c>
       <c r="B184" t="s">
-        <v>505</v>
+        <v>481</v>
       </c>
       <c r="D184" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="E184" t="s">
-        <v>819</v>
+        <v>793</v>
       </c>
       <c r="F184" t="s">
         <v>7</v>
@@ -6976,13 +7229,13 @@
         <v>9</v>
       </c>
       <c r="B185" t="s">
-        <v>506</v>
+        <v>482</v>
       </c>
       <c r="D185" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="E185" t="s">
-        <v>820</v>
+        <v>794</v>
       </c>
       <c r="F185" t="s">
         <v>7</v>
@@ -6996,13 +7249,13 @@
         <v>9</v>
       </c>
       <c r="B186" t="s">
-        <v>507</v>
+        <v>483</v>
       </c>
       <c r="D186" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="E186" t="s">
-        <v>821</v>
+        <v>795</v>
       </c>
       <c r="F186" t="s">
         <v>7</v>
@@ -7016,16 +7269,16 @@
         <v>9</v>
       </c>
       <c r="B187" t="s">
-        <v>508</v>
+        <v>484</v>
       </c>
       <c r="D187" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="E187" t="s">
-        <v>822</v>
+        <v>796</v>
       </c>
       <c r="F187" t="s">
-        <v>7</v>
+        <v>946</v>
       </c>
       <c r="G187" t="s">
         <v>8</v>
@@ -7036,13 +7289,13 @@
         <v>9</v>
       </c>
       <c r="B188" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="D188" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="E188" t="s">
-        <v>823</v>
+        <v>797</v>
       </c>
       <c r="F188" t="s">
         <v>7</v>
@@ -7056,13 +7309,13 @@
         <v>9</v>
       </c>
       <c r="B189" t="s">
-        <v>510</v>
+        <v>486</v>
       </c>
       <c r="D189" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="E189" t="s">
-        <v>824</v>
+        <v>798</v>
       </c>
       <c r="F189" t="s">
         <v>7</v>
@@ -7076,16 +7329,16 @@
         <v>9</v>
       </c>
       <c r="B190" t="s">
-        <v>511</v>
+        <v>487</v>
       </c>
       <c r="D190" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="E190" t="s">
-        <v>825</v>
+        <v>799</v>
       </c>
       <c r="F190" t="s">
-        <v>7</v>
+        <v>946</v>
       </c>
       <c r="G190" t="s">
         <v>8</v>
@@ -7096,13 +7349,13 @@
         <v>9</v>
       </c>
       <c r="B191" t="s">
-        <v>512</v>
+        <v>488</v>
       </c>
       <c r="D191" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="E191" t="s">
-        <v>826</v>
+        <v>800</v>
       </c>
       <c r="F191" t="s">
         <v>7</v>
@@ -7116,13 +7369,13 @@
         <v>9</v>
       </c>
       <c r="B192" t="s">
-        <v>513</v>
+        <v>489</v>
       </c>
       <c r="D192" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="E192" t="s">
-        <v>827</v>
+        <v>801</v>
       </c>
       <c r="F192" t="s">
         <v>7</v>
@@ -7136,16 +7389,16 @@
         <v>9</v>
       </c>
       <c r="B193" t="s">
-        <v>514</v>
+        <v>490</v>
       </c>
       <c r="D193" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="E193" t="s">
-        <v>828</v>
+        <v>802</v>
       </c>
       <c r="F193" t="s">
-        <v>7</v>
+        <v>946</v>
       </c>
       <c r="G193" t="s">
         <v>8</v>
@@ -7156,13 +7409,13 @@
         <v>9</v>
       </c>
       <c r="B194" t="s">
-        <v>515</v>
+        <v>491</v>
       </c>
       <c r="D194" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="E194" t="s">
-        <v>829</v>
+        <v>803</v>
       </c>
       <c r="F194" t="s">
         <v>7</v>
@@ -7176,13 +7429,13 @@
         <v>9</v>
       </c>
       <c r="B195" t="s">
-        <v>516</v>
+        <v>1013</v>
       </c>
       <c r="D195" t="s">
-        <v>202</v>
+        <v>1014</v>
       </c>
       <c r="E195" t="s">
-        <v>830</v>
+        <v>1015</v>
       </c>
       <c r="F195" t="s">
         <v>7</v>
@@ -7196,13 +7449,13 @@
         <v>9</v>
       </c>
       <c r="B196" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
       <c r="D196" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="E196" t="s">
-        <v>831</v>
+        <v>804</v>
       </c>
       <c r="F196" t="s">
         <v>7</v>
@@ -7216,13 +7469,13 @@
         <v>9</v>
       </c>
       <c r="B197" t="s">
-        <v>518</v>
+        <v>493</v>
       </c>
       <c r="D197" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="E197" t="s">
-        <v>832</v>
+        <v>805</v>
       </c>
       <c r="F197" t="s">
         <v>7</v>
@@ -7236,13 +7489,13 @@
         <v>9</v>
       </c>
       <c r="B198" t="s">
-        <v>519</v>
+        <v>1010</v>
       </c>
       <c r="D198" t="s">
-        <v>205</v>
+        <v>1011</v>
       </c>
       <c r="E198" t="s">
-        <v>833</v>
+        <v>1012</v>
       </c>
       <c r="F198" t="s">
         <v>7</v>
@@ -7256,13 +7509,13 @@
         <v>9</v>
       </c>
       <c r="B199" t="s">
-        <v>520</v>
+        <v>494</v>
       </c>
       <c r="D199" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="E199" t="s">
-        <v>834</v>
+        <v>806</v>
       </c>
       <c r="F199" t="s">
         <v>7</v>
@@ -7276,13 +7529,13 @@
         <v>9</v>
       </c>
       <c r="B200" t="s">
-        <v>521</v>
+        <v>495</v>
       </c>
       <c r="D200" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="E200" t="s">
-        <v>835</v>
+        <v>807</v>
       </c>
       <c r="F200" t="s">
         <v>7</v>
@@ -7296,13 +7549,13 @@
         <v>9</v>
       </c>
       <c r="B201" t="s">
-        <v>522</v>
+        <v>496</v>
       </c>
       <c r="D201" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="E201" t="s">
-        <v>836</v>
+        <v>808</v>
       </c>
       <c r="F201" t="s">
         <v>7</v>
@@ -7316,16 +7569,16 @@
         <v>9</v>
       </c>
       <c r="B202" t="s">
-        <v>523</v>
+        <v>497</v>
       </c>
       <c r="D202" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="E202" t="s">
-        <v>837</v>
+        <v>809</v>
       </c>
       <c r="F202" t="s">
-        <v>952</v>
+        <v>7</v>
       </c>
       <c r="G202" t="s">
         <v>8</v>
@@ -7336,13 +7589,13 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>524</v>
+        <v>498</v>
       </c>
       <c r="D203" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="E203" t="s">
-        <v>838</v>
+        <v>810</v>
       </c>
       <c r="F203" t="s">
         <v>7</v>
@@ -7356,13 +7609,13 @@
         <v>9</v>
       </c>
       <c r="B204" t="s">
-        <v>525</v>
+        <v>1016</v>
       </c>
       <c r="D204" t="s">
-        <v>211</v>
+        <v>1017</v>
       </c>
       <c r="E204" t="s">
-        <v>839</v>
+        <v>1018</v>
       </c>
       <c r="F204" t="s">
         <v>7</v>
@@ -7376,13 +7629,13 @@
         <v>9</v>
       </c>
       <c r="B205" t="s">
-        <v>526</v>
+        <v>499</v>
       </c>
       <c r="D205" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="E205" t="s">
-        <v>840</v>
+        <v>811</v>
       </c>
       <c r="F205" t="s">
         <v>7</v>
@@ -7396,13 +7649,13 @@
         <v>9</v>
       </c>
       <c r="B206" t="s">
-        <v>527</v>
+        <v>500</v>
       </c>
       <c r="D206" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="E206" t="s">
-        <v>841</v>
+        <v>812</v>
       </c>
       <c r="F206" t="s">
         <v>7</v>
@@ -7416,13 +7669,13 @@
         <v>9</v>
       </c>
       <c r="B207" t="s">
-        <v>528</v>
+        <v>501</v>
       </c>
       <c r="D207" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="E207" t="s">
-        <v>842</v>
+        <v>813</v>
       </c>
       <c r="F207" t="s">
         <v>7</v>
@@ -7436,13 +7689,13 @@
         <v>9</v>
       </c>
       <c r="B208" t="s">
-        <v>529</v>
+        <v>502</v>
       </c>
       <c r="D208" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="E208" t="s">
-        <v>843</v>
+        <v>814</v>
       </c>
       <c r="F208" t="s">
         <v>7</v>
@@ -7456,13 +7709,13 @@
         <v>9</v>
       </c>
       <c r="B209" t="s">
-        <v>530</v>
+        <v>503</v>
       </c>
       <c r="D209" t="s">
-        <v>216</v>
+        <v>191</v>
       </c>
       <c r="E209" t="s">
-        <v>844</v>
+        <v>815</v>
       </c>
       <c r="F209" t="s">
         <v>7</v>
@@ -7476,13 +7729,13 @@
         <v>9</v>
       </c>
       <c r="B210" t="s">
-        <v>531</v>
+        <v>504</v>
       </c>
       <c r="D210" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="E210" t="s">
-        <v>845</v>
+        <v>816</v>
       </c>
       <c r="F210" t="s">
         <v>7</v>
@@ -7496,13 +7749,13 @@
         <v>9</v>
       </c>
       <c r="B211" t="s">
-        <v>532</v>
+        <v>505</v>
       </c>
       <c r="D211" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="E211" t="s">
-        <v>846</v>
+        <v>817</v>
       </c>
       <c r="F211" t="s">
         <v>7</v>
@@ -7516,13 +7769,13 @@
         <v>9</v>
       </c>
       <c r="B212" t="s">
-        <v>533</v>
+        <v>506</v>
       </c>
       <c r="D212" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
       <c r="E212" t="s">
-        <v>847</v>
+        <v>818</v>
       </c>
       <c r="F212" t="s">
         <v>7</v>
@@ -7536,13 +7789,13 @@
         <v>9</v>
       </c>
       <c r="B213" t="s">
-        <v>534</v>
+        <v>507</v>
       </c>
       <c r="D213" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
       <c r="E213" t="s">
-        <v>848</v>
+        <v>819</v>
       </c>
       <c r="F213" t="s">
         <v>7</v>
@@ -7556,13 +7809,13 @@
         <v>9</v>
       </c>
       <c r="B214" t="s">
-        <v>535</v>
+        <v>1028</v>
       </c>
       <c r="D214" t="s">
-        <v>221</v>
+        <v>1029</v>
       </c>
       <c r="E214" t="s">
-        <v>849</v>
+        <v>1030</v>
       </c>
       <c r="F214" t="s">
         <v>7</v>
@@ -7576,13 +7829,13 @@
         <v>9</v>
       </c>
       <c r="B215" t="s">
-        <v>536</v>
+        <v>508</v>
       </c>
       <c r="D215" t="s">
-        <v>222</v>
+        <v>196</v>
       </c>
       <c r="E215" t="s">
-        <v>850</v>
+        <v>820</v>
       </c>
       <c r="F215" t="s">
         <v>7</v>
@@ -7596,13 +7849,13 @@
         <v>9</v>
       </c>
       <c r="B216" t="s">
-        <v>537</v>
+        <v>509</v>
       </c>
       <c r="D216" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="E216" t="s">
-        <v>851</v>
+        <v>821</v>
       </c>
       <c r="F216" t="s">
         <v>7</v>
@@ -7616,13 +7869,13 @@
         <v>9</v>
       </c>
       <c r="B217" t="s">
-        <v>538</v>
+        <v>510</v>
       </c>
       <c r="D217" t="s">
-        <v>224</v>
+        <v>198</v>
       </c>
       <c r="E217" t="s">
-        <v>852</v>
+        <v>822</v>
       </c>
       <c r="F217" t="s">
         <v>7</v>
@@ -7636,13 +7889,13 @@
         <v>9</v>
       </c>
       <c r="B218" t="s">
-        <v>539</v>
+        <v>511</v>
       </c>
       <c r="D218" t="s">
-        <v>225</v>
+        <v>199</v>
       </c>
       <c r="E218" t="s">
-        <v>853</v>
+        <v>823</v>
       </c>
       <c r="F218" t="s">
         <v>7</v>
@@ -7656,13 +7909,13 @@
         <v>9</v>
       </c>
       <c r="B219" t="s">
-        <v>540</v>
+        <v>512</v>
       </c>
       <c r="D219" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
       <c r="E219" t="s">
-        <v>854</v>
+        <v>824</v>
       </c>
       <c r="F219" t="s">
         <v>7</v>
@@ -7676,13 +7929,13 @@
         <v>9</v>
       </c>
       <c r="B220" t="s">
-        <v>541</v>
+        <v>513</v>
       </c>
       <c r="D220" t="s">
-        <v>227</v>
+        <v>201</v>
       </c>
       <c r="E220" t="s">
-        <v>855</v>
+        <v>825</v>
       </c>
       <c r="F220" t="s">
         <v>7</v>
@@ -7696,16 +7949,16 @@
         <v>9</v>
       </c>
       <c r="B221" t="s">
-        <v>542</v>
+        <v>514</v>
       </c>
       <c r="D221" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="E221" t="s">
-        <v>856</v>
+        <v>826</v>
       </c>
       <c r="F221" t="s">
-        <v>952</v>
+        <v>7</v>
       </c>
       <c r="G221" t="s">
         <v>8</v>
@@ -7716,13 +7969,13 @@
         <v>9</v>
       </c>
       <c r="B222" t="s">
-        <v>543</v>
+        <v>515</v>
       </c>
       <c r="D222" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="E222" t="s">
-        <v>857</v>
+        <v>827</v>
       </c>
       <c r="F222" t="s">
         <v>7</v>
@@ -7736,13 +7989,13 @@
         <v>9</v>
       </c>
       <c r="B223" t="s">
-        <v>544</v>
+        <v>516</v>
       </c>
       <c r="D223" t="s">
-        <v>230</v>
+        <v>204</v>
       </c>
       <c r="E223" t="s">
-        <v>858</v>
+        <v>828</v>
       </c>
       <c r="F223" t="s">
         <v>7</v>
@@ -7756,13 +8009,13 @@
         <v>9</v>
       </c>
       <c r="B224" t="s">
-        <v>545</v>
+        <v>517</v>
       </c>
       <c r="D224" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="E224" t="s">
-        <v>859</v>
+        <v>829</v>
       </c>
       <c r="F224" t="s">
         <v>7</v>
@@ -7776,13 +8029,13 @@
         <v>9</v>
       </c>
       <c r="B225" t="s">
-        <v>546</v>
+        <v>518</v>
       </c>
       <c r="D225" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
       <c r="E225" t="s">
-        <v>860</v>
+        <v>830</v>
       </c>
       <c r="F225" t="s">
         <v>7</v>
@@ -7796,13 +8049,13 @@
         <v>9</v>
       </c>
       <c r="B226" t="s">
-        <v>547</v>
+        <v>519</v>
       </c>
       <c r="D226" t="s">
-        <v>233</v>
+        <v>207</v>
       </c>
       <c r="E226" t="s">
-        <v>861</v>
+        <v>831</v>
       </c>
       <c r="F226" t="s">
         <v>7</v>
@@ -7816,16 +8069,16 @@
         <v>9</v>
       </c>
       <c r="B227" t="s">
-        <v>548</v>
+        <v>520</v>
       </c>
       <c r="D227" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="E227" t="s">
-        <v>862</v>
+        <v>832</v>
       </c>
       <c r="F227" t="s">
-        <v>7</v>
+        <v>946</v>
       </c>
       <c r="G227" t="s">
         <v>8</v>
@@ -7836,16 +8089,16 @@
         <v>9</v>
       </c>
       <c r="B228" t="s">
-        <v>549</v>
+        <v>521</v>
       </c>
       <c r="D228" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="E228" t="s">
-        <v>863</v>
+        <v>833</v>
       </c>
       <c r="F228" t="s">
-        <v>952</v>
+        <v>7</v>
       </c>
       <c r="G228" t="s">
         <v>8</v>
@@ -7856,13 +8109,13 @@
         <v>9</v>
       </c>
       <c r="B229" t="s">
-        <v>550</v>
+        <v>522</v>
       </c>
       <c r="D229" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="E229" t="s">
-        <v>864</v>
+        <v>834</v>
       </c>
       <c r="F229" t="s">
         <v>7</v>
@@ -7876,13 +8129,13 @@
         <v>9</v>
       </c>
       <c r="B230" t="s">
-        <v>551</v>
+        <v>523</v>
       </c>
       <c r="D230" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="E230" t="s">
-        <v>865</v>
+        <v>835</v>
       </c>
       <c r="F230" t="s">
         <v>7</v>
@@ -7896,13 +8149,13 @@
         <v>9</v>
       </c>
       <c r="B231" t="s">
-        <v>552</v>
+        <v>524</v>
       </c>
       <c r="D231" t="s">
-        <v>238</v>
+        <v>212</v>
       </c>
       <c r="E231" t="s">
-        <v>866</v>
+        <v>836</v>
       </c>
       <c r="F231" t="s">
         <v>7</v>
@@ -7916,13 +8169,13 @@
         <v>9</v>
       </c>
       <c r="B232" t="s">
-        <v>553</v>
+        <v>525</v>
       </c>
       <c r="D232" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="E232" t="s">
-        <v>867</v>
+        <v>837</v>
       </c>
       <c r="F232" t="s">
         <v>7</v>
@@ -7936,13 +8189,13 @@
         <v>9</v>
       </c>
       <c r="B233" t="s">
-        <v>554</v>
+        <v>526</v>
       </c>
       <c r="D233" t="s">
-        <v>240</v>
+        <v>214</v>
       </c>
       <c r="E233" t="s">
-        <v>868</v>
+        <v>838</v>
       </c>
       <c r="F233" t="s">
         <v>7</v>
@@ -7956,13 +8209,13 @@
         <v>9</v>
       </c>
       <c r="B234" t="s">
-        <v>555</v>
+        <v>527</v>
       </c>
       <c r="D234" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="E234" t="s">
-        <v>869</v>
+        <v>839</v>
       </c>
       <c r="F234" t="s">
         <v>7</v>
@@ -7976,13 +8229,13 @@
         <v>9</v>
       </c>
       <c r="B235" t="s">
-        <v>556</v>
+        <v>528</v>
       </c>
       <c r="D235" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="E235" t="s">
-        <v>870</v>
+        <v>840</v>
       </c>
       <c r="F235" t="s">
         <v>7</v>
@@ -7996,13 +8249,13 @@
         <v>9</v>
       </c>
       <c r="B236" t="s">
-        <v>557</v>
+        <v>529</v>
       </c>
       <c r="D236" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="E236" t="s">
-        <v>871</v>
+        <v>841</v>
       </c>
       <c r="F236" t="s">
         <v>7</v>
@@ -8016,13 +8269,13 @@
         <v>9</v>
       </c>
       <c r="B237" t="s">
-        <v>558</v>
+        <v>530</v>
       </c>
       <c r="D237" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="E237" t="s">
-        <v>872</v>
+        <v>842</v>
       </c>
       <c r="F237" t="s">
         <v>7</v>
@@ -8036,13 +8289,13 @@
         <v>9</v>
       </c>
       <c r="B238" t="s">
-        <v>559</v>
+        <v>531</v>
       </c>
       <c r="D238" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="E238" t="s">
-        <v>873</v>
+        <v>843</v>
       </c>
       <c r="F238" t="s">
         <v>7</v>
@@ -8056,13 +8309,13 @@
         <v>9</v>
       </c>
       <c r="B239" t="s">
-        <v>560</v>
+        <v>532</v>
       </c>
       <c r="D239" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="E239" t="s">
-        <v>874</v>
+        <v>844</v>
       </c>
       <c r="F239" t="s">
         <v>7</v>
@@ -8076,13 +8329,13 @@
         <v>9</v>
       </c>
       <c r="B240" t="s">
-        <v>561</v>
+        <v>533</v>
       </c>
       <c r="D240" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="E240" t="s">
-        <v>875</v>
+        <v>845</v>
       </c>
       <c r="F240" t="s">
         <v>7</v>
@@ -8096,13 +8349,13 @@
         <v>9</v>
       </c>
       <c r="B241" t="s">
-        <v>562</v>
+        <v>534</v>
       </c>
       <c r="D241" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="E241" t="s">
-        <v>876</v>
+        <v>846</v>
       </c>
       <c r="F241" t="s">
         <v>7</v>
@@ -8116,13 +8369,13 @@
         <v>9</v>
       </c>
       <c r="B242" t="s">
-        <v>563</v>
+        <v>535</v>
       </c>
       <c r="D242" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="E242" t="s">
-        <v>877</v>
+        <v>847</v>
       </c>
       <c r="F242" t="s">
         <v>7</v>
@@ -8136,13 +8389,13 @@
         <v>9</v>
       </c>
       <c r="B243" t="s">
-        <v>564</v>
+        <v>536</v>
       </c>
       <c r="D243" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="E243" t="s">
-        <v>878</v>
+        <v>848</v>
       </c>
       <c r="F243" t="s">
         <v>7</v>
@@ -8156,13 +8409,13 @@
         <v>9</v>
       </c>
       <c r="B244" t="s">
-        <v>565</v>
+        <v>537</v>
       </c>
       <c r="D244" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="E244" t="s">
-        <v>879</v>
+        <v>849</v>
       </c>
       <c r="F244" t="s">
         <v>7</v>
@@ -8176,13 +8429,13 @@
         <v>9</v>
       </c>
       <c r="B245" t="s">
-        <v>566</v>
+        <v>538</v>
       </c>
       <c r="D245" t="s">
-        <v>252</v>
+        <v>226</v>
       </c>
       <c r="E245" t="s">
-        <v>880</v>
+        <v>850</v>
       </c>
       <c r="F245" t="s">
         <v>7</v>
@@ -8196,16 +8449,16 @@
         <v>9</v>
       </c>
       <c r="B246" t="s">
-        <v>567</v>
+        <v>539</v>
       </c>
       <c r="D246" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="E246" t="s">
-        <v>881</v>
+        <v>851</v>
       </c>
       <c r="F246" t="s">
-        <v>7</v>
+        <v>946</v>
       </c>
       <c r="G246" t="s">
         <v>8</v>
@@ -8216,13 +8469,13 @@
         <v>9</v>
       </c>
       <c r="B247" t="s">
-        <v>568</v>
+        <v>540</v>
       </c>
       <c r="D247" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="E247" t="s">
-        <v>882</v>
+        <v>852</v>
       </c>
       <c r="F247" t="s">
         <v>7</v>
@@ -8236,13 +8489,13 @@
         <v>9</v>
       </c>
       <c r="B248" t="s">
-        <v>569</v>
+        <v>541</v>
       </c>
       <c r="D248" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
       <c r="E248" t="s">
-        <v>883</v>
+        <v>853</v>
       </c>
       <c r="F248" t="s">
         <v>7</v>
@@ -8256,13 +8509,13 @@
         <v>9</v>
       </c>
       <c r="B249" t="s">
-        <v>570</v>
+        <v>542</v>
       </c>
       <c r="D249" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="E249" t="s">
-        <v>884</v>
+        <v>854</v>
       </c>
       <c r="F249" t="s">
         <v>7</v>
@@ -8276,13 +8529,13 @@
         <v>9</v>
       </c>
       <c r="B250" t="s">
-        <v>571</v>
+        <v>543</v>
       </c>
       <c r="D250" t="s">
-        <v>257</v>
+        <v>231</v>
       </c>
       <c r="E250" t="s">
-        <v>885</v>
+        <v>855</v>
       </c>
       <c r="F250" t="s">
         <v>7</v>
@@ -8296,16 +8549,16 @@
         <v>9</v>
       </c>
       <c r="B251" t="s">
-        <v>572</v>
+        <v>544</v>
       </c>
       <c r="D251" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
       <c r="E251" t="s">
-        <v>886</v>
+        <v>856</v>
       </c>
       <c r="F251" t="s">
-        <v>952</v>
+        <v>7</v>
       </c>
       <c r="G251" t="s">
         <v>8</v>
@@ -8316,13 +8569,13 @@
         <v>9</v>
       </c>
       <c r="B252" t="s">
-        <v>573</v>
+        <v>545</v>
       </c>
       <c r="D252" t="s">
-        <v>259</v>
+        <v>233</v>
       </c>
       <c r="E252" t="s">
-        <v>887</v>
+        <v>857</v>
       </c>
       <c r="F252" t="s">
         <v>7</v>
@@ -8336,16 +8589,16 @@
         <v>9</v>
       </c>
       <c r="B253" t="s">
-        <v>574</v>
+        <v>546</v>
       </c>
       <c r="D253" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
       <c r="E253" t="s">
-        <v>888</v>
+        <v>858</v>
       </c>
       <c r="F253" t="s">
-        <v>7</v>
+        <v>946</v>
       </c>
       <c r="G253" t="s">
         <v>8</v>
@@ -8356,13 +8609,13 @@
         <v>9</v>
       </c>
       <c r="B254" t="s">
-        <v>575</v>
+        <v>547</v>
       </c>
       <c r="D254" t="s">
-        <v>261</v>
+        <v>235</v>
       </c>
       <c r="E254" t="s">
-        <v>889</v>
+        <v>859</v>
       </c>
       <c r="F254" t="s">
         <v>7</v>
@@ -8376,13 +8629,13 @@
         <v>9</v>
       </c>
       <c r="B255" t="s">
-        <v>576</v>
+        <v>548</v>
       </c>
       <c r="D255" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
       <c r="E255" t="s">
-        <v>890</v>
+        <v>860</v>
       </c>
       <c r="F255" t="s">
         <v>7</v>
@@ -8396,13 +8649,13 @@
         <v>9</v>
       </c>
       <c r="B256" t="s">
-        <v>577</v>
+        <v>549</v>
       </c>
       <c r="D256" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
       <c r="E256" t="s">
-        <v>891</v>
+        <v>861</v>
       </c>
       <c r="F256" t="s">
         <v>7</v>
@@ -8416,13 +8669,13 @@
         <v>9</v>
       </c>
       <c r="B257" t="s">
-        <v>578</v>
+        <v>550</v>
       </c>
       <c r="D257" t="s">
-        <v>264</v>
+        <v>238</v>
       </c>
       <c r="E257" t="s">
-        <v>892</v>
+        <v>862</v>
       </c>
       <c r="F257" t="s">
         <v>7</v>
@@ -8436,13 +8689,13 @@
         <v>9</v>
       </c>
       <c r="B258" t="s">
-        <v>579</v>
+        <v>551</v>
       </c>
       <c r="D258" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="E258" t="s">
-        <v>893</v>
+        <v>863</v>
       </c>
       <c r="F258" t="s">
         <v>7</v>
@@ -8456,13 +8709,13 @@
         <v>9</v>
       </c>
       <c r="B259" t="s">
-        <v>580</v>
+        <v>552</v>
       </c>
       <c r="D259" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="E259" t="s">
-        <v>894</v>
+        <v>864</v>
       </c>
       <c r="F259" t="s">
         <v>7</v>
@@ -8476,13 +8729,13 @@
         <v>9</v>
       </c>
       <c r="B260" t="s">
-        <v>581</v>
+        <v>553</v>
       </c>
       <c r="D260" t="s">
-        <v>267</v>
+        <v>241</v>
       </c>
       <c r="E260" t="s">
-        <v>895</v>
+        <v>865</v>
       </c>
       <c r="F260" t="s">
         <v>7</v>
@@ -8496,16 +8749,16 @@
         <v>9</v>
       </c>
       <c r="B261" t="s">
-        <v>582</v>
+        <v>554</v>
       </c>
       <c r="D261" t="s">
-        <v>268</v>
+        <v>242</v>
       </c>
       <c r="E261" t="s">
-        <v>896</v>
+        <v>866</v>
       </c>
       <c r="F261" t="s">
-        <v>952</v>
+        <v>7</v>
       </c>
       <c r="G261" t="s">
         <v>8</v>
@@ -8516,13 +8769,13 @@
         <v>9</v>
       </c>
       <c r="B262" t="s">
-        <v>583</v>
+        <v>555</v>
       </c>
       <c r="D262" t="s">
-        <v>269</v>
+        <v>243</v>
       </c>
       <c r="E262" t="s">
-        <v>897</v>
+        <v>867</v>
       </c>
       <c r="F262" t="s">
         <v>7</v>
@@ -8536,13 +8789,13 @@
         <v>9</v>
       </c>
       <c r="B263" t="s">
-        <v>584</v>
+        <v>556</v>
       </c>
       <c r="D263" t="s">
-        <v>270</v>
+        <v>244</v>
       </c>
       <c r="E263" t="s">
-        <v>898</v>
+        <v>868</v>
       </c>
       <c r="F263" t="s">
         <v>7</v>
@@ -8556,13 +8809,13 @@
         <v>9</v>
       </c>
       <c r="B264" t="s">
-        <v>585</v>
+        <v>557</v>
       </c>
       <c r="D264" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="E264" t="s">
-        <v>899</v>
+        <v>869</v>
       </c>
       <c r="F264" t="s">
         <v>7</v>
@@ -8576,13 +8829,13 @@
         <v>9</v>
       </c>
       <c r="B265" t="s">
-        <v>586</v>
+        <v>558</v>
       </c>
       <c r="D265" t="s">
-        <v>272</v>
+        <v>246</v>
       </c>
       <c r="E265" t="s">
-        <v>900</v>
+        <v>870</v>
       </c>
       <c r="F265" t="s">
         <v>7</v>
@@ -8596,13 +8849,13 @@
         <v>9</v>
       </c>
       <c r="B266" t="s">
-        <v>587</v>
+        <v>559</v>
       </c>
       <c r="D266" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="E266" t="s">
-        <v>901</v>
+        <v>871</v>
       </c>
       <c r="F266" t="s">
         <v>7</v>
@@ -8616,13 +8869,13 @@
         <v>9</v>
       </c>
       <c r="B267" t="s">
-        <v>588</v>
+        <v>560</v>
       </c>
       <c r="D267" t="s">
-        <v>274</v>
+        <v>248</v>
       </c>
       <c r="E267" t="s">
-        <v>902</v>
+        <v>872</v>
       </c>
       <c r="F267" t="s">
         <v>7</v>
@@ -8636,13 +8889,13 @@
         <v>9</v>
       </c>
       <c r="B268" t="s">
-        <v>589</v>
+        <v>561</v>
       </c>
       <c r="D268" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="E268" t="s">
-        <v>903</v>
+        <v>873</v>
       </c>
       <c r="F268" t="s">
         <v>7</v>
@@ -8656,13 +8909,13 @@
         <v>9</v>
       </c>
       <c r="B269" t="s">
-        <v>590</v>
+        <v>1025</v>
       </c>
       <c r="D269" t="s">
-        <v>276</v>
+        <v>1026</v>
       </c>
       <c r="E269" t="s">
-        <v>904</v>
+        <v>1027</v>
       </c>
       <c r="F269" t="s">
         <v>7</v>
@@ -8676,13 +8929,13 @@
         <v>9</v>
       </c>
       <c r="B270" t="s">
-        <v>591</v>
+        <v>562</v>
       </c>
       <c r="D270" t="s">
-        <v>277</v>
+        <v>250</v>
       </c>
       <c r="E270" t="s">
-        <v>905</v>
+        <v>874</v>
       </c>
       <c r="F270" t="s">
         <v>7</v>
@@ -8696,13 +8949,13 @@
         <v>9</v>
       </c>
       <c r="B271" t="s">
-        <v>592</v>
+        <v>563</v>
       </c>
       <c r="D271" t="s">
-        <v>278</v>
+        <v>251</v>
       </c>
       <c r="E271" t="s">
-        <v>906</v>
+        <v>875</v>
       </c>
       <c r="F271" t="s">
         <v>7</v>
@@ -8716,13 +8969,13 @@
         <v>9</v>
       </c>
       <c r="B272" t="s">
-        <v>593</v>
+        <v>564</v>
       </c>
       <c r="D272" t="s">
-        <v>279</v>
+        <v>252</v>
       </c>
       <c r="E272" t="s">
-        <v>907</v>
+        <v>876</v>
       </c>
       <c r="F272" t="s">
         <v>7</v>
@@ -8736,13 +8989,13 @@
         <v>9</v>
       </c>
       <c r="B273" t="s">
-        <v>594</v>
+        <v>565</v>
       </c>
       <c r="D273" t="s">
-        <v>280</v>
+        <v>253</v>
       </c>
       <c r="E273" t="s">
-        <v>908</v>
+        <v>877</v>
       </c>
       <c r="F273" t="s">
         <v>7</v>
@@ -8756,16 +9009,16 @@
         <v>9</v>
       </c>
       <c r="B274" t="s">
-        <v>595</v>
+        <v>1031</v>
       </c>
       <c r="D274" t="s">
-        <v>281</v>
+        <v>1032</v>
       </c>
       <c r="E274" t="s">
-        <v>909</v>
+        <v>1033</v>
       </c>
       <c r="F274" t="s">
-        <v>7</v>
+        <v>946</v>
       </c>
       <c r="G274" t="s">
         <v>8</v>
@@ -8776,13 +9029,13 @@
         <v>9</v>
       </c>
       <c r="B275" t="s">
-        <v>596</v>
+        <v>566</v>
       </c>
       <c r="D275" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="E275" t="s">
-        <v>910</v>
+        <v>878</v>
       </c>
       <c r="F275" t="s">
         <v>7</v>
@@ -8796,13 +9049,13 @@
         <v>9</v>
       </c>
       <c r="B276" t="s">
-        <v>597</v>
+        <v>567</v>
       </c>
       <c r="D276" t="s">
-        <v>283</v>
+        <v>255</v>
       </c>
       <c r="E276" t="s">
-        <v>911</v>
+        <v>879</v>
       </c>
       <c r="F276" t="s">
         <v>7</v>
@@ -8816,13 +9069,13 @@
         <v>9</v>
       </c>
       <c r="B277" t="s">
-        <v>598</v>
+        <v>568</v>
       </c>
       <c r="D277" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="E277" t="s">
-        <v>912</v>
+        <v>880</v>
       </c>
       <c r="F277" t="s">
         <v>7</v>
@@ -8836,16 +9089,16 @@
         <v>9</v>
       </c>
       <c r="B278" t="s">
-        <v>599</v>
+        <v>569</v>
       </c>
       <c r="D278" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
       <c r="E278" t="s">
-        <v>913</v>
+        <v>881</v>
       </c>
       <c r="F278" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
       <c r="G278" t="s">
         <v>8</v>
@@ -8856,13 +9109,13 @@
         <v>9</v>
       </c>
       <c r="B279" t="s">
-        <v>600</v>
+        <v>1037</v>
       </c>
       <c r="D279" t="s">
-        <v>286</v>
+        <v>1038</v>
       </c>
       <c r="E279" t="s">
-        <v>914</v>
+        <v>1039</v>
       </c>
       <c r="F279" t="s">
         <v>7</v>
@@ -8876,13 +9129,13 @@
         <v>9</v>
       </c>
       <c r="B280" t="s">
-        <v>601</v>
+        <v>570</v>
       </c>
       <c r="D280" t="s">
-        <v>287</v>
+        <v>258</v>
       </c>
       <c r="E280" t="s">
-        <v>915</v>
+        <v>882</v>
       </c>
       <c r="F280" t="s">
         <v>7</v>
@@ -8896,13 +9149,13 @@
         <v>9</v>
       </c>
       <c r="B281" t="s">
-        <v>602</v>
+        <v>571</v>
       </c>
       <c r="D281" t="s">
-        <v>288</v>
+        <v>259</v>
       </c>
       <c r="E281" t="s">
-        <v>916</v>
+        <v>883</v>
       </c>
       <c r="F281" t="s">
         <v>7</v>
@@ -8916,13 +9169,13 @@
         <v>9</v>
       </c>
       <c r="B282" t="s">
-        <v>603</v>
+        <v>572</v>
       </c>
       <c r="D282" t="s">
-        <v>289</v>
+        <v>260</v>
       </c>
       <c r="E282" t="s">
-        <v>917</v>
+        <v>884</v>
       </c>
       <c r="F282" t="s">
         <v>7</v>
@@ -8936,13 +9189,13 @@
         <v>9</v>
       </c>
       <c r="B283" t="s">
-        <v>604</v>
+        <v>573</v>
       </c>
       <c r="D283" t="s">
-        <v>290</v>
+        <v>261</v>
       </c>
       <c r="E283" t="s">
-        <v>918</v>
+        <v>885</v>
       </c>
       <c r="F283" t="s">
         <v>7</v>
@@ -8956,13 +9209,13 @@
         <v>9</v>
       </c>
       <c r="B284" t="s">
-        <v>605</v>
+        <v>574</v>
       </c>
       <c r="D284" t="s">
-        <v>291</v>
+        <v>262</v>
       </c>
       <c r="E284" t="s">
-        <v>919</v>
+        <v>886</v>
       </c>
       <c r="F284" t="s">
         <v>7</v>
@@ -8976,13 +9229,13 @@
         <v>9</v>
       </c>
       <c r="B285" t="s">
-        <v>606</v>
+        <v>575</v>
       </c>
       <c r="D285" t="s">
-        <v>292</v>
+        <v>263</v>
       </c>
       <c r="E285" t="s">
-        <v>920</v>
+        <v>887</v>
       </c>
       <c r="F285" t="s">
         <v>7</v>
@@ -8996,13 +9249,13 @@
         <v>9</v>
       </c>
       <c r="B286" t="s">
-        <v>607</v>
+        <v>576</v>
       </c>
       <c r="D286" t="s">
-        <v>293</v>
+        <v>264</v>
       </c>
       <c r="E286" t="s">
-        <v>921</v>
+        <v>888</v>
       </c>
       <c r="F286" t="s">
         <v>7</v>
@@ -9016,13 +9269,13 @@
         <v>9</v>
       </c>
       <c r="B287" t="s">
-        <v>608</v>
+        <v>577</v>
       </c>
       <c r="D287" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="E287" t="s">
-        <v>922</v>
+        <v>889</v>
       </c>
       <c r="F287" t="s">
         <v>7</v>
@@ -9036,13 +9289,13 @@
         <v>9</v>
       </c>
       <c r="B288" t="s">
-        <v>609</v>
+        <v>578</v>
       </c>
       <c r="D288" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="E288" t="s">
-        <v>923</v>
+        <v>890</v>
       </c>
       <c r="F288" t="s">
         <v>7</v>
@@ -9056,16 +9309,16 @@
         <v>9</v>
       </c>
       <c r="B289" t="s">
-        <v>610</v>
+        <v>1034</v>
       </c>
       <c r="D289" t="s">
-        <v>296</v>
+        <v>1035</v>
       </c>
       <c r="E289" t="s">
-        <v>924</v>
+        <v>1036</v>
       </c>
       <c r="F289" t="s">
-        <v>7</v>
+        <v>946</v>
       </c>
       <c r="G289" t="s">
         <v>8</v>
@@ -9076,13 +9329,13 @@
         <v>9</v>
       </c>
       <c r="B290" t="s">
-        <v>611</v>
+        <v>579</v>
       </c>
       <c r="D290" t="s">
-        <v>297</v>
+        <v>267</v>
       </c>
       <c r="E290" t="s">
-        <v>925</v>
+        <v>891</v>
       </c>
       <c r="F290" t="s">
         <v>7</v>
@@ -9096,13 +9349,13 @@
         <v>9</v>
       </c>
       <c r="B291" t="s">
-        <v>612</v>
+        <v>580</v>
       </c>
       <c r="D291" t="s">
-        <v>298</v>
+        <v>268</v>
       </c>
       <c r="E291" t="s">
-        <v>926</v>
+        <v>892</v>
       </c>
       <c r="F291" t="s">
         <v>7</v>
@@ -9116,13 +9369,13 @@
         <v>9</v>
       </c>
       <c r="B292" t="s">
-        <v>613</v>
+        <v>581</v>
       </c>
       <c r="D292" t="s">
-        <v>299</v>
+        <v>269</v>
       </c>
       <c r="E292" t="s">
-        <v>927</v>
+        <v>893</v>
       </c>
       <c r="F292" t="s">
         <v>7</v>
@@ -9136,13 +9389,13 @@
         <v>9</v>
       </c>
       <c r="B293" t="s">
-        <v>614</v>
+        <v>582</v>
       </c>
       <c r="D293" t="s">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="E293" t="s">
-        <v>928</v>
+        <v>894</v>
       </c>
       <c r="F293" t="s">
         <v>7</v>
@@ -9156,13 +9409,13 @@
         <v>9</v>
       </c>
       <c r="B294" t="s">
-        <v>615</v>
+        <v>583</v>
       </c>
       <c r="D294" t="s">
-        <v>301</v>
+        <v>271</v>
       </c>
       <c r="E294" t="s">
-        <v>929</v>
+        <v>895</v>
       </c>
       <c r="F294" t="s">
         <v>7</v>
@@ -9176,13 +9429,13 @@
         <v>9</v>
       </c>
       <c r="B295" t="s">
-        <v>616</v>
+        <v>584</v>
       </c>
       <c r="D295" t="s">
-        <v>302</v>
+        <v>272</v>
       </c>
       <c r="E295" t="s">
-        <v>930</v>
+        <v>896</v>
       </c>
       <c r="F295" t="s">
         <v>7</v>
@@ -9196,13 +9449,13 @@
         <v>9</v>
       </c>
       <c r="B296" t="s">
-        <v>617</v>
+        <v>585</v>
       </c>
       <c r="D296" t="s">
-        <v>303</v>
+        <v>273</v>
       </c>
       <c r="E296" t="s">
-        <v>931</v>
+        <v>897</v>
       </c>
       <c r="F296" t="s">
         <v>7</v>
@@ -9216,13 +9469,13 @@
         <v>9</v>
       </c>
       <c r="B297" t="s">
-        <v>618</v>
+        <v>586</v>
       </c>
       <c r="D297" t="s">
-        <v>304</v>
+        <v>274</v>
       </c>
       <c r="E297" t="s">
-        <v>932</v>
+        <v>898</v>
       </c>
       <c r="F297" t="s">
         <v>7</v>
@@ -9236,13 +9489,13 @@
         <v>9</v>
       </c>
       <c r="B298" t="s">
-        <v>619</v>
+        <v>587</v>
       </c>
       <c r="D298" t="s">
-        <v>305</v>
+        <v>275</v>
       </c>
       <c r="E298" t="s">
-        <v>933</v>
+        <v>899</v>
       </c>
       <c r="F298" t="s">
         <v>7</v>
@@ -9256,13 +9509,13 @@
         <v>9</v>
       </c>
       <c r="B299" t="s">
-        <v>620</v>
+        <v>588</v>
       </c>
       <c r="D299" t="s">
-        <v>306</v>
+        <v>276</v>
       </c>
       <c r="E299" t="s">
-        <v>934</v>
+        <v>900</v>
       </c>
       <c r="F299" t="s">
         <v>7</v>
@@ -9276,13 +9529,13 @@
         <v>9</v>
       </c>
       <c r="B300" t="s">
-        <v>621</v>
+        <v>589</v>
       </c>
       <c r="D300" t="s">
-        <v>307</v>
+        <v>277</v>
       </c>
       <c r="E300" t="s">
-        <v>935</v>
+        <v>901</v>
       </c>
       <c r="F300" t="s">
         <v>7</v>
@@ -9296,16 +9549,16 @@
         <v>9</v>
       </c>
       <c r="B301" t="s">
-        <v>622</v>
+        <v>590</v>
       </c>
       <c r="D301" t="s">
-        <v>308</v>
+        <v>278</v>
       </c>
       <c r="E301" t="s">
-        <v>936</v>
+        <v>902</v>
       </c>
       <c r="F301" t="s">
-        <v>952</v>
+        <v>7</v>
       </c>
       <c r="G301" t="s">
         <v>8</v>
@@ -9316,13 +9569,13 @@
         <v>9</v>
       </c>
       <c r="B302" t="s">
-        <v>623</v>
+        <v>591</v>
       </c>
       <c r="D302" t="s">
-        <v>309</v>
+        <v>279</v>
       </c>
       <c r="E302" t="s">
-        <v>937</v>
+        <v>903</v>
       </c>
       <c r="F302" t="s">
         <v>7</v>
@@ -9336,13 +9589,13 @@
         <v>9</v>
       </c>
       <c r="B303" t="s">
-        <v>624</v>
+        <v>592</v>
       </c>
       <c r="D303" t="s">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="E303" t="s">
-        <v>938</v>
+        <v>904</v>
       </c>
       <c r="F303" t="s">
         <v>7</v>
@@ -9356,13 +9609,13 @@
         <v>9</v>
       </c>
       <c r="B304" t="s">
-        <v>625</v>
+        <v>593</v>
       </c>
       <c r="D304" t="s">
-        <v>311</v>
+        <v>281</v>
       </c>
       <c r="E304" t="s">
-        <v>939</v>
+        <v>905</v>
       </c>
       <c r="F304" t="s">
         <v>7</v>
@@ -9376,16 +9629,16 @@
         <v>9</v>
       </c>
       <c r="B305" t="s">
-        <v>626</v>
+        <v>594</v>
       </c>
       <c r="D305" t="s">
-        <v>312</v>
+        <v>282</v>
       </c>
       <c r="E305" t="s">
-        <v>940</v>
+        <v>906</v>
       </c>
       <c r="F305" t="s">
-        <v>952</v>
+        <v>7</v>
       </c>
       <c r="G305" t="s">
         <v>8</v>
@@ -9396,13 +9649,13 @@
         <v>9</v>
       </c>
       <c r="B306" t="s">
-        <v>627</v>
+        <v>595</v>
       </c>
       <c r="D306" t="s">
-        <v>313</v>
+        <v>283</v>
       </c>
       <c r="E306" t="s">
-        <v>941</v>
+        <v>907</v>
       </c>
       <c r="F306" t="s">
         <v>7</v>
@@ -9416,13 +9669,13 @@
         <v>9</v>
       </c>
       <c r="B307" t="s">
-        <v>628</v>
+        <v>596</v>
       </c>
       <c r="D307" t="s">
-        <v>314</v>
+        <v>284</v>
       </c>
       <c r="E307" t="s">
-        <v>942</v>
+        <v>908</v>
       </c>
       <c r="F307" t="s">
         <v>7</v>
@@ -9436,13 +9689,13 @@
         <v>9</v>
       </c>
       <c r="B308" t="s">
-        <v>629</v>
+        <v>597</v>
       </c>
       <c r="D308" t="s">
-        <v>315</v>
+        <v>285</v>
       </c>
       <c r="E308" t="s">
-        <v>943</v>
+        <v>909</v>
       </c>
       <c r="F308" t="s">
         <v>7</v>
@@ -9456,13 +9709,13 @@
         <v>9</v>
       </c>
       <c r="B309" t="s">
-        <v>630</v>
+        <v>598</v>
       </c>
       <c r="D309" t="s">
-        <v>316</v>
+        <v>286</v>
       </c>
       <c r="E309" t="s">
-        <v>944</v>
+        <v>910</v>
       </c>
       <c r="F309" t="s">
         <v>7</v>
@@ -9476,13 +9729,13 @@
         <v>9</v>
       </c>
       <c r="B310" t="s">
-        <v>631</v>
+        <v>599</v>
       </c>
       <c r="D310" t="s">
-        <v>317</v>
+        <v>287</v>
       </c>
       <c r="E310" t="s">
-        <v>945</v>
+        <v>911</v>
       </c>
       <c r="F310" t="s">
         <v>7</v>
@@ -9496,13 +9749,13 @@
         <v>9</v>
       </c>
       <c r="B311" t="s">
-        <v>632</v>
+        <v>600</v>
       </c>
       <c r="D311" t="s">
-        <v>318</v>
+        <v>288</v>
       </c>
       <c r="E311" t="s">
-        <v>946</v>
+        <v>912</v>
       </c>
       <c r="F311" t="s">
         <v>7</v>
@@ -9516,13 +9769,13 @@
         <v>9</v>
       </c>
       <c r="B312" t="s">
-        <v>633</v>
+        <v>601</v>
       </c>
       <c r="D312" t="s">
-        <v>319</v>
+        <v>289</v>
       </c>
       <c r="E312" t="s">
-        <v>947</v>
+        <v>913</v>
       </c>
       <c r="F312" t="s">
         <v>7</v>
@@ -9536,13 +9789,13 @@
         <v>9</v>
       </c>
       <c r="B313" t="s">
-        <v>634</v>
+        <v>602</v>
       </c>
       <c r="D313" t="s">
-        <v>320</v>
+        <v>290</v>
       </c>
       <c r="E313" t="s">
-        <v>948</v>
+        <v>914</v>
       </c>
       <c r="F313" t="s">
         <v>7</v>
@@ -9556,13 +9809,13 @@
         <v>9</v>
       </c>
       <c r="B314" t="s">
-        <v>635</v>
+        <v>603</v>
       </c>
       <c r="D314" t="s">
-        <v>321</v>
+        <v>291</v>
       </c>
       <c r="E314" t="s">
-        <v>949</v>
+        <v>915</v>
       </c>
       <c r="F314" t="s">
         <v>7</v>
@@ -9576,13 +9829,13 @@
         <v>9</v>
       </c>
       <c r="B315" t="s">
-        <v>636</v>
+        <v>604</v>
       </c>
       <c r="D315" t="s">
-        <v>322</v>
+        <v>292</v>
       </c>
       <c r="E315" t="s">
-        <v>950</v>
+        <v>916</v>
       </c>
       <c r="F315" t="s">
         <v>7</v>
@@ -9596,27 +9849,587 @@
         <v>9</v>
       </c>
       <c r="B316" t="s">
-        <v>637</v>
+        <v>605</v>
       </c>
       <c r="D316" t="s">
-        <v>323</v>
+        <v>293</v>
       </c>
       <c r="E316" t="s">
-        <v>951</v>
+        <v>917</v>
       </c>
       <c r="F316" t="s">
         <v>7</v>
       </c>
       <c r="G316" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>9</v>
+      </c>
+      <c r="B317" t="s">
+        <v>606</v>
+      </c>
+      <c r="D317" t="s">
+        <v>294</v>
+      </c>
+      <c r="E317" t="s">
+        <v>918</v>
+      </c>
+      <c r="F317" t="s">
+        <v>7</v>
+      </c>
+      <c r="G317" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>9</v>
+      </c>
+      <c r="B318" t="s">
+        <v>607</v>
+      </c>
+      <c r="D318" t="s">
+        <v>295</v>
+      </c>
+      <c r="E318" t="s">
+        <v>919</v>
+      </c>
+      <c r="F318" t="s">
+        <v>7</v>
+      </c>
+      <c r="G318" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>9</v>
+      </c>
+      <c r="B319" t="s">
+        <v>608</v>
+      </c>
+      <c r="D319" t="s">
+        <v>296</v>
+      </c>
+      <c r="E319" t="s">
+        <v>920</v>
+      </c>
+      <c r="F319" t="s">
+        <v>7</v>
+      </c>
+      <c r="G319" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>9</v>
+      </c>
+      <c r="B320" t="s">
+        <v>609</v>
+      </c>
+      <c r="D320" t="s">
+        <v>297</v>
+      </c>
+      <c r="E320" t="s">
+        <v>921</v>
+      </c>
+      <c r="F320" t="s">
+        <v>7</v>
+      </c>
+      <c r="G320" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>9</v>
+      </c>
+      <c r="B321" t="s">
+        <v>610</v>
+      </c>
+      <c r="D321" t="s">
+        <v>298</v>
+      </c>
+      <c r="E321" t="s">
+        <v>922</v>
+      </c>
+      <c r="F321" t="s">
+        <v>7</v>
+      </c>
+      <c r="G321" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>9</v>
+      </c>
+      <c r="B322" t="s">
+        <v>611</v>
+      </c>
+      <c r="D322" t="s">
+        <v>299</v>
+      </c>
+      <c r="E322" t="s">
+        <v>923</v>
+      </c>
+      <c r="F322" t="s">
+        <v>7</v>
+      </c>
+      <c r="G322" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>9</v>
+      </c>
+      <c r="B323" t="s">
+        <v>612</v>
+      </c>
+      <c r="D323" t="s">
+        <v>300</v>
+      </c>
+      <c r="E323" t="s">
+        <v>924</v>
+      </c>
+      <c r="F323" t="s">
+        <v>7</v>
+      </c>
+      <c r="G323" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>9</v>
+      </c>
+      <c r="B324" t="s">
+        <v>613</v>
+      </c>
+      <c r="D324" t="s">
+        <v>301</v>
+      </c>
+      <c r="E324" t="s">
+        <v>925</v>
+      </c>
+      <c r="F324" t="s">
+        <v>7</v>
+      </c>
+      <c r="G324" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>9</v>
+      </c>
+      <c r="B325" t="s">
+        <v>614</v>
+      </c>
+      <c r="D325" t="s">
+        <v>302</v>
+      </c>
+      <c r="E325" t="s">
+        <v>926</v>
+      </c>
+      <c r="F325" t="s">
+        <v>7</v>
+      </c>
+      <c r="G325" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>9</v>
+      </c>
+      <c r="B326" t="s">
+        <v>615</v>
+      </c>
+      <c r="D326" t="s">
+        <v>303</v>
+      </c>
+      <c r="E326" t="s">
+        <v>927</v>
+      </c>
+      <c r="F326" t="s">
+        <v>7</v>
+      </c>
+      <c r="G326" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>9</v>
+      </c>
+      <c r="B327" t="s">
+        <v>616</v>
+      </c>
+      <c r="D327" t="s">
+        <v>304</v>
+      </c>
+      <c r="E327" t="s">
+        <v>928</v>
+      </c>
+      <c r="F327" t="s">
+        <v>7</v>
+      </c>
+      <c r="G327" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>9</v>
+      </c>
+      <c r="B328" t="s">
+        <v>617</v>
+      </c>
+      <c r="D328" t="s">
+        <v>305</v>
+      </c>
+      <c r="E328" t="s">
+        <v>929</v>
+      </c>
+      <c r="F328" t="s">
+        <v>7</v>
+      </c>
+      <c r="G328" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>9</v>
+      </c>
+      <c r="B329" t="s">
+        <v>618</v>
+      </c>
+      <c r="D329" t="s">
+        <v>306</v>
+      </c>
+      <c r="E329" t="s">
+        <v>930</v>
+      </c>
+      <c r="F329" t="s">
+        <v>946</v>
+      </c>
+      <c r="G329" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>9</v>
+      </c>
+      <c r="B330" t="s">
+        <v>619</v>
+      </c>
+      <c r="D330" t="s">
+        <v>307</v>
+      </c>
+      <c r="E330" t="s">
+        <v>931</v>
+      </c>
+      <c r="F330" t="s">
+        <v>7</v>
+      </c>
+      <c r="G330" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>9</v>
+      </c>
+      <c r="B331" t="s">
+        <v>620</v>
+      </c>
+      <c r="D331" t="s">
+        <v>308</v>
+      </c>
+      <c r="E331" t="s">
+        <v>932</v>
+      </c>
+      <c r="F331" t="s">
+        <v>7</v>
+      </c>
+      <c r="G331" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>9</v>
+      </c>
+      <c r="B332" t="s">
+        <v>621</v>
+      </c>
+      <c r="D332" t="s">
+        <v>309</v>
+      </c>
+      <c r="E332" t="s">
+        <v>933</v>
+      </c>
+      <c r="F332" t="s">
+        <v>7</v>
+      </c>
+      <c r="G332" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>9</v>
+      </c>
+      <c r="B333" t="s">
+        <v>622</v>
+      </c>
+      <c r="D333" t="s">
+        <v>310</v>
+      </c>
+      <c r="E333" t="s">
+        <v>934</v>
+      </c>
+      <c r="F333" t="s">
+        <v>946</v>
+      </c>
+      <c r="G333" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>9</v>
+      </c>
+      <c r="B334" t="s">
+        <v>623</v>
+      </c>
+      <c r="D334" t="s">
+        <v>311</v>
+      </c>
+      <c r="E334" t="s">
+        <v>935</v>
+      </c>
+      <c r="F334" t="s">
+        <v>7</v>
+      </c>
+      <c r="G334" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>9</v>
+      </c>
+      <c r="B335" t="s">
+        <v>624</v>
+      </c>
+      <c r="D335" t="s">
+        <v>312</v>
+      </c>
+      <c r="E335" t="s">
+        <v>936</v>
+      </c>
+      <c r="F335" t="s">
+        <v>7</v>
+      </c>
+      <c r="G335" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>9</v>
+      </c>
+      <c r="B336" t="s">
+        <v>625</v>
+      </c>
+      <c r="D336" t="s">
+        <v>313</v>
+      </c>
+      <c r="E336" t="s">
+        <v>937</v>
+      </c>
+      <c r="F336" t="s">
+        <v>7</v>
+      </c>
+      <c r="G336" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>9</v>
+      </c>
+      <c r="B337" t="s">
+        <v>626</v>
+      </c>
+      <c r="D337" t="s">
+        <v>314</v>
+      </c>
+      <c r="E337" t="s">
+        <v>938</v>
+      </c>
+      <c r="F337" t="s">
+        <v>7</v>
+      </c>
+      <c r="G337" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>9</v>
+      </c>
+      <c r="B338" t="s">
+        <v>627</v>
+      </c>
+      <c r="D338" t="s">
+        <v>315</v>
+      </c>
+      <c r="E338" t="s">
+        <v>939</v>
+      </c>
+      <c r="F338" t="s">
+        <v>7</v>
+      </c>
+      <c r="G338" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>9</v>
+      </c>
+      <c r="B339" t="s">
+        <v>628</v>
+      </c>
+      <c r="D339" t="s">
+        <v>316</v>
+      </c>
+      <c r="E339" t="s">
+        <v>940</v>
+      </c>
+      <c r="F339" t="s">
+        <v>7</v>
+      </c>
+      <c r="G339" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>9</v>
+      </c>
+      <c r="B340" t="s">
+        <v>629</v>
+      </c>
+      <c r="D340" t="s">
+        <v>317</v>
+      </c>
+      <c r="E340" t="s">
+        <v>941</v>
+      </c>
+      <c r="F340" t="s">
+        <v>7</v>
+      </c>
+      <c r="G340" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>9</v>
+      </c>
+      <c r="B341" t="s">
+        <v>630</v>
+      </c>
+      <c r="D341" t="s">
+        <v>318</v>
+      </c>
+      <c r="E341" t="s">
+        <v>942</v>
+      </c>
+      <c r="F341" t="s">
+        <v>7</v>
+      </c>
+      <c r="G341" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>9</v>
+      </c>
+      <c r="B342" t="s">
+        <v>631</v>
+      </c>
+      <c r="D342" t="s">
+        <v>319</v>
+      </c>
+      <c r="E342" t="s">
+        <v>943</v>
+      </c>
+      <c r="F342" t="s">
+        <v>7</v>
+      </c>
+      <c r="G342" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>9</v>
+      </c>
+      <c r="B343" t="s">
+        <v>632</v>
+      </c>
+      <c r="D343" t="s">
+        <v>320</v>
+      </c>
+      <c r="E343" t="s">
+        <v>944</v>
+      </c>
+      <c r="F343" t="s">
+        <v>7</v>
+      </c>
+      <c r="G343" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>9</v>
+      </c>
+      <c r="B344" t="s">
+        <v>633</v>
+      </c>
+      <c r="D344" t="s">
+        <v>321</v>
+      </c>
+      <c r="E344" t="s">
+        <v>945</v>
+      </c>
+      <c r="F344" t="s">
+        <v>7</v>
+      </c>
+      <c r="G344" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1"/>
+    <hyperlink ref="E4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/Bibsam_tidskriftslistor/scifree_data_brill.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_brill.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_B8A85F4F591D7C17B25102653C0077E43A6883BB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC1FBD6A-CABB-449E-B3D3-C3F774E068F5}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="11_B8A85F4F591D7C17B25102653C0077E43A6883BB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{601F2C33-369A-4F6F-92F0-49CA7317EC70}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2065" uniqueCount="1040">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2085" uniqueCount="1051">
   <si>
     <t>ISSN Electronic</t>
   </si>
@@ -3140,6 +3140,39 @@
   </si>
   <si>
     <t>https://brill.com/stem</t>
+  </si>
+  <si>
+    <t>1550-7076</t>
+  </si>
+  <si>
+    <t>Heritage Language Journal</t>
+  </si>
+  <si>
+    <t>https://brill.com/hlj</t>
+  </si>
+  <si>
+    <t>2772-8641</t>
+  </si>
+  <si>
+    <t>2772-8633</t>
+  </si>
+  <si>
+    <t>Vatican Library Review, The</t>
+  </si>
+  <si>
+    <t>https://brill.com/vlr</t>
+  </si>
+  <si>
+    <t>0403-3884</t>
+  </si>
+  <si>
+    <t>0944-7652</t>
+  </si>
+  <si>
+    <t>Zeitschrift für medizinische Ethik</t>
+  </si>
+  <si>
+    <t>https://brill.com/zfme</t>
   </si>
 </sst>
 </file>
@@ -3163,9 +3196,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3188,17 +3219,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -3243,10 +3272,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G344" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:G344" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G344">
-    <sortCondition ref="D1:D344"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G347" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:G347" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G347">
+    <sortCondition ref="D1:D347"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Imprint"/>
@@ -3524,10 +3553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G344"/>
+  <dimension ref="A1:G347"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A271" workbookViewId="0">
-      <selection activeCell="I295" sqref="I295"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5749,13 +5778,13 @@
         <v>9</v>
       </c>
       <c r="B111" t="s">
-        <v>419</v>
+        <v>1040</v>
       </c>
       <c r="D111" t="s">
-        <v>107</v>
-      </c>
-      <c r="E111" t="s">
-        <v>731</v>
+        <v>1041</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>1042</v>
       </c>
       <c r="F111" t="s">
         <v>7</v>
@@ -5769,13 +5798,13 @@
         <v>9</v>
       </c>
       <c r="B112" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D112" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E112" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="F112" t="s">
         <v>7</v>
@@ -5789,13 +5818,13 @@
         <v>9</v>
       </c>
       <c r="B113" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D113" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E113" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="F113" t="s">
         <v>7</v>
@@ -5809,13 +5838,13 @@
         <v>9</v>
       </c>
       <c r="B114" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D114" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E114" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="F114" t="s">
         <v>7</v>
@@ -5829,13 +5858,13 @@
         <v>9</v>
       </c>
       <c r="B115" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D115" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E115" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="F115" t="s">
         <v>7</v>
@@ -5849,13 +5878,13 @@
         <v>9</v>
       </c>
       <c r="B116" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D116" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E116" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="F116" t="s">
         <v>7</v>
@@ -5869,13 +5898,13 @@
         <v>9</v>
       </c>
       <c r="B117" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D117" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E117" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="F117" t="s">
         <v>7</v>
@@ -5889,16 +5918,16 @@
         <v>9</v>
       </c>
       <c r="B118" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D118" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E118" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F118" t="s">
-        <v>946</v>
+        <v>7</v>
       </c>
       <c r="G118" t="s">
         <v>8</v>
@@ -5909,16 +5938,16 @@
         <v>9</v>
       </c>
       <c r="B119" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D119" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E119" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F119" t="s">
-        <v>7</v>
+        <v>946</v>
       </c>
       <c r="G119" t="s">
         <v>8</v>
@@ -5929,13 +5958,13 @@
         <v>9</v>
       </c>
       <c r="B120" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D120" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E120" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F120" t="s">
         <v>7</v>
@@ -5949,16 +5978,16 @@
         <v>9</v>
       </c>
       <c r="B121" t="s">
-        <v>980</v>
+        <v>428</v>
       </c>
       <c r="D121" t="s">
-        <v>981</v>
+        <v>116</v>
       </c>
       <c r="E121" t="s">
-        <v>982</v>
+        <v>740</v>
       </c>
       <c r="F121" t="s">
-        <v>946</v>
+        <v>7</v>
       </c>
       <c r="G121" t="s">
         <v>8</v>
@@ -5969,13 +5998,13 @@
         <v>9</v>
       </c>
       <c r="B122" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
       <c r="D122" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="E122" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
       <c r="F122" t="s">
         <v>946</v>
@@ -5989,16 +6018,16 @@
         <v>9</v>
       </c>
       <c r="B123" t="s">
-        <v>429</v>
+        <v>986</v>
       </c>
       <c r="D123" t="s">
-        <v>117</v>
+        <v>987</v>
       </c>
       <c r="E123" t="s">
-        <v>741</v>
+        <v>988</v>
       </c>
       <c r="F123" t="s">
-        <v>7</v>
+        <v>946</v>
       </c>
       <c r="G123" t="s">
         <v>8</v>
@@ -6009,13 +6038,13 @@
         <v>9</v>
       </c>
       <c r="B124" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D124" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E124" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F124" t="s">
         <v>7</v>
@@ -6029,13 +6058,13 @@
         <v>9</v>
       </c>
       <c r="B125" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D125" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E125" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="F125" t="s">
         <v>7</v>
@@ -6049,13 +6078,13 @@
         <v>9</v>
       </c>
       <c r="B126" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D126" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E126" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="F126" t="s">
         <v>7</v>
@@ -6069,13 +6098,13 @@
         <v>9</v>
       </c>
       <c r="B127" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D127" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E127" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F127" t="s">
         <v>7</v>
@@ -6089,13 +6118,13 @@
         <v>9</v>
       </c>
       <c r="B128" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D128" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E128" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="F128" t="s">
         <v>7</v>
@@ -6109,13 +6138,13 @@
         <v>9</v>
       </c>
       <c r="B129" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D129" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E129" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="F129" t="s">
         <v>7</v>
@@ -6129,13 +6158,13 @@
         <v>9</v>
       </c>
       <c r="B130" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D130" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E130" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="F130" t="s">
         <v>7</v>
@@ -6149,13 +6178,13 @@
         <v>9</v>
       </c>
       <c r="B131" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D131" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E131" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="F131" t="s">
         <v>7</v>
@@ -6169,13 +6198,13 @@
         <v>9</v>
       </c>
       <c r="B132" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D132" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E132" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="F132" t="s">
         <v>7</v>
@@ -6189,13 +6218,13 @@
         <v>9</v>
       </c>
       <c r="B133" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D133" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E133" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F133" t="s">
         <v>7</v>
@@ -6209,13 +6238,13 @@
         <v>9</v>
       </c>
       <c r="B134" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D134" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E134" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="F134" t="s">
         <v>7</v>
@@ -6229,13 +6258,13 @@
         <v>9</v>
       </c>
       <c r="B135" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D135" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E135" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="F135" t="s">
         <v>7</v>
@@ -6249,13 +6278,13 @@
         <v>9</v>
       </c>
       <c r="B136" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D136" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E136" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="F136" t="s">
         <v>7</v>
@@ -6269,13 +6298,13 @@
         <v>9</v>
       </c>
       <c r="B137" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D137" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E137" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="F137" t="s">
         <v>7</v>
@@ -6289,13 +6318,13 @@
         <v>9</v>
       </c>
       <c r="B138" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D138" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E138" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="F138" t="s">
         <v>7</v>
@@ -6309,13 +6338,13 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>974</v>
+        <v>444</v>
       </c>
       <c r="D139" t="s">
-        <v>975</v>
+        <v>132</v>
       </c>
       <c r="E139" t="s">
-        <v>976</v>
+        <v>756</v>
       </c>
       <c r="F139" t="s">
         <v>7</v>
@@ -6329,13 +6358,13 @@
         <v>9</v>
       </c>
       <c r="B140" t="s">
-        <v>445</v>
+        <v>974</v>
       </c>
       <c r="D140" t="s">
-        <v>133</v>
+        <v>975</v>
       </c>
       <c r="E140" t="s">
-        <v>757</v>
+        <v>976</v>
       </c>
       <c r="F140" t="s">
         <v>7</v>
@@ -6349,16 +6378,16 @@
         <v>9</v>
       </c>
       <c r="B141" t="s">
-        <v>977</v>
+        <v>445</v>
       </c>
       <c r="D141" t="s">
-        <v>978</v>
+        <v>133</v>
       </c>
       <c r="E141" t="s">
-        <v>979</v>
+        <v>757</v>
       </c>
       <c r="F141" t="s">
-        <v>946</v>
+        <v>7</v>
       </c>
       <c r="G141" t="s">
         <v>8</v>
@@ -6369,16 +6398,16 @@
         <v>9</v>
       </c>
       <c r="B142" t="s">
-        <v>446</v>
+        <v>977</v>
       </c>
       <c r="D142" t="s">
-        <v>134</v>
+        <v>978</v>
       </c>
       <c r="E142" t="s">
-        <v>758</v>
+        <v>979</v>
       </c>
       <c r="F142" t="s">
-        <v>7</v>
+        <v>946</v>
       </c>
       <c r="G142" t="s">
         <v>8</v>
@@ -6389,13 +6418,13 @@
         <v>9</v>
       </c>
       <c r="B143" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D143" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E143" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="F143" t="s">
         <v>7</v>
@@ -6409,13 +6438,13 @@
         <v>9</v>
       </c>
       <c r="B144" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D144" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E144" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="F144" t="s">
         <v>7</v>
@@ -6429,13 +6458,13 @@
         <v>9</v>
       </c>
       <c r="B145" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D145" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E145" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="F145" t="s">
         <v>7</v>
@@ -6449,13 +6478,13 @@
         <v>9</v>
       </c>
       <c r="B146" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D146" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E146" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="F146" t="s">
         <v>7</v>
@@ -6469,13 +6498,13 @@
         <v>9</v>
       </c>
       <c r="B147" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D147" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E147" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="F147" t="s">
         <v>7</v>
@@ -6489,13 +6518,13 @@
         <v>9</v>
       </c>
       <c r="B148" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D148" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E148" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="F148" t="s">
         <v>7</v>
@@ -6509,13 +6538,13 @@
         <v>9</v>
       </c>
       <c r="B149" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D149" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E149" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="F149" t="s">
         <v>7</v>
@@ -6529,13 +6558,13 @@
         <v>9</v>
       </c>
       <c r="B150" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D150" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E150" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="F150" t="s">
         <v>7</v>
@@ -6549,13 +6578,13 @@
         <v>9</v>
       </c>
       <c r="B151" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D151" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E151" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="F151" t="s">
         <v>7</v>
@@ -6569,13 +6598,13 @@
         <v>9</v>
       </c>
       <c r="B152" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D152" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E152" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="F152" t="s">
         <v>7</v>
@@ -6589,16 +6618,16 @@
         <v>9</v>
       </c>
       <c r="B153" t="s">
-        <v>983</v>
+        <v>456</v>
       </c>
       <c r="D153" t="s">
-        <v>984</v>
+        <v>144</v>
       </c>
       <c r="E153" t="s">
-        <v>985</v>
+        <v>768</v>
       </c>
       <c r="F153" t="s">
-        <v>946</v>
+        <v>7</v>
       </c>
       <c r="G153" t="s">
         <v>8</v>
@@ -6609,16 +6638,16 @@
         <v>9</v>
       </c>
       <c r="B154" t="s">
-        <v>457</v>
+        <v>983</v>
       </c>
       <c r="D154" t="s">
-        <v>145</v>
+        <v>984</v>
       </c>
       <c r="E154" t="s">
-        <v>769</v>
+        <v>985</v>
       </c>
       <c r="F154" t="s">
-        <v>7</v>
+        <v>946</v>
       </c>
       <c r="G154" t="s">
         <v>8</v>
@@ -6629,13 +6658,13 @@
         <v>9</v>
       </c>
       <c r="B155" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D155" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E155" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F155" t="s">
         <v>7</v>
@@ -6649,13 +6678,13 @@
         <v>9</v>
       </c>
       <c r="B156" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D156" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E156" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="F156" t="s">
         <v>7</v>
@@ -6669,13 +6698,13 @@
         <v>9</v>
       </c>
       <c r="B157" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D157" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E157" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F157" t="s">
         <v>7</v>
@@ -6689,13 +6718,13 @@
         <v>9</v>
       </c>
       <c r="B158" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D158" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E158" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F158" t="s">
         <v>7</v>
@@ -6709,13 +6738,13 @@
         <v>9</v>
       </c>
       <c r="B159" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D159" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E159" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="F159" t="s">
         <v>7</v>
@@ -6729,13 +6758,13 @@
         <v>9</v>
       </c>
       <c r="B160" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D160" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E160" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F160" t="s">
         <v>7</v>
@@ -6749,13 +6778,13 @@
         <v>9</v>
       </c>
       <c r="B161" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D161" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E161" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="F161" t="s">
         <v>7</v>
@@ -6769,13 +6798,13 @@
         <v>9</v>
       </c>
       <c r="B162" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D162" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E162" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F162" t="s">
         <v>7</v>
@@ -6789,13 +6818,13 @@
         <v>9</v>
       </c>
       <c r="B163" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D163" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E163" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F163" t="s">
         <v>7</v>
@@ -6809,13 +6838,13 @@
         <v>9</v>
       </c>
       <c r="B164" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D164" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E164" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F164" t="s">
         <v>7</v>
@@ -6829,13 +6858,13 @@
         <v>9</v>
       </c>
       <c r="B165" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D165" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E165" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F165" t="s">
         <v>7</v>
@@ -6849,13 +6878,13 @@
         <v>9</v>
       </c>
       <c r="B166" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D166" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E166" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="F166" t="s">
         <v>7</v>
@@ -6869,13 +6898,13 @@
         <v>9</v>
       </c>
       <c r="B167" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D167" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E167" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F167" t="s">
         <v>7</v>
@@ -6889,13 +6918,13 @@
         <v>9</v>
       </c>
       <c r="B168" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D168" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E168" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="F168" t="s">
         <v>7</v>
@@ -6909,13 +6938,13 @@
         <v>9</v>
       </c>
       <c r="B169" t="s">
-        <v>989</v>
+        <v>471</v>
       </c>
       <c r="D169" t="s">
-        <v>990</v>
+        <v>159</v>
       </c>
       <c r="E169" t="s">
-        <v>991</v>
+        <v>783</v>
       </c>
       <c r="F169" t="s">
         <v>7</v>
@@ -6929,13 +6958,13 @@
         <v>9</v>
       </c>
       <c r="B170" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="D170" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="E170" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="F170" t="s">
         <v>7</v>
@@ -6949,13 +6978,13 @@
         <v>9</v>
       </c>
       <c r="B171" t="s">
-        <v>998</v>
+        <v>992</v>
       </c>
       <c r="D171" t="s">
-        <v>999</v>
+        <v>993</v>
       </c>
       <c r="E171" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="F171" t="s">
         <v>7</v>
@@ -6969,13 +6998,13 @@
         <v>9</v>
       </c>
       <c r="B172" t="s">
-        <v>472</v>
+        <v>998</v>
       </c>
       <c r="D172" t="s">
-        <v>160</v>
+        <v>999</v>
       </c>
       <c r="E172" t="s">
-        <v>784</v>
+        <v>1000</v>
       </c>
       <c r="F172" t="s">
         <v>7</v>
@@ -6989,16 +7018,16 @@
         <v>9</v>
       </c>
       <c r="B173" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D173" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E173" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F173" t="s">
-        <v>946</v>
+        <v>7</v>
       </c>
       <c r="G173" t="s">
         <v>8</v>
@@ -7009,16 +7038,16 @@
         <v>9</v>
       </c>
       <c r="B174" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D174" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E174" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="F174" t="s">
-        <v>7</v>
+        <v>946</v>
       </c>
       <c r="G174" t="s">
         <v>8</v>
@@ -7029,13 +7058,13 @@
         <v>9</v>
       </c>
       <c r="B175" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D175" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E175" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F175" t="s">
         <v>7</v>
@@ -7049,13 +7078,13 @@
         <v>9</v>
       </c>
       <c r="B176" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D176" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E176" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="F176" t="s">
         <v>7</v>
@@ -7069,13 +7098,13 @@
         <v>9</v>
       </c>
       <c r="B177" t="s">
-        <v>1001</v>
+        <v>476</v>
       </c>
       <c r="D177" t="s">
-        <v>1002</v>
+        <v>164</v>
       </c>
       <c r="E177" t="s">
-        <v>1003</v>
+        <v>788</v>
       </c>
       <c r="F177" t="s">
         <v>7</v>
@@ -7089,13 +7118,13 @@
         <v>9</v>
       </c>
       <c r="B178" t="s">
-        <v>477</v>
+        <v>1001</v>
       </c>
       <c r="D178" t="s">
-        <v>165</v>
+        <v>1002</v>
       </c>
       <c r="E178" t="s">
-        <v>789</v>
+        <v>1003</v>
       </c>
       <c r="F178" t="s">
         <v>7</v>
@@ -7109,13 +7138,13 @@
         <v>9</v>
       </c>
       <c r="B179" t="s">
-        <v>1004</v>
+        <v>477</v>
       </c>
       <c r="D179" t="s">
-        <v>1005</v>
+        <v>165</v>
       </c>
       <c r="E179" t="s">
-        <v>1006</v>
+        <v>789</v>
       </c>
       <c r="F179" t="s">
         <v>7</v>
@@ -7129,16 +7158,16 @@
         <v>9</v>
       </c>
       <c r="B180" t="s">
-        <v>478</v>
+        <v>1004</v>
       </c>
       <c r="D180" t="s">
-        <v>166</v>
+        <v>1005</v>
       </c>
       <c r="E180" t="s">
-        <v>790</v>
+        <v>1006</v>
       </c>
       <c r="F180" t="s">
-        <v>946</v>
+        <v>7</v>
       </c>
       <c r="G180" t="s">
         <v>8</v>
@@ -7149,16 +7178,16 @@
         <v>9</v>
       </c>
       <c r="B181" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D181" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E181" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="F181" t="s">
-        <v>7</v>
+        <v>946</v>
       </c>
       <c r="G181" t="s">
         <v>8</v>
@@ -7169,13 +7198,13 @@
         <v>9</v>
       </c>
       <c r="B182" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D182" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E182" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="F182" t="s">
         <v>7</v>
@@ -7189,13 +7218,13 @@
         <v>9</v>
       </c>
       <c r="B183" t="s">
-        <v>1007</v>
+        <v>480</v>
       </c>
       <c r="D183" t="s">
-        <v>1008</v>
+        <v>168</v>
       </c>
       <c r="E183" t="s">
-        <v>1009</v>
+        <v>792</v>
       </c>
       <c r="F183" t="s">
         <v>7</v>
@@ -7209,13 +7238,13 @@
         <v>9</v>
       </c>
       <c r="B184" t="s">
-        <v>481</v>
+        <v>1007</v>
       </c>
       <c r="D184" t="s">
-        <v>169</v>
+        <v>1008</v>
       </c>
       <c r="E184" t="s">
-        <v>793</v>
+        <v>1009</v>
       </c>
       <c r="F184" t="s">
         <v>7</v>
@@ -7229,13 +7258,13 @@
         <v>9</v>
       </c>
       <c r="B185" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D185" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E185" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="F185" t="s">
         <v>7</v>
@@ -7249,13 +7278,13 @@
         <v>9</v>
       </c>
       <c r="B186" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D186" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E186" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F186" t="s">
         <v>7</v>
@@ -7269,16 +7298,16 @@
         <v>9</v>
       </c>
       <c r="B187" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D187" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E187" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F187" t="s">
-        <v>946</v>
+        <v>7</v>
       </c>
       <c r="G187" t="s">
         <v>8</v>
@@ -7289,16 +7318,16 @@
         <v>9</v>
       </c>
       <c r="B188" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D188" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E188" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F188" t="s">
-        <v>7</v>
+        <v>946</v>
       </c>
       <c r="G188" t="s">
         <v>8</v>
@@ -7309,13 +7338,13 @@
         <v>9</v>
       </c>
       <c r="B189" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D189" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E189" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F189" t="s">
         <v>7</v>
@@ -7329,16 +7358,16 @@
         <v>9</v>
       </c>
       <c r="B190" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D190" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E190" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F190" t="s">
-        <v>946</v>
+        <v>7</v>
       </c>
       <c r="G190" t="s">
         <v>8</v>
@@ -7349,16 +7378,16 @@
         <v>9</v>
       </c>
       <c r="B191" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D191" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E191" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F191" t="s">
-        <v>7</v>
+        <v>946</v>
       </c>
       <c r="G191" t="s">
         <v>8</v>
@@ -7369,13 +7398,13 @@
         <v>9</v>
       </c>
       <c r="B192" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D192" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E192" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F192" t="s">
         <v>7</v>
@@ -7389,16 +7418,16 @@
         <v>9</v>
       </c>
       <c r="B193" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D193" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E193" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F193" t="s">
-        <v>946</v>
+        <v>7</v>
       </c>
       <c r="G193" t="s">
         <v>8</v>
@@ -7409,16 +7438,16 @@
         <v>9</v>
       </c>
       <c r="B194" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D194" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E194" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="F194" t="s">
-        <v>7</v>
+        <v>946</v>
       </c>
       <c r="G194" t="s">
         <v>8</v>
@@ -7429,13 +7458,13 @@
         <v>9</v>
       </c>
       <c r="B195" t="s">
-        <v>1013</v>
+        <v>491</v>
       </c>
       <c r="D195" t="s">
-        <v>1014</v>
+        <v>179</v>
       </c>
       <c r="E195" t="s">
-        <v>1015</v>
+        <v>803</v>
       </c>
       <c r="F195" t="s">
         <v>7</v>
@@ -7449,13 +7478,13 @@
         <v>9</v>
       </c>
       <c r="B196" t="s">
-        <v>492</v>
+        <v>1013</v>
       </c>
       <c r="D196" t="s">
-        <v>180</v>
+        <v>1014</v>
       </c>
       <c r="E196" t="s">
-        <v>804</v>
+        <v>1015</v>
       </c>
       <c r="F196" t="s">
         <v>7</v>
@@ -7469,13 +7498,13 @@
         <v>9</v>
       </c>
       <c r="B197" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D197" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E197" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F197" t="s">
         <v>7</v>
@@ -7489,13 +7518,13 @@
         <v>9</v>
       </c>
       <c r="B198" t="s">
-        <v>1010</v>
+        <v>493</v>
       </c>
       <c r="D198" t="s">
-        <v>1011</v>
+        <v>181</v>
       </c>
       <c r="E198" t="s">
-        <v>1012</v>
+        <v>805</v>
       </c>
       <c r="F198" t="s">
         <v>7</v>
@@ -7509,13 +7538,13 @@
         <v>9</v>
       </c>
       <c r="B199" t="s">
-        <v>494</v>
+        <v>1010</v>
       </c>
       <c r="D199" t="s">
-        <v>182</v>
+        <v>1011</v>
       </c>
       <c r="E199" t="s">
-        <v>806</v>
+        <v>1012</v>
       </c>
       <c r="F199" t="s">
         <v>7</v>
@@ -7529,13 +7558,13 @@
         <v>9</v>
       </c>
       <c r="B200" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D200" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E200" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="F200" t="s">
         <v>7</v>
@@ -7549,13 +7578,13 @@
         <v>9</v>
       </c>
       <c r="B201" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D201" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E201" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="F201" t="s">
         <v>7</v>
@@ -7569,13 +7598,13 @@
         <v>9</v>
       </c>
       <c r="B202" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D202" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E202" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F202" t="s">
         <v>7</v>
@@ -7589,13 +7618,13 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D203" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E203" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F203" t="s">
         <v>7</v>
@@ -7609,13 +7638,13 @@
         <v>9</v>
       </c>
       <c r="B204" t="s">
-        <v>1016</v>
+        <v>498</v>
       </c>
       <c r="D204" t="s">
-        <v>1017</v>
+        <v>186</v>
       </c>
       <c r="E204" t="s">
-        <v>1018</v>
+        <v>810</v>
       </c>
       <c r="F204" t="s">
         <v>7</v>
@@ -7629,13 +7658,13 @@
         <v>9</v>
       </c>
       <c r="B205" t="s">
-        <v>499</v>
+        <v>1016</v>
       </c>
       <c r="D205" t="s">
-        <v>187</v>
+        <v>1017</v>
       </c>
       <c r="E205" t="s">
-        <v>811</v>
+        <v>1018</v>
       </c>
       <c r="F205" t="s">
         <v>7</v>
@@ -7649,13 +7678,13 @@
         <v>9</v>
       </c>
       <c r="B206" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D206" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E206" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F206" t="s">
         <v>7</v>
@@ -7669,13 +7698,13 @@
         <v>9</v>
       </c>
       <c r="B207" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D207" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E207" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="F207" t="s">
         <v>7</v>
@@ -7689,13 +7718,13 @@
         <v>9</v>
       </c>
       <c r="B208" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D208" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E208" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="F208" t="s">
         <v>7</v>
@@ -7709,13 +7738,13 @@
         <v>9</v>
       </c>
       <c r="B209" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D209" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E209" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="F209" t="s">
         <v>7</v>
@@ -7729,13 +7758,13 @@
         <v>9</v>
       </c>
       <c r="B210" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D210" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E210" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="F210" t="s">
         <v>7</v>
@@ -7749,13 +7778,13 @@
         <v>9</v>
       </c>
       <c r="B211" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D211" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E211" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="F211" t="s">
         <v>7</v>
@@ -7769,13 +7798,13 @@
         <v>9</v>
       </c>
       <c r="B212" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D212" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E212" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="F212" t="s">
         <v>7</v>
@@ -7789,13 +7818,13 @@
         <v>9</v>
       </c>
       <c r="B213" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D213" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E213" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="F213" t="s">
         <v>7</v>
@@ -7809,13 +7838,13 @@
         <v>9</v>
       </c>
       <c r="B214" t="s">
-        <v>1028</v>
+        <v>507</v>
       </c>
       <c r="D214" t="s">
-        <v>1029</v>
+        <v>195</v>
       </c>
       <c r="E214" t="s">
-        <v>1030</v>
+        <v>819</v>
       </c>
       <c r="F214" t="s">
         <v>7</v>
@@ -7829,13 +7858,13 @@
         <v>9</v>
       </c>
       <c r="B215" t="s">
-        <v>508</v>
+        <v>1028</v>
       </c>
       <c r="D215" t="s">
-        <v>196</v>
+        <v>1029</v>
       </c>
       <c r="E215" t="s">
-        <v>820</v>
+        <v>1030</v>
       </c>
       <c r="F215" t="s">
         <v>7</v>
@@ -7849,13 +7878,13 @@
         <v>9</v>
       </c>
       <c r="B216" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D216" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E216" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="F216" t="s">
         <v>7</v>
@@ -7869,13 +7898,13 @@
         <v>9</v>
       </c>
       <c r="B217" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D217" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E217" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="F217" t="s">
         <v>7</v>
@@ -7889,13 +7918,13 @@
         <v>9</v>
       </c>
       <c r="B218" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D218" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E218" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="F218" t="s">
         <v>7</v>
@@ -7909,13 +7938,13 @@
         <v>9</v>
       </c>
       <c r="B219" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D219" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E219" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F219" t="s">
         <v>7</v>
@@ -7929,13 +7958,13 @@
         <v>9</v>
       </c>
       <c r="B220" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D220" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E220" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="F220" t="s">
         <v>7</v>
@@ -7949,13 +7978,13 @@
         <v>9</v>
       </c>
       <c r="B221" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D221" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E221" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="F221" t="s">
         <v>7</v>
@@ -7969,13 +7998,13 @@
         <v>9</v>
       </c>
       <c r="B222" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D222" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E222" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="F222" t="s">
         <v>7</v>
@@ -7989,13 +8018,13 @@
         <v>9</v>
       </c>
       <c r="B223" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D223" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E223" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F223" t="s">
         <v>7</v>
@@ -8009,13 +8038,13 @@
         <v>9</v>
       </c>
       <c r="B224" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D224" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E224" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="F224" t="s">
         <v>7</v>
@@ -8029,13 +8058,13 @@
         <v>9</v>
       </c>
       <c r="B225" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D225" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E225" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="F225" t="s">
         <v>7</v>
@@ -8049,13 +8078,13 @@
         <v>9</v>
       </c>
       <c r="B226" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D226" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E226" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="F226" t="s">
         <v>7</v>
@@ -8069,16 +8098,16 @@
         <v>9</v>
       </c>
       <c r="B227" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D227" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E227" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="F227" t="s">
-        <v>946</v>
+        <v>7</v>
       </c>
       <c r="G227" t="s">
         <v>8</v>
@@ -8089,16 +8118,16 @@
         <v>9</v>
       </c>
       <c r="B228" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D228" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E228" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="F228" t="s">
-        <v>7</v>
+        <v>946</v>
       </c>
       <c r="G228" t="s">
         <v>8</v>
@@ -8109,13 +8138,13 @@
         <v>9</v>
       </c>
       <c r="B229" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D229" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E229" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="F229" t="s">
         <v>7</v>
@@ -8129,13 +8158,13 @@
         <v>9</v>
       </c>
       <c r="B230" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D230" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E230" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="F230" t="s">
         <v>7</v>
@@ -8149,13 +8178,13 @@
         <v>9</v>
       </c>
       <c r="B231" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D231" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E231" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F231" t="s">
         <v>7</v>
@@ -8169,13 +8198,13 @@
         <v>9</v>
       </c>
       <c r="B232" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D232" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E232" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="F232" t="s">
         <v>7</v>
@@ -8189,13 +8218,13 @@
         <v>9</v>
       </c>
       <c r="B233" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D233" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E233" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="F233" t="s">
         <v>7</v>
@@ -8209,13 +8238,13 @@
         <v>9</v>
       </c>
       <c r="B234" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D234" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E234" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="F234" t="s">
         <v>7</v>
@@ -8229,13 +8258,13 @@
         <v>9</v>
       </c>
       <c r="B235" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D235" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E235" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="F235" t="s">
         <v>7</v>
@@ -8249,13 +8278,13 @@
         <v>9</v>
       </c>
       <c r="B236" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D236" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E236" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="F236" t="s">
         <v>7</v>
@@ -8269,13 +8298,13 @@
         <v>9</v>
       </c>
       <c r="B237" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D237" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E237" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="F237" t="s">
         <v>7</v>
@@ -8289,13 +8318,13 @@
         <v>9</v>
       </c>
       <c r="B238" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D238" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E238" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="F238" t="s">
         <v>7</v>
@@ -8309,13 +8338,13 @@
         <v>9</v>
       </c>
       <c r="B239" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D239" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E239" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="F239" t="s">
         <v>7</v>
@@ -8329,13 +8358,13 @@
         <v>9</v>
       </c>
       <c r="B240" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D240" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E240" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="F240" t="s">
         <v>7</v>
@@ -8349,13 +8378,13 @@
         <v>9</v>
       </c>
       <c r="B241" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D241" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E241" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="F241" t="s">
         <v>7</v>
@@ -8369,13 +8398,13 @@
         <v>9</v>
       </c>
       <c r="B242" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D242" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E242" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="F242" t="s">
         <v>7</v>
@@ -8389,13 +8418,13 @@
         <v>9</v>
       </c>
       <c r="B243" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D243" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E243" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="F243" t="s">
         <v>7</v>
@@ -8409,13 +8438,13 @@
         <v>9</v>
       </c>
       <c r="B244" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D244" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E244" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="F244" t="s">
         <v>7</v>
@@ -8429,13 +8458,13 @@
         <v>9</v>
       </c>
       <c r="B245" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D245" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E245" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="F245" t="s">
         <v>7</v>
@@ -8449,16 +8478,16 @@
         <v>9</v>
       </c>
       <c r="B246" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D246" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E246" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="F246" t="s">
-        <v>946</v>
+        <v>7</v>
       </c>
       <c r="G246" t="s">
         <v>8</v>
@@ -8469,16 +8498,16 @@
         <v>9</v>
       </c>
       <c r="B247" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D247" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E247" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="F247" t="s">
-        <v>7</v>
+        <v>946</v>
       </c>
       <c r="G247" t="s">
         <v>8</v>
@@ -8489,13 +8518,13 @@
         <v>9</v>
       </c>
       <c r="B248" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D248" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E248" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="F248" t="s">
         <v>7</v>
@@ -8509,13 +8538,13 @@
         <v>9</v>
       </c>
       <c r="B249" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D249" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E249" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F249" t="s">
         <v>7</v>
@@ -8529,13 +8558,13 @@
         <v>9</v>
       </c>
       <c r="B250" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D250" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E250" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F250" t="s">
         <v>7</v>
@@ -8549,13 +8578,13 @@
         <v>9</v>
       </c>
       <c r="B251" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D251" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E251" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="F251" t="s">
         <v>7</v>
@@ -8569,13 +8598,13 @@
         <v>9</v>
       </c>
       <c r="B252" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D252" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E252" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="F252" t="s">
         <v>7</v>
@@ -8589,16 +8618,16 @@
         <v>9</v>
       </c>
       <c r="B253" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D253" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E253" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="F253" t="s">
-        <v>946</v>
+        <v>7</v>
       </c>
       <c r="G253" t="s">
         <v>8</v>
@@ -8609,16 +8638,16 @@
         <v>9</v>
       </c>
       <c r="B254" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D254" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E254" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="F254" t="s">
-        <v>7</v>
+        <v>946</v>
       </c>
       <c r="G254" t="s">
         <v>8</v>
@@ -8629,13 +8658,13 @@
         <v>9</v>
       </c>
       <c r="B255" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D255" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E255" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F255" t="s">
         <v>7</v>
@@ -8649,13 +8678,13 @@
         <v>9</v>
       </c>
       <c r="B256" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D256" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E256" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="F256" t="s">
         <v>7</v>
@@ -8669,13 +8698,13 @@
         <v>9</v>
       </c>
       <c r="B257" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D257" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E257" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="F257" t="s">
         <v>7</v>
@@ -8689,13 +8718,13 @@
         <v>9</v>
       </c>
       <c r="B258" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D258" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E258" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="F258" t="s">
         <v>7</v>
@@ -8709,13 +8738,13 @@
         <v>9</v>
       </c>
       <c r="B259" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D259" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E259" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="F259" t="s">
         <v>7</v>
@@ -8729,13 +8758,13 @@
         <v>9</v>
       </c>
       <c r="B260" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D260" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E260" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="F260" t="s">
         <v>7</v>
@@ -8749,13 +8778,13 @@
         <v>9</v>
       </c>
       <c r="B261" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D261" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E261" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F261" t="s">
         <v>7</v>
@@ -8769,13 +8798,13 @@
         <v>9</v>
       </c>
       <c r="B262" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D262" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E262" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="F262" t="s">
         <v>7</v>
@@ -8789,13 +8818,13 @@
         <v>9</v>
       </c>
       <c r="B263" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D263" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E263" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="F263" t="s">
         <v>7</v>
@@ -8809,13 +8838,13 @@
         <v>9</v>
       </c>
       <c r="B264" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D264" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E264" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="F264" t="s">
         <v>7</v>
@@ -8829,13 +8858,13 @@
         <v>9</v>
       </c>
       <c r="B265" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D265" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E265" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F265" t="s">
         <v>7</v>
@@ -8849,13 +8878,13 @@
         <v>9</v>
       </c>
       <c r="B266" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D266" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E266" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="F266" t="s">
         <v>7</v>
@@ -8869,13 +8898,13 @@
         <v>9</v>
       </c>
       <c r="B267" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D267" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E267" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="F267" t="s">
         <v>7</v>
@@ -8889,13 +8918,13 @@
         <v>9</v>
       </c>
       <c r="B268" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D268" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E268" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="F268" t="s">
         <v>7</v>
@@ -8909,13 +8938,13 @@
         <v>9</v>
       </c>
       <c r="B269" t="s">
-        <v>1025</v>
+        <v>561</v>
       </c>
       <c r="D269" t="s">
-        <v>1026</v>
+        <v>249</v>
       </c>
       <c r="E269" t="s">
-        <v>1027</v>
+        <v>873</v>
       </c>
       <c r="F269" t="s">
         <v>7</v>
@@ -8929,13 +8958,13 @@
         <v>9</v>
       </c>
       <c r="B270" t="s">
-        <v>562</v>
+        <v>1025</v>
       </c>
       <c r="D270" t="s">
-        <v>250</v>
+        <v>1026</v>
       </c>
       <c r="E270" t="s">
-        <v>874</v>
+        <v>1027</v>
       </c>
       <c r="F270" t="s">
         <v>7</v>
@@ -8949,13 +8978,13 @@
         <v>9</v>
       </c>
       <c r="B271" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D271" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E271" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="F271" t="s">
         <v>7</v>
@@ -8969,13 +8998,13 @@
         <v>9</v>
       </c>
       <c r="B272" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D272" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E272" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="F272" t="s">
         <v>7</v>
@@ -8989,13 +9018,13 @@
         <v>9</v>
       </c>
       <c r="B273" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D273" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E273" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="F273" t="s">
         <v>7</v>
@@ -9009,16 +9038,16 @@
         <v>9</v>
       </c>
       <c r="B274" t="s">
-        <v>1031</v>
+        <v>565</v>
       </c>
       <c r="D274" t="s">
-        <v>1032</v>
+        <v>253</v>
       </c>
       <c r="E274" t="s">
-        <v>1033</v>
+        <v>877</v>
       </c>
       <c r="F274" t="s">
-        <v>946</v>
+        <v>7</v>
       </c>
       <c r="G274" t="s">
         <v>8</v>
@@ -9029,16 +9058,16 @@
         <v>9</v>
       </c>
       <c r="B275" t="s">
-        <v>566</v>
+        <v>1031</v>
       </c>
       <c r="D275" t="s">
-        <v>254</v>
+        <v>1032</v>
       </c>
       <c r="E275" t="s">
-        <v>878</v>
+        <v>1033</v>
       </c>
       <c r="F275" t="s">
-        <v>7</v>
+        <v>946</v>
       </c>
       <c r="G275" t="s">
         <v>8</v>
@@ -9049,13 +9078,13 @@
         <v>9</v>
       </c>
       <c r="B276" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D276" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E276" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="F276" t="s">
         <v>7</v>
@@ -9069,13 +9098,13 @@
         <v>9</v>
       </c>
       <c r="B277" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D277" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E277" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="F277" t="s">
         <v>7</v>
@@ -9089,16 +9118,16 @@
         <v>9</v>
       </c>
       <c r="B278" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D278" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E278" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="F278" t="s">
-        <v>946</v>
+        <v>7</v>
       </c>
       <c r="G278" t="s">
         <v>8</v>
@@ -9109,16 +9138,16 @@
         <v>9</v>
       </c>
       <c r="B279" t="s">
-        <v>1037</v>
+        <v>569</v>
       </c>
       <c r="D279" t="s">
-        <v>1038</v>
+        <v>257</v>
       </c>
       <c r="E279" t="s">
-        <v>1039</v>
+        <v>881</v>
       </c>
       <c r="F279" t="s">
-        <v>7</v>
+        <v>946</v>
       </c>
       <c r="G279" t="s">
         <v>8</v>
@@ -9129,13 +9158,13 @@
         <v>9</v>
       </c>
       <c r="B280" t="s">
-        <v>570</v>
+        <v>1037</v>
       </c>
       <c r="D280" t="s">
-        <v>258</v>
+        <v>1038</v>
       </c>
       <c r="E280" t="s">
-        <v>882</v>
+        <v>1039</v>
       </c>
       <c r="F280" t="s">
         <v>7</v>
@@ -9149,13 +9178,13 @@
         <v>9</v>
       </c>
       <c r="B281" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D281" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E281" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F281" t="s">
         <v>7</v>
@@ -9169,13 +9198,13 @@
         <v>9</v>
       </c>
       <c r="B282" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D282" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E282" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="F282" t="s">
         <v>7</v>
@@ -9189,13 +9218,13 @@
         <v>9</v>
       </c>
       <c r="B283" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D283" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E283" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="F283" t="s">
         <v>7</v>
@@ -9209,13 +9238,13 @@
         <v>9</v>
       </c>
       <c r="B284" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D284" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E284" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="F284" t="s">
         <v>7</v>
@@ -9229,13 +9258,13 @@
         <v>9</v>
       </c>
       <c r="B285" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D285" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E285" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="F285" t="s">
         <v>7</v>
@@ -9249,13 +9278,13 @@
         <v>9</v>
       </c>
       <c r="B286" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D286" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E286" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="F286" t="s">
         <v>7</v>
@@ -9269,13 +9298,13 @@
         <v>9</v>
       </c>
       <c r="B287" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D287" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E287" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="F287" t="s">
         <v>7</v>
@@ -9289,13 +9318,13 @@
         <v>9</v>
       </c>
       <c r="B288" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D288" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E288" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="F288" t="s">
         <v>7</v>
@@ -9309,16 +9338,16 @@
         <v>9</v>
       </c>
       <c r="B289" t="s">
-        <v>1034</v>
+        <v>578</v>
       </c>
       <c r="D289" t="s">
-        <v>1035</v>
+        <v>266</v>
       </c>
       <c r="E289" t="s">
-        <v>1036</v>
+        <v>890</v>
       </c>
       <c r="F289" t="s">
-        <v>946</v>
+        <v>7</v>
       </c>
       <c r="G289" t="s">
         <v>8</v>
@@ -9329,16 +9358,16 @@
         <v>9</v>
       </c>
       <c r="B290" t="s">
-        <v>579</v>
+        <v>1034</v>
       </c>
       <c r="D290" t="s">
-        <v>267</v>
+        <v>1035</v>
       </c>
       <c r="E290" t="s">
-        <v>891</v>
+        <v>1036</v>
       </c>
       <c r="F290" t="s">
-        <v>7</v>
+        <v>946</v>
       </c>
       <c r="G290" t="s">
         <v>8</v>
@@ -9349,13 +9378,13 @@
         <v>9</v>
       </c>
       <c r="B291" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D291" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E291" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="F291" t="s">
         <v>7</v>
@@ -9369,13 +9398,13 @@
         <v>9</v>
       </c>
       <c r="B292" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D292" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E292" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="F292" t="s">
         <v>7</v>
@@ -9389,13 +9418,13 @@
         <v>9</v>
       </c>
       <c r="B293" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D293" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E293" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="F293" t="s">
         <v>7</v>
@@ -9409,13 +9438,13 @@
         <v>9</v>
       </c>
       <c r="B294" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D294" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E294" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="F294" t="s">
         <v>7</v>
@@ -9429,13 +9458,13 @@
         <v>9</v>
       </c>
       <c r="B295" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D295" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E295" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="F295" t="s">
         <v>7</v>
@@ -9449,13 +9478,13 @@
         <v>9</v>
       </c>
       <c r="B296" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D296" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E296" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="F296" t="s">
         <v>7</v>
@@ -9469,13 +9498,13 @@
         <v>9</v>
       </c>
       <c r="B297" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D297" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E297" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="F297" t="s">
         <v>7</v>
@@ -9489,13 +9518,13 @@
         <v>9</v>
       </c>
       <c r="B298" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D298" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E298" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F298" t="s">
         <v>7</v>
@@ -9509,13 +9538,13 @@
         <v>9</v>
       </c>
       <c r="B299" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D299" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E299" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="F299" t="s">
         <v>7</v>
@@ -9529,13 +9558,13 @@
         <v>9</v>
       </c>
       <c r="B300" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D300" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E300" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F300" t="s">
         <v>7</v>
@@ -9549,13 +9578,13 @@
         <v>9</v>
       </c>
       <c r="B301" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D301" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E301" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="F301" t="s">
         <v>7</v>
@@ -9569,13 +9598,13 @@
         <v>9</v>
       </c>
       <c r="B302" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D302" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E302" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="F302" t="s">
         <v>7</v>
@@ -9589,13 +9618,13 @@
         <v>9</v>
       </c>
       <c r="B303" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D303" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E303" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="F303" t="s">
         <v>7</v>
@@ -9609,13 +9638,13 @@
         <v>9</v>
       </c>
       <c r="B304" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D304" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E304" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="F304" t="s">
         <v>7</v>
@@ -9629,13 +9658,13 @@
         <v>9</v>
       </c>
       <c r="B305" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D305" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E305" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F305" t="s">
         <v>7</v>
@@ -9649,13 +9678,13 @@
         <v>9</v>
       </c>
       <c r="B306" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D306" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E306" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="F306" t="s">
         <v>7</v>
@@ -9669,13 +9698,13 @@
         <v>9</v>
       </c>
       <c r="B307" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D307" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E307" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="F307" t="s">
         <v>7</v>
@@ -9689,13 +9718,13 @@
         <v>9</v>
       </c>
       <c r="B308" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D308" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E308" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="F308" t="s">
         <v>7</v>
@@ -9709,13 +9738,13 @@
         <v>9</v>
       </c>
       <c r="B309" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D309" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E309" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="F309" t="s">
         <v>7</v>
@@ -9729,13 +9758,13 @@
         <v>9</v>
       </c>
       <c r="B310" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D310" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E310" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="F310" t="s">
         <v>7</v>
@@ -9749,13 +9778,13 @@
         <v>9</v>
       </c>
       <c r="B311" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D311" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E311" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="F311" t="s">
         <v>7</v>
@@ -9769,13 +9798,13 @@
         <v>9</v>
       </c>
       <c r="B312" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D312" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E312" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="F312" t="s">
         <v>7</v>
@@ -9789,13 +9818,13 @@
         <v>9</v>
       </c>
       <c r="B313" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D313" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E313" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="F313" t="s">
         <v>7</v>
@@ -9809,13 +9838,13 @@
         <v>9</v>
       </c>
       <c r="B314" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D314" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E314" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="F314" t="s">
         <v>7</v>
@@ -9829,13 +9858,13 @@
         <v>9</v>
       </c>
       <c r="B315" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D315" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E315" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="F315" t="s">
         <v>7</v>
@@ -9849,13 +9878,13 @@
         <v>9</v>
       </c>
       <c r="B316" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D316" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E316" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="F316" t="s">
         <v>7</v>
@@ -9869,13 +9898,13 @@
         <v>9</v>
       </c>
       <c r="B317" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D317" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E317" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="F317" t="s">
         <v>7</v>
@@ -9889,13 +9918,13 @@
         <v>9</v>
       </c>
       <c r="B318" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D318" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E318" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="F318" t="s">
         <v>7</v>
@@ -9909,13 +9938,13 @@
         <v>9</v>
       </c>
       <c r="B319" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D319" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E319" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="F319" t="s">
         <v>7</v>
@@ -9929,13 +9958,13 @@
         <v>9</v>
       </c>
       <c r="B320" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D320" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E320" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="F320" t="s">
         <v>7</v>
@@ -9949,13 +9978,13 @@
         <v>9</v>
       </c>
       <c r="B321" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D321" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E321" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F321" t="s">
         <v>7</v>
@@ -9969,13 +9998,13 @@
         <v>9</v>
       </c>
       <c r="B322" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D322" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E322" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F322" t="s">
         <v>7</v>
@@ -9989,13 +10018,13 @@
         <v>9</v>
       </c>
       <c r="B323" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D323" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E323" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="F323" t="s">
         <v>7</v>
@@ -10009,13 +10038,13 @@
         <v>9</v>
       </c>
       <c r="B324" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D324" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E324" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="F324" t="s">
         <v>7</v>
@@ -10029,13 +10058,13 @@
         <v>9</v>
       </c>
       <c r="B325" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D325" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E325" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="F325" t="s">
         <v>7</v>
@@ -10049,13 +10078,13 @@
         <v>9</v>
       </c>
       <c r="B326" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D326" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E326" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="F326" t="s">
         <v>7</v>
@@ -10069,13 +10098,13 @@
         <v>9</v>
       </c>
       <c r="B327" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D327" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E327" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="F327" t="s">
         <v>7</v>
@@ -10089,13 +10118,13 @@
         <v>9</v>
       </c>
       <c r="B328" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D328" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E328" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="F328" t="s">
         <v>7</v>
@@ -10109,16 +10138,16 @@
         <v>9</v>
       </c>
       <c r="B329" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D329" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E329" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="F329" t="s">
-        <v>946</v>
+        <v>7</v>
       </c>
       <c r="G329" t="s">
         <v>8</v>
@@ -10129,16 +10158,16 @@
         <v>9</v>
       </c>
       <c r="B330" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D330" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E330" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="F330" t="s">
-        <v>7</v>
+        <v>946</v>
       </c>
       <c r="G330" t="s">
         <v>8</v>
@@ -10149,13 +10178,13 @@
         <v>9</v>
       </c>
       <c r="B331" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D331" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E331" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="F331" t="s">
         <v>7</v>
@@ -10169,13 +10198,13 @@
         <v>9</v>
       </c>
       <c r="B332" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D332" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E332" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="F332" t="s">
         <v>7</v>
@@ -10189,16 +10218,19 @@
         <v>9</v>
       </c>
       <c r="B333" t="s">
-        <v>622</v>
+        <v>1043</v>
+      </c>
+      <c r="C333" t="s">
+        <v>1044</v>
       </c>
       <c r="D333" t="s">
-        <v>310</v>
-      </c>
-      <c r="E333" t="s">
-        <v>934</v>
+        <v>1045</v>
+      </c>
+      <c r="E333" s="2" t="s">
+        <v>1046</v>
       </c>
       <c r="F333" t="s">
-        <v>946</v>
+        <v>7</v>
       </c>
       <c r="G333" t="s">
         <v>8</v>
@@ -10209,13 +10241,13 @@
         <v>9</v>
       </c>
       <c r="B334" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D334" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E334" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="F334" t="s">
         <v>7</v>
@@ -10229,16 +10261,16 @@
         <v>9</v>
       </c>
       <c r="B335" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D335" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E335" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="F335" t="s">
-        <v>7</v>
+        <v>946</v>
       </c>
       <c r="G335" t="s">
         <v>8</v>
@@ -10249,13 +10281,13 @@
         <v>9</v>
       </c>
       <c r="B336" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D336" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E336" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="F336" t="s">
         <v>7</v>
@@ -10269,13 +10301,13 @@
         <v>9</v>
       </c>
       <c r="B337" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D337" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E337" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="F337" t="s">
         <v>7</v>
@@ -10289,13 +10321,13 @@
         <v>9</v>
       </c>
       <c r="B338" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D338" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E338" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="F338" t="s">
         <v>7</v>
@@ -10309,13 +10341,13 @@
         <v>9</v>
       </c>
       <c r="B339" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D339" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E339" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="F339" t="s">
         <v>7</v>
@@ -10329,13 +10361,13 @@
         <v>9</v>
       </c>
       <c r="B340" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D340" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E340" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="F340" t="s">
         <v>7</v>
@@ -10349,13 +10381,13 @@
         <v>9</v>
       </c>
       <c r="B341" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D341" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E341" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="F341" t="s">
         <v>7</v>
@@ -10369,13 +10401,13 @@
         <v>9</v>
       </c>
       <c r="B342" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D342" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E342" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="F342" t="s">
         <v>7</v>
@@ -10389,13 +10421,13 @@
         <v>9</v>
       </c>
       <c r="B343" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D343" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E343" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="F343" t="s">
         <v>7</v>
@@ -10409,32 +10441,93 @@
         <v>9</v>
       </c>
       <c r="B344" t="s">
+        <v>631</v>
+      </c>
+      <c r="D344" t="s">
+        <v>319</v>
+      </c>
+      <c r="E344" t="s">
+        <v>943</v>
+      </c>
+      <c r="F344" t="s">
+        <v>7</v>
+      </c>
+      <c r="G344" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>9</v>
+      </c>
+      <c r="B345" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C345" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D345" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E345" s="2" t="s">
+        <v>1050</v>
+      </c>
+      <c r="F345" t="s">
+        <v>7</v>
+      </c>
+      <c r="G345" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>9</v>
+      </c>
+      <c r="B346" t="s">
+        <v>632</v>
+      </c>
+      <c r="D346" t="s">
+        <v>320</v>
+      </c>
+      <c r="E346" t="s">
+        <v>944</v>
+      </c>
+      <c r="F346" t="s">
+        <v>7</v>
+      </c>
+      <c r="G346" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>9</v>
+      </c>
+      <c r="B347" t="s">
         <v>633</v>
       </c>
-      <c r="D344" t="s">
+      <c r="D347" t="s">
         <v>321</v>
       </c>
-      <c r="E344" t="s">
+      <c r="E347" t="s">
         <v>945</v>
       </c>
-      <c r="F344" t="s">
-        <v>7</v>
-      </c>
-      <c r="G344" t="s">
+      <c r="F347" t="s">
+        <v>7</v>
+      </c>
+      <c r="G347" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Bibsam_tidskriftslistor/scifree_data_brill.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_brill.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="13" documentId="11_B8A85F4F591D7C17B25102653C0077E43A6883BB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{601F2C33-369A-4F6F-92F0-49CA7317EC70}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="11_B8A85F4F591D7C17B25102653C0077E43A6883BB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C2E8029-0704-4E23-9D8A-FC6688EB198C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2085" uniqueCount="1051">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2175" uniqueCount="1099">
   <si>
     <t>ISSN Electronic</t>
   </si>
@@ -268,9 +268,6 @@
     <t xml:space="preserve">Eurasian Studies </t>
   </si>
   <si>
-    <t>European Investment Law and Arbitration Review Online</t>
-  </si>
-  <si>
     <t>European Journal for the History of Medicine and Health</t>
   </si>
   <si>
@@ -595,9 +592,6 @@
     <t>Journal of Reformed Theology</t>
   </si>
   <si>
-    <t>Journal of Religion and Demography</t>
-  </si>
-  <si>
     <t>Journal of Religion in Africa</t>
   </si>
   <si>
@@ -829,9 +823,6 @@
     <t>Secular Studies</t>
   </si>
   <si>
-    <t>Security and Human Rights</t>
-  </si>
-  <si>
     <t>Shii Studies Review</t>
   </si>
   <si>
@@ -874,9 +865,6 @@
     <t>The Australian Year Book of International Law Online</t>
   </si>
   <si>
-    <t>The Dostoevsky Journal</t>
-  </si>
-  <si>
     <t>The European Convention on Human Rights Law Review</t>
   </si>
   <si>
@@ -964,9 +952,6 @@
     <t>Vivarium</t>
   </si>
   <si>
-    <t>Vulcan: Journal of the History of Military Technology</t>
-  </si>
-  <si>
     <t>Worldviews: Global Religions, Culture, and Ecology</t>
   </si>
   <si>
@@ -1204,9 +1189,6 @@
     <t>2468-5623</t>
   </si>
   <si>
-    <t>2468-9017</t>
-  </si>
-  <si>
     <t>2666-7711</t>
   </si>
   <si>
@@ -1531,9 +1513,6 @@
     <t>1569-7312</t>
   </si>
   <si>
-    <t>2589-742X</t>
-  </si>
-  <si>
     <t>1570-0666</t>
   </si>
   <si>
@@ -1765,9 +1744,6 @@
     <t>2589-2525</t>
   </si>
   <si>
-    <t>1875-0230</t>
-  </si>
-  <si>
     <t>2468-2470</t>
   </si>
   <si>
@@ -1810,9 +1786,6 @@
     <t>2666-0229</t>
   </si>
   <si>
-    <t>2375-2122</t>
-  </si>
-  <si>
     <t>2666-3236</t>
   </si>
   <si>
@@ -1900,9 +1873,6 @@
     <t>1568-5349</t>
   </si>
   <si>
-    <t>2213-4603</t>
-  </si>
-  <si>
     <t>1568-5357</t>
   </si>
   <si>
@@ -2140,9 +2110,6 @@
     <t>https://brill.com/eurs</t>
   </si>
   <si>
-    <t>https://brill.com/eilo</t>
-  </si>
-  <si>
     <t>https://brill.com/ehmh</t>
   </si>
   <si>
@@ -2467,9 +2434,6 @@
     <t>https://brill.com/jrt</t>
   </si>
   <si>
-    <t>https://brill.com/jrd</t>
-  </si>
-  <si>
     <t>https://brill.com/jra</t>
   </si>
   <si>
@@ -2701,9 +2665,6 @@
     <t>https://brill.com/secu</t>
   </si>
   <si>
-    <t>https://brill.com/shrs</t>
-  </si>
-  <si>
     <t>https://brill.com/ssr</t>
   </si>
   <si>
@@ -2746,9 +2707,6 @@
     <t>https://brill.com/auso</t>
   </si>
   <si>
-    <t>https://brill.com/djir</t>
-  </si>
-  <si>
     <t>https://brill.com/eclr</t>
   </si>
   <si>
@@ -2836,9 +2794,6 @@
     <t>https://brill.com/viv</t>
   </si>
   <si>
-    <t>https://brill.com/vulc</t>
-  </si>
-  <si>
     <t>https://brill.com/wo</t>
   </si>
   <si>
@@ -3163,9 +3118,6 @@
     <t>https://brill.com/vlr</t>
   </si>
   <si>
-    <t>0403-3884</t>
-  </si>
-  <si>
     <t>0944-7652</t>
   </si>
   <si>
@@ -3173,30 +3125,208 @@
   </si>
   <si>
     <t>https://brill.com/zfme</t>
+  </si>
+  <si>
+    <t>2950-2225</t>
+  </si>
+  <si>
+    <t>2950-2233</t>
+  </si>
+  <si>
+    <t>Applied Linguistics Journal</t>
+  </si>
+  <si>
+    <t>https://brill.com/alj</t>
+  </si>
+  <si>
+    <t>1876-2891</t>
+  </si>
+  <si>
+    <t>Beneficial Microbes</t>
+  </si>
+  <si>
+    <t>https://brill.com/bm</t>
+  </si>
+  <si>
+    <t>1755-2559</t>
+  </si>
+  <si>
+    <t>Comparative Exercise Physiology</t>
+  </si>
+  <si>
+    <t>https://brill.com/cep</t>
+  </si>
+  <si>
+    <t>2950-1768</t>
+  </si>
+  <si>
+    <t>2950-1776</t>
+  </si>
+  <si>
+    <t>Darah Journal of Arabian Peninsula Studies</t>
+  </si>
+  <si>
+    <t>https://brill.com/djap</t>
+  </si>
+  <si>
+    <t>1559-2448 </t>
+  </si>
+  <si>
+    <t>International Food and Agribusiness Management Review</t>
+  </si>
+  <si>
+    <t>https://brill.com/ifam</t>
+  </si>
+  <si>
+    <t>2950-2276</t>
+  </si>
+  <si>
+    <t>2950-2284</t>
+  </si>
+  <si>
+    <t>Islamic Studies Journal</t>
+  </si>
+  <si>
+    <t>https://brill.com/isj</t>
+  </si>
+  <si>
+    <t>2049-257X</t>
+  </si>
+  <si>
+    <t>Journal of Applied Animal Nutrition</t>
+  </si>
+  <si>
+    <t>https://brill.com/jaan</t>
+  </si>
+  <si>
+    <t>2950-2799</t>
+  </si>
+  <si>
+    <t>Journal of Contemporary Chinese Philosophy</t>
+  </si>
+  <si>
+    <t>https://brill.com/jccp</t>
+  </si>
+  <si>
+    <t>2950-1229</t>
+  </si>
+  <si>
+    <t>Journal of Femininities</t>
+  </si>
+  <si>
+    <t>https://brill.com/fem</t>
+  </si>
+  <si>
+    <t>2352-4588 </t>
+  </si>
+  <si>
+    <t>Journal of Insects as Food and Feed</t>
+  </si>
+  <si>
+    <t>https://brill.com/jiff</t>
+  </si>
+  <si>
+    <t>2950-1679</t>
+  </si>
+  <si>
+    <t>Journal of Plant-Arthropod-Microbe Interactions</t>
+  </si>
+  <si>
+    <t>https://brill.com/pami</t>
+  </si>
+  <si>
+    <t>2949-7736</t>
+  </si>
+  <si>
+    <t>2949-7728</t>
+  </si>
+  <si>
+    <t>Journal of Science of Learning and Innovations</t>
+  </si>
+  <si>
+    <t>https://brill.com/jsli</t>
+  </si>
+  <si>
+    <t>2950-2683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Journal of Social Innovation and Knowledge </t>
+  </si>
+  <si>
+    <t>https://brill.com/jsik</t>
+  </si>
+  <si>
+    <t>2054-930X</t>
+  </si>
+  <si>
+    <t>Journal of the European Mosquito Control Association</t>
+  </si>
+  <si>
+    <t>https://brill.com/jemc</t>
+  </si>
+  <si>
+    <t>2950-2292</t>
+  </si>
+  <si>
+    <t>2950-2306</t>
+  </si>
+  <si>
+    <t>Kurdish Studies Journal</t>
+  </si>
+  <si>
+    <t>https://brill.com/ksj</t>
+  </si>
+  <si>
+    <t>2949-8902</t>
+  </si>
+  <si>
+    <t>Memory Studies Review</t>
+  </si>
+  <si>
+    <t>https://brill.com/mesr</t>
+  </si>
+  <si>
+    <t>2950-225X</t>
+  </si>
+  <si>
+    <t>2950-2268</t>
+  </si>
+  <si>
+    <t>Philosophical Studies Journal</t>
+  </si>
+  <si>
+    <t>https://brill.com/psj</t>
+  </si>
+  <si>
+    <t>2521-7038</t>
+  </si>
+  <si>
+    <t>Vienna Journal of East Asian Studies</t>
+  </si>
+  <si>
+    <t>https://brill.com/veas</t>
+  </si>
+  <si>
+    <t>1875-0796</t>
+  </si>
+  <si>
+    <t>World Mycotoxin Journal</t>
+  </si>
+  <si>
+    <t>https://brill.com/wmj</t>
+  </si>
+  <si>
+    <t>2949-8570</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3210,12 +3340,36 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -3224,30 +3378,13 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3272,19 +3409,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G347" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:G347" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G347">
-    <sortCondition ref="D1:D347"/>
-  </sortState>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CA7334EC-5944-45DA-851E-5FCE8D131528}" name="Table2" displayName="Table2" ref="A1:G361" totalsRowShown="0">
+  <autoFilter ref="A1:G361" xr:uid="{CA7334EC-5944-45DA-851E-5FCE8D131528}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Imprint"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ISSN Electronic"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="ISSN Print"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Journal Name"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="JournalURL"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Publishing model"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="CC License options"/>
+    <tableColumn id="1" xr3:uid="{41C295D9-7E0A-4F26-8C8E-1EBEAEE79771}" name="Imprint"/>
+    <tableColumn id="2" xr3:uid="{73406C76-D8BC-4D0A-9219-1E9211B6A79F}" name="ISSN Electronic"/>
+    <tableColumn id="3" xr3:uid="{150D688B-D0DE-47C3-A045-6C49D88B2ADA}" name="ISSN Print"/>
+    <tableColumn id="4" xr3:uid="{E55317A8-D2C2-493D-A6E2-FC5E5ED9A154}" name="Journal Name"/>
+    <tableColumn id="5" xr3:uid="{3DCAE9FB-6181-4667-B27E-2A631EC766FC}" name="JournalURL"/>
+    <tableColumn id="6" xr3:uid="{BDEB0D4F-54AD-47C8-9736-0B7F272C2F3A}" name="Publishing model"/>
+    <tableColumn id="7" xr3:uid="{5EE2443B-E4AF-44BE-8B5D-3FE91063433A}" name="CC License options"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3552,8 +3686,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G347"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CF94112-AC93-436A-995A-4206AE2642C5}">
+  <dimension ref="A1:G361"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -3561,35 +3695,35 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" customWidth="1"/>
-    <col min="5" max="5" width="25.5703125" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
     <col min="6" max="6" width="18.5703125" customWidth="1"/>
     <col min="7" max="7" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3598,13 +3732,13 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
@@ -3618,13 +3752,13 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>950</v>
+        <v>935</v>
       </c>
       <c r="D3" t="s">
-        <v>951</v>
+        <v>936</v>
       </c>
       <c r="E3" t="s">
-        <v>952</v>
+        <v>937</v>
       </c>
       <c r="F3" t="s">
         <v>7</v>
@@ -3638,13 +3772,13 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>948</v>
+        <v>933</v>
       </c>
       <c r="D4" t="s">
-        <v>949</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>947</v>
+        <v>934</v>
+      </c>
+      <c r="E4" t="s">
+        <v>932</v>
       </c>
       <c r="F4" t="s">
         <v>7</v>
@@ -3658,13 +3792,13 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="F5" t="s">
         <v>7</v>
@@ -3678,13 +3812,13 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="F6" t="s">
         <v>7</v>
@@ -3698,13 +3832,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -3718,13 +3852,13 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="F8" t="s">
         <v>7</v>
@@ -3738,13 +3872,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="F9" t="s">
         <v>7</v>
@@ -3758,13 +3892,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="D10" t="s">
         <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="F10" t="s">
         <v>7</v>
@@ -3778,13 +3912,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="F11" t="s">
         <v>7</v>
@@ -3798,13 +3932,13 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>1019</v>
+        <v>1004</v>
       </c>
       <c r="D12" t="s">
-        <v>1020</v>
+        <v>1005</v>
       </c>
       <c r="E12" t="s">
-        <v>1021</v>
+        <v>1006</v>
       </c>
       <c r="F12" t="s">
         <v>7</v>
@@ -3818,16 +3952,16 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>1022</v>
+        <v>1007</v>
       </c>
       <c r="D13" t="s">
-        <v>1023</v>
+        <v>1008</v>
       </c>
       <c r="E13" t="s">
-        <v>1024</v>
+        <v>1009</v>
       </c>
       <c r="F13" t="s">
-        <v>946</v>
+        <v>931</v>
       </c>
       <c r="G13" t="s">
         <v>8</v>
@@ -3838,13 +3972,13 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="D14" t="s">
         <v>18</v>
       </c>
       <c r="E14" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="F14" t="s">
         <v>7</v>
@@ -3858,13 +3992,13 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="D15" t="s">
         <v>19</v>
       </c>
       <c r="E15" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="F15" t="s">
         <v>7</v>
@@ -3878,13 +4012,13 @@
         <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="D16" t="s">
         <v>20</v>
       </c>
       <c r="E16" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="F16" t="s">
         <v>7</v>
@@ -3898,13 +4032,13 @@
         <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="D17" t="s">
         <v>21</v>
       </c>
       <c r="E17" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="F17" t="s">
         <v>7</v>
@@ -3918,13 +4052,13 @@
         <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="D18" t="s">
         <v>22</v>
       </c>
       <c r="E18" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
       <c r="F18" t="s">
         <v>7</v>
@@ -3938,13 +4072,13 @@
         <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="D19" t="s">
         <v>23</v>
       </c>
       <c r="E19" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="F19" t="s">
         <v>7</v>
@@ -3958,16 +4092,19 @@
         <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>336</v>
+        <v>1035</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1036</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>1037</v>
       </c>
       <c r="E20" t="s">
-        <v>648</v>
+        <v>1038</v>
       </c>
       <c r="F20" t="s">
-        <v>7</v>
+        <v>931</v>
       </c>
       <c r="G20" t="s">
         <v>8</v>
@@ -3978,13 +4115,13 @@
         <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E21" t="s">
-        <v>649</v>
+        <v>638</v>
       </c>
       <c r="F21" t="s">
         <v>7</v>
@@ -3998,13 +4135,13 @@
         <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E22" t="s">
-        <v>650</v>
+        <v>639</v>
       </c>
       <c r="F22" t="s">
         <v>7</v>
@@ -4018,13 +4155,13 @@
         <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E23" t="s">
-        <v>651</v>
+        <v>640</v>
       </c>
       <c r="F23" t="s">
         <v>7</v>
@@ -4038,13 +4175,13 @@
         <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="D24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E24" t="s">
-        <v>652</v>
+        <v>641</v>
       </c>
       <c r="F24" t="s">
         <v>7</v>
@@ -4058,13 +4195,13 @@
         <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="D25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E25" t="s">
-        <v>653</v>
+        <v>642</v>
       </c>
       <c r="F25" t="s">
         <v>7</v>
@@ -4078,13 +4215,13 @@
         <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>953</v>
+        <v>336</v>
       </c>
       <c r="D26" t="s">
-        <v>954</v>
+        <v>29</v>
       </c>
       <c r="E26" t="s">
-        <v>955</v>
+        <v>643</v>
       </c>
       <c r="F26" t="s">
         <v>7</v>
@@ -4098,13 +4235,13 @@
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>342</v>
+        <v>938</v>
       </c>
       <c r="D27" t="s">
-        <v>30</v>
+        <v>939</v>
       </c>
       <c r="E27" t="s">
-        <v>654</v>
+        <v>940</v>
       </c>
       <c r="F27" t="s">
         <v>7</v>
@@ -4118,13 +4255,13 @@
         <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="D28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E28" t="s">
-        <v>655</v>
+        <v>644</v>
       </c>
       <c r="F28" t="s">
         <v>7</v>
@@ -4138,13 +4275,13 @@
         <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="D29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E29" t="s">
-        <v>656</v>
+        <v>645</v>
       </c>
       <c r="F29" t="s">
         <v>7</v>
@@ -4158,13 +4295,13 @@
         <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="D30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E30" t="s">
-        <v>657</v>
+        <v>646</v>
       </c>
       <c r="F30" t="s">
         <v>7</v>
@@ -4178,13 +4315,13 @@
         <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="D31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E31" t="s">
-        <v>658</v>
+        <v>647</v>
       </c>
       <c r="F31" t="s">
         <v>7</v>
@@ -4198,13 +4335,13 @@
         <v>9</v>
       </c>
       <c r="B32" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="D32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E32" t="s">
-        <v>659</v>
+        <v>648</v>
       </c>
       <c r="F32" t="s">
         <v>7</v>
@@ -4218,16 +4355,16 @@
         <v>9</v>
       </c>
       <c r="B33" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="D33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E33" t="s">
-        <v>660</v>
+        <v>649</v>
       </c>
       <c r="F33" t="s">
-        <v>946</v>
+        <v>7</v>
       </c>
       <c r="G33" t="s">
         <v>8</v>
@@ -4238,16 +4375,16 @@
         <v>9</v>
       </c>
       <c r="B34" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="D34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E34" t="s">
-        <v>661</v>
+        <v>650</v>
       </c>
       <c r="F34" t="s">
-        <v>7</v>
+        <v>931</v>
       </c>
       <c r="G34" t="s">
         <v>8</v>
@@ -4258,13 +4395,13 @@
         <v>9</v>
       </c>
       <c r="B35" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="D35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E35" t="s">
-        <v>662</v>
+        <v>651</v>
       </c>
       <c r="F35" t="s">
         <v>7</v>
@@ -4278,13 +4415,13 @@
         <v>9</v>
       </c>
       <c r="B36" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="D36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E36" t="s">
-        <v>663</v>
+        <v>652</v>
       </c>
       <c r="F36" t="s">
         <v>7</v>
@@ -4298,16 +4435,16 @@
         <v>9</v>
       </c>
       <c r="B37" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="D37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E37" t="s">
-        <v>664</v>
+        <v>653</v>
       </c>
       <c r="F37" t="s">
-        <v>946</v>
+        <v>7</v>
       </c>
       <c r="G37" t="s">
         <v>8</v>
@@ -4318,16 +4455,16 @@
         <v>9</v>
       </c>
       <c r="B38" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="D38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E38" t="s">
-        <v>665</v>
+        <v>654</v>
       </c>
       <c r="F38" t="s">
-        <v>7</v>
+        <v>931</v>
       </c>
       <c r="G38" t="s">
         <v>8</v>
@@ -4338,13 +4475,13 @@
         <v>9</v>
       </c>
       <c r="B39" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="D39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E39" t="s">
-        <v>666</v>
+        <v>655</v>
       </c>
       <c r="F39" t="s">
         <v>7</v>
@@ -4358,13 +4495,13 @@
         <v>9</v>
       </c>
       <c r="B40" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="D40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E40" t="s">
-        <v>667</v>
+        <v>656</v>
       </c>
       <c r="F40" t="s">
         <v>7</v>
@@ -4378,13 +4515,13 @@
         <v>9</v>
       </c>
       <c r="B41" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="D41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E41" t="s">
-        <v>668</v>
+        <v>657</v>
       </c>
       <c r="F41" t="s">
         <v>7</v>
@@ -4398,13 +4535,13 @@
         <v>9</v>
       </c>
       <c r="B42" t="s">
-        <v>357</v>
+        <v>1039</v>
       </c>
       <c r="D42" t="s">
-        <v>45</v>
+        <v>1040</v>
       </c>
       <c r="E42" t="s">
-        <v>669</v>
+        <v>1041</v>
       </c>
       <c r="F42" t="s">
         <v>7</v>
@@ -4418,16 +4555,16 @@
         <v>9</v>
       </c>
       <c r="B43" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D43" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E43" t="s">
-        <v>670</v>
+        <v>658</v>
       </c>
       <c r="F43" t="s">
-        <v>946</v>
+        <v>7</v>
       </c>
       <c r="G43" t="s">
         <v>8</v>
@@ -4438,16 +4575,16 @@
         <v>9</v>
       </c>
       <c r="B44" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="D44" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E44" t="s">
-        <v>671</v>
+        <v>659</v>
       </c>
       <c r="F44" t="s">
-        <v>946</v>
+        <v>7</v>
       </c>
       <c r="G44" t="s">
         <v>8</v>
@@ -4458,16 +4595,16 @@
         <v>9</v>
       </c>
       <c r="B45" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="D45" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E45" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="F45" t="s">
-        <v>7</v>
+        <v>931</v>
       </c>
       <c r="G45" t="s">
         <v>8</v>
@@ -4478,16 +4615,16 @@
         <v>9</v>
       </c>
       <c r="B46" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="D46" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E46" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
       <c r="F46" t="s">
-        <v>7</v>
+        <v>931</v>
       </c>
       <c r="G46" t="s">
         <v>8</v>
@@ -4498,13 +4635,13 @@
         <v>9</v>
       </c>
       <c r="B47" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="D47" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E47" t="s">
-        <v>674</v>
+        <v>662</v>
       </c>
       <c r="F47" t="s">
         <v>7</v>
@@ -4518,13 +4655,13 @@
         <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>959</v>
+        <v>356</v>
       </c>
       <c r="D48" t="s">
-        <v>960</v>
+        <v>49</v>
       </c>
       <c r="E48" t="s">
-        <v>961</v>
+        <v>663</v>
       </c>
       <c r="F48" t="s">
         <v>7</v>
@@ -4538,13 +4675,13 @@
         <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="D49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E49" t="s">
-        <v>675</v>
+        <v>664</v>
       </c>
       <c r="F49" t="s">
         <v>7</v>
@@ -4558,13 +4695,13 @@
         <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>364</v>
+        <v>944</v>
       </c>
       <c r="D50" t="s">
-        <v>52</v>
+        <v>945</v>
       </c>
       <c r="E50" t="s">
-        <v>676</v>
+        <v>946</v>
       </c>
       <c r="F50" t="s">
         <v>7</v>
@@ -4578,13 +4715,13 @@
         <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="D51" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E51" t="s">
-        <v>677</v>
+        <v>665</v>
       </c>
       <c r="F51" t="s">
         <v>7</v>
@@ -4598,13 +4735,13 @@
         <v>9</v>
       </c>
       <c r="B52" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="D52" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E52" t="s">
-        <v>678</v>
+        <v>666</v>
       </c>
       <c r="F52" t="s">
         <v>7</v>
@@ -4618,13 +4755,13 @@
         <v>9</v>
       </c>
       <c r="B53" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="D53" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E53" t="s">
-        <v>679</v>
+        <v>667</v>
       </c>
       <c r="F53" t="s">
         <v>7</v>
@@ -4638,13 +4775,13 @@
         <v>9</v>
       </c>
       <c r="B54" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="D54" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E54" t="s">
-        <v>680</v>
+        <v>668</v>
       </c>
       <c r="F54" t="s">
         <v>7</v>
@@ -4658,13 +4795,13 @@
         <v>9</v>
       </c>
       <c r="B55" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="D55" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E55" t="s">
-        <v>681</v>
+        <v>669</v>
       </c>
       <c r="F55" t="s">
         <v>7</v>
@@ -4678,13 +4815,13 @@
         <v>9</v>
       </c>
       <c r="B56" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="D56" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E56" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="F56" t="s">
         <v>7</v>
@@ -4698,13 +4835,13 @@
         <v>9</v>
       </c>
       <c r="B57" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="D57" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E57" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="F57" t="s">
         <v>7</v>
@@ -4718,13 +4855,13 @@
         <v>9</v>
       </c>
       <c r="B58" t="s">
-        <v>995</v>
+        <v>1042</v>
       </c>
       <c r="D58" t="s">
-        <v>996</v>
+        <v>1043</v>
       </c>
       <c r="E58" t="s">
-        <v>997</v>
+        <v>1044</v>
       </c>
       <c r="F58" t="s">
         <v>7</v>
@@ -4738,13 +4875,13 @@
         <v>9</v>
       </c>
       <c r="B59" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="D59" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="F59" t="s">
         <v>7</v>
@@ -4758,16 +4895,16 @@
         <v>9</v>
       </c>
       <c r="B60" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="D60" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>685</v>
+        <v>673</v>
       </c>
       <c r="F60" t="s">
-        <v>946</v>
+        <v>7</v>
       </c>
       <c r="G60" t="s">
         <v>8</v>
@@ -4778,16 +4915,16 @@
         <v>9</v>
       </c>
       <c r="B61" t="s">
-        <v>374</v>
+        <v>980</v>
       </c>
       <c r="D61" t="s">
-        <v>62</v>
+        <v>981</v>
       </c>
       <c r="E61" t="s">
-        <v>686</v>
+        <v>982</v>
       </c>
       <c r="F61" t="s">
-        <v>946</v>
+        <v>7</v>
       </c>
       <c r="G61" t="s">
         <v>8</v>
@@ -4798,13 +4935,13 @@
         <v>9</v>
       </c>
       <c r="B62" t="s">
-        <v>962</v>
+        <v>367</v>
       </c>
       <c r="D62" t="s">
-        <v>963</v>
+        <v>60</v>
       </c>
       <c r="E62" t="s">
-        <v>964</v>
+        <v>674</v>
       </c>
       <c r="F62" t="s">
         <v>7</v>
@@ -4818,16 +4955,16 @@
         <v>9</v>
       </c>
       <c r="B63" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="D63" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E63" t="s">
-        <v>687</v>
+        <v>675</v>
       </c>
       <c r="F63" t="s">
-        <v>7</v>
+        <v>931</v>
       </c>
       <c r="G63" t="s">
         <v>8</v>
@@ -4838,16 +4975,16 @@
         <v>9</v>
       </c>
       <c r="B64" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="D64" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E64" t="s">
-        <v>688</v>
+        <v>676</v>
       </c>
       <c r="F64" t="s">
-        <v>7</v>
+        <v>931</v>
       </c>
       <c r="G64" t="s">
         <v>8</v>
@@ -4858,13 +4995,13 @@
         <v>9</v>
       </c>
       <c r="B65" t="s">
-        <v>377</v>
+        <v>947</v>
       </c>
       <c r="D65" t="s">
-        <v>65</v>
+        <v>948</v>
       </c>
       <c r="E65" t="s">
-        <v>689</v>
+        <v>949</v>
       </c>
       <c r="F65" t="s">
         <v>7</v>
@@ -4878,13 +5015,13 @@
         <v>9</v>
       </c>
       <c r="B66" t="s">
-        <v>965</v>
+        <v>370</v>
       </c>
       <c r="D66" t="s">
-        <v>966</v>
+        <v>63</v>
       </c>
       <c r="E66" t="s">
-        <v>967</v>
+        <v>677</v>
       </c>
       <c r="F66" t="s">
         <v>7</v>
@@ -4898,13 +5035,13 @@
         <v>9</v>
       </c>
       <c r="B67" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="D67" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E67" t="s">
-        <v>690</v>
+        <v>678</v>
       </c>
       <c r="F67" t="s">
         <v>7</v>
@@ -4918,13 +5055,13 @@
         <v>9</v>
       </c>
       <c r="B68" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="D68" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E68" t="s">
-        <v>691</v>
+        <v>679</v>
       </c>
       <c r="F68" t="s">
         <v>7</v>
@@ -4938,13 +5075,13 @@
         <v>9</v>
       </c>
       <c r="B69" t="s">
-        <v>380</v>
+        <v>950</v>
       </c>
       <c r="D69" t="s">
-        <v>68</v>
+        <v>951</v>
       </c>
       <c r="E69" t="s">
-        <v>692</v>
+        <v>952</v>
       </c>
       <c r="F69" t="s">
         <v>7</v>
@@ -4958,13 +5095,13 @@
         <v>9</v>
       </c>
       <c r="B70" t="s">
-        <v>956</v>
+        <v>373</v>
       </c>
       <c r="D70" t="s">
-        <v>957</v>
+        <v>66</v>
       </c>
       <c r="E70" t="s">
-        <v>958</v>
+        <v>680</v>
       </c>
       <c r="F70" t="s">
         <v>7</v>
@@ -4978,13 +5115,13 @@
         <v>9</v>
       </c>
       <c r="B71" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="D71" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E71" t="s">
-        <v>693</v>
+        <v>681</v>
       </c>
       <c r="F71" t="s">
         <v>7</v>
@@ -4998,16 +5135,19 @@
         <v>9</v>
       </c>
       <c r="B72" t="s">
-        <v>382</v>
+        <v>1045</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1046</v>
       </c>
       <c r="D72" t="s">
-        <v>70</v>
+        <v>1047</v>
       </c>
       <c r="E72" t="s">
-        <v>694</v>
+        <v>1048</v>
       </c>
       <c r="F72" t="s">
-        <v>7</v>
+        <v>931</v>
       </c>
       <c r="G72" t="s">
         <v>8</v>
@@ -5018,13 +5158,13 @@
         <v>9</v>
       </c>
       <c r="B73" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="D73" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E73" t="s">
-        <v>695</v>
+        <v>682</v>
       </c>
       <c r="F73" t="s">
         <v>7</v>
@@ -5038,13 +5178,13 @@
         <v>9</v>
       </c>
       <c r="B74" t="s">
-        <v>384</v>
+        <v>941</v>
       </c>
       <c r="D74" t="s">
-        <v>72</v>
+        <v>942</v>
       </c>
       <c r="E74" t="s">
-        <v>696</v>
+        <v>943</v>
       </c>
       <c r="F74" t="s">
         <v>7</v>
@@ -5058,13 +5198,13 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="D75" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E75" t="s">
-        <v>697</v>
+        <v>683</v>
       </c>
       <c r="F75" t="s">
         <v>7</v>
@@ -5078,13 +5218,13 @@
         <v>9</v>
       </c>
       <c r="B76" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="D76" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E76" t="s">
-        <v>698</v>
+        <v>684</v>
       </c>
       <c r="F76" t="s">
         <v>7</v>
@@ -5098,13 +5238,13 @@
         <v>9</v>
       </c>
       <c r="B77" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="D77" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E77" t="s">
-        <v>699</v>
+        <v>685</v>
       </c>
       <c r="F77" t="s">
         <v>7</v>
@@ -5118,13 +5258,13 @@
         <v>9</v>
       </c>
       <c r="B78" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="D78" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E78" t="s">
-        <v>700</v>
+        <v>686</v>
       </c>
       <c r="F78" t="s">
         <v>7</v>
@@ -5138,13 +5278,13 @@
         <v>9</v>
       </c>
       <c r="B79" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="D79" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E79" t="s">
-        <v>701</v>
+        <v>687</v>
       </c>
       <c r="F79" t="s">
         <v>7</v>
@@ -5158,13 +5298,13 @@
         <v>9</v>
       </c>
       <c r="B80" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="D80" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E80" t="s">
-        <v>702</v>
+        <v>688</v>
       </c>
       <c r="F80" t="s">
         <v>7</v>
@@ -5178,13 +5318,13 @@
         <v>9</v>
       </c>
       <c r="B81" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="D81" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E81" t="s">
-        <v>703</v>
+        <v>689</v>
       </c>
       <c r="F81" t="s">
         <v>7</v>
@@ -5198,13 +5338,13 @@
         <v>9</v>
       </c>
       <c r="B82" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="D82" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E82" t="s">
-        <v>704</v>
+        <v>690</v>
       </c>
       <c r="F82" t="s">
         <v>7</v>
@@ -5218,13 +5358,13 @@
         <v>9</v>
       </c>
       <c r="B83" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="D83" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E83" t="s">
-        <v>705</v>
+        <v>691</v>
       </c>
       <c r="F83" t="s">
         <v>7</v>
@@ -5238,13 +5378,13 @@
         <v>9</v>
       </c>
       <c r="B84" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="D84" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E84" t="s">
-        <v>706</v>
+        <v>692</v>
       </c>
       <c r="F84" t="s">
         <v>7</v>
@@ -5258,13 +5398,13 @@
         <v>9</v>
       </c>
       <c r="B85" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="D85" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E85" t="s">
-        <v>707</v>
+        <v>693</v>
       </c>
       <c r="F85" t="s">
         <v>7</v>
@@ -5278,13 +5418,13 @@
         <v>9</v>
       </c>
       <c r="B86" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="D86" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E86" t="s">
-        <v>708</v>
+        <v>694</v>
       </c>
       <c r="F86" t="s">
         <v>7</v>
@@ -5298,13 +5438,13 @@
         <v>9</v>
       </c>
       <c r="B87" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="D87" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E87" t="s">
-        <v>709</v>
+        <v>695</v>
       </c>
       <c r="F87" t="s">
         <v>7</v>
@@ -5318,13 +5458,13 @@
         <v>9</v>
       </c>
       <c r="B88" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="D88" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E88" t="s">
-        <v>710</v>
+        <v>696</v>
       </c>
       <c r="F88" t="s">
         <v>7</v>
@@ -5338,13 +5478,13 @@
         <v>9</v>
       </c>
       <c r="B89" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="D89" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E89" t="s">
-        <v>711</v>
+        <v>697</v>
       </c>
       <c r="F89" t="s">
         <v>7</v>
@@ -5358,13 +5498,13 @@
         <v>9</v>
       </c>
       <c r="B90" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="D90" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E90" t="s">
-        <v>712</v>
+        <v>698</v>
       </c>
       <c r="F90" t="s">
         <v>7</v>
@@ -5378,13 +5518,13 @@
         <v>9</v>
       </c>
       <c r="B91" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="D91" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E91" t="s">
-        <v>713</v>
+        <v>699</v>
       </c>
       <c r="F91" t="s">
         <v>7</v>
@@ -5398,13 +5538,13 @@
         <v>9</v>
       </c>
       <c r="B92" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="D92" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E92" t="s">
-        <v>714</v>
+        <v>700</v>
       </c>
       <c r="F92" t="s">
         <v>7</v>
@@ -5418,13 +5558,13 @@
         <v>9</v>
       </c>
       <c r="B93" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="D93" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E93" t="s">
-        <v>715</v>
+        <v>701</v>
       </c>
       <c r="F93" t="s">
         <v>7</v>
@@ -5438,13 +5578,13 @@
         <v>9</v>
       </c>
       <c r="B94" t="s">
-        <v>968</v>
+        <v>395</v>
       </c>
       <c r="D94" t="s">
-        <v>969</v>
+        <v>88</v>
       </c>
       <c r="E94" t="s">
-        <v>970</v>
+        <v>702</v>
       </c>
       <c r="F94" t="s">
         <v>7</v>
@@ -5458,13 +5598,13 @@
         <v>9</v>
       </c>
       <c r="B95" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="D95" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E95" t="s">
-        <v>716</v>
+        <v>703</v>
       </c>
       <c r="F95" t="s">
         <v>7</v>
@@ -5478,13 +5618,13 @@
         <v>9</v>
       </c>
       <c r="B96" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="D96" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E96" t="s">
-        <v>717</v>
+        <v>704</v>
       </c>
       <c r="F96" t="s">
         <v>7</v>
@@ -5498,13 +5638,13 @@
         <v>9</v>
       </c>
       <c r="B97" t="s">
-        <v>406</v>
+        <v>953</v>
       </c>
       <c r="D97" t="s">
-        <v>94</v>
+        <v>954</v>
       </c>
       <c r="E97" t="s">
-        <v>718</v>
+        <v>955</v>
       </c>
       <c r="F97" t="s">
         <v>7</v>
@@ -5518,13 +5658,13 @@
         <v>9</v>
       </c>
       <c r="B98" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="D98" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E98" t="s">
-        <v>719</v>
+        <v>705</v>
       </c>
       <c r="F98" t="s">
         <v>7</v>
@@ -5538,16 +5678,16 @@
         <v>9</v>
       </c>
       <c r="B99" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="D99" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E99" t="s">
-        <v>720</v>
+        <v>706</v>
       </c>
       <c r="F99" t="s">
-        <v>946</v>
+        <v>7</v>
       </c>
       <c r="G99" t="s">
         <v>8</v>
@@ -5558,13 +5698,13 @@
         <v>9</v>
       </c>
       <c r="B100" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="D100" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E100" t="s">
-        <v>721</v>
+        <v>707</v>
       </c>
       <c r="F100" t="s">
         <v>7</v>
@@ -5578,13 +5718,13 @@
         <v>9</v>
       </c>
       <c r="B101" t="s">
-        <v>971</v>
+        <v>401</v>
       </c>
       <c r="D101" t="s">
-        <v>972</v>
+        <v>94</v>
       </c>
       <c r="E101" t="s">
-        <v>973</v>
+        <v>708</v>
       </c>
       <c r="F101" t="s">
         <v>7</v>
@@ -5598,16 +5738,16 @@
         <v>9</v>
       </c>
       <c r="B102" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="D102" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E102" t="s">
-        <v>722</v>
+        <v>709</v>
       </c>
       <c r="F102" t="s">
-        <v>7</v>
+        <v>931</v>
       </c>
       <c r="G102" t="s">
         <v>8</v>
@@ -5618,13 +5758,13 @@
         <v>9</v>
       </c>
       <c r="B103" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="D103" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E103" t="s">
-        <v>723</v>
+        <v>710</v>
       </c>
       <c r="F103" t="s">
         <v>7</v>
@@ -5638,13 +5778,13 @@
         <v>9</v>
       </c>
       <c r="B104" t="s">
-        <v>412</v>
+        <v>956</v>
       </c>
       <c r="D104" t="s">
-        <v>100</v>
+        <v>957</v>
       </c>
       <c r="E104" t="s">
-        <v>724</v>
+        <v>958</v>
       </c>
       <c r="F104" t="s">
         <v>7</v>
@@ -5658,13 +5798,13 @@
         <v>9</v>
       </c>
       <c r="B105" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="D105" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E105" t="s">
-        <v>725</v>
+        <v>711</v>
       </c>
       <c r="F105" t="s">
         <v>7</v>
@@ -5678,13 +5818,13 @@
         <v>9</v>
       </c>
       <c r="B106" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="D106" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E106" t="s">
-        <v>726</v>
+        <v>712</v>
       </c>
       <c r="F106" t="s">
         <v>7</v>
@@ -5698,13 +5838,13 @@
         <v>9</v>
       </c>
       <c r="B107" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="D107" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E107" t="s">
-        <v>727</v>
+        <v>713</v>
       </c>
       <c r="F107" t="s">
         <v>7</v>
@@ -5718,13 +5858,13 @@
         <v>9</v>
       </c>
       <c r="B108" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="D108" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E108" t="s">
-        <v>728</v>
+        <v>714</v>
       </c>
       <c r="F108" t="s">
         <v>7</v>
@@ -5738,13 +5878,13 @@
         <v>9</v>
       </c>
       <c r="B109" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="D109" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E109" t="s">
-        <v>729</v>
+        <v>715</v>
       </c>
       <c r="F109" t="s">
         <v>7</v>
@@ -5758,13 +5898,13 @@
         <v>9</v>
       </c>
       <c r="B110" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="D110" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E110" t="s">
-        <v>730</v>
+        <v>716</v>
       </c>
       <c r="F110" t="s">
         <v>7</v>
@@ -5778,13 +5918,13 @@
         <v>9</v>
       </c>
       <c r="B111" t="s">
-        <v>1040</v>
+        <v>410</v>
       </c>
       <c r="D111" t="s">
-        <v>1041</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>1042</v>
+        <v>103</v>
+      </c>
+      <c r="E111" t="s">
+        <v>717</v>
       </c>
       <c r="F111" t="s">
         <v>7</v>
@@ -5798,13 +5938,13 @@
         <v>9</v>
       </c>
       <c r="B112" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="D112" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E112" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="F112" t="s">
         <v>7</v>
@@ -5818,13 +5958,13 @@
         <v>9</v>
       </c>
       <c r="B113" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="D113" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E113" t="s">
-        <v>732</v>
+        <v>719</v>
       </c>
       <c r="F113" t="s">
         <v>7</v>
@@ -5838,13 +5978,13 @@
         <v>9</v>
       </c>
       <c r="B114" t="s">
-        <v>421</v>
+        <v>1025</v>
       </c>
       <c r="D114" t="s">
-        <v>109</v>
+        <v>1026</v>
       </c>
       <c r="E114" t="s">
-        <v>733</v>
+        <v>1027</v>
       </c>
       <c r="F114" t="s">
         <v>7</v>
@@ -5858,13 +5998,13 @@
         <v>9</v>
       </c>
       <c r="B115" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="D115" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E115" t="s">
-        <v>734</v>
+        <v>720</v>
       </c>
       <c r="F115" t="s">
         <v>7</v>
@@ -5878,13 +6018,13 @@
         <v>9</v>
       </c>
       <c r="B116" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="D116" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E116" t="s">
-        <v>735</v>
+        <v>721</v>
       </c>
       <c r="F116" t="s">
         <v>7</v>
@@ -5898,13 +6038,13 @@
         <v>9</v>
       </c>
       <c r="B117" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="D117" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E117" t="s">
-        <v>736</v>
+        <v>722</v>
       </c>
       <c r="F117" t="s">
         <v>7</v>
@@ -5918,13 +6058,13 @@
         <v>9</v>
       </c>
       <c r="B118" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="D118" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E118" t="s">
-        <v>737</v>
+        <v>723</v>
       </c>
       <c r="F118" t="s">
         <v>7</v>
@@ -5938,16 +6078,16 @@
         <v>9</v>
       </c>
       <c r="B119" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="D119" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E119" t="s">
-        <v>738</v>
+        <v>724</v>
       </c>
       <c r="F119" t="s">
-        <v>946</v>
+        <v>7</v>
       </c>
       <c r="G119" t="s">
         <v>8</v>
@@ -5958,13 +6098,13 @@
         <v>9</v>
       </c>
       <c r="B120" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="D120" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E120" t="s">
-        <v>739</v>
+        <v>725</v>
       </c>
       <c r="F120" t="s">
         <v>7</v>
@@ -5978,13 +6118,13 @@
         <v>9</v>
       </c>
       <c r="B121" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="D121" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E121" t="s">
-        <v>740</v>
+        <v>726</v>
       </c>
       <c r="F121" t="s">
         <v>7</v>
@@ -5998,16 +6138,16 @@
         <v>9</v>
       </c>
       <c r="B122" t="s">
-        <v>980</v>
+        <v>420</v>
       </c>
       <c r="D122" t="s">
-        <v>981</v>
+        <v>113</v>
       </c>
       <c r="E122" t="s">
-        <v>982</v>
+        <v>727</v>
       </c>
       <c r="F122" t="s">
-        <v>946</v>
+        <v>931</v>
       </c>
       <c r="G122" t="s">
         <v>8</v>
@@ -6018,16 +6158,16 @@
         <v>9</v>
       </c>
       <c r="B123" t="s">
-        <v>986</v>
+        <v>421</v>
       </c>
       <c r="D123" t="s">
-        <v>987</v>
+        <v>114</v>
       </c>
       <c r="E123" t="s">
-        <v>988</v>
+        <v>728</v>
       </c>
       <c r="F123" t="s">
-        <v>946</v>
+        <v>7</v>
       </c>
       <c r="G123" t="s">
         <v>8</v>
@@ -6038,13 +6178,13 @@
         <v>9</v>
       </c>
       <c r="B124" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="D124" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E124" t="s">
-        <v>741</v>
+        <v>729</v>
       </c>
       <c r="F124" t="s">
         <v>7</v>
@@ -6058,16 +6198,16 @@
         <v>9</v>
       </c>
       <c r="B125" t="s">
-        <v>430</v>
+        <v>965</v>
       </c>
       <c r="D125" t="s">
-        <v>118</v>
+        <v>966</v>
       </c>
       <c r="E125" t="s">
-        <v>742</v>
+        <v>967</v>
       </c>
       <c r="F125" t="s">
-        <v>7</v>
+        <v>931</v>
       </c>
       <c r="G125" t="s">
         <v>8</v>
@@ -6078,16 +6218,16 @@
         <v>9</v>
       </c>
       <c r="B126" t="s">
-        <v>431</v>
+        <v>971</v>
       </c>
       <c r="D126" t="s">
-        <v>119</v>
+        <v>972</v>
       </c>
       <c r="E126" t="s">
-        <v>743</v>
+        <v>973</v>
       </c>
       <c r="F126" t="s">
-        <v>7</v>
+        <v>931</v>
       </c>
       <c r="G126" t="s">
         <v>8</v>
@@ -6098,13 +6238,13 @@
         <v>9</v>
       </c>
       <c r="B127" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="D127" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E127" t="s">
-        <v>744</v>
+        <v>730</v>
       </c>
       <c r="F127" t="s">
         <v>7</v>
@@ -6118,13 +6258,13 @@
         <v>9</v>
       </c>
       <c r="B128" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="D128" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E128" t="s">
-        <v>745</v>
+        <v>731</v>
       </c>
       <c r="F128" t="s">
         <v>7</v>
@@ -6138,13 +6278,13 @@
         <v>9</v>
       </c>
       <c r="B129" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="D129" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E129" t="s">
-        <v>746</v>
+        <v>732</v>
       </c>
       <c r="F129" t="s">
         <v>7</v>
@@ -6158,13 +6298,13 @@
         <v>9</v>
       </c>
       <c r="B130" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="D130" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E130" t="s">
-        <v>747</v>
+        <v>733</v>
       </c>
       <c r="F130" t="s">
         <v>7</v>
@@ -6178,13 +6318,13 @@
         <v>9</v>
       </c>
       <c r="B131" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="D131" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E131" t="s">
-        <v>748</v>
+        <v>734</v>
       </c>
       <c r="F131" t="s">
         <v>7</v>
@@ -6198,16 +6338,16 @@
         <v>9</v>
       </c>
       <c r="B132" t="s">
-        <v>437</v>
+        <v>1049</v>
       </c>
       <c r="D132" t="s">
-        <v>125</v>
+        <v>1050</v>
       </c>
       <c r="E132" t="s">
-        <v>749</v>
+        <v>1051</v>
       </c>
       <c r="F132" t="s">
-        <v>7</v>
+        <v>931</v>
       </c>
       <c r="G132" t="s">
         <v>8</v>
@@ -6218,13 +6358,13 @@
         <v>9</v>
       </c>
       <c r="B133" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="D133" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E133" t="s">
-        <v>750</v>
+        <v>735</v>
       </c>
       <c r="F133" t="s">
         <v>7</v>
@@ -6238,13 +6378,13 @@
         <v>9</v>
       </c>
       <c r="B134" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="D134" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E134" t="s">
-        <v>751</v>
+        <v>736</v>
       </c>
       <c r="F134" t="s">
         <v>7</v>
@@ -6258,13 +6398,13 @@
         <v>9</v>
       </c>
       <c r="B135" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="D135" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E135" t="s">
-        <v>752</v>
+        <v>737</v>
       </c>
       <c r="F135" t="s">
         <v>7</v>
@@ -6278,13 +6418,13 @@
         <v>9</v>
       </c>
       <c r="B136" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="D136" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E136" t="s">
-        <v>753</v>
+        <v>738</v>
       </c>
       <c r="F136" t="s">
         <v>7</v>
@@ -6298,13 +6438,13 @@
         <v>9</v>
       </c>
       <c r="B137" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="D137" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E137" t="s">
-        <v>754</v>
+        <v>739</v>
       </c>
       <c r="F137" t="s">
         <v>7</v>
@@ -6318,13 +6458,13 @@
         <v>9</v>
       </c>
       <c r="B138" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="D138" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E138" t="s">
-        <v>755</v>
+        <v>740</v>
       </c>
       <c r="F138" t="s">
         <v>7</v>
@@ -6338,13 +6478,13 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="D139" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E139" t="s">
-        <v>756</v>
+        <v>741</v>
       </c>
       <c r="F139" t="s">
         <v>7</v>
@@ -6358,13 +6498,13 @@
         <v>9</v>
       </c>
       <c r="B140" t="s">
-        <v>974</v>
+        <v>435</v>
       </c>
       <c r="D140" t="s">
-        <v>975</v>
+        <v>128</v>
       </c>
       <c r="E140" t="s">
-        <v>976</v>
+        <v>742</v>
       </c>
       <c r="F140" t="s">
         <v>7</v>
@@ -6378,13 +6518,13 @@
         <v>9</v>
       </c>
       <c r="B141" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="D141" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E141" t="s">
-        <v>757</v>
+        <v>743</v>
       </c>
       <c r="F141" t="s">
         <v>7</v>
@@ -6398,16 +6538,16 @@
         <v>9</v>
       </c>
       <c r="B142" t="s">
-        <v>977</v>
+        <v>437</v>
       </c>
       <c r="D142" t="s">
-        <v>978</v>
+        <v>130</v>
       </c>
       <c r="E142" t="s">
-        <v>979</v>
+        <v>744</v>
       </c>
       <c r="F142" t="s">
-        <v>946</v>
+        <v>7</v>
       </c>
       <c r="G142" t="s">
         <v>8</v>
@@ -6418,13 +6558,13 @@
         <v>9</v>
       </c>
       <c r="B143" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="D143" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E143" t="s">
-        <v>758</v>
+        <v>745</v>
       </c>
       <c r="F143" t="s">
         <v>7</v>
@@ -6438,13 +6578,13 @@
         <v>9</v>
       </c>
       <c r="B144" t="s">
-        <v>447</v>
+        <v>959</v>
       </c>
       <c r="D144" t="s">
-        <v>135</v>
+        <v>960</v>
       </c>
       <c r="E144" t="s">
-        <v>759</v>
+        <v>961</v>
       </c>
       <c r="F144" t="s">
         <v>7</v>
@@ -6458,13 +6598,13 @@
         <v>9</v>
       </c>
       <c r="B145" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="D145" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E145" t="s">
-        <v>760</v>
+        <v>746</v>
       </c>
       <c r="F145" t="s">
         <v>7</v>
@@ -6478,16 +6618,16 @@
         <v>9</v>
       </c>
       <c r="B146" t="s">
-        <v>449</v>
+        <v>962</v>
       </c>
       <c r="D146" t="s">
-        <v>137</v>
+        <v>963</v>
       </c>
       <c r="E146" t="s">
-        <v>761</v>
+        <v>964</v>
       </c>
       <c r="F146" t="s">
-        <v>7</v>
+        <v>931</v>
       </c>
       <c r="G146" t="s">
         <v>8</v>
@@ -6498,13 +6638,13 @@
         <v>9</v>
       </c>
       <c r="B147" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="D147" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E147" t="s">
-        <v>762</v>
+        <v>747</v>
       </c>
       <c r="F147" t="s">
         <v>7</v>
@@ -6518,13 +6658,13 @@
         <v>9</v>
       </c>
       <c r="B148" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="D148" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E148" t="s">
-        <v>763</v>
+        <v>748</v>
       </c>
       <c r="F148" t="s">
         <v>7</v>
@@ -6538,13 +6678,13 @@
         <v>9</v>
       </c>
       <c r="B149" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="D149" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E149" t="s">
-        <v>764</v>
+        <v>749</v>
       </c>
       <c r="F149" t="s">
         <v>7</v>
@@ -6558,13 +6698,13 @@
         <v>9</v>
       </c>
       <c r="B150" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="D150" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E150" t="s">
-        <v>765</v>
+        <v>750</v>
       </c>
       <c r="F150" t="s">
         <v>7</v>
@@ -6578,13 +6718,13 @@
         <v>9</v>
       </c>
       <c r="B151" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="D151" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E151" t="s">
-        <v>766</v>
+        <v>751</v>
       </c>
       <c r="F151" t="s">
         <v>7</v>
@@ -6598,13 +6738,13 @@
         <v>9</v>
       </c>
       <c r="B152" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="D152" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E152" t="s">
-        <v>767</v>
+        <v>752</v>
       </c>
       <c r="F152" t="s">
         <v>7</v>
@@ -6618,13 +6758,13 @@
         <v>9</v>
       </c>
       <c r="B153" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="D153" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E153" t="s">
-        <v>768</v>
+        <v>753</v>
       </c>
       <c r="F153" t="s">
         <v>7</v>
@@ -6638,16 +6778,16 @@
         <v>9</v>
       </c>
       <c r="B154" t="s">
-        <v>983</v>
+        <v>447</v>
       </c>
       <c r="D154" t="s">
-        <v>984</v>
+        <v>140</v>
       </c>
       <c r="E154" t="s">
-        <v>985</v>
+        <v>754</v>
       </c>
       <c r="F154" t="s">
-        <v>946</v>
+        <v>7</v>
       </c>
       <c r="G154" t="s">
         <v>8</v>
@@ -6658,13 +6798,13 @@
         <v>9</v>
       </c>
       <c r="B155" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="D155" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E155" t="s">
-        <v>769</v>
+        <v>755</v>
       </c>
       <c r="F155" t="s">
         <v>7</v>
@@ -6678,16 +6818,19 @@
         <v>9</v>
       </c>
       <c r="B156" t="s">
-        <v>458</v>
+        <v>1052</v>
+      </c>
+      <c r="C156" t="s">
+        <v>1053</v>
       </c>
       <c r="D156" t="s">
-        <v>146</v>
+        <v>1054</v>
       </c>
       <c r="E156" t="s">
-        <v>770</v>
+        <v>1055</v>
       </c>
       <c r="F156" t="s">
-        <v>7</v>
+        <v>931</v>
       </c>
       <c r="G156" t="s">
         <v>8</v>
@@ -6698,13 +6841,13 @@
         <v>9</v>
       </c>
       <c r="B157" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="D157" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E157" t="s">
-        <v>771</v>
+        <v>756</v>
       </c>
       <c r="F157" t="s">
         <v>7</v>
@@ -6718,13 +6861,13 @@
         <v>9</v>
       </c>
       <c r="B158" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="D158" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E158" t="s">
-        <v>772</v>
+        <v>757</v>
       </c>
       <c r="F158" t="s">
         <v>7</v>
@@ -6738,16 +6881,16 @@
         <v>9</v>
       </c>
       <c r="B159" t="s">
-        <v>461</v>
+        <v>968</v>
       </c>
       <c r="D159" t="s">
-        <v>149</v>
+        <v>969</v>
       </c>
       <c r="E159" t="s">
-        <v>773</v>
+        <v>970</v>
       </c>
       <c r="F159" t="s">
-        <v>7</v>
+        <v>931</v>
       </c>
       <c r="G159" t="s">
         <v>8</v>
@@ -6758,13 +6901,13 @@
         <v>9</v>
       </c>
       <c r="B160" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="D160" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="E160" t="s">
-        <v>774</v>
+        <v>758</v>
       </c>
       <c r="F160" t="s">
         <v>7</v>
@@ -6778,13 +6921,13 @@
         <v>9</v>
       </c>
       <c r="B161" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="D161" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E161" t="s">
-        <v>775</v>
+        <v>759</v>
       </c>
       <c r="F161" t="s">
         <v>7</v>
@@ -6798,13 +6941,13 @@
         <v>9</v>
       </c>
       <c r="B162" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="D162" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E162" t="s">
-        <v>776</v>
+        <v>760</v>
       </c>
       <c r="F162" t="s">
         <v>7</v>
@@ -6818,13 +6961,13 @@
         <v>9</v>
       </c>
       <c r="B163" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="D163" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E163" t="s">
-        <v>777</v>
+        <v>761</v>
       </c>
       <c r="F163" t="s">
         <v>7</v>
@@ -6838,13 +6981,13 @@
         <v>9</v>
       </c>
       <c r="B164" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="D164" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E164" t="s">
-        <v>778</v>
+        <v>762</v>
       </c>
       <c r="F164" t="s">
         <v>7</v>
@@ -6858,13 +7001,13 @@
         <v>9</v>
       </c>
       <c r="B165" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="D165" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E165" t="s">
-        <v>779</v>
+        <v>763</v>
       </c>
       <c r="F165" t="s">
         <v>7</v>
@@ -6878,13 +7021,13 @@
         <v>9</v>
       </c>
       <c r="B166" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="D166" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E166" t="s">
-        <v>780</v>
+        <v>764</v>
       </c>
       <c r="F166" t="s">
         <v>7</v>
@@ -6898,13 +7041,13 @@
         <v>9</v>
       </c>
       <c r="B167" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="D167" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E167" t="s">
-        <v>781</v>
+        <v>765</v>
       </c>
       <c r="F167" t="s">
         <v>7</v>
@@ -6918,13 +7061,13 @@
         <v>9</v>
       </c>
       <c r="B168" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="D168" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E168" t="s">
-        <v>782</v>
+        <v>766</v>
       </c>
       <c r="F168" t="s">
         <v>7</v>
@@ -6938,13 +7081,13 @@
         <v>9</v>
       </c>
       <c r="B169" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="D169" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E169" t="s">
-        <v>783</v>
+        <v>767</v>
       </c>
       <c r="F169" t="s">
         <v>7</v>
@@ -6958,13 +7101,13 @@
         <v>9</v>
       </c>
       <c r="B170" t="s">
-        <v>989</v>
+        <v>461</v>
       </c>
       <c r="D170" t="s">
-        <v>990</v>
+        <v>154</v>
       </c>
       <c r="E170" t="s">
-        <v>991</v>
+        <v>768</v>
       </c>
       <c r="F170" t="s">
         <v>7</v>
@@ -6978,16 +7121,16 @@
         <v>9</v>
       </c>
       <c r="B171" t="s">
-        <v>992</v>
+        <v>1056</v>
       </c>
       <c r="D171" t="s">
-        <v>993</v>
+        <v>1057</v>
       </c>
       <c r="E171" t="s">
-        <v>994</v>
+        <v>1058</v>
       </c>
       <c r="F171" t="s">
-        <v>7</v>
+        <v>931</v>
       </c>
       <c r="G171" t="s">
         <v>8</v>
@@ -6998,13 +7141,13 @@
         <v>9</v>
       </c>
       <c r="B172" t="s">
-        <v>998</v>
+        <v>462</v>
       </c>
       <c r="D172" t="s">
-        <v>999</v>
+        <v>155</v>
       </c>
       <c r="E172" t="s">
-        <v>1000</v>
+        <v>769</v>
       </c>
       <c r="F172" t="s">
         <v>7</v>
@@ -7018,13 +7161,13 @@
         <v>9</v>
       </c>
       <c r="B173" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="D173" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E173" t="s">
-        <v>784</v>
+        <v>770</v>
       </c>
       <c r="F173" t="s">
         <v>7</v>
@@ -7038,16 +7181,16 @@
         <v>9</v>
       </c>
       <c r="B174" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="D174" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E174" t="s">
-        <v>785</v>
+        <v>771</v>
       </c>
       <c r="F174" t="s">
-        <v>946</v>
+        <v>7</v>
       </c>
       <c r="G174" t="s">
         <v>8</v>
@@ -7058,13 +7201,13 @@
         <v>9</v>
       </c>
       <c r="B175" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="D175" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E175" t="s">
-        <v>786</v>
+        <v>772</v>
       </c>
       <c r="F175" t="s">
         <v>7</v>
@@ -7078,13 +7221,13 @@
         <v>9</v>
       </c>
       <c r="B176" t="s">
-        <v>475</v>
+        <v>974</v>
       </c>
       <c r="D176" t="s">
-        <v>163</v>
+        <v>975</v>
       </c>
       <c r="E176" t="s">
-        <v>787</v>
+        <v>976</v>
       </c>
       <c r="F176" t="s">
         <v>7</v>
@@ -7098,13 +7241,13 @@
         <v>9</v>
       </c>
       <c r="B177" t="s">
-        <v>476</v>
+        <v>977</v>
       </c>
       <c r="D177" t="s">
-        <v>164</v>
+        <v>978</v>
       </c>
       <c r="E177" t="s">
-        <v>788</v>
+        <v>979</v>
       </c>
       <c r="F177" t="s">
         <v>7</v>
@@ -7118,13 +7261,13 @@
         <v>9</v>
       </c>
       <c r="B178" t="s">
-        <v>1001</v>
+        <v>983</v>
       </c>
       <c r="D178" t="s">
-        <v>1002</v>
+        <v>984</v>
       </c>
       <c r="E178" t="s">
-        <v>1003</v>
+        <v>985</v>
       </c>
       <c r="F178" t="s">
         <v>7</v>
@@ -7138,13 +7281,13 @@
         <v>9</v>
       </c>
       <c r="B179" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="D179" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="E179" t="s">
-        <v>789</v>
+        <v>773</v>
       </c>
       <c r="F179" t="s">
         <v>7</v>
@@ -7158,16 +7301,16 @@
         <v>9</v>
       </c>
       <c r="B180" t="s">
-        <v>1004</v>
+        <v>467</v>
       </c>
       <c r="D180" t="s">
-        <v>1005</v>
+        <v>160</v>
       </c>
       <c r="E180" t="s">
-        <v>1006</v>
+        <v>774</v>
       </c>
       <c r="F180" t="s">
-        <v>7</v>
+        <v>931</v>
       </c>
       <c r="G180" t="s">
         <v>8</v>
@@ -7178,16 +7321,16 @@
         <v>9</v>
       </c>
       <c r="B181" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="D181" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E181" t="s">
-        <v>790</v>
+        <v>775</v>
       </c>
       <c r="F181" t="s">
-        <v>946</v>
+        <v>7</v>
       </c>
       <c r="G181" t="s">
         <v>8</v>
@@ -7198,13 +7341,13 @@
         <v>9</v>
       </c>
       <c r="B182" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="D182" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E182" t="s">
-        <v>791</v>
+        <v>776</v>
       </c>
       <c r="F182" t="s">
         <v>7</v>
@@ -7218,13 +7361,13 @@
         <v>9</v>
       </c>
       <c r="B183" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="D183" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E183" t="s">
-        <v>792</v>
+        <v>777</v>
       </c>
       <c r="F183" t="s">
         <v>7</v>
@@ -7238,13 +7381,13 @@
         <v>9</v>
       </c>
       <c r="B184" t="s">
-        <v>1007</v>
+        <v>986</v>
       </c>
       <c r="D184" t="s">
-        <v>1008</v>
+        <v>987</v>
       </c>
       <c r="E184" t="s">
-        <v>1009</v>
+        <v>988</v>
       </c>
       <c r="F184" t="s">
         <v>7</v>
@@ -7258,13 +7401,13 @@
         <v>9</v>
       </c>
       <c r="B185" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="D185" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E185" t="s">
-        <v>793</v>
+        <v>778</v>
       </c>
       <c r="F185" t="s">
         <v>7</v>
@@ -7278,16 +7421,16 @@
         <v>9</v>
       </c>
       <c r="B186" t="s">
-        <v>482</v>
+        <v>1059</v>
       </c>
       <c r="D186" t="s">
-        <v>170</v>
+        <v>1060</v>
       </c>
       <c r="E186" t="s">
-        <v>794</v>
+        <v>1061</v>
       </c>
       <c r="F186" t="s">
-        <v>7</v>
+        <v>931</v>
       </c>
       <c r="G186" t="s">
         <v>8</v>
@@ -7298,13 +7441,13 @@
         <v>9</v>
       </c>
       <c r="B187" t="s">
-        <v>483</v>
+        <v>989</v>
       </c>
       <c r="D187" t="s">
-        <v>171</v>
+        <v>990</v>
       </c>
       <c r="E187" t="s">
-        <v>795</v>
+        <v>991</v>
       </c>
       <c r="F187" t="s">
         <v>7</v>
@@ -7318,16 +7461,16 @@
         <v>9</v>
       </c>
       <c r="B188" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="D188" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="E188" t="s">
-        <v>796</v>
+        <v>779</v>
       </c>
       <c r="F188" t="s">
-        <v>946</v>
+        <v>931</v>
       </c>
       <c r="G188" t="s">
         <v>8</v>
@@ -7338,13 +7481,13 @@
         <v>9</v>
       </c>
       <c r="B189" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="D189" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="E189" t="s">
-        <v>797</v>
+        <v>780</v>
       </c>
       <c r="F189" t="s">
         <v>7</v>
@@ -7358,13 +7501,13 @@
         <v>9</v>
       </c>
       <c r="B190" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="D190" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="E190" t="s">
-        <v>798</v>
+        <v>781</v>
       </c>
       <c r="F190" t="s">
         <v>7</v>
@@ -7378,16 +7521,16 @@
         <v>9</v>
       </c>
       <c r="B191" t="s">
-        <v>487</v>
+        <v>992</v>
       </c>
       <c r="D191" t="s">
-        <v>175</v>
+        <v>993</v>
       </c>
       <c r="E191" t="s">
-        <v>799</v>
+        <v>994</v>
       </c>
       <c r="F191" t="s">
-        <v>946</v>
+        <v>7</v>
       </c>
       <c r="G191" t="s">
         <v>8</v>
@@ -7398,13 +7541,13 @@
         <v>9</v>
       </c>
       <c r="B192" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="D192" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="E192" t="s">
-        <v>800</v>
+        <v>782</v>
       </c>
       <c r="F192" t="s">
         <v>7</v>
@@ -7418,13 +7561,13 @@
         <v>9</v>
       </c>
       <c r="B193" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
       <c r="D193" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="E193" t="s">
-        <v>801</v>
+        <v>783</v>
       </c>
       <c r="F193" t="s">
         <v>7</v>
@@ -7438,16 +7581,16 @@
         <v>9</v>
       </c>
       <c r="B194" t="s">
-        <v>490</v>
+        <v>1062</v>
       </c>
       <c r="D194" t="s">
-        <v>178</v>
+        <v>1063</v>
       </c>
       <c r="E194" t="s">
-        <v>802</v>
+        <v>1064</v>
       </c>
       <c r="F194" t="s">
-        <v>946</v>
+        <v>7</v>
       </c>
       <c r="G194" t="s">
         <v>8</v>
@@ -7458,13 +7601,13 @@
         <v>9</v>
       </c>
       <c r="B195" t="s">
-        <v>491</v>
+        <v>477</v>
       </c>
       <c r="D195" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="E195" t="s">
-        <v>803</v>
+        <v>784</v>
       </c>
       <c r="F195" t="s">
         <v>7</v>
@@ -7478,16 +7621,16 @@
         <v>9</v>
       </c>
       <c r="B196" t="s">
-        <v>1013</v>
+        <v>478</v>
       </c>
       <c r="D196" t="s">
-        <v>1014</v>
+        <v>171</v>
       </c>
       <c r="E196" t="s">
-        <v>1015</v>
+        <v>785</v>
       </c>
       <c r="F196" t="s">
-        <v>7</v>
+        <v>931</v>
       </c>
       <c r="G196" t="s">
         <v>8</v>
@@ -7498,13 +7641,13 @@
         <v>9</v>
       </c>
       <c r="B197" t="s">
-        <v>492</v>
+        <v>1065</v>
       </c>
       <c r="D197" t="s">
-        <v>180</v>
+        <v>1066</v>
       </c>
       <c r="E197" t="s">
-        <v>804</v>
+        <v>1067</v>
       </c>
       <c r="F197" t="s">
         <v>7</v>
@@ -7518,13 +7661,13 @@
         <v>9</v>
       </c>
       <c r="B198" t="s">
-        <v>493</v>
+        <v>479</v>
       </c>
       <c r="D198" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="E198" t="s">
-        <v>805</v>
+        <v>786</v>
       </c>
       <c r="F198" t="s">
         <v>7</v>
@@ -7538,13 +7681,13 @@
         <v>9</v>
       </c>
       <c r="B199" t="s">
-        <v>1010</v>
+        <v>480</v>
       </c>
       <c r="D199" t="s">
-        <v>1011</v>
+        <v>173</v>
       </c>
       <c r="E199" t="s">
-        <v>1012</v>
+        <v>787</v>
       </c>
       <c r="F199" t="s">
         <v>7</v>
@@ -7558,16 +7701,16 @@
         <v>9</v>
       </c>
       <c r="B200" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
       <c r="D200" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E200" t="s">
-        <v>806</v>
+        <v>788</v>
       </c>
       <c r="F200" t="s">
-        <v>7</v>
+        <v>931</v>
       </c>
       <c r="G200" t="s">
         <v>8</v>
@@ -7578,13 +7721,13 @@
         <v>9</v>
       </c>
       <c r="B201" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
       <c r="D201" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="E201" t="s">
-        <v>807</v>
+        <v>789</v>
       </c>
       <c r="F201" t="s">
         <v>7</v>
@@ -7598,13 +7741,13 @@
         <v>9</v>
       </c>
       <c r="B202" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="D202" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="E202" t="s">
-        <v>808</v>
+        <v>790</v>
       </c>
       <c r="F202" t="s">
         <v>7</v>
@@ -7618,16 +7761,16 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="D203" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E203" t="s">
-        <v>809</v>
+        <v>791</v>
       </c>
       <c r="F203" t="s">
-        <v>7</v>
+        <v>931</v>
       </c>
       <c r="G203" t="s">
         <v>8</v>
@@ -7638,13 +7781,13 @@
         <v>9</v>
       </c>
       <c r="B204" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="D204" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="E204" t="s">
-        <v>810</v>
+        <v>792</v>
       </c>
       <c r="F204" t="s">
         <v>7</v>
@@ -7658,13 +7801,13 @@
         <v>9</v>
       </c>
       <c r="B205" t="s">
-        <v>1016</v>
+        <v>998</v>
       </c>
       <c r="D205" t="s">
-        <v>1017</v>
+        <v>999</v>
       </c>
       <c r="E205" t="s">
-        <v>1018</v>
+        <v>1000</v>
       </c>
       <c r="F205" t="s">
         <v>7</v>
@@ -7678,13 +7821,13 @@
         <v>9</v>
       </c>
       <c r="B206" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="D206" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="E206" t="s">
-        <v>811</v>
+        <v>793</v>
       </c>
       <c r="F206" t="s">
         <v>7</v>
@@ -7698,13 +7841,13 @@
         <v>9</v>
       </c>
       <c r="B207" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="D207" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="E207" t="s">
-        <v>812</v>
+        <v>794</v>
       </c>
       <c r="F207" t="s">
         <v>7</v>
@@ -7718,13 +7861,13 @@
         <v>9</v>
       </c>
       <c r="B208" t="s">
-        <v>501</v>
+        <v>995</v>
       </c>
       <c r="D208" t="s">
-        <v>189</v>
+        <v>996</v>
       </c>
       <c r="E208" t="s">
-        <v>813</v>
+        <v>997</v>
       </c>
       <c r="F208" t="s">
         <v>7</v>
@@ -7738,13 +7881,13 @@
         <v>9</v>
       </c>
       <c r="B209" t="s">
-        <v>502</v>
+        <v>488</v>
       </c>
       <c r="D209" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="E209" t="s">
-        <v>814</v>
+        <v>795</v>
       </c>
       <c r="F209" t="s">
         <v>7</v>
@@ -7758,13 +7901,13 @@
         <v>9</v>
       </c>
       <c r="B210" t="s">
-        <v>503</v>
+        <v>489</v>
       </c>
       <c r="D210" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="E210" t="s">
-        <v>815</v>
+        <v>796</v>
       </c>
       <c r="F210" t="s">
         <v>7</v>
@@ -7778,13 +7921,13 @@
         <v>9</v>
       </c>
       <c r="B211" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="D211" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="E211" t="s">
-        <v>816</v>
+        <v>797</v>
       </c>
       <c r="F211" t="s">
         <v>7</v>
@@ -7798,13 +7941,13 @@
         <v>9</v>
       </c>
       <c r="B212" t="s">
-        <v>505</v>
+        <v>491</v>
       </c>
       <c r="D212" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="E212" t="s">
-        <v>817</v>
+        <v>798</v>
       </c>
       <c r="F212" t="s">
         <v>7</v>
@@ -7818,13 +7961,13 @@
         <v>9</v>
       </c>
       <c r="B213" t="s">
-        <v>506</v>
+        <v>492</v>
       </c>
       <c r="D213" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="E213" t="s">
-        <v>818</v>
+        <v>799</v>
       </c>
       <c r="F213" t="s">
         <v>7</v>
@@ -7838,13 +7981,13 @@
         <v>9</v>
       </c>
       <c r="B214" t="s">
-        <v>507</v>
+        <v>1001</v>
       </c>
       <c r="D214" t="s">
-        <v>195</v>
+        <v>1002</v>
       </c>
       <c r="E214" t="s">
-        <v>819</v>
+        <v>1003</v>
       </c>
       <c r="F214" t="s">
         <v>7</v>
@@ -7858,13 +8001,13 @@
         <v>9</v>
       </c>
       <c r="B215" t="s">
-        <v>1028</v>
+        <v>493</v>
       </c>
       <c r="D215" t="s">
-        <v>1029</v>
+        <v>186</v>
       </c>
       <c r="E215" t="s">
-        <v>1030</v>
+        <v>800</v>
       </c>
       <c r="F215" t="s">
         <v>7</v>
@@ -7878,13 +8021,13 @@
         <v>9</v>
       </c>
       <c r="B216" t="s">
-        <v>508</v>
+        <v>494</v>
       </c>
       <c r="D216" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="E216" t="s">
-        <v>820</v>
+        <v>801</v>
       </c>
       <c r="F216" t="s">
         <v>7</v>
@@ -7898,13 +8041,13 @@
         <v>9</v>
       </c>
       <c r="B217" t="s">
-        <v>509</v>
+        <v>495</v>
       </c>
       <c r="D217" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="E217" t="s">
-        <v>821</v>
+        <v>802</v>
       </c>
       <c r="F217" t="s">
         <v>7</v>
@@ -7918,16 +8061,16 @@
         <v>9</v>
       </c>
       <c r="B218" t="s">
-        <v>510</v>
+        <v>1068</v>
       </c>
       <c r="D218" t="s">
-        <v>198</v>
+        <v>1069</v>
       </c>
       <c r="E218" t="s">
-        <v>822</v>
+        <v>1070</v>
       </c>
       <c r="F218" t="s">
-        <v>7</v>
+        <v>931</v>
       </c>
       <c r="G218" t="s">
         <v>8</v>
@@ -7938,13 +8081,13 @@
         <v>9</v>
       </c>
       <c r="B219" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="D219" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="E219" t="s">
-        <v>823</v>
+        <v>803</v>
       </c>
       <c r="F219" t="s">
         <v>7</v>
@@ -7958,13 +8101,13 @@
         <v>9</v>
       </c>
       <c r="B220" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
       <c r="D220" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="E220" t="s">
-        <v>824</v>
+        <v>804</v>
       </c>
       <c r="F220" t="s">
         <v>7</v>
@@ -7978,13 +8121,13 @@
         <v>9</v>
       </c>
       <c r="B221" t="s">
-        <v>513</v>
+        <v>498</v>
       </c>
       <c r="D221" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="E221" t="s">
-        <v>825</v>
+        <v>805</v>
       </c>
       <c r="F221" t="s">
         <v>7</v>
@@ -7998,13 +8141,13 @@
         <v>9</v>
       </c>
       <c r="B222" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="D222" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="E222" t="s">
-        <v>826</v>
+        <v>806</v>
       </c>
       <c r="F222" t="s">
         <v>7</v>
@@ -8018,13 +8161,13 @@
         <v>9</v>
       </c>
       <c r="B223" t="s">
-        <v>515</v>
+        <v>500</v>
       </c>
       <c r="D223" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="E223" t="s">
-        <v>827</v>
+        <v>807</v>
       </c>
       <c r="F223" t="s">
         <v>7</v>
@@ -8038,13 +8181,13 @@
         <v>9</v>
       </c>
       <c r="B224" t="s">
-        <v>516</v>
+        <v>1013</v>
       </c>
       <c r="D224" t="s">
-        <v>204</v>
+        <v>1014</v>
       </c>
       <c r="E224" t="s">
-        <v>828</v>
+        <v>1015</v>
       </c>
       <c r="F224" t="s">
         <v>7</v>
@@ -8058,13 +8201,16 @@
         <v>9</v>
       </c>
       <c r="B225" t="s">
-        <v>517</v>
+        <v>1071</v>
+      </c>
+      <c r="C225" t="s">
+        <v>1072</v>
       </c>
       <c r="D225" t="s">
-        <v>205</v>
+        <v>1073</v>
       </c>
       <c r="E225" t="s">
-        <v>829</v>
+        <v>1074</v>
       </c>
       <c r="F225" t="s">
         <v>7</v>
@@ -8078,13 +8224,13 @@
         <v>9</v>
       </c>
       <c r="B226" t="s">
-        <v>518</v>
+        <v>501</v>
       </c>
       <c r="D226" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="E226" t="s">
-        <v>830</v>
+        <v>808</v>
       </c>
       <c r="F226" t="s">
         <v>7</v>
@@ -8098,16 +8244,16 @@
         <v>9</v>
       </c>
       <c r="B227" t="s">
-        <v>519</v>
+        <v>1075</v>
       </c>
       <c r="D227" t="s">
-        <v>207</v>
+        <v>1076</v>
       </c>
       <c r="E227" t="s">
-        <v>831</v>
+        <v>1077</v>
       </c>
       <c r="F227" t="s">
-        <v>7</v>
+        <v>931</v>
       </c>
       <c r="G227" t="s">
         <v>8</v>
@@ -8118,16 +8264,16 @@
         <v>9</v>
       </c>
       <c r="B228" t="s">
-        <v>520</v>
+        <v>502</v>
       </c>
       <c r="D228" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="E228" t="s">
-        <v>832</v>
+        <v>809</v>
       </c>
       <c r="F228" t="s">
-        <v>946</v>
+        <v>7</v>
       </c>
       <c r="G228" t="s">
         <v>8</v>
@@ -8138,13 +8284,13 @@
         <v>9</v>
       </c>
       <c r="B229" t="s">
-        <v>521</v>
+        <v>503</v>
       </c>
       <c r="D229" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="E229" t="s">
-        <v>833</v>
+        <v>810</v>
       </c>
       <c r="F229" t="s">
         <v>7</v>
@@ -8158,16 +8304,16 @@
         <v>9</v>
       </c>
       <c r="B230" t="s">
-        <v>522</v>
+        <v>1078</v>
       </c>
       <c r="D230" t="s">
-        <v>210</v>
+        <v>1079</v>
       </c>
       <c r="E230" t="s">
-        <v>834</v>
+        <v>1080</v>
       </c>
       <c r="F230" t="s">
-        <v>7</v>
+        <v>931</v>
       </c>
       <c r="G230" t="s">
         <v>8</v>
@@ -8178,13 +8324,13 @@
         <v>9</v>
       </c>
       <c r="B231" t="s">
-        <v>523</v>
+        <v>504</v>
       </c>
       <c r="D231" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="E231" t="s">
-        <v>835</v>
+        <v>811</v>
       </c>
       <c r="F231" t="s">
         <v>7</v>
@@ -8198,13 +8344,13 @@
         <v>9</v>
       </c>
       <c r="B232" t="s">
-        <v>524</v>
+        <v>505</v>
       </c>
       <c r="D232" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="E232" t="s">
-        <v>836</v>
+        <v>812</v>
       </c>
       <c r="F232" t="s">
         <v>7</v>
@@ -8218,13 +8364,13 @@
         <v>9</v>
       </c>
       <c r="B233" t="s">
-        <v>525</v>
+        <v>506</v>
       </c>
       <c r="D233" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="E233" t="s">
-        <v>837</v>
+        <v>813</v>
       </c>
       <c r="F233" t="s">
         <v>7</v>
@@ -8238,13 +8384,13 @@
         <v>9</v>
       </c>
       <c r="B234" t="s">
-        <v>526</v>
+        <v>507</v>
       </c>
       <c r="D234" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="E234" t="s">
-        <v>838</v>
+        <v>814</v>
       </c>
       <c r="F234" t="s">
         <v>7</v>
@@ -8258,13 +8404,13 @@
         <v>9</v>
       </c>
       <c r="B235" t="s">
-        <v>527</v>
+        <v>508</v>
       </c>
       <c r="D235" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="E235" t="s">
-        <v>839</v>
+        <v>815</v>
       </c>
       <c r="F235" t="s">
         <v>7</v>
@@ -8278,13 +8424,13 @@
         <v>9</v>
       </c>
       <c r="B236" t="s">
-        <v>528</v>
+        <v>509</v>
       </c>
       <c r="D236" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="E236" t="s">
-        <v>840</v>
+        <v>816</v>
       </c>
       <c r="F236" t="s">
         <v>7</v>
@@ -8298,13 +8444,13 @@
         <v>9</v>
       </c>
       <c r="B237" t="s">
-        <v>529</v>
+        <v>510</v>
       </c>
       <c r="D237" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="E237" t="s">
-        <v>841</v>
+        <v>817</v>
       </c>
       <c r="F237" t="s">
         <v>7</v>
@@ -8318,13 +8464,13 @@
         <v>9</v>
       </c>
       <c r="B238" t="s">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="D238" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="E238" t="s">
-        <v>842</v>
+        <v>818</v>
       </c>
       <c r="F238" t="s">
         <v>7</v>
@@ -8338,13 +8484,16 @@
         <v>9</v>
       </c>
       <c r="B239" t="s">
-        <v>531</v>
+        <v>1081</v>
+      </c>
+      <c r="C239" t="s">
+        <v>1082</v>
       </c>
       <c r="D239" t="s">
-        <v>219</v>
+        <v>1083</v>
       </c>
       <c r="E239" t="s">
-        <v>843</v>
+        <v>1084</v>
       </c>
       <c r="F239" t="s">
         <v>7</v>
@@ -8358,13 +8507,13 @@
         <v>9</v>
       </c>
       <c r="B240" t="s">
-        <v>532</v>
+        <v>512</v>
       </c>
       <c r="D240" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="E240" t="s">
-        <v>844</v>
+        <v>819</v>
       </c>
       <c r="F240" t="s">
         <v>7</v>
@@ -8378,16 +8527,16 @@
         <v>9</v>
       </c>
       <c r="B241" t="s">
-        <v>533</v>
+        <v>513</v>
       </c>
       <c r="D241" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="E241" t="s">
-        <v>845</v>
+        <v>820</v>
       </c>
       <c r="F241" t="s">
-        <v>7</v>
+        <v>931</v>
       </c>
       <c r="G241" t="s">
         <v>8</v>
@@ -8398,13 +8547,13 @@
         <v>9</v>
       </c>
       <c r="B242" t="s">
-        <v>534</v>
+        <v>514</v>
       </c>
       <c r="D242" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="E242" t="s">
-        <v>846</v>
+        <v>821</v>
       </c>
       <c r="F242" t="s">
         <v>7</v>
@@ -8418,13 +8567,13 @@
         <v>9</v>
       </c>
       <c r="B243" t="s">
-        <v>535</v>
+        <v>515</v>
       </c>
       <c r="D243" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="E243" t="s">
-        <v>847</v>
+        <v>822</v>
       </c>
       <c r="F243" t="s">
         <v>7</v>
@@ -8438,13 +8587,13 @@
         <v>9</v>
       </c>
       <c r="B244" t="s">
-        <v>536</v>
+        <v>516</v>
       </c>
       <c r="D244" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="E244" t="s">
-        <v>848</v>
+        <v>823</v>
       </c>
       <c r="F244" t="s">
         <v>7</v>
@@ -8458,13 +8607,13 @@
         <v>9</v>
       </c>
       <c r="B245" t="s">
-        <v>537</v>
+        <v>517</v>
       </c>
       <c r="D245" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="E245" t="s">
-        <v>849</v>
+        <v>824</v>
       </c>
       <c r="F245" t="s">
         <v>7</v>
@@ -8478,13 +8627,13 @@
         <v>9</v>
       </c>
       <c r="B246" t="s">
-        <v>538</v>
+        <v>518</v>
       </c>
       <c r="D246" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="E246" t="s">
-        <v>850</v>
+        <v>825</v>
       </c>
       <c r="F246" t="s">
         <v>7</v>
@@ -8498,16 +8647,16 @@
         <v>9</v>
       </c>
       <c r="B247" t="s">
-        <v>539</v>
+        <v>519</v>
       </c>
       <c r="D247" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="E247" t="s">
-        <v>851</v>
+        <v>826</v>
       </c>
       <c r="F247" t="s">
-        <v>946</v>
+        <v>7</v>
       </c>
       <c r="G247" t="s">
         <v>8</v>
@@ -8518,13 +8667,13 @@
         <v>9</v>
       </c>
       <c r="B248" t="s">
-        <v>540</v>
+        <v>1085</v>
       </c>
       <c r="D248" t="s">
-        <v>228</v>
+        <v>1086</v>
       </c>
       <c r="E248" t="s">
-        <v>852</v>
+        <v>1087</v>
       </c>
       <c r="F248" t="s">
         <v>7</v>
@@ -8538,13 +8687,13 @@
         <v>9</v>
       </c>
       <c r="B249" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="D249" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="E249" t="s">
-        <v>853</v>
+        <v>827</v>
       </c>
       <c r="F249" t="s">
         <v>7</v>
@@ -8558,13 +8707,13 @@
         <v>9</v>
       </c>
       <c r="B250" t="s">
-        <v>542</v>
+        <v>521</v>
       </c>
       <c r="D250" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="E250" t="s">
-        <v>854</v>
+        <v>828</v>
       </c>
       <c r="F250" t="s">
         <v>7</v>
@@ -8578,13 +8727,13 @@
         <v>9</v>
       </c>
       <c r="B251" t="s">
-        <v>543</v>
+        <v>522</v>
       </c>
       <c r="D251" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="E251" t="s">
-        <v>855</v>
+        <v>829</v>
       </c>
       <c r="F251" t="s">
         <v>7</v>
@@ -8598,13 +8747,13 @@
         <v>9</v>
       </c>
       <c r="B252" t="s">
-        <v>544</v>
+        <v>523</v>
       </c>
       <c r="D252" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="E252" t="s">
-        <v>856</v>
+        <v>830</v>
       </c>
       <c r="F252" t="s">
         <v>7</v>
@@ -8618,13 +8767,13 @@
         <v>9</v>
       </c>
       <c r="B253" t="s">
-        <v>545</v>
+        <v>524</v>
       </c>
       <c r="D253" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="E253" t="s">
-        <v>857</v>
+        <v>831</v>
       </c>
       <c r="F253" t="s">
         <v>7</v>
@@ -8638,16 +8787,16 @@
         <v>9</v>
       </c>
       <c r="B254" t="s">
-        <v>546</v>
+        <v>525</v>
       </c>
       <c r="D254" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="E254" t="s">
-        <v>858</v>
+        <v>832</v>
       </c>
       <c r="F254" t="s">
-        <v>946</v>
+        <v>7</v>
       </c>
       <c r="G254" t="s">
         <v>8</v>
@@ -8658,13 +8807,13 @@
         <v>9</v>
       </c>
       <c r="B255" t="s">
-        <v>547</v>
+        <v>526</v>
       </c>
       <c r="D255" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="E255" t="s">
-        <v>859</v>
+        <v>833</v>
       </c>
       <c r="F255" t="s">
         <v>7</v>
@@ -8678,13 +8827,13 @@
         <v>9</v>
       </c>
       <c r="B256" t="s">
-        <v>548</v>
+        <v>527</v>
       </c>
       <c r="D256" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="E256" t="s">
-        <v>860</v>
+        <v>834</v>
       </c>
       <c r="F256" t="s">
         <v>7</v>
@@ -8698,13 +8847,13 @@
         <v>9</v>
       </c>
       <c r="B257" t="s">
-        <v>549</v>
+        <v>528</v>
       </c>
       <c r="D257" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="E257" t="s">
-        <v>861</v>
+        <v>835</v>
       </c>
       <c r="F257" t="s">
         <v>7</v>
@@ -8718,13 +8867,13 @@
         <v>9</v>
       </c>
       <c r="B258" t="s">
-        <v>550</v>
+        <v>529</v>
       </c>
       <c r="D258" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="E258" t="s">
-        <v>862</v>
+        <v>836</v>
       </c>
       <c r="F258" t="s">
         <v>7</v>
@@ -8738,13 +8887,13 @@
         <v>9</v>
       </c>
       <c r="B259" t="s">
-        <v>551</v>
+        <v>530</v>
       </c>
       <c r="D259" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="E259" t="s">
-        <v>863</v>
+        <v>837</v>
       </c>
       <c r="F259" t="s">
         <v>7</v>
@@ -8758,13 +8907,13 @@
         <v>9</v>
       </c>
       <c r="B260" t="s">
-        <v>552</v>
+        <v>531</v>
       </c>
       <c r="D260" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="E260" t="s">
-        <v>864</v>
+        <v>838</v>
       </c>
       <c r="F260" t="s">
         <v>7</v>
@@ -8778,16 +8927,16 @@
         <v>9</v>
       </c>
       <c r="B261" t="s">
-        <v>553</v>
+        <v>532</v>
       </c>
       <c r="D261" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="E261" t="s">
-        <v>865</v>
+        <v>839</v>
       </c>
       <c r="F261" t="s">
-        <v>7</v>
+        <v>931</v>
       </c>
       <c r="G261" t="s">
         <v>8</v>
@@ -8798,13 +8947,13 @@
         <v>9</v>
       </c>
       <c r="B262" t="s">
-        <v>554</v>
+        <v>533</v>
       </c>
       <c r="D262" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="E262" t="s">
-        <v>866</v>
+        <v>840</v>
       </c>
       <c r="F262" t="s">
         <v>7</v>
@@ -8818,13 +8967,13 @@
         <v>9</v>
       </c>
       <c r="B263" t="s">
-        <v>555</v>
+        <v>534</v>
       </c>
       <c r="D263" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="E263" t="s">
-        <v>867</v>
+        <v>841</v>
       </c>
       <c r="F263" t="s">
         <v>7</v>
@@ -8838,13 +8987,13 @@
         <v>9</v>
       </c>
       <c r="B264" t="s">
-        <v>556</v>
+        <v>535</v>
       </c>
       <c r="D264" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="E264" t="s">
-        <v>868</v>
+        <v>842</v>
       </c>
       <c r="F264" t="s">
         <v>7</v>
@@ -8858,13 +9007,13 @@
         <v>9</v>
       </c>
       <c r="B265" t="s">
-        <v>557</v>
+        <v>536</v>
       </c>
       <c r="D265" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="E265" t="s">
-        <v>869</v>
+        <v>843</v>
       </c>
       <c r="F265" t="s">
         <v>7</v>
@@ -8878,13 +9027,13 @@
         <v>9</v>
       </c>
       <c r="B266" t="s">
-        <v>558</v>
+        <v>537</v>
       </c>
       <c r="D266" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="E266" t="s">
-        <v>870</v>
+        <v>844</v>
       </c>
       <c r="F266" t="s">
         <v>7</v>
@@ -8898,13 +9047,13 @@
         <v>9</v>
       </c>
       <c r="B267" t="s">
-        <v>559</v>
+        <v>538</v>
       </c>
       <c r="D267" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="E267" t="s">
-        <v>871</v>
+        <v>845</v>
       </c>
       <c r="F267" t="s">
         <v>7</v>
@@ -8918,16 +9067,16 @@
         <v>9</v>
       </c>
       <c r="B268" t="s">
-        <v>560</v>
+        <v>539</v>
       </c>
       <c r="D268" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="E268" t="s">
-        <v>872</v>
+        <v>846</v>
       </c>
       <c r="F268" t="s">
-        <v>7</v>
+        <v>931</v>
       </c>
       <c r="G268" t="s">
         <v>8</v>
@@ -8938,13 +9087,13 @@
         <v>9</v>
       </c>
       <c r="B269" t="s">
-        <v>561</v>
+        <v>540</v>
       </c>
       <c r="D269" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="E269" t="s">
-        <v>873</v>
+        <v>847</v>
       </c>
       <c r="F269" t="s">
         <v>7</v>
@@ -8958,13 +9107,13 @@
         <v>9</v>
       </c>
       <c r="B270" t="s">
-        <v>1025</v>
+        <v>541</v>
       </c>
       <c r="D270" t="s">
-        <v>1026</v>
+        <v>234</v>
       </c>
       <c r="E270" t="s">
-        <v>1027</v>
+        <v>848</v>
       </c>
       <c r="F270" t="s">
         <v>7</v>
@@ -8978,13 +9127,13 @@
         <v>9</v>
       </c>
       <c r="B271" t="s">
-        <v>562</v>
+        <v>542</v>
       </c>
       <c r="D271" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="E271" t="s">
-        <v>874</v>
+        <v>849</v>
       </c>
       <c r="F271" t="s">
         <v>7</v>
@@ -8998,13 +9147,13 @@
         <v>9</v>
       </c>
       <c r="B272" t="s">
-        <v>563</v>
+        <v>543</v>
       </c>
       <c r="D272" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="E272" t="s">
-        <v>875</v>
+        <v>850</v>
       </c>
       <c r="F272" t="s">
         <v>7</v>
@@ -9018,13 +9167,13 @@
         <v>9</v>
       </c>
       <c r="B273" t="s">
-        <v>564</v>
+        <v>544</v>
       </c>
       <c r="D273" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="E273" t="s">
-        <v>876</v>
+        <v>851</v>
       </c>
       <c r="F273" t="s">
         <v>7</v>
@@ -9038,13 +9187,13 @@
         <v>9</v>
       </c>
       <c r="B274" t="s">
-        <v>565</v>
+        <v>545</v>
       </c>
       <c r="D274" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="E274" t="s">
-        <v>877</v>
+        <v>852</v>
       </c>
       <c r="F274" t="s">
         <v>7</v>
@@ -9058,16 +9207,16 @@
         <v>9</v>
       </c>
       <c r="B275" t="s">
-        <v>1031</v>
+        <v>546</v>
       </c>
       <c r="D275" t="s">
-        <v>1032</v>
+        <v>239</v>
       </c>
       <c r="E275" t="s">
-        <v>1033</v>
+        <v>853</v>
       </c>
       <c r="F275" t="s">
-        <v>946</v>
+        <v>7</v>
       </c>
       <c r="G275" t="s">
         <v>8</v>
@@ -9078,13 +9227,13 @@
         <v>9</v>
       </c>
       <c r="B276" t="s">
-        <v>566</v>
+        <v>547</v>
       </c>
       <c r="D276" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="E276" t="s">
-        <v>878</v>
+        <v>854</v>
       </c>
       <c r="F276" t="s">
         <v>7</v>
@@ -9098,16 +9247,19 @@
         <v>9</v>
       </c>
       <c r="B277" t="s">
-        <v>567</v>
+        <v>1088</v>
+      </c>
+      <c r="C277" t="s">
+        <v>1089</v>
       </c>
       <c r="D277" t="s">
-        <v>255</v>
+        <v>1090</v>
       </c>
       <c r="E277" t="s">
-        <v>879</v>
+        <v>1091</v>
       </c>
       <c r="F277" t="s">
-        <v>7</v>
+        <v>931</v>
       </c>
       <c r="G277" t="s">
         <v>8</v>
@@ -9118,13 +9270,13 @@
         <v>9</v>
       </c>
       <c r="B278" t="s">
-        <v>568</v>
+        <v>548</v>
       </c>
       <c r="D278" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="E278" t="s">
-        <v>880</v>
+        <v>855</v>
       </c>
       <c r="F278" t="s">
         <v>7</v>
@@ -9138,16 +9290,16 @@
         <v>9</v>
       </c>
       <c r="B279" t="s">
-        <v>569</v>
+        <v>549</v>
       </c>
       <c r="D279" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="E279" t="s">
-        <v>881</v>
+        <v>856</v>
       </c>
       <c r="F279" t="s">
-        <v>946</v>
+        <v>7</v>
       </c>
       <c r="G279" t="s">
         <v>8</v>
@@ -9158,13 +9310,13 @@
         <v>9</v>
       </c>
       <c r="B280" t="s">
-        <v>1037</v>
+        <v>550</v>
       </c>
       <c r="D280" t="s">
-        <v>1038</v>
+        <v>243</v>
       </c>
       <c r="E280" t="s">
-        <v>1039</v>
+        <v>857</v>
       </c>
       <c r="F280" t="s">
         <v>7</v>
@@ -9178,13 +9330,13 @@
         <v>9</v>
       </c>
       <c r="B281" t="s">
-        <v>570</v>
+        <v>551</v>
       </c>
       <c r="D281" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="E281" t="s">
-        <v>882</v>
+        <v>858</v>
       </c>
       <c r="F281" t="s">
         <v>7</v>
@@ -9198,13 +9350,13 @@
         <v>9</v>
       </c>
       <c r="B282" t="s">
-        <v>571</v>
+        <v>552</v>
       </c>
       <c r="D282" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="E282" t="s">
-        <v>883</v>
+        <v>859</v>
       </c>
       <c r="F282" t="s">
         <v>7</v>
@@ -9218,13 +9370,13 @@
         <v>9</v>
       </c>
       <c r="B283" t="s">
-        <v>572</v>
+        <v>553</v>
       </c>
       <c r="D283" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="E283" t="s">
-        <v>884</v>
+        <v>860</v>
       </c>
       <c r="F283" t="s">
         <v>7</v>
@@ -9238,13 +9390,13 @@
         <v>9</v>
       </c>
       <c r="B284" t="s">
-        <v>573</v>
+        <v>554</v>
       </c>
       <c r="D284" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="E284" t="s">
-        <v>885</v>
+        <v>861</v>
       </c>
       <c r="F284" t="s">
         <v>7</v>
@@ -9258,13 +9410,13 @@
         <v>9</v>
       </c>
       <c r="B285" t="s">
-        <v>574</v>
+        <v>1010</v>
       </c>
       <c r="D285" t="s">
-        <v>262</v>
+        <v>1011</v>
       </c>
       <c r="E285" t="s">
-        <v>886</v>
+        <v>1012</v>
       </c>
       <c r="F285" t="s">
         <v>7</v>
@@ -9278,13 +9430,13 @@
         <v>9</v>
       </c>
       <c r="B286" t="s">
-        <v>575</v>
+        <v>555</v>
       </c>
       <c r="D286" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="E286" t="s">
-        <v>887</v>
+        <v>862</v>
       </c>
       <c r="F286" t="s">
         <v>7</v>
@@ -9298,13 +9450,13 @@
         <v>9</v>
       </c>
       <c r="B287" t="s">
-        <v>576</v>
+        <v>556</v>
       </c>
       <c r="D287" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="E287" t="s">
-        <v>888</v>
+        <v>863</v>
       </c>
       <c r="F287" t="s">
         <v>7</v>
@@ -9318,13 +9470,13 @@
         <v>9</v>
       </c>
       <c r="B288" t="s">
-        <v>577</v>
+        <v>557</v>
       </c>
       <c r="D288" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="E288" t="s">
-        <v>889</v>
+        <v>864</v>
       </c>
       <c r="F288" t="s">
         <v>7</v>
@@ -9338,13 +9490,13 @@
         <v>9</v>
       </c>
       <c r="B289" t="s">
-        <v>578</v>
+        <v>558</v>
       </c>
       <c r="D289" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="E289" t="s">
-        <v>890</v>
+        <v>865</v>
       </c>
       <c r="F289" t="s">
         <v>7</v>
@@ -9358,16 +9510,16 @@
         <v>9</v>
       </c>
       <c r="B290" t="s">
-        <v>1034</v>
+        <v>1016</v>
       </c>
       <c r="D290" t="s">
-        <v>1035</v>
+        <v>1017</v>
       </c>
       <c r="E290" t="s">
-        <v>1036</v>
+        <v>1018</v>
       </c>
       <c r="F290" t="s">
-        <v>946</v>
+        <v>931</v>
       </c>
       <c r="G290" t="s">
         <v>8</v>
@@ -9378,13 +9530,13 @@
         <v>9</v>
       </c>
       <c r="B291" t="s">
-        <v>579</v>
+        <v>559</v>
       </c>
       <c r="D291" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="E291" t="s">
-        <v>891</v>
+        <v>866</v>
       </c>
       <c r="F291" t="s">
         <v>7</v>
@@ -9398,13 +9550,13 @@
         <v>9</v>
       </c>
       <c r="B292" t="s">
-        <v>580</v>
+        <v>560</v>
       </c>
       <c r="D292" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="E292" t="s">
-        <v>892</v>
+        <v>867</v>
       </c>
       <c r="F292" t="s">
         <v>7</v>
@@ -9418,13 +9570,13 @@
         <v>9</v>
       </c>
       <c r="B293" t="s">
-        <v>581</v>
+        <v>561</v>
       </c>
       <c r="D293" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="E293" t="s">
-        <v>893</v>
+        <v>868</v>
       </c>
       <c r="F293" t="s">
         <v>7</v>
@@ -9438,16 +9590,16 @@
         <v>9</v>
       </c>
       <c r="B294" t="s">
-        <v>582</v>
+        <v>562</v>
       </c>
       <c r="D294" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="E294" t="s">
-        <v>894</v>
+        <v>869</v>
       </c>
       <c r="F294" t="s">
-        <v>7</v>
+        <v>931</v>
       </c>
       <c r="G294" t="s">
         <v>8</v>
@@ -9458,13 +9610,13 @@
         <v>9</v>
       </c>
       <c r="B295" t="s">
-        <v>583</v>
+        <v>1022</v>
       </c>
       <c r="D295" t="s">
-        <v>271</v>
+        <v>1023</v>
       </c>
       <c r="E295" t="s">
-        <v>895</v>
+        <v>1024</v>
       </c>
       <c r="F295" t="s">
         <v>7</v>
@@ -9478,13 +9630,13 @@
         <v>9</v>
       </c>
       <c r="B296" t="s">
-        <v>584</v>
+        <v>563</v>
       </c>
       <c r="D296" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="E296" t="s">
-        <v>896</v>
+        <v>870</v>
       </c>
       <c r="F296" t="s">
         <v>7</v>
@@ -9498,13 +9650,13 @@
         <v>9</v>
       </c>
       <c r="B297" t="s">
-        <v>585</v>
+        <v>564</v>
       </c>
       <c r="D297" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="E297" t="s">
-        <v>897</v>
+        <v>871</v>
       </c>
       <c r="F297" t="s">
         <v>7</v>
@@ -9518,13 +9670,13 @@
         <v>9</v>
       </c>
       <c r="B298" t="s">
-        <v>586</v>
+        <v>565</v>
       </c>
       <c r="D298" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="E298" t="s">
-        <v>898</v>
+        <v>872</v>
       </c>
       <c r="F298" t="s">
         <v>7</v>
@@ -9538,13 +9690,13 @@
         <v>9</v>
       </c>
       <c r="B299" t="s">
-        <v>587</v>
+        <v>566</v>
       </c>
       <c r="D299" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="E299" t="s">
-        <v>899</v>
+        <v>873</v>
       </c>
       <c r="F299" t="s">
         <v>7</v>
@@ -9558,13 +9710,13 @@
         <v>9</v>
       </c>
       <c r="B300" t="s">
-        <v>588</v>
+        <v>567</v>
       </c>
       <c r="D300" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="E300" t="s">
-        <v>900</v>
+        <v>874</v>
       </c>
       <c r="F300" t="s">
         <v>7</v>
@@ -9578,13 +9730,13 @@
         <v>9</v>
       </c>
       <c r="B301" t="s">
-        <v>589</v>
+        <v>568</v>
       </c>
       <c r="D301" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="E301" t="s">
-        <v>901</v>
+        <v>875</v>
       </c>
       <c r="F301" t="s">
         <v>7</v>
@@ -9598,13 +9750,13 @@
         <v>9</v>
       </c>
       <c r="B302" t="s">
-        <v>590</v>
+        <v>569</v>
       </c>
       <c r="D302" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="E302" t="s">
-        <v>902</v>
+        <v>876</v>
       </c>
       <c r="F302" t="s">
         <v>7</v>
@@ -9618,13 +9770,13 @@
         <v>9</v>
       </c>
       <c r="B303" t="s">
-        <v>591</v>
+        <v>570</v>
       </c>
       <c r="D303" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="E303" t="s">
-        <v>903</v>
+        <v>877</v>
       </c>
       <c r="F303" t="s">
         <v>7</v>
@@ -9638,13 +9790,13 @@
         <v>9</v>
       </c>
       <c r="B304" t="s">
-        <v>592</v>
+        <v>571</v>
       </c>
       <c r="D304" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="E304" t="s">
-        <v>904</v>
+        <v>878</v>
       </c>
       <c r="F304" t="s">
         <v>7</v>
@@ -9658,16 +9810,16 @@
         <v>9</v>
       </c>
       <c r="B305" t="s">
-        <v>593</v>
+        <v>1019</v>
       </c>
       <c r="D305" t="s">
-        <v>281</v>
+        <v>1020</v>
       </c>
       <c r="E305" t="s">
-        <v>905</v>
+        <v>1021</v>
       </c>
       <c r="F305" t="s">
-        <v>7</v>
+        <v>931</v>
       </c>
       <c r="G305" t="s">
         <v>8</v>
@@ -9678,13 +9830,13 @@
         <v>9</v>
       </c>
       <c r="B306" t="s">
-        <v>594</v>
+        <v>572</v>
       </c>
       <c r="D306" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="E306" t="s">
-        <v>906</v>
+        <v>879</v>
       </c>
       <c r="F306" t="s">
         <v>7</v>
@@ -9698,13 +9850,13 @@
         <v>9</v>
       </c>
       <c r="B307" t="s">
-        <v>595</v>
+        <v>573</v>
       </c>
       <c r="D307" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="E307" t="s">
-        <v>907</v>
+        <v>880</v>
       </c>
       <c r="F307" t="s">
         <v>7</v>
@@ -9718,13 +9870,13 @@
         <v>9</v>
       </c>
       <c r="B308" t="s">
-        <v>596</v>
+        <v>574</v>
       </c>
       <c r="D308" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="E308" t="s">
-        <v>908</v>
+        <v>881</v>
       </c>
       <c r="F308" t="s">
         <v>7</v>
@@ -9738,13 +9890,13 @@
         <v>9</v>
       </c>
       <c r="B309" t="s">
-        <v>597</v>
+        <v>575</v>
       </c>
       <c r="D309" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="E309" t="s">
-        <v>909</v>
+        <v>882</v>
       </c>
       <c r="F309" t="s">
         <v>7</v>
@@ -9758,13 +9910,13 @@
         <v>9</v>
       </c>
       <c r="B310" t="s">
-        <v>598</v>
+        <v>576</v>
       </c>
       <c r="D310" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="E310" t="s">
-        <v>910</v>
+        <v>883</v>
       </c>
       <c r="F310" t="s">
         <v>7</v>
@@ -9778,13 +9930,13 @@
         <v>9</v>
       </c>
       <c r="B311" t="s">
-        <v>599</v>
+        <v>577</v>
       </c>
       <c r="D311" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="E311" t="s">
-        <v>911</v>
+        <v>884</v>
       </c>
       <c r="F311" t="s">
         <v>7</v>
@@ -9798,13 +9950,13 @@
         <v>9</v>
       </c>
       <c r="B312" t="s">
-        <v>600</v>
+        <v>578</v>
       </c>
       <c r="D312" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="E312" t="s">
-        <v>912</v>
+        <v>885</v>
       </c>
       <c r="F312" t="s">
         <v>7</v>
@@ -9818,13 +9970,13 @@
         <v>9</v>
       </c>
       <c r="B313" t="s">
-        <v>601</v>
+        <v>579</v>
       </c>
       <c r="D313" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="E313" t="s">
-        <v>913</v>
+        <v>886</v>
       </c>
       <c r="F313" t="s">
         <v>7</v>
@@ -9838,13 +9990,13 @@
         <v>9</v>
       </c>
       <c r="B314" t="s">
-        <v>602</v>
+        <v>580</v>
       </c>
       <c r="D314" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="E314" t="s">
-        <v>914</v>
+        <v>887</v>
       </c>
       <c r="F314" t="s">
         <v>7</v>
@@ -9858,13 +10010,13 @@
         <v>9</v>
       </c>
       <c r="B315" t="s">
-        <v>603</v>
+        <v>581</v>
       </c>
       <c r="D315" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="E315" t="s">
-        <v>915</v>
+        <v>888</v>
       </c>
       <c r="F315" t="s">
         <v>7</v>
@@ -9878,13 +10030,13 @@
         <v>9</v>
       </c>
       <c r="B316" t="s">
-        <v>604</v>
+        <v>582</v>
       </c>
       <c r="D316" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="E316" t="s">
-        <v>916</v>
+        <v>889</v>
       </c>
       <c r="F316" t="s">
         <v>7</v>
@@ -9898,13 +10050,13 @@
         <v>9</v>
       </c>
       <c r="B317" t="s">
-        <v>605</v>
+        <v>583</v>
       </c>
       <c r="D317" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="E317" t="s">
-        <v>917</v>
+        <v>890</v>
       </c>
       <c r="F317" t="s">
         <v>7</v>
@@ -9918,13 +10070,13 @@
         <v>9</v>
       </c>
       <c r="B318" t="s">
-        <v>606</v>
+        <v>584</v>
       </c>
       <c r="D318" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="E318" t="s">
-        <v>918</v>
+        <v>891</v>
       </c>
       <c r="F318" t="s">
         <v>7</v>
@@ -9938,13 +10090,13 @@
         <v>9</v>
       </c>
       <c r="B319" t="s">
-        <v>607</v>
+        <v>585</v>
       </c>
       <c r="D319" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="E319" t="s">
-        <v>919</v>
+        <v>892</v>
       </c>
       <c r="F319" t="s">
         <v>7</v>
@@ -9958,13 +10110,13 @@
         <v>9</v>
       </c>
       <c r="B320" t="s">
-        <v>608</v>
+        <v>586</v>
       </c>
       <c r="D320" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="E320" t="s">
-        <v>920</v>
+        <v>893</v>
       </c>
       <c r="F320" t="s">
         <v>7</v>
@@ -9978,13 +10130,13 @@
         <v>9</v>
       </c>
       <c r="B321" t="s">
-        <v>609</v>
+        <v>587</v>
       </c>
       <c r="D321" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="E321" t="s">
-        <v>921</v>
+        <v>894</v>
       </c>
       <c r="F321" t="s">
         <v>7</v>
@@ -9998,13 +10150,13 @@
         <v>9</v>
       </c>
       <c r="B322" t="s">
-        <v>610</v>
+        <v>588</v>
       </c>
       <c r="D322" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="E322" t="s">
-        <v>922</v>
+        <v>895</v>
       </c>
       <c r="F322" t="s">
         <v>7</v>
@@ -10018,13 +10170,13 @@
         <v>9</v>
       </c>
       <c r="B323" t="s">
-        <v>611</v>
+        <v>589</v>
       </c>
       <c r="D323" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="E323" t="s">
-        <v>923</v>
+        <v>896</v>
       </c>
       <c r="F323" t="s">
         <v>7</v>
@@ -10038,13 +10190,13 @@
         <v>9</v>
       </c>
       <c r="B324" t="s">
-        <v>612</v>
+        <v>590</v>
       </c>
       <c r="D324" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="E324" t="s">
-        <v>924</v>
+        <v>897</v>
       </c>
       <c r="F324" t="s">
         <v>7</v>
@@ -10058,13 +10210,13 @@
         <v>9</v>
       </c>
       <c r="B325" t="s">
-        <v>613</v>
+        <v>591</v>
       </c>
       <c r="D325" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="E325" t="s">
-        <v>925</v>
+        <v>898</v>
       </c>
       <c r="F325" t="s">
         <v>7</v>
@@ -10078,13 +10230,13 @@
         <v>9</v>
       </c>
       <c r="B326" t="s">
-        <v>614</v>
+        <v>592</v>
       </c>
       <c r="D326" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="E326" t="s">
-        <v>926</v>
+        <v>899</v>
       </c>
       <c r="F326" t="s">
         <v>7</v>
@@ -10098,13 +10250,13 @@
         <v>9</v>
       </c>
       <c r="B327" t="s">
-        <v>615</v>
+        <v>593</v>
       </c>
       <c r="D327" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="E327" t="s">
-        <v>927</v>
+        <v>900</v>
       </c>
       <c r="F327" t="s">
         <v>7</v>
@@ -10118,13 +10270,13 @@
         <v>9</v>
       </c>
       <c r="B328" t="s">
-        <v>616</v>
+        <v>594</v>
       </c>
       <c r="D328" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="E328" t="s">
-        <v>928</v>
+        <v>901</v>
       </c>
       <c r="F328" t="s">
         <v>7</v>
@@ -10138,13 +10290,13 @@
         <v>9</v>
       </c>
       <c r="B329" t="s">
-        <v>617</v>
+        <v>595</v>
       </c>
       <c r="D329" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="E329" t="s">
-        <v>929</v>
+        <v>902</v>
       </c>
       <c r="F329" t="s">
         <v>7</v>
@@ -10158,16 +10310,16 @@
         <v>9</v>
       </c>
       <c r="B330" t="s">
-        <v>618</v>
+        <v>596</v>
       </c>
       <c r="D330" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="E330" t="s">
-        <v>930</v>
+        <v>903</v>
       </c>
       <c r="F330" t="s">
-        <v>946</v>
+        <v>7</v>
       </c>
       <c r="G330" t="s">
         <v>8</v>
@@ -10178,13 +10330,13 @@
         <v>9</v>
       </c>
       <c r="B331" t="s">
-        <v>619</v>
+        <v>597</v>
       </c>
       <c r="D331" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="E331" t="s">
-        <v>931</v>
+        <v>904</v>
       </c>
       <c r="F331" t="s">
         <v>7</v>
@@ -10198,13 +10350,13 @@
         <v>9</v>
       </c>
       <c r="B332" t="s">
-        <v>620</v>
+        <v>598</v>
       </c>
       <c r="D332" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="E332" t="s">
-        <v>932</v>
+        <v>905</v>
       </c>
       <c r="F332" t="s">
         <v>7</v>
@@ -10218,16 +10370,13 @@
         <v>9</v>
       </c>
       <c r="B333" t="s">
-        <v>1043</v>
-      </c>
-      <c r="C333" t="s">
-        <v>1044</v>
+        <v>599</v>
       </c>
       <c r="D333" t="s">
-        <v>1045</v>
-      </c>
-      <c r="E333" s="2" t="s">
-        <v>1046</v>
+        <v>292</v>
+      </c>
+      <c r="E333" t="s">
+        <v>906</v>
       </c>
       <c r="F333" t="s">
         <v>7</v>
@@ -10241,13 +10390,13 @@
         <v>9</v>
       </c>
       <c r="B334" t="s">
-        <v>621</v>
+        <v>600</v>
       </c>
       <c r="D334" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="E334" t="s">
-        <v>933</v>
+        <v>907</v>
       </c>
       <c r="F334" t="s">
         <v>7</v>
@@ -10261,16 +10410,16 @@
         <v>9</v>
       </c>
       <c r="B335" t="s">
-        <v>622</v>
+        <v>601</v>
       </c>
       <c r="D335" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="E335" t="s">
-        <v>934</v>
+        <v>908</v>
       </c>
       <c r="F335" t="s">
-        <v>946</v>
+        <v>7</v>
       </c>
       <c r="G335" t="s">
         <v>8</v>
@@ -10281,13 +10430,13 @@
         <v>9</v>
       </c>
       <c r="B336" t="s">
-        <v>623</v>
+        <v>602</v>
       </c>
       <c r="D336" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="E336" t="s">
-        <v>935</v>
+        <v>909</v>
       </c>
       <c r="F336" t="s">
         <v>7</v>
@@ -10301,13 +10450,13 @@
         <v>9</v>
       </c>
       <c r="B337" t="s">
-        <v>624</v>
+        <v>603</v>
       </c>
       <c r="D337" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="E337" t="s">
-        <v>936</v>
+        <v>910</v>
       </c>
       <c r="F337" t="s">
         <v>7</v>
@@ -10321,13 +10470,13 @@
         <v>9</v>
       </c>
       <c r="B338" t="s">
-        <v>625</v>
+        <v>604</v>
       </c>
       <c r="D338" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="E338" t="s">
-        <v>937</v>
+        <v>911</v>
       </c>
       <c r="F338" t="s">
         <v>7</v>
@@ -10341,13 +10490,13 @@
         <v>9</v>
       </c>
       <c r="B339" t="s">
-        <v>626</v>
+        <v>605</v>
       </c>
       <c r="D339" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="E339" t="s">
-        <v>938</v>
+        <v>912</v>
       </c>
       <c r="F339" t="s">
         <v>7</v>
@@ -10361,13 +10510,13 @@
         <v>9</v>
       </c>
       <c r="B340" t="s">
-        <v>627</v>
+        <v>606</v>
       </c>
       <c r="D340" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="E340" t="s">
-        <v>939</v>
+        <v>913</v>
       </c>
       <c r="F340" t="s">
         <v>7</v>
@@ -10381,13 +10530,13 @@
         <v>9</v>
       </c>
       <c r="B341" t="s">
-        <v>628</v>
+        <v>607</v>
       </c>
       <c r="D341" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="E341" t="s">
-        <v>940</v>
+        <v>914</v>
       </c>
       <c r="F341" t="s">
         <v>7</v>
@@ -10401,13 +10550,13 @@
         <v>9</v>
       </c>
       <c r="B342" t="s">
-        <v>629</v>
+        <v>608</v>
       </c>
       <c r="D342" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="E342" t="s">
-        <v>941</v>
+        <v>915</v>
       </c>
       <c r="F342" t="s">
         <v>7</v>
@@ -10421,16 +10570,16 @@
         <v>9</v>
       </c>
       <c r="B343" t="s">
-        <v>630</v>
+        <v>609</v>
       </c>
       <c r="D343" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="E343" t="s">
-        <v>942</v>
+        <v>916</v>
       </c>
       <c r="F343" t="s">
-        <v>7</v>
+        <v>931</v>
       </c>
       <c r="G343" t="s">
         <v>8</v>
@@ -10441,13 +10590,13 @@
         <v>9</v>
       </c>
       <c r="B344" t="s">
-        <v>631</v>
+        <v>610</v>
       </c>
       <c r="D344" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="E344" t="s">
-        <v>943</v>
+        <v>917</v>
       </c>
       <c r="F344" t="s">
         <v>7</v>
@@ -10461,16 +10610,13 @@
         <v>9</v>
       </c>
       <c r="B345" t="s">
-        <v>1047</v>
-      </c>
-      <c r="C345" t="s">
-        <v>1048</v>
+        <v>611</v>
       </c>
       <c r="D345" t="s">
-        <v>1049</v>
-      </c>
-      <c r="E345" s="2" t="s">
-        <v>1050</v>
+        <v>304</v>
+      </c>
+      <c r="E345" t="s">
+        <v>918</v>
       </c>
       <c r="F345" t="s">
         <v>7</v>
@@ -10484,13 +10630,16 @@
         <v>9</v>
       </c>
       <c r="B346" t="s">
-        <v>632</v>
+        <v>1028</v>
+      </c>
+      <c r="C346" t="s">
+        <v>1029</v>
       </c>
       <c r="D346" t="s">
-        <v>320</v>
+        <v>1030</v>
       </c>
       <c r="E346" t="s">
-        <v>944</v>
+        <v>1031</v>
       </c>
       <c r="F346" t="s">
         <v>7</v>
@@ -10504,13 +10653,13 @@
         <v>9</v>
       </c>
       <c r="B347" t="s">
-        <v>633</v>
+        <v>612</v>
       </c>
       <c r="D347" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="E347" t="s">
-        <v>945</v>
+        <v>919</v>
       </c>
       <c r="F347" t="s">
         <v>7</v>
@@ -10519,15 +10668,297 @@
         <v>8</v>
       </c>
     </row>
+    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>9</v>
+      </c>
+      <c r="B348" t="s">
+        <v>613</v>
+      </c>
+      <c r="D348" t="s">
+        <v>306</v>
+      </c>
+      <c r="E348" t="s">
+        <v>920</v>
+      </c>
+      <c r="F348" t="s">
+        <v>931</v>
+      </c>
+      <c r="G348" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>9</v>
+      </c>
+      <c r="B349" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D349" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E349" t="s">
+        <v>1094</v>
+      </c>
+      <c r="F349" t="s">
+        <v>931</v>
+      </c>
+      <c r="G349" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>9</v>
+      </c>
+      <c r="B350" t="s">
+        <v>614</v>
+      </c>
+      <c r="D350" t="s">
+        <v>307</v>
+      </c>
+      <c r="E350" t="s">
+        <v>921</v>
+      </c>
+      <c r="F350" t="s">
+        <v>7</v>
+      </c>
+      <c r="G350" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>9</v>
+      </c>
+      <c r="B351" t="s">
+        <v>615</v>
+      </c>
+      <c r="D351" t="s">
+        <v>308</v>
+      </c>
+      <c r="E351" t="s">
+        <v>922</v>
+      </c>
+      <c r="F351" t="s">
+        <v>7</v>
+      </c>
+      <c r="G351" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>9</v>
+      </c>
+      <c r="B352" t="s">
+        <v>616</v>
+      </c>
+      <c r="D352" t="s">
+        <v>309</v>
+      </c>
+      <c r="E352" t="s">
+        <v>923</v>
+      </c>
+      <c r="F352" t="s">
+        <v>7</v>
+      </c>
+      <c r="G352" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>9</v>
+      </c>
+      <c r="B353" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D353" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E353" t="s">
+        <v>1097</v>
+      </c>
+      <c r="F353" t="s">
+        <v>7</v>
+      </c>
+      <c r="G353" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>9</v>
+      </c>
+      <c r="B354" t="s">
+        <v>617</v>
+      </c>
+      <c r="D354" t="s">
+        <v>310</v>
+      </c>
+      <c r="E354" t="s">
+        <v>924</v>
+      </c>
+      <c r="F354" t="s">
+        <v>7</v>
+      </c>
+      <c r="G354" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>9</v>
+      </c>
+      <c r="B355" t="s">
+        <v>618</v>
+      </c>
+      <c r="D355" t="s">
+        <v>311</v>
+      </c>
+      <c r="E355" t="s">
+        <v>925</v>
+      </c>
+      <c r="F355" t="s">
+        <v>7</v>
+      </c>
+      <c r="G355" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>9</v>
+      </c>
+      <c r="B356" t="s">
+        <v>619</v>
+      </c>
+      <c r="D356" t="s">
+        <v>312</v>
+      </c>
+      <c r="E356" t="s">
+        <v>926</v>
+      </c>
+      <c r="F356" t="s">
+        <v>7</v>
+      </c>
+      <c r="G356" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>9</v>
+      </c>
+      <c r="B357" t="s">
+        <v>620</v>
+      </c>
+      <c r="D357" t="s">
+        <v>313</v>
+      </c>
+      <c r="E357" t="s">
+        <v>927</v>
+      </c>
+      <c r="F357" t="s">
+        <v>7</v>
+      </c>
+      <c r="G357" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>9</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="C358" s="1"/>
+      <c r="D358" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E358" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="F358" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G358" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>9</v>
+      </c>
+      <c r="B359" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C359" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D359" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E359" t="s">
+        <v>1034</v>
+      </c>
+      <c r="F359" t="s">
+        <v>7</v>
+      </c>
+      <c r="G359" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>9</v>
+      </c>
+      <c r="B360" t="s">
+        <v>622</v>
+      </c>
+      <c r="D360" t="s">
+        <v>315</v>
+      </c>
+      <c r="E360" t="s">
+        <v>929</v>
+      </c>
+      <c r="F360" t="s">
+        <v>7</v>
+      </c>
+      <c r="G360" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>9</v>
+      </c>
+      <c r="B361" t="s">
+        <v>623</v>
+      </c>
+      <c r="D361" t="s">
+        <v>316</v>
+      </c>
+      <c r="E361" t="s">
+        <v>930</v>
+      </c>
+      <c r="F361" t="s">
+        <v>7</v>
+      </c>
+      <c r="G361" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  <conditionalFormatting sqref="B358">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Bibsam_tidskriftslistor/scifree_data_brill.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_brill.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="20" documentId="11_B8A85F4F591D7C17B25102653C0077E43A6883BB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C2E8029-0704-4E23-9D8A-FC6688EB198C}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="11_B8A85F4F591D7C17B25102653C0077E43A6883BB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2CB6379-F7F6-42EB-BC93-40C484A95FF3}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2175" uniqueCount="1099">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2136" uniqueCount="1078">
   <si>
     <t>ISSN Electronic</t>
   </si>
@@ -2926,15 +2926,6 @@
     <t>https://brill.com/ined</t>
   </si>
   <si>
-    <t>2772-5650</t>
-  </si>
-  <si>
-    <t>Italian Review of International and Comparative Law, The</t>
-  </si>
-  <si>
-    <t>https://brill.com/iric</t>
-  </si>
-  <si>
     <t>2773-0611</t>
   </si>
   <si>
@@ -3127,18 +3118,6 @@
     <t>https://brill.com/zfme</t>
   </si>
   <si>
-    <t>2950-2225</t>
-  </si>
-  <si>
-    <t>2950-2233</t>
-  </si>
-  <si>
-    <t>Applied Linguistics Journal</t>
-  </si>
-  <si>
-    <t>https://brill.com/alj</t>
-  </si>
-  <si>
     <t>1876-2891</t>
   </si>
   <si>
@@ -3178,18 +3157,6 @@
     <t>https://brill.com/ifam</t>
   </si>
   <si>
-    <t>2950-2276</t>
-  </si>
-  <si>
-    <t>2950-2284</t>
-  </si>
-  <si>
-    <t>Islamic Studies Journal</t>
-  </si>
-  <si>
-    <t>https://brill.com/isj</t>
-  </si>
-  <si>
     <t>2049-257X</t>
   </si>
   <si>
@@ -3199,15 +3166,6 @@
     <t>https://brill.com/jaan</t>
   </si>
   <si>
-    <t>2950-2799</t>
-  </si>
-  <si>
-    <t>Journal of Contemporary Chinese Philosophy</t>
-  </si>
-  <si>
-    <t>https://brill.com/jccp</t>
-  </si>
-  <si>
     <t>2950-1229</t>
   </si>
   <si>
@@ -3247,15 +3205,6 @@
     <t>https://brill.com/jsli</t>
   </si>
   <si>
-    <t>2950-2683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Journal of Social Innovation and Knowledge </t>
-  </si>
-  <si>
-    <t>https://brill.com/jsik</t>
-  </si>
-  <si>
     <t>2054-930X</t>
   </si>
   <si>
@@ -3284,18 +3233,6 @@
   </si>
   <si>
     <t>https://brill.com/mesr</t>
-  </si>
-  <si>
-    <t>2950-225X</t>
-  </si>
-  <si>
-    <t>2950-2268</t>
-  </si>
-  <si>
-    <t>Philosophical Studies Journal</t>
-  </si>
-  <si>
-    <t>https://brill.com/psj</t>
   </si>
   <si>
     <t>2521-7038</t>
@@ -3409,16 +3346,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CA7334EC-5944-45DA-851E-5FCE8D131528}" name="Table2" displayName="Table2" ref="A1:G361" totalsRowShown="0">
-  <autoFilter ref="A1:G361" xr:uid="{CA7334EC-5944-45DA-851E-5FCE8D131528}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD5B974D-9F61-4F37-A1BF-D45B14670910}" name="Table1" displayName="Table1" ref="A1:G355" totalsRowShown="0">
+  <autoFilter ref="A1:G355" xr:uid="{CD5B974D-9F61-4F37-A1BF-D45B14670910}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{41C295D9-7E0A-4F26-8C8E-1EBEAEE79771}" name="Imprint"/>
-    <tableColumn id="2" xr3:uid="{73406C76-D8BC-4D0A-9219-1E9211B6A79F}" name="ISSN Electronic"/>
-    <tableColumn id="3" xr3:uid="{150D688B-D0DE-47C3-A045-6C49D88B2ADA}" name="ISSN Print"/>
-    <tableColumn id="4" xr3:uid="{E55317A8-D2C2-493D-A6E2-FC5E5ED9A154}" name="Journal Name"/>
-    <tableColumn id="5" xr3:uid="{3DCAE9FB-6181-4667-B27E-2A631EC766FC}" name="JournalURL"/>
-    <tableColumn id="6" xr3:uid="{BDEB0D4F-54AD-47C8-9736-0B7F272C2F3A}" name="Publishing model"/>
-    <tableColumn id="7" xr3:uid="{5EE2443B-E4AF-44BE-8B5D-3FE91063433A}" name="CC License options"/>
+    <tableColumn id="1" xr3:uid="{5BECD555-8E6C-4A60-B400-E3DF1F826F8D}" name="Imprint"/>
+    <tableColumn id="2" xr3:uid="{C14B8B6E-0764-49FF-B597-08D700F5A255}" name="ISSN Electronic"/>
+    <tableColumn id="3" xr3:uid="{07A637C7-2A0C-420E-9AA8-FFB320AB90CE}" name="ISSN Print"/>
+    <tableColumn id="4" xr3:uid="{280F7E7E-DEB4-4651-B5E8-4896A06107A0}" name="Journal Name"/>
+    <tableColumn id="5" xr3:uid="{1FC0CD38-9AB1-474D-873B-F7EE905CF0FB}" name="JournalURL"/>
+    <tableColumn id="6" xr3:uid="{D0431283-0746-42FD-9181-A1E45CB9F72B}" name="Publishing model"/>
+    <tableColumn id="7" xr3:uid="{541793C0-6CCB-4907-B079-EC343C65246E}" name="CC License options"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3686,8 +3623,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CF94112-AC93-436A-995A-4206AE2642C5}">
-  <dimension ref="A1:G361"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90581FF0-3009-4DD7-8F90-D50B576B4D9A}">
+  <dimension ref="A1:G355"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -3698,7 +3635,7 @@
     <col min="1" max="1" width="9.7109375" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="45.5703125" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" customWidth="1"/>
     <col min="6" max="6" width="18.5703125" customWidth="1"/>
     <col min="7" max="7" width="19.5703125" customWidth="1"/>
@@ -3932,13 +3869,13 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="D12" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="E12" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="F12" t="s">
         <v>7</v>
@@ -3952,13 +3889,13 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="D13" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="E13" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="F13" t="s">
         <v>931</v>
@@ -4092,19 +4029,16 @@
         <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>1035</v>
-      </c>
-      <c r="C20" t="s">
-        <v>1036</v>
+        <v>331</v>
       </c>
       <c r="D20" t="s">
-        <v>1037</v>
+        <v>24</v>
       </c>
       <c r="E20" t="s">
-        <v>1038</v>
+        <v>638</v>
       </c>
       <c r="F20" t="s">
-        <v>931</v>
+        <v>7</v>
       </c>
       <c r="G20" t="s">
         <v>8</v>
@@ -4115,13 +4049,13 @@
         <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E21" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="F21" t="s">
         <v>7</v>
@@ -4135,13 +4069,13 @@
         <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E22" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="F22" t="s">
         <v>7</v>
@@ -4155,13 +4089,13 @@
         <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E23" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="F23" t="s">
         <v>7</v>
@@ -4175,13 +4109,13 @@
         <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E24" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="F24" t="s">
         <v>7</v>
@@ -4195,13 +4129,13 @@
         <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E25" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F25" t="s">
         <v>7</v>
@@ -4215,13 +4149,13 @@
         <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>336</v>
+        <v>938</v>
       </c>
       <c r="D26" t="s">
-        <v>29</v>
+        <v>939</v>
       </c>
       <c r="E26" t="s">
-        <v>643</v>
+        <v>940</v>
       </c>
       <c r="F26" t="s">
         <v>7</v>
@@ -4235,13 +4169,13 @@
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>938</v>
+        <v>337</v>
       </c>
       <c r="D27" t="s">
-        <v>939</v>
+        <v>30</v>
       </c>
       <c r="E27" t="s">
-        <v>940</v>
+        <v>644</v>
       </c>
       <c r="F27" t="s">
         <v>7</v>
@@ -4255,13 +4189,13 @@
         <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E28" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="F28" t="s">
         <v>7</v>
@@ -4275,13 +4209,13 @@
         <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E29" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="F29" t="s">
         <v>7</v>
@@ -4295,13 +4229,13 @@
         <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E30" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="F30" t="s">
         <v>7</v>
@@ -4315,13 +4249,13 @@
         <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E31" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="F31" t="s">
         <v>7</v>
@@ -4335,13 +4269,13 @@
         <v>9</v>
       </c>
       <c r="B32" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E32" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="F32" t="s">
         <v>7</v>
@@ -4355,16 +4289,16 @@
         <v>9</v>
       </c>
       <c r="B33" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E33" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="F33" t="s">
-        <v>7</v>
+        <v>931</v>
       </c>
       <c r="G33" t="s">
         <v>8</v>
@@ -4375,16 +4309,16 @@
         <v>9</v>
       </c>
       <c r="B34" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D34" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E34" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="F34" t="s">
-        <v>931</v>
+        <v>7</v>
       </c>
       <c r="G34" t="s">
         <v>8</v>
@@ -4395,13 +4329,13 @@
         <v>9</v>
       </c>
       <c r="B35" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D35" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E35" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="F35" t="s">
         <v>7</v>
@@ -4415,13 +4349,13 @@
         <v>9</v>
       </c>
       <c r="B36" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D36" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E36" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="F36" t="s">
         <v>7</v>
@@ -4435,16 +4369,16 @@
         <v>9</v>
       </c>
       <c r="B37" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D37" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E37" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="F37" t="s">
-        <v>7</v>
+        <v>931</v>
       </c>
       <c r="G37" t="s">
         <v>8</v>
@@ -4455,16 +4389,16 @@
         <v>9</v>
       </c>
       <c r="B38" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D38" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E38" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="F38" t="s">
-        <v>931</v>
+        <v>7</v>
       </c>
       <c r="G38" t="s">
         <v>8</v>
@@ -4475,13 +4409,13 @@
         <v>9</v>
       </c>
       <c r="B39" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D39" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E39" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="F39" t="s">
         <v>7</v>
@@ -4495,13 +4429,13 @@
         <v>9</v>
       </c>
       <c r="B40" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D40" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E40" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="F40" t="s">
         <v>7</v>
@@ -4515,13 +4449,13 @@
         <v>9</v>
       </c>
       <c r="B41" t="s">
-        <v>350</v>
+        <v>1032</v>
       </c>
       <c r="D41" t="s">
-        <v>43</v>
+        <v>1033</v>
       </c>
       <c r="E41" t="s">
-        <v>657</v>
+        <v>1034</v>
       </c>
       <c r="F41" t="s">
         <v>7</v>
@@ -4535,13 +4469,13 @@
         <v>9</v>
       </c>
       <c r="B42" t="s">
-        <v>1039</v>
+        <v>351</v>
       </c>
       <c r="D42" t="s">
-        <v>1040</v>
+        <v>44</v>
       </c>
       <c r="E42" t="s">
-        <v>1041</v>
+        <v>658</v>
       </c>
       <c r="F42" t="s">
         <v>7</v>
@@ -4555,13 +4489,13 @@
         <v>9</v>
       </c>
       <c r="B43" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E43" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="F43" t="s">
         <v>7</v>
@@ -4575,16 +4509,16 @@
         <v>9</v>
       </c>
       <c r="B44" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E44" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="F44" t="s">
-        <v>7</v>
+        <v>931</v>
       </c>
       <c r="G44" t="s">
         <v>8</v>
@@ -4595,13 +4529,13 @@
         <v>9</v>
       </c>
       <c r="B45" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E45" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F45" t="s">
         <v>931</v>
@@ -4615,16 +4549,16 @@
         <v>9</v>
       </c>
       <c r="B46" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E46" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="F46" t="s">
-        <v>931</v>
+        <v>7</v>
       </c>
       <c r="G46" t="s">
         <v>8</v>
@@ -4635,13 +4569,13 @@
         <v>9</v>
       </c>
       <c r="B47" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D47" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E47" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="F47" t="s">
         <v>7</v>
@@ -4655,13 +4589,13 @@
         <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D48" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E48" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="F48" t="s">
         <v>7</v>
@@ -4675,13 +4609,13 @@
         <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>357</v>
+        <v>944</v>
       </c>
       <c r="D49" t="s">
-        <v>50</v>
+        <v>945</v>
       </c>
       <c r="E49" t="s">
-        <v>664</v>
+        <v>946</v>
       </c>
       <c r="F49" t="s">
         <v>7</v>
@@ -4695,13 +4629,13 @@
         <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>944</v>
+        <v>358</v>
       </c>
       <c r="D50" t="s">
-        <v>945</v>
+        <v>51</v>
       </c>
       <c r="E50" t="s">
-        <v>946</v>
+        <v>665</v>
       </c>
       <c r="F50" t="s">
         <v>7</v>
@@ -4715,13 +4649,13 @@
         <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D51" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E51" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="F51" t="s">
         <v>7</v>
@@ -4735,13 +4669,13 @@
         <v>9</v>
       </c>
       <c r="B52" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D52" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E52" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="F52" t="s">
         <v>7</v>
@@ -4755,13 +4689,13 @@
         <v>9</v>
       </c>
       <c r="B53" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E53" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="F53" t="s">
         <v>7</v>
@@ -4775,13 +4709,13 @@
         <v>9</v>
       </c>
       <c r="B54" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D54" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E54" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="F54" t="s">
         <v>7</v>
@@ -4795,13 +4729,13 @@
         <v>9</v>
       </c>
       <c r="B55" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D55" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E55" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="F55" t="s">
         <v>7</v>
@@ -4815,13 +4749,13 @@
         <v>9</v>
       </c>
       <c r="B56" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D56" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E56" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="F56" t="s">
         <v>7</v>
@@ -4835,13 +4769,13 @@
         <v>9</v>
       </c>
       <c r="B57" t="s">
-        <v>364</v>
+        <v>1035</v>
       </c>
       <c r="D57" t="s">
-        <v>57</v>
+        <v>1036</v>
       </c>
       <c r="E57" t="s">
-        <v>671</v>
+        <v>1037</v>
       </c>
       <c r="F57" t="s">
         <v>7</v>
@@ -4855,13 +4789,13 @@
         <v>9</v>
       </c>
       <c r="B58" t="s">
-        <v>1042</v>
+        <v>365</v>
       </c>
       <c r="D58" t="s">
-        <v>1043</v>
+        <v>58</v>
       </c>
       <c r="E58" t="s">
-        <v>1044</v>
+        <v>672</v>
       </c>
       <c r="F58" t="s">
         <v>7</v>
@@ -4875,13 +4809,13 @@
         <v>9</v>
       </c>
       <c r="B59" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D59" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E59" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="F59" t="s">
         <v>7</v>
@@ -4895,13 +4829,13 @@
         <v>9</v>
       </c>
       <c r="B60" t="s">
-        <v>366</v>
+        <v>977</v>
       </c>
       <c r="D60" t="s">
-        <v>59</v>
+        <v>978</v>
       </c>
       <c r="E60" t="s">
-        <v>673</v>
+        <v>979</v>
       </c>
       <c r="F60" t="s">
         <v>7</v>
@@ -4915,13 +4849,13 @@
         <v>9</v>
       </c>
       <c r="B61" t="s">
-        <v>980</v>
+        <v>367</v>
       </c>
       <c r="D61" t="s">
-        <v>981</v>
+        <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>982</v>
+        <v>674</v>
       </c>
       <c r="F61" t="s">
         <v>7</v>
@@ -4935,16 +4869,16 @@
         <v>9</v>
       </c>
       <c r="B62" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D62" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="F62" t="s">
-        <v>7</v>
+        <v>931</v>
       </c>
       <c r="G62" t="s">
         <v>8</v>
@@ -4955,13 +4889,13 @@
         <v>9</v>
       </c>
       <c r="B63" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="F63" t="s">
         <v>931</v>
@@ -4975,16 +4909,16 @@
         <v>9</v>
       </c>
       <c r="B64" t="s">
-        <v>369</v>
+        <v>947</v>
       </c>
       <c r="D64" t="s">
-        <v>62</v>
+        <v>948</v>
       </c>
       <c r="E64" t="s">
-        <v>676</v>
+        <v>949</v>
       </c>
       <c r="F64" t="s">
-        <v>931</v>
+        <v>7</v>
       </c>
       <c r="G64" t="s">
         <v>8</v>
@@ -4995,13 +4929,13 @@
         <v>9</v>
       </c>
       <c r="B65" t="s">
-        <v>947</v>
+        <v>370</v>
       </c>
       <c r="D65" t="s">
-        <v>948</v>
+        <v>63</v>
       </c>
       <c r="E65" t="s">
-        <v>949</v>
+        <v>677</v>
       </c>
       <c r="F65" t="s">
         <v>7</v>
@@ -5015,13 +4949,13 @@
         <v>9</v>
       </c>
       <c r="B66" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D66" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E66" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="F66" t="s">
         <v>7</v>
@@ -5035,13 +4969,13 @@
         <v>9</v>
       </c>
       <c r="B67" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D67" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E67" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="F67" t="s">
         <v>7</v>
@@ -5055,13 +4989,13 @@
         <v>9</v>
       </c>
       <c r="B68" t="s">
-        <v>372</v>
+        <v>950</v>
       </c>
       <c r="D68" t="s">
-        <v>65</v>
+        <v>951</v>
       </c>
       <c r="E68" t="s">
-        <v>679</v>
+        <v>952</v>
       </c>
       <c r="F68" t="s">
         <v>7</v>
@@ -5075,13 +5009,13 @@
         <v>9</v>
       </c>
       <c r="B69" t="s">
-        <v>950</v>
+        <v>373</v>
       </c>
       <c r="D69" t="s">
-        <v>951</v>
+        <v>66</v>
       </c>
       <c r="E69" t="s">
-        <v>952</v>
+        <v>680</v>
       </c>
       <c r="F69" t="s">
         <v>7</v>
@@ -5095,13 +5029,13 @@
         <v>9</v>
       </c>
       <c r="B70" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D70" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E70" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="F70" t="s">
         <v>7</v>
@@ -5115,16 +5049,19 @@
         <v>9</v>
       </c>
       <c r="B71" t="s">
-        <v>374</v>
+        <v>1038</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1039</v>
       </c>
       <c r="D71" t="s">
-        <v>67</v>
+        <v>1040</v>
       </c>
       <c r="E71" t="s">
-        <v>681</v>
+        <v>1041</v>
       </c>
       <c r="F71" t="s">
-        <v>7</v>
+        <v>931</v>
       </c>
       <c r="G71" t="s">
         <v>8</v>
@@ -5135,19 +5072,16 @@
         <v>9</v>
       </c>
       <c r="B72" t="s">
-        <v>1045</v>
-      </c>
-      <c r="C72" t="s">
-        <v>1046</v>
+        <v>375</v>
       </c>
       <c r="D72" t="s">
-        <v>1047</v>
+        <v>68</v>
       </c>
       <c r="E72" t="s">
-        <v>1048</v>
+        <v>682</v>
       </c>
       <c r="F72" t="s">
-        <v>931</v>
+        <v>7</v>
       </c>
       <c r="G72" t="s">
         <v>8</v>
@@ -5158,13 +5092,13 @@
         <v>9</v>
       </c>
       <c r="B73" t="s">
-        <v>375</v>
+        <v>941</v>
       </c>
       <c r="D73" t="s">
-        <v>68</v>
+        <v>942</v>
       </c>
       <c r="E73" t="s">
-        <v>682</v>
+        <v>943</v>
       </c>
       <c r="F73" t="s">
         <v>7</v>
@@ -5178,13 +5112,13 @@
         <v>9</v>
       </c>
       <c r="B74" t="s">
-        <v>941</v>
+        <v>376</v>
       </c>
       <c r="D74" t="s">
-        <v>942</v>
+        <v>69</v>
       </c>
       <c r="E74" t="s">
-        <v>943</v>
+        <v>683</v>
       </c>
       <c r="F74" t="s">
         <v>7</v>
@@ -5198,13 +5132,13 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D75" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E75" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="F75" t="s">
         <v>7</v>
@@ -5218,13 +5152,13 @@
         <v>9</v>
       </c>
       <c r="B76" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D76" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E76" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="F76" t="s">
         <v>7</v>
@@ -5238,13 +5172,13 @@
         <v>9</v>
       </c>
       <c r="B77" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D77" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E77" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="F77" t="s">
         <v>7</v>
@@ -5258,13 +5192,13 @@
         <v>9</v>
       </c>
       <c r="B78" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D78" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E78" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="F78" t="s">
         <v>7</v>
@@ -5278,13 +5212,13 @@
         <v>9</v>
       </c>
       <c r="B79" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D79" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E79" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="F79" t="s">
         <v>7</v>
@@ -5298,13 +5232,13 @@
         <v>9</v>
       </c>
       <c r="B80" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D80" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E80" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="F80" t="s">
         <v>7</v>
@@ -5318,13 +5252,13 @@
         <v>9</v>
       </c>
       <c r="B81" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D81" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E81" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="F81" t="s">
         <v>7</v>
@@ -5338,13 +5272,13 @@
         <v>9</v>
       </c>
       <c r="B82" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D82" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E82" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="F82" t="s">
         <v>7</v>
@@ -5358,13 +5292,13 @@
         <v>9</v>
       </c>
       <c r="B83" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D83" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E83" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="F83" t="s">
         <v>7</v>
@@ -5378,13 +5312,13 @@
         <v>9</v>
       </c>
       <c r="B84" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D84" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E84" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="F84" t="s">
         <v>7</v>
@@ -5398,13 +5332,13 @@
         <v>9</v>
       </c>
       <c r="B85" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D85" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E85" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="F85" t="s">
         <v>7</v>
@@ -5418,13 +5352,13 @@
         <v>9</v>
       </c>
       <c r="B86" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D86" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E86" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="F86" t="s">
         <v>7</v>
@@ -5438,13 +5372,13 @@
         <v>9</v>
       </c>
       <c r="B87" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D87" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E87" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="F87" t="s">
         <v>7</v>
@@ -5458,13 +5392,13 @@
         <v>9</v>
       </c>
       <c r="B88" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D88" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E88" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="F88" t="s">
         <v>7</v>
@@ -5478,13 +5412,13 @@
         <v>9</v>
       </c>
       <c r="B89" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D89" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E89" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="F89" t="s">
         <v>7</v>
@@ -5498,13 +5432,13 @@
         <v>9</v>
       </c>
       <c r="B90" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D90" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E90" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="F90" t="s">
         <v>7</v>
@@ -5518,13 +5452,13 @@
         <v>9</v>
       </c>
       <c r="B91" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D91" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E91" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="F91" t="s">
         <v>7</v>
@@ -5538,13 +5472,13 @@
         <v>9</v>
       </c>
       <c r="B92" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D92" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E92" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="F92" t="s">
         <v>7</v>
@@ -5558,13 +5492,13 @@
         <v>9</v>
       </c>
       <c r="B93" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D93" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E93" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="F93" t="s">
         <v>7</v>
@@ -5578,13 +5512,13 @@
         <v>9</v>
       </c>
       <c r="B94" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D94" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E94" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="F94" t="s">
         <v>7</v>
@@ -5598,13 +5532,13 @@
         <v>9</v>
       </c>
       <c r="B95" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D95" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E95" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="F95" t="s">
         <v>7</v>
@@ -5618,13 +5552,13 @@
         <v>9</v>
       </c>
       <c r="B96" t="s">
-        <v>397</v>
+        <v>953</v>
       </c>
       <c r="D96" t="s">
-        <v>90</v>
+        <v>954</v>
       </c>
       <c r="E96" t="s">
-        <v>704</v>
+        <v>955</v>
       </c>
       <c r="F96" t="s">
         <v>7</v>
@@ -5638,13 +5572,13 @@
         <v>9</v>
       </c>
       <c r="B97" t="s">
-        <v>953</v>
+        <v>398</v>
       </c>
       <c r="D97" t="s">
-        <v>954</v>
+        <v>91</v>
       </c>
       <c r="E97" t="s">
-        <v>955</v>
+        <v>705</v>
       </c>
       <c r="F97" t="s">
         <v>7</v>
@@ -5658,13 +5592,13 @@
         <v>9</v>
       </c>
       <c r="B98" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D98" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E98" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="F98" t="s">
         <v>7</v>
@@ -5678,13 +5612,13 @@
         <v>9</v>
       </c>
       <c r="B99" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D99" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E99" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="F99" t="s">
         <v>7</v>
@@ -5698,13 +5632,13 @@
         <v>9</v>
       </c>
       <c r="B100" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D100" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E100" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="F100" t="s">
         <v>7</v>
@@ -5718,16 +5652,16 @@
         <v>9</v>
       </c>
       <c r="B101" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D101" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E101" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="F101" t="s">
-        <v>7</v>
+        <v>931</v>
       </c>
       <c r="G101" t="s">
         <v>8</v>
@@ -5738,16 +5672,16 @@
         <v>9</v>
       </c>
       <c r="B102" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D102" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E102" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="F102" t="s">
-        <v>931</v>
+        <v>7</v>
       </c>
       <c r="G102" t="s">
         <v>8</v>
@@ -5758,13 +5692,13 @@
         <v>9</v>
       </c>
       <c r="B103" t="s">
-        <v>403</v>
+        <v>956</v>
       </c>
       <c r="D103" t="s">
-        <v>96</v>
+        <v>957</v>
       </c>
       <c r="E103" t="s">
-        <v>710</v>
+        <v>958</v>
       </c>
       <c r="F103" t="s">
         <v>7</v>
@@ -5778,13 +5712,13 @@
         <v>9</v>
       </c>
       <c r="B104" t="s">
-        <v>956</v>
+        <v>404</v>
       </c>
       <c r="D104" t="s">
-        <v>957</v>
+        <v>97</v>
       </c>
       <c r="E104" t="s">
-        <v>958</v>
+        <v>711</v>
       </c>
       <c r="F104" t="s">
         <v>7</v>
@@ -5798,13 +5732,13 @@
         <v>9</v>
       </c>
       <c r="B105" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D105" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E105" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="F105" t="s">
         <v>7</v>
@@ -5818,13 +5752,13 @@
         <v>9</v>
       </c>
       <c r="B106" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D106" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E106" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="F106" t="s">
         <v>7</v>
@@ -5838,13 +5772,13 @@
         <v>9</v>
       </c>
       <c r="B107" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D107" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E107" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="F107" t="s">
         <v>7</v>
@@ -5858,13 +5792,13 @@
         <v>9</v>
       </c>
       <c r="B108" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D108" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E108" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="F108" t="s">
         <v>7</v>
@@ -5878,13 +5812,13 @@
         <v>9</v>
       </c>
       <c r="B109" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D109" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E109" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="F109" t="s">
         <v>7</v>
@@ -5898,13 +5832,13 @@
         <v>9</v>
       </c>
       <c r="B110" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D110" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E110" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="F110" t="s">
         <v>7</v>
@@ -5918,13 +5852,13 @@
         <v>9</v>
       </c>
       <c r="B111" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D111" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E111" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="F111" t="s">
         <v>7</v>
@@ -5938,13 +5872,13 @@
         <v>9</v>
       </c>
       <c r="B112" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D112" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E112" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="F112" t="s">
         <v>7</v>
@@ -5958,13 +5892,13 @@
         <v>9</v>
       </c>
       <c r="B113" t="s">
-        <v>412</v>
+        <v>1022</v>
       </c>
       <c r="D113" t="s">
-        <v>105</v>
+        <v>1023</v>
       </c>
       <c r="E113" t="s">
-        <v>719</v>
+        <v>1024</v>
       </c>
       <c r="F113" t="s">
         <v>7</v>
@@ -5978,13 +5912,13 @@
         <v>9</v>
       </c>
       <c r="B114" t="s">
-        <v>1025</v>
+        <v>413</v>
       </c>
       <c r="D114" t="s">
-        <v>1026</v>
+        <v>106</v>
       </c>
       <c r="E114" t="s">
-        <v>1027</v>
+        <v>720</v>
       </c>
       <c r="F114" t="s">
         <v>7</v>
@@ -5998,13 +5932,13 @@
         <v>9</v>
       </c>
       <c r="B115" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D115" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E115" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="F115" t="s">
         <v>7</v>
@@ -6018,13 +5952,13 @@
         <v>9</v>
       </c>
       <c r="B116" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D116" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E116" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="F116" t="s">
         <v>7</v>
@@ -6038,13 +5972,13 @@
         <v>9</v>
       </c>
       <c r="B117" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D117" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E117" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="F117" t="s">
         <v>7</v>
@@ -6058,13 +5992,13 @@
         <v>9</v>
       </c>
       <c r="B118" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D118" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E118" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="F118" t="s">
         <v>7</v>
@@ -6078,13 +6012,13 @@
         <v>9</v>
       </c>
       <c r="B119" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D119" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E119" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="F119" t="s">
         <v>7</v>
@@ -6098,13 +6032,13 @@
         <v>9</v>
       </c>
       <c r="B120" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D120" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E120" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="F120" t="s">
         <v>7</v>
@@ -6118,16 +6052,16 @@
         <v>9</v>
       </c>
       <c r="B121" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D121" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E121" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="F121" t="s">
-        <v>7</v>
+        <v>931</v>
       </c>
       <c r="G121" t="s">
         <v>8</v>
@@ -6138,16 +6072,16 @@
         <v>9</v>
       </c>
       <c r="B122" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D122" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E122" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="F122" t="s">
-        <v>931</v>
+        <v>7</v>
       </c>
       <c r="G122" t="s">
         <v>8</v>
@@ -6158,13 +6092,13 @@
         <v>9</v>
       </c>
       <c r="B123" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D123" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E123" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="F123" t="s">
         <v>7</v>
@@ -6178,16 +6112,16 @@
         <v>9</v>
       </c>
       <c r="B124" t="s">
-        <v>422</v>
+        <v>965</v>
       </c>
       <c r="D124" t="s">
-        <v>115</v>
+        <v>966</v>
       </c>
       <c r="E124" t="s">
-        <v>729</v>
+        <v>967</v>
       </c>
       <c r="F124" t="s">
-        <v>7</v>
+        <v>931</v>
       </c>
       <c r="G124" t="s">
         <v>8</v>
@@ -6198,13 +6132,13 @@
         <v>9</v>
       </c>
       <c r="B125" t="s">
-        <v>965</v>
+        <v>968</v>
       </c>
       <c r="D125" t="s">
-        <v>966</v>
+        <v>969</v>
       </c>
       <c r="E125" t="s">
-        <v>967</v>
+        <v>970</v>
       </c>
       <c r="F125" t="s">
         <v>931</v>
@@ -6218,16 +6152,16 @@
         <v>9</v>
       </c>
       <c r="B126" t="s">
-        <v>971</v>
+        <v>423</v>
       </c>
       <c r="D126" t="s">
-        <v>972</v>
+        <v>116</v>
       </c>
       <c r="E126" t="s">
-        <v>973</v>
+        <v>730</v>
       </c>
       <c r="F126" t="s">
-        <v>931</v>
+        <v>7</v>
       </c>
       <c r="G126" t="s">
         <v>8</v>
@@ -6238,13 +6172,13 @@
         <v>9</v>
       </c>
       <c r="B127" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D127" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E127" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="F127" t="s">
         <v>7</v>
@@ -6258,13 +6192,13 @@
         <v>9</v>
       </c>
       <c r="B128" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D128" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E128" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="F128" t="s">
         <v>7</v>
@@ -6278,13 +6212,13 @@
         <v>9</v>
       </c>
       <c r="B129" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D129" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E129" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F129" t="s">
         <v>7</v>
@@ -6298,13 +6232,13 @@
         <v>9</v>
       </c>
       <c r="B130" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D130" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E130" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="F130" t="s">
         <v>7</v>
@@ -6318,16 +6252,16 @@
         <v>9</v>
       </c>
       <c r="B131" t="s">
-        <v>427</v>
+        <v>1042</v>
       </c>
       <c r="D131" t="s">
-        <v>120</v>
+        <v>1043</v>
       </c>
       <c r="E131" t="s">
-        <v>734</v>
+        <v>1044</v>
       </c>
       <c r="F131" t="s">
-        <v>7</v>
+        <v>931</v>
       </c>
       <c r="G131" t="s">
         <v>8</v>
@@ -6338,16 +6272,16 @@
         <v>9</v>
       </c>
       <c r="B132" t="s">
-        <v>1049</v>
+        <v>428</v>
       </c>
       <c r="D132" t="s">
-        <v>1050</v>
+        <v>121</v>
       </c>
       <c r="E132" t="s">
-        <v>1051</v>
+        <v>735</v>
       </c>
       <c r="F132" t="s">
-        <v>931</v>
+        <v>7</v>
       </c>
       <c r="G132" t="s">
         <v>8</v>
@@ -6358,13 +6292,13 @@
         <v>9</v>
       </c>
       <c r="B133" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D133" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E133" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="F133" t="s">
         <v>7</v>
@@ -6378,13 +6312,13 @@
         <v>9</v>
       </c>
       <c r="B134" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D134" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E134" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="F134" t="s">
         <v>7</v>
@@ -6398,13 +6332,13 @@
         <v>9</v>
       </c>
       <c r="B135" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D135" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E135" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="F135" t="s">
         <v>7</v>
@@ -6418,13 +6352,13 @@
         <v>9</v>
       </c>
       <c r="B136" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D136" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E136" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="F136" t="s">
         <v>7</v>
@@ -6438,13 +6372,13 @@
         <v>9</v>
       </c>
       <c r="B137" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D137" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E137" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="F137" t="s">
         <v>7</v>
@@ -6458,13 +6392,13 @@
         <v>9</v>
       </c>
       <c r="B138" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D138" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E138" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="F138" t="s">
         <v>7</v>
@@ -6478,13 +6412,13 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D139" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E139" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="F139" t="s">
         <v>7</v>
@@ -6498,13 +6432,13 @@
         <v>9</v>
       </c>
       <c r="B140" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D140" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E140" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="F140" t="s">
         <v>7</v>
@@ -6518,13 +6452,13 @@
         <v>9</v>
       </c>
       <c r="B141" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D141" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E141" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="F141" t="s">
         <v>7</v>
@@ -6538,13 +6472,13 @@
         <v>9</v>
       </c>
       <c r="B142" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D142" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E142" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="F142" t="s">
         <v>7</v>
@@ -6558,13 +6492,13 @@
         <v>9</v>
       </c>
       <c r="B143" t="s">
-        <v>438</v>
+        <v>959</v>
       </c>
       <c r="D143" t="s">
-        <v>131</v>
+        <v>960</v>
       </c>
       <c r="E143" t="s">
-        <v>745</v>
+        <v>961</v>
       </c>
       <c r="F143" t="s">
         <v>7</v>
@@ -6578,13 +6512,13 @@
         <v>9</v>
       </c>
       <c r="B144" t="s">
-        <v>959</v>
+        <v>439</v>
       </c>
       <c r="D144" t="s">
-        <v>960</v>
+        <v>132</v>
       </c>
       <c r="E144" t="s">
-        <v>961</v>
+        <v>746</v>
       </c>
       <c r="F144" t="s">
         <v>7</v>
@@ -6598,16 +6532,16 @@
         <v>9</v>
       </c>
       <c r="B145" t="s">
-        <v>439</v>
+        <v>962</v>
       </c>
       <c r="D145" t="s">
-        <v>132</v>
+        <v>963</v>
       </c>
       <c r="E145" t="s">
-        <v>746</v>
+        <v>964</v>
       </c>
       <c r="F145" t="s">
-        <v>7</v>
+        <v>931</v>
       </c>
       <c r="G145" t="s">
         <v>8</v>
@@ -6618,16 +6552,16 @@
         <v>9</v>
       </c>
       <c r="B146" t="s">
-        <v>962</v>
+        <v>440</v>
       </c>
       <c r="D146" t="s">
-        <v>963</v>
+        <v>133</v>
       </c>
       <c r="E146" t="s">
-        <v>964</v>
+        <v>747</v>
       </c>
       <c r="F146" t="s">
-        <v>931</v>
+        <v>7</v>
       </c>
       <c r="G146" t="s">
         <v>8</v>
@@ -6638,13 +6572,13 @@
         <v>9</v>
       </c>
       <c r="B147" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D147" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E147" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="F147" t="s">
         <v>7</v>
@@ -6658,13 +6592,13 @@
         <v>9</v>
       </c>
       <c r="B148" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D148" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E148" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="F148" t="s">
         <v>7</v>
@@ -6678,13 +6612,13 @@
         <v>9</v>
       </c>
       <c r="B149" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D149" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E149" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="F149" t="s">
         <v>7</v>
@@ -6698,13 +6632,13 @@
         <v>9</v>
       </c>
       <c r="B150" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D150" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E150" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="F150" t="s">
         <v>7</v>
@@ -6718,13 +6652,13 @@
         <v>9</v>
       </c>
       <c r="B151" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D151" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E151" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="F151" t="s">
         <v>7</v>
@@ -6738,13 +6672,13 @@
         <v>9</v>
       </c>
       <c r="B152" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D152" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E152" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="F152" t="s">
         <v>7</v>
@@ -6758,13 +6692,13 @@
         <v>9</v>
       </c>
       <c r="B153" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D153" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E153" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="F153" t="s">
         <v>7</v>
@@ -6778,13 +6712,13 @@
         <v>9</v>
       </c>
       <c r="B154" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D154" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E154" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="F154" t="s">
         <v>7</v>
@@ -6798,13 +6732,13 @@
         <v>9</v>
       </c>
       <c r="B155" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D155" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E155" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="F155" t="s">
         <v>7</v>
@@ -6818,19 +6752,16 @@
         <v>9</v>
       </c>
       <c r="B156" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C156" t="s">
-        <v>1053</v>
+        <v>450</v>
       </c>
       <c r="D156" t="s">
-        <v>1054</v>
+        <v>143</v>
       </c>
       <c r="E156" t="s">
-        <v>1055</v>
+        <v>757</v>
       </c>
       <c r="F156" t="s">
-        <v>931</v>
+        <v>7</v>
       </c>
       <c r="G156" t="s">
         <v>8</v>
@@ -6841,13 +6772,13 @@
         <v>9</v>
       </c>
       <c r="B157" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D157" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E157" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="F157" t="s">
         <v>7</v>
@@ -6861,13 +6792,13 @@
         <v>9</v>
       </c>
       <c r="B158" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="D158" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E158" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="F158" t="s">
         <v>7</v>
@@ -6881,16 +6812,16 @@
         <v>9</v>
       </c>
       <c r="B159" t="s">
-        <v>968</v>
+        <v>453</v>
       </c>
       <c r="D159" t="s">
-        <v>969</v>
+        <v>146</v>
       </c>
       <c r="E159" t="s">
-        <v>970</v>
+        <v>760</v>
       </c>
       <c r="F159" t="s">
-        <v>931</v>
+        <v>7</v>
       </c>
       <c r="G159" t="s">
         <v>8</v>
@@ -6901,13 +6832,13 @@
         <v>9</v>
       </c>
       <c r="B160" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="D160" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E160" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="F160" t="s">
         <v>7</v>
@@ -6921,13 +6852,13 @@
         <v>9</v>
       </c>
       <c r="B161" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="D161" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E161" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="F161" t="s">
         <v>7</v>
@@ -6941,13 +6872,13 @@
         <v>9</v>
       </c>
       <c r="B162" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="D162" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E162" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="F162" t="s">
         <v>7</v>
@@ -6961,13 +6892,13 @@
         <v>9</v>
       </c>
       <c r="B163" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="D163" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E163" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="F163" t="s">
         <v>7</v>
@@ -6981,13 +6912,13 @@
         <v>9</v>
       </c>
       <c r="B164" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="D164" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E164" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="F164" t="s">
         <v>7</v>
@@ -7001,13 +6932,13 @@
         <v>9</v>
       </c>
       <c r="B165" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="D165" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E165" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="F165" t="s">
         <v>7</v>
@@ -7021,13 +6952,13 @@
         <v>9</v>
       </c>
       <c r="B166" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="D166" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E166" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="F166" t="s">
         <v>7</v>
@@ -7041,13 +6972,13 @@
         <v>9</v>
       </c>
       <c r="B167" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="D167" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E167" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="F167" t="s">
         <v>7</v>
@@ -7061,16 +6992,16 @@
         <v>9</v>
       </c>
       <c r="B168" t="s">
-        <v>459</v>
+        <v>1045</v>
       </c>
       <c r="D168" t="s">
-        <v>152</v>
+        <v>1046</v>
       </c>
       <c r="E168" t="s">
-        <v>766</v>
+        <v>1047</v>
       </c>
       <c r="F168" t="s">
-        <v>7</v>
+        <v>931</v>
       </c>
       <c r="G168" t="s">
         <v>8</v>
@@ -7081,13 +7012,13 @@
         <v>9</v>
       </c>
       <c r="B169" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="D169" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E169" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="F169" t="s">
         <v>7</v>
@@ -7101,13 +7032,13 @@
         <v>9</v>
       </c>
       <c r="B170" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="D170" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E170" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="F170" t="s">
         <v>7</v>
@@ -7121,16 +7052,16 @@
         <v>9</v>
       </c>
       <c r="B171" t="s">
-        <v>1056</v>
+        <v>464</v>
       </c>
       <c r="D171" t="s">
-        <v>1057</v>
+        <v>157</v>
       </c>
       <c r="E171" t="s">
-        <v>1058</v>
+        <v>771</v>
       </c>
       <c r="F171" t="s">
-        <v>931</v>
+        <v>7</v>
       </c>
       <c r="G171" t="s">
         <v>8</v>
@@ -7141,13 +7072,13 @@
         <v>9</v>
       </c>
       <c r="B172" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="D172" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E172" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="F172" t="s">
         <v>7</v>
@@ -7161,13 +7092,13 @@
         <v>9</v>
       </c>
       <c r="B173" t="s">
-        <v>463</v>
+        <v>971</v>
       </c>
       <c r="D173" t="s">
-        <v>156</v>
+        <v>972</v>
       </c>
       <c r="E173" t="s">
-        <v>770</v>
+        <v>973</v>
       </c>
       <c r="F173" t="s">
         <v>7</v>
@@ -7181,13 +7112,13 @@
         <v>9</v>
       </c>
       <c r="B174" t="s">
-        <v>464</v>
+        <v>974</v>
       </c>
       <c r="D174" t="s">
-        <v>157</v>
+        <v>975</v>
       </c>
       <c r="E174" t="s">
-        <v>771</v>
+        <v>976</v>
       </c>
       <c r="F174" t="s">
         <v>7</v>
@@ -7201,13 +7132,13 @@
         <v>9</v>
       </c>
       <c r="B175" t="s">
-        <v>465</v>
+        <v>980</v>
       </c>
       <c r="D175" t="s">
-        <v>158</v>
+        <v>981</v>
       </c>
       <c r="E175" t="s">
-        <v>772</v>
+        <v>982</v>
       </c>
       <c r="F175" t="s">
         <v>7</v>
@@ -7221,13 +7152,13 @@
         <v>9</v>
       </c>
       <c r="B176" t="s">
-        <v>974</v>
+        <v>466</v>
       </c>
       <c r="D176" t="s">
-        <v>975</v>
+        <v>159</v>
       </c>
       <c r="E176" t="s">
-        <v>976</v>
+        <v>773</v>
       </c>
       <c r="F176" t="s">
         <v>7</v>
@@ -7241,16 +7172,16 @@
         <v>9</v>
       </c>
       <c r="B177" t="s">
-        <v>977</v>
+        <v>467</v>
       </c>
       <c r="D177" t="s">
-        <v>978</v>
+        <v>160</v>
       </c>
       <c r="E177" t="s">
-        <v>979</v>
+        <v>774</v>
       </c>
       <c r="F177" t="s">
-        <v>7</v>
+        <v>931</v>
       </c>
       <c r="G177" t="s">
         <v>8</v>
@@ -7261,13 +7192,13 @@
         <v>9</v>
       </c>
       <c r="B178" t="s">
-        <v>983</v>
+        <v>468</v>
       </c>
       <c r="D178" t="s">
-        <v>984</v>
+        <v>161</v>
       </c>
       <c r="E178" t="s">
-        <v>985</v>
+        <v>775</v>
       </c>
       <c r="F178" t="s">
         <v>7</v>
@@ -7281,13 +7212,13 @@
         <v>9</v>
       </c>
       <c r="B179" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="D179" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E179" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="F179" t="s">
         <v>7</v>
@@ -7301,16 +7232,16 @@
         <v>9</v>
       </c>
       <c r="B180" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="D180" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E180" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="F180" t="s">
-        <v>931</v>
+        <v>7</v>
       </c>
       <c r="G180" t="s">
         <v>8</v>
@@ -7321,13 +7252,13 @@
         <v>9</v>
       </c>
       <c r="B181" t="s">
-        <v>468</v>
+        <v>983</v>
       </c>
       <c r="D181" t="s">
-        <v>161</v>
+        <v>984</v>
       </c>
       <c r="E181" t="s">
-        <v>775</v>
+        <v>985</v>
       </c>
       <c r="F181" t="s">
         <v>7</v>
@@ -7341,13 +7272,13 @@
         <v>9</v>
       </c>
       <c r="B182" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="D182" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E182" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="F182" t="s">
         <v>7</v>
@@ -7361,13 +7292,13 @@
         <v>9</v>
       </c>
       <c r="B183" t="s">
-        <v>470</v>
+        <v>986</v>
       </c>
       <c r="D183" t="s">
-        <v>163</v>
+        <v>987</v>
       </c>
       <c r="E183" t="s">
-        <v>777</v>
+        <v>988</v>
       </c>
       <c r="F183" t="s">
         <v>7</v>
@@ -7381,16 +7312,16 @@
         <v>9</v>
       </c>
       <c r="B184" t="s">
-        <v>986</v>
+        <v>472</v>
       </c>
       <c r="D184" t="s">
-        <v>987</v>
+        <v>165</v>
       </c>
       <c r="E184" t="s">
-        <v>988</v>
+        <v>779</v>
       </c>
       <c r="F184" t="s">
-        <v>7</v>
+        <v>931</v>
       </c>
       <c r="G184" t="s">
         <v>8</v>
@@ -7401,13 +7332,13 @@
         <v>9</v>
       </c>
       <c r="B185" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="D185" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E185" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="F185" t="s">
         <v>7</v>
@@ -7421,16 +7352,16 @@
         <v>9</v>
       </c>
       <c r="B186" t="s">
-        <v>1059</v>
+        <v>474</v>
       </c>
       <c r="D186" t="s">
-        <v>1060</v>
+        <v>167</v>
       </c>
       <c r="E186" t="s">
-        <v>1061</v>
+        <v>781</v>
       </c>
       <c r="F186" t="s">
-        <v>931</v>
+        <v>7</v>
       </c>
       <c r="G186" t="s">
         <v>8</v>
@@ -7461,16 +7392,16 @@
         <v>9</v>
       </c>
       <c r="B188" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="D188" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E188" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="F188" t="s">
-        <v>931</v>
+        <v>7</v>
       </c>
       <c r="G188" t="s">
         <v>8</v>
@@ -7481,13 +7412,13 @@
         <v>9</v>
       </c>
       <c r="B189" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="D189" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E189" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="F189" t="s">
         <v>7</v>
@@ -7501,13 +7432,13 @@
         <v>9</v>
       </c>
       <c r="B190" t="s">
-        <v>474</v>
+        <v>1048</v>
       </c>
       <c r="D190" t="s">
-        <v>167</v>
+        <v>1049</v>
       </c>
       <c r="E190" t="s">
-        <v>781</v>
+        <v>1050</v>
       </c>
       <c r="F190" t="s">
         <v>7</v>
@@ -7521,13 +7452,13 @@
         <v>9</v>
       </c>
       <c r="B191" t="s">
-        <v>992</v>
+        <v>477</v>
       </c>
       <c r="D191" t="s">
-        <v>993</v>
+        <v>170</v>
       </c>
       <c r="E191" t="s">
-        <v>994</v>
+        <v>784</v>
       </c>
       <c r="F191" t="s">
         <v>7</v>
@@ -7541,16 +7472,16 @@
         <v>9</v>
       </c>
       <c r="B192" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="D192" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E192" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="F192" t="s">
-        <v>7</v>
+        <v>931</v>
       </c>
       <c r="G192" t="s">
         <v>8</v>
@@ -7561,13 +7492,13 @@
         <v>9</v>
       </c>
       <c r="B193" t="s">
-        <v>476</v>
+        <v>1051</v>
       </c>
       <c r="D193" t="s">
-        <v>169</v>
+        <v>1052</v>
       </c>
       <c r="E193" t="s">
-        <v>783</v>
+        <v>1053</v>
       </c>
       <c r="F193" t="s">
         <v>7</v>
@@ -7581,13 +7512,13 @@
         <v>9</v>
       </c>
       <c r="B194" t="s">
-        <v>1062</v>
+        <v>479</v>
       </c>
       <c r="D194" t="s">
-        <v>1063</v>
+        <v>172</v>
       </c>
       <c r="E194" t="s">
-        <v>1064</v>
+        <v>786</v>
       </c>
       <c r="F194" t="s">
         <v>7</v>
@@ -7601,13 +7532,13 @@
         <v>9</v>
       </c>
       <c r="B195" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="D195" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E195" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="F195" t="s">
         <v>7</v>
@@ -7621,13 +7552,13 @@
         <v>9</v>
       </c>
       <c r="B196" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="D196" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E196" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="F196" t="s">
         <v>931</v>
@@ -7641,13 +7572,13 @@
         <v>9</v>
       </c>
       <c r="B197" t="s">
-        <v>1065</v>
+        <v>482</v>
       </c>
       <c r="D197" t="s">
-        <v>1066</v>
+        <v>175</v>
       </c>
       <c r="E197" t="s">
-        <v>1067</v>
+        <v>789</v>
       </c>
       <c r="F197" t="s">
         <v>7</v>
@@ -7661,13 +7592,13 @@
         <v>9</v>
       </c>
       <c r="B198" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="D198" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E198" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
       <c r="F198" t="s">
         <v>7</v>
@@ -7681,16 +7612,16 @@
         <v>9</v>
       </c>
       <c r="B199" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="D199" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E199" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
       <c r="F199" t="s">
-        <v>7</v>
+        <v>931</v>
       </c>
       <c r="G199" t="s">
         <v>8</v>
@@ -7701,16 +7632,16 @@
         <v>9</v>
       </c>
       <c r="B200" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="D200" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E200" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="F200" t="s">
-        <v>931</v>
+        <v>7</v>
       </c>
       <c r="G200" t="s">
         <v>8</v>
@@ -7721,13 +7652,13 @@
         <v>9</v>
       </c>
       <c r="B201" t="s">
-        <v>482</v>
+        <v>995</v>
       </c>
       <c r="D201" t="s">
-        <v>175</v>
+        <v>996</v>
       </c>
       <c r="E201" t="s">
-        <v>789</v>
+        <v>997</v>
       </c>
       <c r="F201" t="s">
         <v>7</v>
@@ -7741,13 +7672,13 @@
         <v>9</v>
       </c>
       <c r="B202" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="D202" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E202" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="F202" t="s">
         <v>7</v>
@@ -7761,16 +7692,16 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="D203" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E203" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="F203" t="s">
-        <v>931</v>
+        <v>7</v>
       </c>
       <c r="G203" t="s">
         <v>8</v>
@@ -7781,13 +7712,13 @@
         <v>9</v>
       </c>
       <c r="B204" t="s">
-        <v>485</v>
+        <v>992</v>
       </c>
       <c r="D204" t="s">
-        <v>178</v>
+        <v>993</v>
       </c>
       <c r="E204" t="s">
-        <v>792</v>
+        <v>994</v>
       </c>
       <c r="F204" t="s">
         <v>7</v>
@@ -7801,13 +7732,13 @@
         <v>9</v>
       </c>
       <c r="B205" t="s">
-        <v>998</v>
+        <v>488</v>
       </c>
       <c r="D205" t="s">
-        <v>999</v>
+        <v>181</v>
       </c>
       <c r="E205" t="s">
-        <v>1000</v>
+        <v>795</v>
       </c>
       <c r="F205" t="s">
         <v>7</v>
@@ -7821,13 +7752,13 @@
         <v>9</v>
       </c>
       <c r="B206" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="D206" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E206" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="F206" t="s">
         <v>7</v>
@@ -7841,13 +7772,13 @@
         <v>9</v>
       </c>
       <c r="B207" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="D207" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E207" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="F207" t="s">
         <v>7</v>
@@ -7861,13 +7792,13 @@
         <v>9</v>
       </c>
       <c r="B208" t="s">
-        <v>995</v>
+        <v>491</v>
       </c>
       <c r="D208" t="s">
-        <v>996</v>
+        <v>184</v>
       </c>
       <c r="E208" t="s">
-        <v>997</v>
+        <v>798</v>
       </c>
       <c r="F208" t="s">
         <v>7</v>
@@ -7881,13 +7812,13 @@
         <v>9</v>
       </c>
       <c r="B209" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="D209" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E209" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="F209" t="s">
         <v>7</v>
@@ -7901,13 +7832,13 @@
         <v>9</v>
       </c>
       <c r="B210" t="s">
-        <v>489</v>
+        <v>998</v>
       </c>
       <c r="D210" t="s">
-        <v>182</v>
+        <v>999</v>
       </c>
       <c r="E210" t="s">
-        <v>796</v>
+        <v>1000</v>
       </c>
       <c r="F210" t="s">
         <v>7</v>
@@ -7921,13 +7852,13 @@
         <v>9</v>
       </c>
       <c r="B211" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="D211" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="E211" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="F211" t="s">
         <v>7</v>
@@ -7941,13 +7872,13 @@
         <v>9</v>
       </c>
       <c r="B212" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="D212" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="E212" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="F212" t="s">
         <v>7</v>
@@ -7961,13 +7892,13 @@
         <v>9</v>
       </c>
       <c r="B213" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="D213" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E213" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="F213" t="s">
         <v>7</v>
@@ -7981,16 +7912,16 @@
         <v>9</v>
       </c>
       <c r="B214" t="s">
-        <v>1001</v>
+        <v>1054</v>
       </c>
       <c r="D214" t="s">
-        <v>1002</v>
+        <v>1055</v>
       </c>
       <c r="E214" t="s">
-        <v>1003</v>
+        <v>1056</v>
       </c>
       <c r="F214" t="s">
-        <v>7</v>
+        <v>931</v>
       </c>
       <c r="G214" t="s">
         <v>8</v>
@@ -8001,13 +7932,13 @@
         <v>9</v>
       </c>
       <c r="B215" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="D215" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E215" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="F215" t="s">
         <v>7</v>
@@ -8021,13 +7952,13 @@
         <v>9</v>
       </c>
       <c r="B216" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="D216" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E216" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="F216" t="s">
         <v>7</v>
@@ -8041,13 +7972,13 @@
         <v>9</v>
       </c>
       <c r="B217" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="D217" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="E217" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="F217" t="s">
         <v>7</v>
@@ -8061,16 +7992,16 @@
         <v>9</v>
       </c>
       <c r="B218" t="s">
-        <v>1068</v>
+        <v>499</v>
       </c>
       <c r="D218" t="s">
-        <v>1069</v>
+        <v>192</v>
       </c>
       <c r="E218" t="s">
-        <v>1070</v>
+        <v>806</v>
       </c>
       <c r="F218" t="s">
-        <v>931</v>
+        <v>7</v>
       </c>
       <c r="G218" t="s">
         <v>8</v>
@@ -8081,13 +8012,13 @@
         <v>9</v>
       </c>
       <c r="B219" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="D219" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E219" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
       <c r="F219" t="s">
         <v>7</v>
@@ -8101,13 +8032,13 @@
         <v>9</v>
       </c>
       <c r="B220" t="s">
-        <v>497</v>
+        <v>1010</v>
       </c>
       <c r="D220" t="s">
-        <v>190</v>
+        <v>1011</v>
       </c>
       <c r="E220" t="s">
-        <v>804</v>
+        <v>1012</v>
       </c>
       <c r="F220" t="s">
         <v>7</v>
@@ -8121,13 +8052,16 @@
         <v>9</v>
       </c>
       <c r="B221" t="s">
-        <v>498</v>
+        <v>1057</v>
+      </c>
+      <c r="C221" t="s">
+        <v>1058</v>
       </c>
       <c r="D221" t="s">
-        <v>191</v>
+        <v>1059</v>
       </c>
       <c r="E221" t="s">
-        <v>805</v>
+        <v>1060</v>
       </c>
       <c r="F221" t="s">
         <v>7</v>
@@ -8141,13 +8075,13 @@
         <v>9</v>
       </c>
       <c r="B222" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="D222" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E222" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="F222" t="s">
         <v>7</v>
@@ -8161,13 +8095,13 @@
         <v>9</v>
       </c>
       <c r="B223" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="D223" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E223" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="F223" t="s">
         <v>7</v>
@@ -8181,13 +8115,13 @@
         <v>9</v>
       </c>
       <c r="B224" t="s">
-        <v>1013</v>
+        <v>503</v>
       </c>
       <c r="D224" t="s">
-        <v>1014</v>
+        <v>196</v>
       </c>
       <c r="E224" t="s">
-        <v>1015</v>
+        <v>810</v>
       </c>
       <c r="F224" t="s">
         <v>7</v>
@@ -8201,19 +8135,16 @@
         <v>9</v>
       </c>
       <c r="B225" t="s">
-        <v>1071</v>
-      </c>
-      <c r="C225" t="s">
-        <v>1072</v>
+        <v>1061</v>
       </c>
       <c r="D225" t="s">
-        <v>1073</v>
+        <v>1062</v>
       </c>
       <c r="E225" t="s">
-        <v>1074</v>
+        <v>1063</v>
       </c>
       <c r="F225" t="s">
-        <v>7</v>
+        <v>931</v>
       </c>
       <c r="G225" t="s">
         <v>8</v>
@@ -8224,13 +8155,13 @@
         <v>9</v>
       </c>
       <c r="B226" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="D226" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="E226" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="F226" t="s">
         <v>7</v>
@@ -8244,16 +8175,16 @@
         <v>9</v>
       </c>
       <c r="B227" t="s">
-        <v>1075</v>
+        <v>505</v>
       </c>
       <c r="D227" t="s">
-        <v>1076</v>
+        <v>198</v>
       </c>
       <c r="E227" t="s">
-        <v>1077</v>
+        <v>812</v>
       </c>
       <c r="F227" t="s">
-        <v>931</v>
+        <v>7</v>
       </c>
       <c r="G227" t="s">
         <v>8</v>
@@ -8264,13 +8195,13 @@
         <v>9</v>
       </c>
       <c r="B228" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="D228" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="E228" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="F228" t="s">
         <v>7</v>
@@ -8284,13 +8215,13 @@
         <v>9</v>
       </c>
       <c r="B229" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="D229" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E229" t="s">
-        <v>810</v>
+        <v>814</v>
       </c>
       <c r="F229" t="s">
         <v>7</v>
@@ -8304,16 +8235,16 @@
         <v>9</v>
       </c>
       <c r="B230" t="s">
-        <v>1078</v>
+        <v>508</v>
       </c>
       <c r="D230" t="s">
-        <v>1079</v>
+        <v>201</v>
       </c>
       <c r="E230" t="s">
-        <v>1080</v>
+        <v>815</v>
       </c>
       <c r="F230" t="s">
-        <v>931</v>
+        <v>7</v>
       </c>
       <c r="G230" t="s">
         <v>8</v>
@@ -8324,13 +8255,13 @@
         <v>9</v>
       </c>
       <c r="B231" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="D231" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="E231" t="s">
-        <v>811</v>
+        <v>816</v>
       </c>
       <c r="F231" t="s">
         <v>7</v>
@@ -8344,13 +8275,13 @@
         <v>9</v>
       </c>
       <c r="B232" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="D232" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="E232" t="s">
-        <v>812</v>
+        <v>817</v>
       </c>
       <c r="F232" t="s">
         <v>7</v>
@@ -8364,13 +8295,13 @@
         <v>9</v>
       </c>
       <c r="B233" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="D233" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="E233" t="s">
-        <v>813</v>
+        <v>818</v>
       </c>
       <c r="F233" t="s">
         <v>7</v>
@@ -8384,13 +8315,16 @@
         <v>9</v>
       </c>
       <c r="B234" t="s">
-        <v>507</v>
+        <v>1064</v>
+      </c>
+      <c r="C234" t="s">
+        <v>1065</v>
       </c>
       <c r="D234" t="s">
-        <v>200</v>
+        <v>1066</v>
       </c>
       <c r="E234" t="s">
-        <v>814</v>
+        <v>1067</v>
       </c>
       <c r="F234" t="s">
         <v>7</v>
@@ -8404,13 +8338,13 @@
         <v>9</v>
       </c>
       <c r="B235" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="D235" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="E235" t="s">
-        <v>815</v>
+        <v>819</v>
       </c>
       <c r="F235" t="s">
         <v>7</v>
@@ -8424,16 +8358,16 @@
         <v>9</v>
       </c>
       <c r="B236" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="D236" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="E236" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="F236" t="s">
-        <v>7</v>
+        <v>931</v>
       </c>
       <c r="G236" t="s">
         <v>8</v>
@@ -8444,13 +8378,13 @@
         <v>9</v>
       </c>
       <c r="B237" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="D237" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="E237" t="s">
-        <v>817</v>
+        <v>821</v>
       </c>
       <c r="F237" t="s">
         <v>7</v>
@@ -8464,13 +8398,13 @@
         <v>9</v>
       </c>
       <c r="B238" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="D238" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="E238" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="F238" t="s">
         <v>7</v>
@@ -8484,16 +8418,13 @@
         <v>9</v>
       </c>
       <c r="B239" t="s">
-        <v>1081</v>
-      </c>
-      <c r="C239" t="s">
-        <v>1082</v>
+        <v>516</v>
       </c>
       <c r="D239" t="s">
-        <v>1083</v>
+        <v>209</v>
       </c>
       <c r="E239" t="s">
-        <v>1084</v>
+        <v>823</v>
       </c>
       <c r="F239" t="s">
         <v>7</v>
@@ -8507,13 +8438,13 @@
         <v>9</v>
       </c>
       <c r="B240" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="D240" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="E240" t="s">
-        <v>819</v>
+        <v>824</v>
       </c>
       <c r="F240" t="s">
         <v>7</v>
@@ -8527,16 +8458,16 @@
         <v>9</v>
       </c>
       <c r="B241" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="D241" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="E241" t="s">
-        <v>820</v>
+        <v>825</v>
       </c>
       <c r="F241" t="s">
-        <v>931</v>
+        <v>7</v>
       </c>
       <c r="G241" t="s">
         <v>8</v>
@@ -8547,13 +8478,13 @@
         <v>9</v>
       </c>
       <c r="B242" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="D242" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="E242" t="s">
-        <v>821</v>
+        <v>826</v>
       </c>
       <c r="F242" t="s">
         <v>7</v>
@@ -8567,13 +8498,13 @@
         <v>9</v>
       </c>
       <c r="B243" t="s">
-        <v>515</v>
+        <v>1068</v>
       </c>
       <c r="D243" t="s">
-        <v>208</v>
+        <v>1069</v>
       </c>
       <c r="E243" t="s">
-        <v>822</v>
+        <v>1070</v>
       </c>
       <c r="F243" t="s">
         <v>7</v>
@@ -8587,13 +8518,13 @@
         <v>9</v>
       </c>
       <c r="B244" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="D244" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="E244" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
       <c r="F244" t="s">
         <v>7</v>
@@ -8607,13 +8538,13 @@
         <v>9</v>
       </c>
       <c r="B245" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="D245" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="E245" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
       <c r="F245" t="s">
         <v>7</v>
@@ -8627,13 +8558,13 @@
         <v>9</v>
       </c>
       <c r="B246" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="D246" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="E246" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="F246" t="s">
         <v>7</v>
@@ -8647,13 +8578,13 @@
         <v>9</v>
       </c>
       <c r="B247" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="D247" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="E247" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
       <c r="F247" t="s">
         <v>7</v>
@@ -8667,13 +8598,13 @@
         <v>9</v>
       </c>
       <c r="B248" t="s">
-        <v>1085</v>
+        <v>524</v>
       </c>
       <c r="D248" t="s">
-        <v>1086</v>
+        <v>217</v>
       </c>
       <c r="E248" t="s">
-        <v>1087</v>
+        <v>831</v>
       </c>
       <c r="F248" t="s">
         <v>7</v>
@@ -8687,13 +8618,13 @@
         <v>9</v>
       </c>
       <c r="B249" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="D249" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="E249" t="s">
-        <v>827</v>
+        <v>832</v>
       </c>
       <c r="F249" t="s">
         <v>7</v>
@@ -8707,13 +8638,13 @@
         <v>9</v>
       </c>
       <c r="B250" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="D250" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="E250" t="s">
-        <v>828</v>
+        <v>833</v>
       </c>
       <c r="F250" t="s">
         <v>7</v>
@@ -8727,13 +8658,13 @@
         <v>9</v>
       </c>
       <c r="B251" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="D251" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="E251" t="s">
-        <v>829</v>
+        <v>834</v>
       </c>
       <c r="F251" t="s">
         <v>7</v>
@@ -8747,13 +8678,13 @@
         <v>9</v>
       </c>
       <c r="B252" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="D252" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="E252" t="s">
-        <v>830</v>
+        <v>835</v>
       </c>
       <c r="F252" t="s">
         <v>7</v>
@@ -8767,13 +8698,13 @@
         <v>9</v>
       </c>
       <c r="B253" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="D253" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="E253" t="s">
-        <v>831</v>
+        <v>836</v>
       </c>
       <c r="F253" t="s">
         <v>7</v>
@@ -8787,13 +8718,13 @@
         <v>9</v>
       </c>
       <c r="B254" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="D254" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="E254" t="s">
-        <v>832</v>
+        <v>837</v>
       </c>
       <c r="F254" t="s">
         <v>7</v>
@@ -8807,13 +8738,13 @@
         <v>9</v>
       </c>
       <c r="B255" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="D255" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="E255" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="F255" t="s">
         <v>7</v>
@@ -8827,16 +8758,16 @@
         <v>9</v>
       </c>
       <c r="B256" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="D256" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="E256" t="s">
-        <v>834</v>
+        <v>839</v>
       </c>
       <c r="F256" t="s">
-        <v>7</v>
+        <v>931</v>
       </c>
       <c r="G256" t="s">
         <v>8</v>
@@ -8847,13 +8778,13 @@
         <v>9</v>
       </c>
       <c r="B257" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="D257" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="E257" t="s">
-        <v>835</v>
+        <v>840</v>
       </c>
       <c r="F257" t="s">
         <v>7</v>
@@ -8867,13 +8798,13 @@
         <v>9</v>
       </c>
       <c r="B258" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="D258" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="E258" t="s">
-        <v>836</v>
+        <v>841</v>
       </c>
       <c r="F258" t="s">
         <v>7</v>
@@ -8887,13 +8818,13 @@
         <v>9</v>
       </c>
       <c r="B259" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="D259" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="E259" t="s">
-        <v>837</v>
+        <v>842</v>
       </c>
       <c r="F259" t="s">
         <v>7</v>
@@ -8907,13 +8838,13 @@
         <v>9</v>
       </c>
       <c r="B260" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="D260" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="E260" t="s">
-        <v>838</v>
+        <v>843</v>
       </c>
       <c r="F260" t="s">
         <v>7</v>
@@ -8927,16 +8858,16 @@
         <v>9</v>
       </c>
       <c r="B261" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="D261" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="E261" t="s">
-        <v>839</v>
+        <v>844</v>
       </c>
       <c r="F261" t="s">
-        <v>931</v>
+        <v>7</v>
       </c>
       <c r="G261" t="s">
         <v>8</v>
@@ -8947,13 +8878,13 @@
         <v>9</v>
       </c>
       <c r="B262" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="D262" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="E262" t="s">
-        <v>840</v>
+        <v>845</v>
       </c>
       <c r="F262" t="s">
         <v>7</v>
@@ -8967,16 +8898,16 @@
         <v>9</v>
       </c>
       <c r="B263" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="D263" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="E263" t="s">
-        <v>841</v>
+        <v>846</v>
       </c>
       <c r="F263" t="s">
-        <v>7</v>
+        <v>931</v>
       </c>
       <c r="G263" t="s">
         <v>8</v>
@@ -8987,13 +8918,13 @@
         <v>9</v>
       </c>
       <c r="B264" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="D264" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="E264" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
       <c r="F264" t="s">
         <v>7</v>
@@ -9007,13 +8938,13 @@
         <v>9</v>
       </c>
       <c r="B265" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="D265" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="E265" t="s">
-        <v>843</v>
+        <v>848</v>
       </c>
       <c r="F265" t="s">
         <v>7</v>
@@ -9027,13 +8958,13 @@
         <v>9</v>
       </c>
       <c r="B266" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="D266" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="E266" t="s">
-        <v>844</v>
+        <v>849</v>
       </c>
       <c r="F266" t="s">
         <v>7</v>
@@ -9047,13 +8978,13 @@
         <v>9</v>
       </c>
       <c r="B267" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="D267" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="E267" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="F267" t="s">
         <v>7</v>
@@ -9067,16 +8998,16 @@
         <v>9</v>
       </c>
       <c r="B268" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="D268" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="E268" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="F268" t="s">
-        <v>931</v>
+        <v>7</v>
       </c>
       <c r="G268" t="s">
         <v>8</v>
@@ -9087,13 +9018,13 @@
         <v>9</v>
       </c>
       <c r="B269" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="D269" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="E269" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="F269" t="s">
         <v>7</v>
@@ -9107,13 +9038,13 @@
         <v>9</v>
       </c>
       <c r="B270" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="D270" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="E270" t="s">
-        <v>848</v>
+        <v>853</v>
       </c>
       <c r="F270" t="s">
         <v>7</v>
@@ -9127,13 +9058,13 @@
         <v>9</v>
       </c>
       <c r="B271" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="D271" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="E271" t="s">
-        <v>849</v>
+        <v>854</v>
       </c>
       <c r="F271" t="s">
         <v>7</v>
@@ -9147,13 +9078,13 @@
         <v>9</v>
       </c>
       <c r="B272" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="D272" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="E272" t="s">
-        <v>850</v>
+        <v>855</v>
       </c>
       <c r="F272" t="s">
         <v>7</v>
@@ -9167,13 +9098,13 @@
         <v>9</v>
       </c>
       <c r="B273" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="D273" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="E273" t="s">
-        <v>851</v>
+        <v>856</v>
       </c>
       <c r="F273" t="s">
         <v>7</v>
@@ -9187,13 +9118,13 @@
         <v>9</v>
       </c>
       <c r="B274" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="D274" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="E274" t="s">
-        <v>852</v>
+        <v>857</v>
       </c>
       <c r="F274" t="s">
         <v>7</v>
@@ -9207,13 +9138,13 @@
         <v>9</v>
       </c>
       <c r="B275" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="D275" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="E275" t="s">
-        <v>853</v>
+        <v>858</v>
       </c>
       <c r="F275" t="s">
         <v>7</v>
@@ -9227,13 +9158,13 @@
         <v>9</v>
       </c>
       <c r="B276" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="D276" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="E276" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
       <c r="F276" t="s">
         <v>7</v>
@@ -9247,19 +9178,16 @@
         <v>9</v>
       </c>
       <c r="B277" t="s">
-        <v>1088</v>
-      </c>
-      <c r="C277" t="s">
-        <v>1089</v>
+        <v>553</v>
       </c>
       <c r="D277" t="s">
-        <v>1090</v>
+        <v>246</v>
       </c>
       <c r="E277" t="s">
-        <v>1091</v>
+        <v>860</v>
       </c>
       <c r="F277" t="s">
-        <v>931</v>
+        <v>7</v>
       </c>
       <c r="G277" t="s">
         <v>8</v>
@@ -9270,13 +9198,13 @@
         <v>9</v>
       </c>
       <c r="B278" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="D278" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="E278" t="s">
-        <v>855</v>
+        <v>861</v>
       </c>
       <c r="F278" t="s">
         <v>7</v>
@@ -9290,13 +9218,13 @@
         <v>9</v>
       </c>
       <c r="B279" t="s">
-        <v>549</v>
+        <v>1007</v>
       </c>
       <c r="D279" t="s">
-        <v>242</v>
+        <v>1008</v>
       </c>
       <c r="E279" t="s">
-        <v>856</v>
+        <v>1009</v>
       </c>
       <c r="F279" t="s">
         <v>7</v>
@@ -9310,13 +9238,13 @@
         <v>9</v>
       </c>
       <c r="B280" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="D280" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="E280" t="s">
-        <v>857</v>
+        <v>862</v>
       </c>
       <c r="F280" t="s">
         <v>7</v>
@@ -9330,13 +9258,13 @@
         <v>9</v>
       </c>
       <c r="B281" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="D281" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="E281" t="s">
-        <v>858</v>
+        <v>863</v>
       </c>
       <c r="F281" t="s">
         <v>7</v>
@@ -9350,13 +9278,13 @@
         <v>9</v>
       </c>
       <c r="B282" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="D282" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="E282" t="s">
-        <v>859</v>
+        <v>864</v>
       </c>
       <c r="F282" t="s">
         <v>7</v>
@@ -9370,13 +9298,13 @@
         <v>9</v>
       </c>
       <c r="B283" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="D283" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="E283" t="s">
-        <v>860</v>
+        <v>865</v>
       </c>
       <c r="F283" t="s">
         <v>7</v>
@@ -9390,16 +9318,16 @@
         <v>9</v>
       </c>
       <c r="B284" t="s">
-        <v>554</v>
+        <v>1013</v>
       </c>
       <c r="D284" t="s">
-        <v>247</v>
+        <v>1014</v>
       </c>
       <c r="E284" t="s">
-        <v>861</v>
+        <v>1015</v>
       </c>
       <c r="F284" t="s">
-        <v>7</v>
+        <v>931</v>
       </c>
       <c r="G284" t="s">
         <v>8</v>
@@ -9410,13 +9338,13 @@
         <v>9</v>
       </c>
       <c r="B285" t="s">
-        <v>1010</v>
+        <v>559</v>
       </c>
       <c r="D285" t="s">
-        <v>1011</v>
+        <v>252</v>
       </c>
       <c r="E285" t="s">
-        <v>1012</v>
+        <v>866</v>
       </c>
       <c r="F285" t="s">
         <v>7</v>
@@ -9430,13 +9358,13 @@
         <v>9</v>
       </c>
       <c r="B286" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="D286" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="E286" t="s">
-        <v>862</v>
+        <v>867</v>
       </c>
       <c r="F286" t="s">
         <v>7</v>
@@ -9450,13 +9378,13 @@
         <v>9</v>
       </c>
       <c r="B287" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="D287" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="E287" t="s">
-        <v>863</v>
+        <v>868</v>
       </c>
       <c r="F287" t="s">
         <v>7</v>
@@ -9470,16 +9398,16 @@
         <v>9</v>
       </c>
       <c r="B288" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="D288" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="E288" t="s">
-        <v>864</v>
+        <v>869</v>
       </c>
       <c r="F288" t="s">
-        <v>7</v>
+        <v>931</v>
       </c>
       <c r="G288" t="s">
         <v>8</v>
@@ -9490,13 +9418,13 @@
         <v>9</v>
       </c>
       <c r="B289" t="s">
-        <v>558</v>
+        <v>1019</v>
       </c>
       <c r="D289" t="s">
-        <v>251</v>
+        <v>1020</v>
       </c>
       <c r="E289" t="s">
-        <v>865</v>
+        <v>1021</v>
       </c>
       <c r="F289" t="s">
         <v>7</v>
@@ -9510,16 +9438,16 @@
         <v>9</v>
       </c>
       <c r="B290" t="s">
-        <v>1016</v>
+        <v>563</v>
       </c>
       <c r="D290" t="s">
-        <v>1017</v>
+        <v>256</v>
       </c>
       <c r="E290" t="s">
-        <v>1018</v>
+        <v>870</v>
       </c>
       <c r="F290" t="s">
-        <v>931</v>
+        <v>7</v>
       </c>
       <c r="G290" t="s">
         <v>8</v>
@@ -9530,13 +9458,13 @@
         <v>9</v>
       </c>
       <c r="B291" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="D291" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="E291" t="s">
-        <v>866</v>
+        <v>871</v>
       </c>
       <c r="F291" t="s">
         <v>7</v>
@@ -9550,13 +9478,13 @@
         <v>9</v>
       </c>
       <c r="B292" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="D292" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="E292" t="s">
-        <v>867</v>
+        <v>872</v>
       </c>
       <c r="F292" t="s">
         <v>7</v>
@@ -9570,13 +9498,13 @@
         <v>9</v>
       </c>
       <c r="B293" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="D293" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="E293" t="s">
-        <v>868</v>
+        <v>873</v>
       </c>
       <c r="F293" t="s">
         <v>7</v>
@@ -9590,16 +9518,16 @@
         <v>9</v>
       </c>
       <c r="B294" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="D294" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="E294" t="s">
-        <v>869</v>
+        <v>874</v>
       </c>
       <c r="F294" t="s">
-        <v>931</v>
+        <v>7</v>
       </c>
       <c r="G294" t="s">
         <v>8</v>
@@ -9610,13 +9538,13 @@
         <v>9</v>
       </c>
       <c r="B295" t="s">
-        <v>1022</v>
+        <v>568</v>
       </c>
       <c r="D295" t="s">
-        <v>1023</v>
+        <v>261</v>
       </c>
       <c r="E295" t="s">
-        <v>1024</v>
+        <v>875</v>
       </c>
       <c r="F295" t="s">
         <v>7</v>
@@ -9630,13 +9558,13 @@
         <v>9</v>
       </c>
       <c r="B296" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="D296" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="E296" t="s">
-        <v>870</v>
+        <v>876</v>
       </c>
       <c r="F296" t="s">
         <v>7</v>
@@ -9650,13 +9578,13 @@
         <v>9</v>
       </c>
       <c r="B297" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="D297" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="E297" t="s">
-        <v>871</v>
+        <v>877</v>
       </c>
       <c r="F297" t="s">
         <v>7</v>
@@ -9670,13 +9598,13 @@
         <v>9</v>
       </c>
       <c r="B298" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="D298" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="E298" t="s">
-        <v>872</v>
+        <v>878</v>
       </c>
       <c r="F298" t="s">
         <v>7</v>
@@ -9690,16 +9618,16 @@
         <v>9</v>
       </c>
       <c r="B299" t="s">
-        <v>566</v>
+        <v>1016</v>
       </c>
       <c r="D299" t="s">
-        <v>259</v>
+        <v>1017</v>
       </c>
       <c r="E299" t="s">
-        <v>873</v>
+        <v>1018</v>
       </c>
       <c r="F299" t="s">
-        <v>7</v>
+        <v>931</v>
       </c>
       <c r="G299" t="s">
         <v>8</v>
@@ -9710,13 +9638,13 @@
         <v>9</v>
       </c>
       <c r="B300" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="D300" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="E300" t="s">
-        <v>874</v>
+        <v>879</v>
       </c>
       <c r="F300" t="s">
         <v>7</v>
@@ -9730,13 +9658,13 @@
         <v>9</v>
       </c>
       <c r="B301" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="D301" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="E301" t="s">
-        <v>875</v>
+        <v>880</v>
       </c>
       <c r="F301" t="s">
         <v>7</v>
@@ -9750,13 +9678,13 @@
         <v>9</v>
       </c>
       <c r="B302" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="D302" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="E302" t="s">
-        <v>876</v>
+        <v>881</v>
       </c>
       <c r="F302" t="s">
         <v>7</v>
@@ -9770,13 +9698,13 @@
         <v>9</v>
       </c>
       <c r="B303" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="D303" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="E303" t="s">
-        <v>877</v>
+        <v>882</v>
       </c>
       <c r="F303" t="s">
         <v>7</v>
@@ -9790,13 +9718,13 @@
         <v>9</v>
       </c>
       <c r="B304" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="D304" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="E304" t="s">
-        <v>878</v>
+        <v>883</v>
       </c>
       <c r="F304" t="s">
         <v>7</v>
@@ -9810,16 +9738,16 @@
         <v>9</v>
       </c>
       <c r="B305" t="s">
-        <v>1019</v>
+        <v>577</v>
       </c>
       <c r="D305" t="s">
-        <v>1020</v>
+        <v>270</v>
       </c>
       <c r="E305" t="s">
-        <v>1021</v>
+        <v>884</v>
       </c>
       <c r="F305" t="s">
-        <v>931</v>
+        <v>7</v>
       </c>
       <c r="G305" t="s">
         <v>8</v>
@@ -9830,13 +9758,13 @@
         <v>9</v>
       </c>
       <c r="B306" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="D306" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="E306" t="s">
-        <v>879</v>
+        <v>885</v>
       </c>
       <c r="F306" t="s">
         <v>7</v>
@@ -9850,13 +9778,13 @@
         <v>9</v>
       </c>
       <c r="B307" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="D307" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="E307" t="s">
-        <v>880</v>
+        <v>886</v>
       </c>
       <c r="F307" t="s">
         <v>7</v>
@@ -9870,13 +9798,13 @@
         <v>9</v>
       </c>
       <c r="B308" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="D308" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="E308" t="s">
-        <v>881</v>
+        <v>887</v>
       </c>
       <c r="F308" t="s">
         <v>7</v>
@@ -9890,13 +9818,13 @@
         <v>9</v>
       </c>
       <c r="B309" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="D309" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="E309" t="s">
-        <v>882</v>
+        <v>888</v>
       </c>
       <c r="F309" t="s">
         <v>7</v>
@@ -9910,13 +9838,13 @@
         <v>9</v>
       </c>
       <c r="B310" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="D310" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="E310" t="s">
-        <v>883</v>
+        <v>889</v>
       </c>
       <c r="F310" t="s">
         <v>7</v>
@@ -9930,13 +9858,13 @@
         <v>9</v>
       </c>
       <c r="B311" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="D311" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="E311" t="s">
-        <v>884</v>
+        <v>890</v>
       </c>
       <c r="F311" t="s">
         <v>7</v>
@@ -9950,13 +9878,13 @@
         <v>9</v>
       </c>
       <c r="B312" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="D312" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="E312" t="s">
-        <v>885</v>
+        <v>891</v>
       </c>
       <c r="F312" t="s">
         <v>7</v>
@@ -9970,13 +9898,13 @@
         <v>9</v>
       </c>
       <c r="B313" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="D313" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="E313" t="s">
-        <v>886</v>
+        <v>892</v>
       </c>
       <c r="F313" t="s">
         <v>7</v>
@@ -9990,13 +9918,13 @@
         <v>9</v>
       </c>
       <c r="B314" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="D314" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E314" t="s">
-        <v>887</v>
+        <v>893</v>
       </c>
       <c r="F314" t="s">
         <v>7</v>
@@ -10010,13 +9938,13 @@
         <v>9</v>
       </c>
       <c r="B315" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="D315" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="E315" t="s">
-        <v>888</v>
+        <v>894</v>
       </c>
       <c r="F315" t="s">
         <v>7</v>
@@ -10030,13 +9958,13 @@
         <v>9</v>
       </c>
       <c r="B316" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="D316" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="E316" t="s">
-        <v>889</v>
+        <v>895</v>
       </c>
       <c r="F316" t="s">
         <v>7</v>
@@ -10050,13 +9978,13 @@
         <v>9</v>
       </c>
       <c r="B317" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="D317" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="E317" t="s">
-        <v>890</v>
+        <v>896</v>
       </c>
       <c r="F317" t="s">
         <v>7</v>
@@ -10070,13 +9998,13 @@
         <v>9</v>
       </c>
       <c r="B318" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="D318" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E318" t="s">
-        <v>891</v>
+        <v>897</v>
       </c>
       <c r="F318" t="s">
         <v>7</v>
@@ -10090,13 +10018,13 @@
         <v>9</v>
       </c>
       <c r="B319" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="D319" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="E319" t="s">
-        <v>892</v>
+        <v>898</v>
       </c>
       <c r="F319" t="s">
         <v>7</v>
@@ -10110,13 +10038,13 @@
         <v>9</v>
       </c>
       <c r="B320" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="D320" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="E320" t="s">
-        <v>893</v>
+        <v>899</v>
       </c>
       <c r="F320" t="s">
         <v>7</v>
@@ -10130,13 +10058,13 @@
         <v>9</v>
       </c>
       <c r="B321" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="D321" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="E321" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="F321" t="s">
         <v>7</v>
@@ -10150,13 +10078,13 @@
         <v>9</v>
       </c>
       <c r="B322" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="D322" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="E322" t="s">
-        <v>895</v>
+        <v>901</v>
       </c>
       <c r="F322" t="s">
         <v>7</v>
@@ -10170,13 +10098,13 @@
         <v>9</v>
       </c>
       <c r="B323" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="D323" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="E323" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="F323" t="s">
         <v>7</v>
@@ -10190,13 +10118,13 @@
         <v>9</v>
       </c>
       <c r="B324" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="D324" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="E324" t="s">
-        <v>897</v>
+        <v>903</v>
       </c>
       <c r="F324" t="s">
         <v>7</v>
@@ -10210,13 +10138,13 @@
         <v>9</v>
       </c>
       <c r="B325" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="D325" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="E325" t="s">
-        <v>898</v>
+        <v>904</v>
       </c>
       <c r="F325" t="s">
         <v>7</v>
@@ -10230,13 +10158,13 @@
         <v>9</v>
       </c>
       <c r="B326" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="D326" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="E326" t="s">
-        <v>899</v>
+        <v>905</v>
       </c>
       <c r="F326" t="s">
         <v>7</v>
@@ -10250,13 +10178,13 @@
         <v>9</v>
       </c>
       <c r="B327" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="D327" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="E327" t="s">
-        <v>900</v>
+        <v>906</v>
       </c>
       <c r="F327" t="s">
         <v>7</v>
@@ -10270,13 +10198,13 @@
         <v>9</v>
       </c>
       <c r="B328" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="D328" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="E328" t="s">
-        <v>901</v>
+        <v>907</v>
       </c>
       <c r="F328" t="s">
         <v>7</v>
@@ -10290,13 +10218,13 @@
         <v>9</v>
       </c>
       <c r="B329" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="D329" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="E329" t="s">
-        <v>902</v>
+        <v>908</v>
       </c>
       <c r="F329" t="s">
         <v>7</v>
@@ -10310,13 +10238,13 @@
         <v>9</v>
       </c>
       <c r="B330" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="D330" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="E330" t="s">
-        <v>903</v>
+        <v>909</v>
       </c>
       <c r="F330" t="s">
         <v>7</v>
@@ -10330,13 +10258,13 @@
         <v>9</v>
       </c>
       <c r="B331" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="D331" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="E331" t="s">
-        <v>904</v>
+        <v>910</v>
       </c>
       <c r="F331" t="s">
         <v>7</v>
@@ -10350,13 +10278,13 @@
         <v>9</v>
       </c>
       <c r="B332" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="D332" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="E332" t="s">
-        <v>905</v>
+        <v>911</v>
       </c>
       <c r="F332" t="s">
         <v>7</v>
@@ -10370,13 +10298,13 @@
         <v>9</v>
       </c>
       <c r="B333" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="D333" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="E333" t="s">
-        <v>906</v>
+        <v>912</v>
       </c>
       <c r="F333" t="s">
         <v>7</v>
@@ -10390,13 +10318,13 @@
         <v>9</v>
       </c>
       <c r="B334" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="D334" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="E334" t="s">
-        <v>907</v>
+        <v>913</v>
       </c>
       <c r="F334" t="s">
         <v>7</v>
@@ -10410,13 +10338,13 @@
         <v>9</v>
       </c>
       <c r="B335" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="D335" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="E335" t="s">
-        <v>908</v>
+        <v>914</v>
       </c>
       <c r="F335" t="s">
         <v>7</v>
@@ -10430,13 +10358,13 @@
         <v>9</v>
       </c>
       <c r="B336" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="D336" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E336" t="s">
-        <v>909</v>
+        <v>915</v>
       </c>
       <c r="F336" t="s">
         <v>7</v>
@@ -10450,16 +10378,16 @@
         <v>9</v>
       </c>
       <c r="B337" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="D337" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="E337" t="s">
-        <v>910</v>
+        <v>916</v>
       </c>
       <c r="F337" t="s">
-        <v>7</v>
+        <v>931</v>
       </c>
       <c r="G337" t="s">
         <v>8</v>
@@ -10470,13 +10398,13 @@
         <v>9</v>
       </c>
       <c r="B338" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="D338" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="E338" t="s">
-        <v>911</v>
+        <v>917</v>
       </c>
       <c r="F338" t="s">
         <v>7</v>
@@ -10490,13 +10418,13 @@
         <v>9</v>
       </c>
       <c r="B339" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="D339" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="E339" t="s">
-        <v>912</v>
+        <v>918</v>
       </c>
       <c r="F339" t="s">
         <v>7</v>
@@ -10510,13 +10438,16 @@
         <v>9</v>
       </c>
       <c r="B340" t="s">
-        <v>606</v>
+        <v>1025</v>
+      </c>
+      <c r="C340" t="s">
+        <v>1026</v>
       </c>
       <c r="D340" t="s">
-        <v>299</v>
+        <v>1027</v>
       </c>
       <c r="E340" t="s">
-        <v>913</v>
+        <v>1028</v>
       </c>
       <c r="F340" t="s">
         <v>7</v>
@@ -10530,13 +10461,13 @@
         <v>9</v>
       </c>
       <c r="B341" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="D341" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="E341" t="s">
-        <v>914</v>
+        <v>919</v>
       </c>
       <c r="F341" t="s">
         <v>7</v>
@@ -10550,16 +10481,16 @@
         <v>9</v>
       </c>
       <c r="B342" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="D342" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="E342" t="s">
-        <v>915</v>
+        <v>920</v>
       </c>
       <c r="F342" t="s">
-        <v>7</v>
+        <v>931</v>
       </c>
       <c r="G342" t="s">
         <v>8</v>
@@ -10570,13 +10501,13 @@
         <v>9</v>
       </c>
       <c r="B343" t="s">
-        <v>609</v>
+        <v>1071</v>
       </c>
       <c r="D343" t="s">
-        <v>302</v>
+        <v>1072</v>
       </c>
       <c r="E343" t="s">
-        <v>916</v>
+        <v>1073</v>
       </c>
       <c r="F343" t="s">
         <v>931</v>
@@ -10590,13 +10521,13 @@
         <v>9</v>
       </c>
       <c r="B344" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="D344" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="E344" t="s">
-        <v>917</v>
+        <v>921</v>
       </c>
       <c r="F344" t="s">
         <v>7</v>
@@ -10610,13 +10541,13 @@
         <v>9</v>
       </c>
       <c r="B345" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="D345" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="E345" t="s">
-        <v>918</v>
+        <v>922</v>
       </c>
       <c r="F345" t="s">
         <v>7</v>
@@ -10630,16 +10561,13 @@
         <v>9</v>
       </c>
       <c r="B346" t="s">
-        <v>1028</v>
-      </c>
-      <c r="C346" t="s">
-        <v>1029</v>
+        <v>616</v>
       </c>
       <c r="D346" t="s">
-        <v>1030</v>
+        <v>309</v>
       </c>
       <c r="E346" t="s">
-        <v>1031</v>
+        <v>923</v>
       </c>
       <c r="F346" t="s">
         <v>7</v>
@@ -10653,13 +10581,13 @@
         <v>9</v>
       </c>
       <c r="B347" t="s">
-        <v>612</v>
+        <v>1074</v>
       </c>
       <c r="D347" t="s">
-        <v>305</v>
+        <v>1075</v>
       </c>
       <c r="E347" t="s">
-        <v>919</v>
+        <v>1076</v>
       </c>
       <c r="F347" t="s">
         <v>7</v>
@@ -10673,16 +10601,16 @@
         <v>9</v>
       </c>
       <c r="B348" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="D348" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="E348" t="s">
-        <v>920</v>
+        <v>924</v>
       </c>
       <c r="F348" t="s">
-        <v>931</v>
+        <v>7</v>
       </c>
       <c r="G348" t="s">
         <v>8</v>
@@ -10693,16 +10621,16 @@
         <v>9</v>
       </c>
       <c r="B349" t="s">
-        <v>1092</v>
+        <v>618</v>
       </c>
       <c r="D349" t="s">
-        <v>1093</v>
+        <v>311</v>
       </c>
       <c r="E349" t="s">
-        <v>1094</v>
+        <v>925</v>
       </c>
       <c r="F349" t="s">
-        <v>931</v>
+        <v>7</v>
       </c>
       <c r="G349" t="s">
         <v>8</v>
@@ -10713,13 +10641,13 @@
         <v>9</v>
       </c>
       <c r="B350" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="D350" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="E350" t="s">
-        <v>921</v>
+        <v>926</v>
       </c>
       <c r="F350" t="s">
         <v>7</v>
@@ -10733,13 +10661,13 @@
         <v>9</v>
       </c>
       <c r="B351" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="D351" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="E351" t="s">
-        <v>922</v>
+        <v>927</v>
       </c>
       <c r="F351" t="s">
         <v>7</v>
@@ -10752,19 +10680,20 @@
       <c r="A352" t="s">
         <v>9</v>
       </c>
-      <c r="B352" t="s">
-        <v>616</v>
-      </c>
-      <c r="D352" t="s">
-        <v>309</v>
-      </c>
-      <c r="E352" t="s">
-        <v>923</v>
-      </c>
-      <c r="F352" t="s">
-        <v>7</v>
-      </c>
-      <c r="G352" t="s">
+      <c r="B352" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="C352" s="1"/>
+      <c r="D352" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E352" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="F352" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G352" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -10773,13 +10702,16 @@
         <v>9</v>
       </c>
       <c r="B353" t="s">
-        <v>1095</v>
+        <v>1077</v>
+      </c>
+      <c r="C353" t="s">
+        <v>1029</v>
       </c>
       <c r="D353" t="s">
-        <v>1096</v>
+        <v>1030</v>
       </c>
       <c r="E353" t="s">
-        <v>1097</v>
+        <v>1031</v>
       </c>
       <c r="F353" t="s">
         <v>7</v>
@@ -10793,13 +10725,13 @@
         <v>9</v>
       </c>
       <c r="B354" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="D354" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="E354" t="s">
-        <v>924</v>
+        <v>929</v>
       </c>
       <c r="F354" t="s">
         <v>7</v>
@@ -10813,13 +10745,13 @@
         <v>9</v>
       </c>
       <c r="B355" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="D355" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="E355" t="s">
-        <v>925</v>
+        <v>930</v>
       </c>
       <c r="F355" t="s">
         <v>7</v>
@@ -10828,132 +10760,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A356" t="s">
-        <v>9</v>
-      </c>
-      <c r="B356" t="s">
-        <v>619</v>
-      </c>
-      <c r="D356" t="s">
-        <v>312</v>
-      </c>
-      <c r="E356" t="s">
-        <v>926</v>
-      </c>
-      <c r="F356" t="s">
-        <v>7</v>
-      </c>
-      <c r="G356" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A357" t="s">
-        <v>9</v>
-      </c>
-      <c r="B357" t="s">
-        <v>620</v>
-      </c>
-      <c r="D357" t="s">
-        <v>313</v>
-      </c>
-      <c r="E357" t="s">
-        <v>927</v>
-      </c>
-      <c r="F357" t="s">
-        <v>7</v>
-      </c>
-      <c r="G357" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A358" t="s">
-        <v>9</v>
-      </c>
-      <c r="B358" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="C358" s="1"/>
-      <c r="D358" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="E358" s="1" t="s">
-        <v>928</v>
-      </c>
-      <c r="F358" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G358" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A359" t="s">
-        <v>9</v>
-      </c>
-      <c r="B359" t="s">
-        <v>1098</v>
-      </c>
-      <c r="C359" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D359" t="s">
-        <v>1033</v>
-      </c>
-      <c r="E359" t="s">
-        <v>1034</v>
-      </c>
-      <c r="F359" t="s">
-        <v>7</v>
-      </c>
-      <c r="G359" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A360" t="s">
-        <v>9</v>
-      </c>
-      <c r="B360" t="s">
-        <v>622</v>
-      </c>
-      <c r="D360" t="s">
-        <v>315</v>
-      </c>
-      <c r="E360" t="s">
-        <v>929</v>
-      </c>
-      <c r="F360" t="s">
-        <v>7</v>
-      </c>
-      <c r="G360" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A361" t="s">
-        <v>9</v>
-      </c>
-      <c r="B361" t="s">
-        <v>623</v>
-      </c>
-      <c r="D361" t="s">
-        <v>316</v>
-      </c>
-      <c r="E361" t="s">
-        <v>930</v>
-      </c>
-      <c r="F361" t="s">
-        <v>7</v>
-      </c>
-      <c r="G361" t="s">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="B358">
+  <conditionalFormatting sqref="B352">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Bibsam_tidskriftslistor/scifree_data_brill.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_brill.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="26" documentId="11_B8A85F4F591D7C17B25102653C0077E43A6883BB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2CB6379-F7F6-42EB-BC93-40C484A95FF3}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="11_B8A85F4F591D7C17B25102653C0077E43A6883BB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B603BAA6-A26C-4704-B5B2-17F5B8BEEDC8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2136" uniqueCount="1078">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2156" uniqueCount="1089">
   <si>
     <t>ISSN Electronic</t>
   </si>
@@ -307,9 +307,6 @@
     <t>Faits de Langues</t>
   </si>
   <si>
-    <t>Fascism</t>
-  </si>
-  <si>
     <t>Fichte-Studien</t>
   </si>
   <si>
@@ -562,9 +559,6 @@
     <t>Journal of Language Contact</t>
   </si>
   <si>
-    <t>Journal of Law, Religion and State</t>
-  </si>
-  <si>
     <t>Journal of Material Cultures in the Muslim World</t>
   </si>
   <si>
@@ -622,9 +616,6 @@
     <t>Journal of the Philosophy of History</t>
   </si>
   <si>
-    <t>Journal of the Society for Armenian Studies</t>
-  </si>
-  <si>
     <t>Journal of Urdu Studies</t>
   </si>
   <si>
@@ -652,9 +643,6 @@
     <t>Matatu</t>
   </si>
   <si>
-    <t>Mawlana Rumi Review</t>
-  </si>
-  <si>
     <t>Max Planck Yearbook of United Nations Law Online</t>
   </si>
   <si>
@@ -787,9 +775,6 @@
     <t>Religion and Theology</t>
   </si>
   <si>
-    <t>Research Data Journal for the Humanities and Social Sciences</t>
-  </si>
-  <si>
     <t>Research in Phenomenology</t>
   </si>
   <si>
@@ -874,9 +859,6 @@
     <t>The International Journal of Children's Rights</t>
   </si>
   <si>
-    <t>The International Journal of Critical Media Literacy</t>
-  </si>
-  <si>
     <t>The International Journal of Marine and Coastal Law</t>
   </si>
   <si>
@@ -913,9 +895,6 @@
     <t>The Year's Work in Modern Language Studies</t>
   </si>
   <si>
-    <t>Tijdschrift voor Entomologie</t>
-  </si>
-  <si>
     <t>Tijdschrift voor Rechtsgeschiedenis / Revue d'Histoire du Droit / The Legal History Review</t>
   </si>
   <si>
@@ -1228,9 +1207,6 @@
     <t>1958-9514</t>
   </si>
   <si>
-    <t>2211-6257</t>
-  </si>
-  <si>
     <t>1879-5811</t>
   </si>
   <si>
@@ -1483,9 +1459,6 @@
     <t>1955-2629</t>
   </si>
   <si>
-    <t>2212-4810</t>
-  </si>
-  <si>
     <t>2666-6286</t>
   </si>
   <si>
@@ -1543,9 +1516,6 @@
     <t>1872-2636</t>
   </si>
   <si>
-    <t>2667-0038</t>
-  </si>
-  <si>
     <t>2665-9050</t>
   </si>
   <si>
@@ -1573,9 +1543,6 @@
     <t>1875-7421</t>
   </si>
   <si>
-    <t>2589-8566</t>
-  </si>
-  <si>
     <t>1875-7413</t>
   </si>
   <si>
@@ -1708,9 +1675,6 @@
     <t>1574-3012</t>
   </si>
   <si>
-    <t>2452-3666</t>
-  </si>
-  <si>
     <t>1569-1640</t>
   </si>
   <si>
@@ -1795,9 +1759,6 @@
     <t>1571-8182</t>
   </si>
   <si>
-    <t>2590-0110</t>
-  </si>
-  <si>
     <t>1571-8085</t>
   </si>
   <si>
@@ -1834,9 +1795,6 @@
     <t>2222-4297</t>
   </si>
   <si>
-    <t>2211-9434</t>
-  </si>
-  <si>
     <t>1571-8190</t>
   </si>
   <si>
@@ -2149,9 +2107,6 @@
     <t>https://brill.com/fdl</t>
   </si>
   <si>
-    <t>https://brill.com/fasc</t>
-  </si>
-  <si>
     <t>https://brill.com/fis</t>
   </si>
   <si>
@@ -2404,9 +2359,6 @@
     <t>https://brill.com/jlc</t>
   </si>
   <si>
-    <t>https://brill.com/jlrs</t>
-  </si>
-  <si>
     <t>https://brill.com/mcmw</t>
   </si>
   <si>
@@ -2464,9 +2416,6 @@
     <t>https://brill.com/jph</t>
   </si>
   <si>
-    <t>https://brill.com/jsas</t>
-  </si>
-  <si>
     <t>https://brill.com/urds</t>
   </si>
   <si>
@@ -2494,9 +2443,6 @@
     <t>https://brill.com/mata</t>
   </si>
   <si>
-    <t>https://brill.com/mrr</t>
-  </si>
-  <si>
     <t>https://brill.com/mpyo</t>
   </si>
   <si>
@@ -2629,9 +2575,6 @@
     <t>https://brill.com/rt</t>
   </si>
   <si>
-    <t>https://brill.com/rdj</t>
-  </si>
-  <si>
     <t>https://brill.com/rip</t>
   </si>
   <si>
@@ -2716,9 +2659,6 @@
     <t>https://brill.com/chil</t>
   </si>
   <si>
-    <t>https://brill.com/jcml</t>
-  </si>
-  <si>
     <t>https://brill.com/estu</t>
   </si>
   <si>
@@ -2755,9 +2695,6 @@
     <t>https://brill.com/ywml</t>
   </si>
   <si>
-    <t>https://brill.com/tve</t>
-  </si>
-  <si>
     <t>https://brill.com/lega</t>
   </si>
   <si>
@@ -2935,15 +2872,6 @@
     <t>https://brill.com/iss</t>
   </si>
   <si>
-    <t>2772-2856</t>
-  </si>
-  <si>
-    <t>Journal of Belonging and Human Connection</t>
-  </si>
-  <si>
-    <t>https://brill.com/jbhc</t>
-  </si>
-  <si>
     <t>2772-7963</t>
   </si>
   <si>
@@ -3254,6 +3182,111 @@
   </si>
   <si>
     <t>2949-8570</t>
+  </si>
+  <si>
+    <t>1645-6432</t>
+  </si>
+  <si>
+    <t>e-Journal of Portuguese History</t>
+  </si>
+  <si>
+    <t>https://brill.com/ejhp</t>
+  </si>
+  <si>
+    <t>3050-5526</t>
+  </si>
+  <si>
+    <t>Hallyu: The Korean Wave</t>
+  </si>
+  <si>
+    <t>https://brill.com/hlyu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3050-6107 </t>
+  </si>
+  <si>
+    <t>Intercultural Dialogue</t>
+  </si>
+  <si>
+    <t>https://brill.com/icdg</t>
+  </si>
+  <si>
+    <t>3050-4856</t>
+  </si>
+  <si>
+    <t>2034-5275</t>
+  </si>
+  <si>
+    <t>International Journal of Procedural Law</t>
+  </si>
+  <si>
+    <t>https://brill.com/ijpl</t>
+  </si>
+  <si>
+    <t>2771-5086</t>
+  </si>
+  <si>
+    <t>Journal of Bangladesh Studies</t>
+  </si>
+  <si>
+    <t>https://brill.com/jbds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3050-5887 </t>
+  </si>
+  <si>
+    <t>Journal of Hip-Hop and Education</t>
+  </si>
+  <si>
+    <t>https://brill.com/jhhe</t>
+  </si>
+  <si>
+    <t>2950-2683</t>
+  </si>
+  <si>
+    <t>Journal of Social Innovation and Knowledge</t>
+  </si>
+  <si>
+    <t>https://brill.com/jsik</t>
+  </si>
+  <si>
+    <t>2950-5720</t>
+  </si>
+  <si>
+    <t>Law &amp; Geoeconomics</t>
+  </si>
+  <si>
+    <t>https://brill.com/lgeo</t>
+  </si>
+  <si>
+    <t>1879-5927</t>
+  </si>
+  <si>
+    <t>1567-2336</t>
+  </si>
+  <si>
+    <t>Medieval Chronicle</t>
+  </si>
+  <si>
+    <t>https://brill.com/mch</t>
+  </si>
+  <si>
+    <t>2665-0746</t>
+  </si>
+  <si>
+    <t>Papers in Education and Development</t>
+  </si>
+  <si>
+    <t>https://brill.com/ped</t>
+  </si>
+  <si>
+    <t>2546-2237</t>
+  </si>
+  <si>
+    <t>Studies in the African Past</t>
+  </si>
+  <si>
+    <t>https://brill.com/sap</t>
   </si>
 </sst>
 </file>
@@ -3277,7 +3310,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -3285,54 +3318,17 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </right>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3346,16 +3342,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD5B974D-9F61-4F37-A1BF-D45B14670910}" name="Table1" displayName="Table1" ref="A1:G355" totalsRowShown="0">
-  <autoFilter ref="A1:G355" xr:uid="{CD5B974D-9F61-4F37-A1BF-D45B14670910}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FD60D78F-3821-4862-A3F3-4D76AD7CB293}" name="Table2" displayName="Table2" ref="A1:G358" totalsRowShown="0">
+  <autoFilter ref="A1:G358" xr:uid="{FD60D78F-3821-4862-A3F3-4D76AD7CB293}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{5BECD555-8E6C-4A60-B400-E3DF1F826F8D}" name="Imprint"/>
-    <tableColumn id="2" xr3:uid="{C14B8B6E-0764-49FF-B597-08D700F5A255}" name="ISSN Electronic"/>
-    <tableColumn id="3" xr3:uid="{07A637C7-2A0C-420E-9AA8-FFB320AB90CE}" name="ISSN Print"/>
-    <tableColumn id="4" xr3:uid="{280F7E7E-DEB4-4651-B5E8-4896A06107A0}" name="Journal Name"/>
-    <tableColumn id="5" xr3:uid="{1FC0CD38-9AB1-474D-873B-F7EE905CF0FB}" name="JournalURL"/>
-    <tableColumn id="6" xr3:uid="{D0431283-0746-42FD-9181-A1E45CB9F72B}" name="Publishing model"/>
-    <tableColumn id="7" xr3:uid="{541793C0-6CCB-4907-B079-EC343C65246E}" name="CC License options"/>
+    <tableColumn id="1" xr3:uid="{21652980-9163-45C4-A7C2-904E9A824535}" name="Imprint"/>
+    <tableColumn id="2" xr3:uid="{E15EAF1C-FC0A-47B5-B4EC-1C6A4996EE94}" name="ISSN Electronic"/>
+    <tableColumn id="3" xr3:uid="{70F9E0C3-450F-4860-B82E-CBA8D4D9A1CE}" name="ISSN Print"/>
+    <tableColumn id="4" xr3:uid="{89674BC8-4897-4702-8C08-C63E44AA622F}" name="Journal Name"/>
+    <tableColumn id="5" xr3:uid="{A2A9D40F-8FC6-4AF3-A004-388470908D0C}" name="JournalURL"/>
+    <tableColumn id="6" xr3:uid="{A8976111-3615-4A06-B796-A00D3BD2A310}" name="Publishing model"/>
+    <tableColumn id="7" xr3:uid="{5D7EC063-DE01-4A33-BC90-3F6418A9E996}" name="CC License options"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3623,8 +3619,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90581FF0-3009-4DD7-8F90-D50B576B4D9A}">
-  <dimension ref="A1:G355"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09E442AD-E969-4DD3-924E-CD6AB4F546DE}">
+  <dimension ref="A1:G358"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -3635,7 +3631,7 @@
     <col min="1" max="1" width="9.7109375" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="45.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" customWidth="1"/>
     <col min="6" max="6" width="18.5703125" customWidth="1"/>
     <col min="7" max="7" width="19.5703125" customWidth="1"/>
@@ -3669,13 +3665,13 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>624</v>
+        <v>610</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
@@ -3689,13 +3685,13 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>935</v>
+        <v>914</v>
       </c>
       <c r="D3" t="s">
-        <v>936</v>
+        <v>915</v>
       </c>
       <c r="E3" t="s">
-        <v>937</v>
+        <v>916</v>
       </c>
       <c r="F3" t="s">
         <v>7</v>
@@ -3709,13 +3705,13 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>933</v>
+        <v>912</v>
       </c>
       <c r="D4" t="s">
-        <v>934</v>
+        <v>913</v>
       </c>
       <c r="E4" t="s">
-        <v>932</v>
+        <v>911</v>
       </c>
       <c r="F4" t="s">
         <v>7</v>
@@ -3729,13 +3725,13 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>625</v>
+        <v>611</v>
       </c>
       <c r="F5" t="s">
         <v>7</v>
@@ -3749,13 +3745,13 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>626</v>
+        <v>612</v>
       </c>
       <c r="F6" t="s">
         <v>7</v>
@@ -3769,13 +3765,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>627</v>
+        <v>613</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -3789,13 +3785,13 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>628</v>
+        <v>614</v>
       </c>
       <c r="F8" t="s">
         <v>7</v>
@@ -3809,13 +3805,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>629</v>
+        <v>615</v>
       </c>
       <c r="F9" t="s">
         <v>7</v>
@@ -3829,13 +3825,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="D10" t="s">
         <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>630</v>
+        <v>616</v>
       </c>
       <c r="F10" t="s">
         <v>7</v>
@@ -3849,13 +3845,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>631</v>
+        <v>617</v>
       </c>
       <c r="F11" t="s">
         <v>7</v>
@@ -3869,13 +3865,13 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>1001</v>
+        <v>977</v>
       </c>
       <c r="D12" t="s">
-        <v>1002</v>
+        <v>978</v>
       </c>
       <c r="E12" t="s">
-        <v>1003</v>
+        <v>979</v>
       </c>
       <c r="F12" t="s">
         <v>7</v>
@@ -3889,16 +3885,16 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>1004</v>
+        <v>980</v>
       </c>
       <c r="D13" t="s">
-        <v>1005</v>
+        <v>981</v>
       </c>
       <c r="E13" t="s">
-        <v>1006</v>
+        <v>982</v>
       </c>
       <c r="F13" t="s">
-        <v>931</v>
+        <v>910</v>
       </c>
       <c r="G13" t="s">
         <v>8</v>
@@ -3909,13 +3905,13 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="D14" t="s">
         <v>18</v>
       </c>
       <c r="E14" t="s">
-        <v>632</v>
+        <v>618</v>
       </c>
       <c r="F14" t="s">
         <v>7</v>
@@ -3929,13 +3925,13 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="D15" t="s">
         <v>19</v>
       </c>
       <c r="E15" t="s">
-        <v>633</v>
+        <v>619</v>
       </c>
       <c r="F15" t="s">
         <v>7</v>
@@ -3949,13 +3945,13 @@
         <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="D16" t="s">
         <v>20</v>
       </c>
       <c r="E16" t="s">
-        <v>634</v>
+        <v>620</v>
       </c>
       <c r="F16" t="s">
         <v>7</v>
@@ -3969,13 +3965,13 @@
         <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="D17" t="s">
         <v>21</v>
       </c>
       <c r="E17" t="s">
-        <v>635</v>
+        <v>621</v>
       </c>
       <c r="F17" t="s">
         <v>7</v>
@@ -3989,13 +3985,13 @@
         <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="D18" t="s">
         <v>22</v>
       </c>
       <c r="E18" t="s">
-        <v>636</v>
+        <v>622</v>
       </c>
       <c r="F18" t="s">
         <v>7</v>
@@ -4009,13 +4005,13 @@
         <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="D19" t="s">
         <v>23</v>
       </c>
       <c r="E19" t="s">
-        <v>637</v>
+        <v>623</v>
       </c>
       <c r="F19" t="s">
         <v>7</v>
@@ -4029,13 +4025,13 @@
         <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="D20" t="s">
         <v>24</v>
       </c>
       <c r="E20" t="s">
-        <v>638</v>
+        <v>624</v>
       </c>
       <c r="F20" t="s">
         <v>7</v>
@@ -4049,13 +4045,13 @@
         <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="D21" t="s">
         <v>25</v>
       </c>
       <c r="E21" t="s">
-        <v>639</v>
+        <v>625</v>
       </c>
       <c r="F21" t="s">
         <v>7</v>
@@ -4069,13 +4065,13 @@
         <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="D22" t="s">
         <v>26</v>
       </c>
       <c r="E22" t="s">
-        <v>640</v>
+        <v>626</v>
       </c>
       <c r="F22" t="s">
         <v>7</v>
@@ -4089,13 +4085,13 @@
         <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="D23" t="s">
         <v>27</v>
       </c>
       <c r="E23" t="s">
-        <v>641</v>
+        <v>627</v>
       </c>
       <c r="F23" t="s">
         <v>7</v>
@@ -4109,13 +4105,13 @@
         <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="D24" t="s">
         <v>28</v>
       </c>
       <c r="E24" t="s">
-        <v>642</v>
+        <v>628</v>
       </c>
       <c r="F24" t="s">
         <v>7</v>
@@ -4129,13 +4125,13 @@
         <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="D25" t="s">
         <v>29</v>
       </c>
       <c r="E25" t="s">
-        <v>643</v>
+        <v>629</v>
       </c>
       <c r="F25" t="s">
         <v>7</v>
@@ -4149,13 +4145,13 @@
         <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>938</v>
+        <v>917</v>
       </c>
       <c r="D26" t="s">
-        <v>939</v>
+        <v>918</v>
       </c>
       <c r="E26" t="s">
-        <v>940</v>
+        <v>919</v>
       </c>
       <c r="F26" t="s">
         <v>7</v>
@@ -4169,13 +4165,13 @@
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="D27" t="s">
         <v>30</v>
       </c>
       <c r="E27" t="s">
-        <v>644</v>
+        <v>630</v>
       </c>
       <c r="F27" t="s">
         <v>7</v>
@@ -4189,13 +4185,13 @@
         <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="D28" t="s">
         <v>31</v>
       </c>
       <c r="E28" t="s">
-        <v>645</v>
+        <v>631</v>
       </c>
       <c r="F28" t="s">
         <v>7</v>
@@ -4209,13 +4205,13 @@
         <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="D29" t="s">
         <v>32</v>
       </c>
       <c r="E29" t="s">
-        <v>646</v>
+        <v>632</v>
       </c>
       <c r="F29" t="s">
         <v>7</v>
@@ -4229,13 +4225,13 @@
         <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="D30" t="s">
         <v>33</v>
       </c>
       <c r="E30" t="s">
-        <v>647</v>
+        <v>633</v>
       </c>
       <c r="F30" t="s">
         <v>7</v>
@@ -4249,13 +4245,13 @@
         <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="D31" t="s">
         <v>34</v>
       </c>
       <c r="E31" t="s">
-        <v>648</v>
+        <v>634</v>
       </c>
       <c r="F31" t="s">
         <v>7</v>
@@ -4269,13 +4265,13 @@
         <v>9</v>
       </c>
       <c r="B32" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="D32" t="s">
         <v>35</v>
       </c>
       <c r="E32" t="s">
-        <v>649</v>
+        <v>635</v>
       </c>
       <c r="F32" t="s">
         <v>7</v>
@@ -4289,16 +4285,16 @@
         <v>9</v>
       </c>
       <c r="B33" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="D33" t="s">
         <v>36</v>
       </c>
       <c r="E33" t="s">
-        <v>650</v>
+        <v>636</v>
       </c>
       <c r="F33" t="s">
-        <v>931</v>
+        <v>910</v>
       </c>
       <c r="G33" t="s">
         <v>8</v>
@@ -4309,13 +4305,13 @@
         <v>9</v>
       </c>
       <c r="B34" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="D34" t="s">
         <v>37</v>
       </c>
       <c r="E34" t="s">
-        <v>651</v>
+        <v>637</v>
       </c>
       <c r="F34" t="s">
         <v>7</v>
@@ -4329,13 +4325,13 @@
         <v>9</v>
       </c>
       <c r="B35" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="D35" t="s">
         <v>38</v>
       </c>
       <c r="E35" t="s">
-        <v>652</v>
+        <v>638</v>
       </c>
       <c r="F35" t="s">
         <v>7</v>
@@ -4349,13 +4345,13 @@
         <v>9</v>
       </c>
       <c r="B36" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="D36" t="s">
         <v>39</v>
       </c>
       <c r="E36" t="s">
-        <v>653</v>
+        <v>639</v>
       </c>
       <c r="F36" t="s">
         <v>7</v>
@@ -4369,16 +4365,16 @@
         <v>9</v>
       </c>
       <c r="B37" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="D37" t="s">
         <v>40</v>
       </c>
       <c r="E37" t="s">
-        <v>654</v>
+        <v>640</v>
       </c>
       <c r="F37" t="s">
-        <v>931</v>
+        <v>910</v>
       </c>
       <c r="G37" t="s">
         <v>8</v>
@@ -4389,13 +4385,13 @@
         <v>9</v>
       </c>
       <c r="B38" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="D38" t="s">
         <v>41</v>
       </c>
       <c r="E38" t="s">
-        <v>655</v>
+        <v>641</v>
       </c>
       <c r="F38" t="s">
         <v>7</v>
@@ -4409,13 +4405,13 @@
         <v>9</v>
       </c>
       <c r="B39" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="D39" t="s">
         <v>42</v>
       </c>
       <c r="E39" t="s">
-        <v>656</v>
+        <v>642</v>
       </c>
       <c r="F39" t="s">
         <v>7</v>
@@ -4429,13 +4425,13 @@
         <v>9</v>
       </c>
       <c r="B40" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="D40" t="s">
         <v>43</v>
       </c>
       <c r="E40" t="s">
-        <v>657</v>
+        <v>643</v>
       </c>
       <c r="F40" t="s">
         <v>7</v>
@@ -4449,13 +4445,13 @@
         <v>9</v>
       </c>
       <c r="B41" t="s">
-        <v>1032</v>
+        <v>1008</v>
       </c>
       <c r="D41" t="s">
-        <v>1033</v>
+        <v>1009</v>
       </c>
       <c r="E41" t="s">
-        <v>1034</v>
+        <v>1010</v>
       </c>
       <c r="F41" t="s">
         <v>7</v>
@@ -4469,13 +4465,13 @@
         <v>9</v>
       </c>
       <c r="B42" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="D42" t="s">
         <v>44</v>
       </c>
       <c r="E42" t="s">
-        <v>658</v>
+        <v>644</v>
       </c>
       <c r="F42" t="s">
         <v>7</v>
@@ -4489,13 +4485,13 @@
         <v>9</v>
       </c>
       <c r="B43" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="D43" t="s">
         <v>45</v>
       </c>
       <c r="E43" t="s">
-        <v>659</v>
+        <v>645</v>
       </c>
       <c r="F43" t="s">
         <v>7</v>
@@ -4509,16 +4505,16 @@
         <v>9</v>
       </c>
       <c r="B44" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="D44" t="s">
         <v>46</v>
       </c>
       <c r="E44" t="s">
-        <v>660</v>
+        <v>646</v>
       </c>
       <c r="F44" t="s">
-        <v>931</v>
+        <v>910</v>
       </c>
       <c r="G44" t="s">
         <v>8</v>
@@ -4529,16 +4525,16 @@
         <v>9</v>
       </c>
       <c r="B45" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="D45" t="s">
         <v>47</v>
       </c>
       <c r="E45" t="s">
-        <v>661</v>
+        <v>647</v>
       </c>
       <c r="F45" t="s">
-        <v>931</v>
+        <v>910</v>
       </c>
       <c r="G45" t="s">
         <v>8</v>
@@ -4549,13 +4545,13 @@
         <v>9</v>
       </c>
       <c r="B46" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="D46" t="s">
         <v>48</v>
       </c>
       <c r="E46" t="s">
-        <v>662</v>
+        <v>648</v>
       </c>
       <c r="F46" t="s">
         <v>7</v>
@@ -4569,13 +4565,13 @@
         <v>9</v>
       </c>
       <c r="B47" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="D47" t="s">
         <v>49</v>
       </c>
       <c r="E47" t="s">
-        <v>663</v>
+        <v>649</v>
       </c>
       <c r="F47" t="s">
         <v>7</v>
@@ -4589,13 +4585,13 @@
         <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D48" t="s">
         <v>50</v>
       </c>
       <c r="E48" t="s">
-        <v>664</v>
+        <v>650</v>
       </c>
       <c r="F48" t="s">
         <v>7</v>
@@ -4609,13 +4605,13 @@
         <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>944</v>
+        <v>923</v>
       </c>
       <c r="D49" t="s">
-        <v>945</v>
+        <v>924</v>
       </c>
       <c r="E49" t="s">
-        <v>946</v>
+        <v>925</v>
       </c>
       <c r="F49" t="s">
         <v>7</v>
@@ -4629,13 +4625,13 @@
         <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D50" t="s">
         <v>51</v>
       </c>
       <c r="E50" t="s">
-        <v>665</v>
+        <v>651</v>
       </c>
       <c r="F50" t="s">
         <v>7</v>
@@ -4649,13 +4645,13 @@
         <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="D51" t="s">
         <v>52</v>
       </c>
       <c r="E51" t="s">
-        <v>666</v>
+        <v>652</v>
       </c>
       <c r="F51" t="s">
         <v>7</v>
@@ -4669,13 +4665,13 @@
         <v>9</v>
       </c>
       <c r="B52" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="D52" t="s">
         <v>53</v>
       </c>
       <c r="E52" t="s">
-        <v>667</v>
+        <v>653</v>
       </c>
       <c r="F52" t="s">
         <v>7</v>
@@ -4689,13 +4685,13 @@
         <v>9</v>
       </c>
       <c r="B53" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="D53" t="s">
         <v>54</v>
       </c>
       <c r="E53" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="F53" t="s">
         <v>7</v>
@@ -4709,13 +4705,13 @@
         <v>9</v>
       </c>
       <c r="B54" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="D54" t="s">
         <v>55</v>
       </c>
       <c r="E54" t="s">
-        <v>669</v>
+        <v>655</v>
       </c>
       <c r="F54" t="s">
         <v>7</v>
@@ -4729,13 +4725,13 @@
         <v>9</v>
       </c>
       <c r="B55" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="D55" t="s">
         <v>56</v>
       </c>
       <c r="E55" t="s">
-        <v>670</v>
+        <v>656</v>
       </c>
       <c r="F55" t="s">
         <v>7</v>
@@ -4749,16 +4745,16 @@
         <v>9</v>
       </c>
       <c r="B56" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="D56" t="s">
         <v>57</v>
       </c>
       <c r="E56" t="s">
-        <v>671</v>
+        <v>657</v>
       </c>
       <c r="F56" t="s">
-        <v>7</v>
+        <v>910</v>
       </c>
       <c r="G56" t="s">
         <v>8</v>
@@ -4769,13 +4765,13 @@
         <v>9</v>
       </c>
       <c r="B57" t="s">
-        <v>1035</v>
+        <v>1011</v>
       </c>
       <c r="D57" t="s">
-        <v>1036</v>
+        <v>1012</v>
       </c>
       <c r="E57" t="s">
-        <v>1037</v>
+        <v>1013</v>
       </c>
       <c r="F57" t="s">
         <v>7</v>
@@ -4789,13 +4785,13 @@
         <v>9</v>
       </c>
       <c r="B58" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="D58" t="s">
         <v>58</v>
       </c>
       <c r="E58" t="s">
-        <v>672</v>
+        <v>658</v>
       </c>
       <c r="F58" t="s">
         <v>7</v>
@@ -4809,13 +4805,13 @@
         <v>9</v>
       </c>
       <c r="B59" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="D59" t="s">
         <v>59</v>
       </c>
       <c r="E59" t="s">
-        <v>673</v>
+        <v>659</v>
       </c>
       <c r="F59" t="s">
         <v>7</v>
@@ -4829,13 +4825,13 @@
         <v>9</v>
       </c>
       <c r="B60" t="s">
-        <v>977</v>
+        <v>953</v>
       </c>
       <c r="D60" t="s">
-        <v>978</v>
+        <v>954</v>
       </c>
       <c r="E60" t="s">
-        <v>979</v>
+        <v>955</v>
       </c>
       <c r="F60" t="s">
         <v>7</v>
@@ -4849,13 +4845,13 @@
         <v>9</v>
       </c>
       <c r="B61" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="D61" t="s">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>674</v>
+        <v>660</v>
       </c>
       <c r="F61" t="s">
         <v>7</v>
@@ -4869,16 +4865,16 @@
         <v>9</v>
       </c>
       <c r="B62" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="D62" t="s">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>675</v>
+        <v>661</v>
       </c>
       <c r="F62" t="s">
-        <v>931</v>
+        <v>910</v>
       </c>
       <c r="G62" t="s">
         <v>8</v>
@@ -4889,16 +4885,16 @@
         <v>9</v>
       </c>
       <c r="B63" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="D63" t="s">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>676</v>
+        <v>662</v>
       </c>
       <c r="F63" t="s">
-        <v>931</v>
+        <v>910</v>
       </c>
       <c r="G63" t="s">
         <v>8</v>
@@ -4909,13 +4905,13 @@
         <v>9</v>
       </c>
       <c r="B64" t="s">
-        <v>947</v>
+        <v>926</v>
       </c>
       <c r="D64" t="s">
-        <v>948</v>
+        <v>927</v>
       </c>
       <c r="E64" t="s">
-        <v>949</v>
+        <v>928</v>
       </c>
       <c r="F64" t="s">
         <v>7</v>
@@ -4929,13 +4925,13 @@
         <v>9</v>
       </c>
       <c r="B65" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="D65" t="s">
         <v>63</v>
       </c>
       <c r="E65" t="s">
-        <v>677</v>
+        <v>663</v>
       </c>
       <c r="F65" t="s">
         <v>7</v>
@@ -4949,13 +4945,13 @@
         <v>9</v>
       </c>
       <c r="B66" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="D66" t="s">
         <v>64</v>
       </c>
       <c r="E66" t="s">
-        <v>678</v>
+        <v>664</v>
       </c>
       <c r="F66" t="s">
         <v>7</v>
@@ -4969,13 +4965,13 @@
         <v>9</v>
       </c>
       <c r="B67" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="D67" t="s">
         <v>65</v>
       </c>
       <c r="E67" t="s">
-        <v>679</v>
+        <v>665</v>
       </c>
       <c r="F67" t="s">
         <v>7</v>
@@ -4989,13 +4985,13 @@
         <v>9</v>
       </c>
       <c r="B68" t="s">
-        <v>950</v>
+        <v>929</v>
       </c>
       <c r="D68" t="s">
-        <v>951</v>
+        <v>930</v>
       </c>
       <c r="E68" t="s">
-        <v>952</v>
+        <v>931</v>
       </c>
       <c r="F68" t="s">
         <v>7</v>
@@ -5009,13 +5005,13 @@
         <v>9</v>
       </c>
       <c r="B69" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="D69" t="s">
         <v>66</v>
       </c>
       <c r="E69" t="s">
-        <v>680</v>
+        <v>666</v>
       </c>
       <c r="F69" t="s">
         <v>7</v>
@@ -5029,13 +5025,13 @@
         <v>9</v>
       </c>
       <c r="B70" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="D70" t="s">
         <v>67</v>
       </c>
       <c r="E70" t="s">
-        <v>681</v>
+        <v>667</v>
       </c>
       <c r="F70" t="s">
         <v>7</v>
@@ -5049,19 +5045,19 @@
         <v>9</v>
       </c>
       <c r="B71" t="s">
-        <v>1038</v>
+        <v>1014</v>
       </c>
       <c r="C71" t="s">
-        <v>1039</v>
+        <v>1015</v>
       </c>
       <c r="D71" t="s">
-        <v>1040</v>
+        <v>1016</v>
       </c>
       <c r="E71" t="s">
-        <v>1041</v>
+        <v>1017</v>
       </c>
       <c r="F71" t="s">
-        <v>931</v>
+        <v>910</v>
       </c>
       <c r="G71" t="s">
         <v>8</v>
@@ -5072,13 +5068,13 @@
         <v>9</v>
       </c>
       <c r="B72" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="D72" t="s">
         <v>68</v>
       </c>
       <c r="E72" t="s">
-        <v>682</v>
+        <v>668</v>
       </c>
       <c r="F72" t="s">
         <v>7</v>
@@ -5092,13 +5088,13 @@
         <v>9</v>
       </c>
       <c r="B73" t="s">
-        <v>941</v>
+        <v>920</v>
       </c>
       <c r="D73" t="s">
-        <v>942</v>
+        <v>921</v>
       </c>
       <c r="E73" t="s">
-        <v>943</v>
+        <v>922</v>
       </c>
       <c r="F73" t="s">
         <v>7</v>
@@ -5112,13 +5108,13 @@
         <v>9</v>
       </c>
       <c r="B74" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="D74" t="s">
         <v>69</v>
       </c>
       <c r="E74" t="s">
-        <v>683</v>
+        <v>669</v>
       </c>
       <c r="F74" t="s">
         <v>7</v>
@@ -5132,13 +5128,13 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="D75" t="s">
         <v>70</v>
       </c>
       <c r="E75" t="s">
-        <v>684</v>
+        <v>670</v>
       </c>
       <c r="F75" t="s">
         <v>7</v>
@@ -5152,13 +5148,13 @@
         <v>9</v>
       </c>
       <c r="B76" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="D76" t="s">
         <v>71</v>
       </c>
       <c r="E76" t="s">
-        <v>685</v>
+        <v>671</v>
       </c>
       <c r="F76" t="s">
         <v>7</v>
@@ -5172,13 +5168,13 @@
         <v>9</v>
       </c>
       <c r="B77" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="D77" t="s">
         <v>72</v>
       </c>
       <c r="E77" t="s">
-        <v>686</v>
+        <v>672</v>
       </c>
       <c r="F77" t="s">
         <v>7</v>
@@ -5192,13 +5188,13 @@
         <v>9</v>
       </c>
       <c r="B78" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="D78" t="s">
         <v>73</v>
       </c>
       <c r="E78" t="s">
-        <v>687</v>
+        <v>673</v>
       </c>
       <c r="F78" t="s">
         <v>7</v>
@@ -5212,13 +5208,13 @@
         <v>9</v>
       </c>
       <c r="B79" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="D79" t="s">
         <v>74</v>
       </c>
       <c r="E79" t="s">
-        <v>688</v>
+        <v>674</v>
       </c>
       <c r="F79" t="s">
         <v>7</v>
@@ -5232,13 +5228,13 @@
         <v>9</v>
       </c>
       <c r="B80" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="D80" t="s">
         <v>75</v>
       </c>
       <c r="E80" t="s">
-        <v>689</v>
+        <v>675</v>
       </c>
       <c r="F80" t="s">
         <v>7</v>
@@ -5252,13 +5248,13 @@
         <v>9</v>
       </c>
       <c r="B81" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="D81" t="s">
         <v>76</v>
       </c>
       <c r="E81" t="s">
-        <v>690</v>
+        <v>676</v>
       </c>
       <c r="F81" t="s">
         <v>7</v>
@@ -5272,13 +5268,13 @@
         <v>9</v>
       </c>
       <c r="B82" t="s">
-        <v>384</v>
+        <v>1054</v>
       </c>
       <c r="D82" t="s">
-        <v>77</v>
+        <v>1055</v>
       </c>
       <c r="E82" t="s">
-        <v>691</v>
+        <v>1056</v>
       </c>
       <c r="F82" t="s">
         <v>7</v>
@@ -5292,13 +5288,13 @@
         <v>9</v>
       </c>
       <c r="B83" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="D83" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E83" t="s">
-        <v>692</v>
+        <v>677</v>
       </c>
       <c r="F83" t="s">
         <v>7</v>
@@ -5312,13 +5308,13 @@
         <v>9</v>
       </c>
       <c r="B84" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="D84" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E84" t="s">
-        <v>693</v>
+        <v>678</v>
       </c>
       <c r="F84" t="s">
         <v>7</v>
@@ -5332,13 +5328,13 @@
         <v>9</v>
       </c>
       <c r="B85" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D85" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E85" t="s">
-        <v>694</v>
+        <v>679</v>
       </c>
       <c r="F85" t="s">
         <v>7</v>
@@ -5352,13 +5348,13 @@
         <v>9</v>
       </c>
       <c r="B86" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="D86" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E86" t="s">
-        <v>695</v>
+        <v>680</v>
       </c>
       <c r="F86" t="s">
         <v>7</v>
@@ -5372,13 +5368,13 @@
         <v>9</v>
       </c>
       <c r="B87" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="D87" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E87" t="s">
-        <v>696</v>
+        <v>681</v>
       </c>
       <c r="F87" t="s">
         <v>7</v>
@@ -5392,16 +5388,16 @@
         <v>9</v>
       </c>
       <c r="B88" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="D88" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E88" t="s">
-        <v>697</v>
+        <v>682</v>
       </c>
       <c r="F88" t="s">
-        <v>7</v>
+        <v>910</v>
       </c>
       <c r="G88" t="s">
         <v>8</v>
@@ -5412,13 +5408,13 @@
         <v>9</v>
       </c>
       <c r="B89" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="D89" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E89" t="s">
-        <v>698</v>
+        <v>683</v>
       </c>
       <c r="F89" t="s">
         <v>7</v>
@@ -5432,13 +5428,13 @@
         <v>9</v>
       </c>
       <c r="B90" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="D90" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E90" t="s">
-        <v>699</v>
+        <v>684</v>
       </c>
       <c r="F90" t="s">
         <v>7</v>
@@ -5452,13 +5448,13 @@
         <v>9</v>
       </c>
       <c r="B91" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="D91" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E91" t="s">
-        <v>700</v>
+        <v>685</v>
       </c>
       <c r="F91" t="s">
         <v>7</v>
@@ -5472,13 +5468,13 @@
         <v>9</v>
       </c>
       <c r="B92" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="D92" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E92" t="s">
-        <v>701</v>
+        <v>686</v>
       </c>
       <c r="F92" t="s">
         <v>7</v>
@@ -5492,13 +5488,13 @@
         <v>9</v>
       </c>
       <c r="B93" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="D93" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E93" t="s">
-        <v>702</v>
+        <v>687</v>
       </c>
       <c r="F93" t="s">
         <v>7</v>
@@ -5512,13 +5508,13 @@
         <v>9</v>
       </c>
       <c r="B94" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="D94" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E94" t="s">
-        <v>703</v>
+        <v>688</v>
       </c>
       <c r="F94" t="s">
         <v>7</v>
@@ -5532,13 +5528,13 @@
         <v>9</v>
       </c>
       <c r="B95" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="D95" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E95" t="s">
-        <v>704</v>
+        <v>689</v>
       </c>
       <c r="F95" t="s">
         <v>7</v>
@@ -5552,13 +5548,13 @@
         <v>9</v>
       </c>
       <c r="B96" t="s">
-        <v>953</v>
+        <v>390</v>
       </c>
       <c r="D96" t="s">
-        <v>954</v>
+        <v>90</v>
       </c>
       <c r="E96" t="s">
-        <v>955</v>
+        <v>690</v>
       </c>
       <c r="F96" t="s">
         <v>7</v>
@@ -5572,13 +5568,13 @@
         <v>9</v>
       </c>
       <c r="B97" t="s">
-        <v>398</v>
+        <v>932</v>
       </c>
       <c r="D97" t="s">
-        <v>91</v>
+        <v>933</v>
       </c>
       <c r="E97" t="s">
-        <v>705</v>
+        <v>934</v>
       </c>
       <c r="F97" t="s">
         <v>7</v>
@@ -5592,13 +5588,13 @@
         <v>9</v>
       </c>
       <c r="B98" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="D98" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E98" t="s">
-        <v>706</v>
+        <v>691</v>
       </c>
       <c r="F98" t="s">
         <v>7</v>
@@ -5612,13 +5608,13 @@
         <v>9</v>
       </c>
       <c r="B99" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="D99" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E99" t="s">
-        <v>707</v>
+        <v>692</v>
       </c>
       <c r="F99" t="s">
         <v>7</v>
@@ -5632,13 +5628,13 @@
         <v>9</v>
       </c>
       <c r="B100" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="D100" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E100" t="s">
-        <v>708</v>
+        <v>693</v>
       </c>
       <c r="F100" t="s">
         <v>7</v>
@@ -5652,16 +5648,16 @@
         <v>9</v>
       </c>
       <c r="B101" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="D101" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E101" t="s">
-        <v>709</v>
+        <v>694</v>
       </c>
       <c r="F101" t="s">
-        <v>931</v>
+        <v>7</v>
       </c>
       <c r="G101" t="s">
         <v>8</v>
@@ -5672,13 +5668,13 @@
         <v>9</v>
       </c>
       <c r="B102" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="D102" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E102" t="s">
-        <v>710</v>
+        <v>695</v>
       </c>
       <c r="F102" t="s">
         <v>7</v>
@@ -5692,13 +5688,13 @@
         <v>9</v>
       </c>
       <c r="B103" t="s">
-        <v>956</v>
+        <v>935</v>
       </c>
       <c r="D103" t="s">
-        <v>957</v>
+        <v>936</v>
       </c>
       <c r="E103" t="s">
-        <v>958</v>
+        <v>937</v>
       </c>
       <c r="F103" t="s">
         <v>7</v>
@@ -5712,13 +5708,13 @@
         <v>9</v>
       </c>
       <c r="B104" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="D104" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E104" t="s">
-        <v>711</v>
+        <v>696</v>
       </c>
       <c r="F104" t="s">
         <v>7</v>
@@ -5732,13 +5728,13 @@
         <v>9</v>
       </c>
       <c r="B105" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="D105" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E105" t="s">
-        <v>712</v>
+        <v>697</v>
       </c>
       <c r="F105" t="s">
         <v>7</v>
@@ -5752,13 +5748,13 @@
         <v>9</v>
       </c>
       <c r="B106" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="D106" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E106" t="s">
-        <v>713</v>
+        <v>698</v>
       </c>
       <c r="F106" t="s">
         <v>7</v>
@@ -5772,13 +5768,13 @@
         <v>9</v>
       </c>
       <c r="B107" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="D107" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E107" t="s">
-        <v>714</v>
+        <v>699</v>
       </c>
       <c r="F107" t="s">
         <v>7</v>
@@ -5792,13 +5788,13 @@
         <v>9</v>
       </c>
       <c r="B108" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="D108" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E108" t="s">
-        <v>715</v>
+        <v>700</v>
       </c>
       <c r="F108" t="s">
         <v>7</v>
@@ -5812,13 +5808,13 @@
         <v>9</v>
       </c>
       <c r="B109" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="D109" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E109" t="s">
-        <v>716</v>
+        <v>701</v>
       </c>
       <c r="F109" t="s">
         <v>7</v>
@@ -5832,13 +5828,13 @@
         <v>9</v>
       </c>
       <c r="B110" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="D110" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E110" t="s">
-        <v>717</v>
+        <v>702</v>
       </c>
       <c r="F110" t="s">
         <v>7</v>
@@ -5852,13 +5848,13 @@
         <v>9</v>
       </c>
       <c r="B111" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="D111" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E111" t="s">
-        <v>718</v>
+        <v>703</v>
       </c>
       <c r="F111" t="s">
         <v>7</v>
@@ -5872,16 +5868,16 @@
         <v>9</v>
       </c>
       <c r="B112" t="s">
-        <v>412</v>
+        <v>1057</v>
       </c>
       <c r="D112" t="s">
-        <v>105</v>
+        <v>1058</v>
       </c>
       <c r="E112" t="s">
-        <v>719</v>
+        <v>1059</v>
       </c>
       <c r="F112" t="s">
-        <v>7</v>
+        <v>910</v>
       </c>
       <c r="G112" t="s">
         <v>8</v>
@@ -5892,13 +5888,13 @@
         <v>9</v>
       </c>
       <c r="B113" t="s">
-        <v>1022</v>
+        <v>404</v>
       </c>
       <c r="D113" t="s">
-        <v>1023</v>
+        <v>104</v>
       </c>
       <c r="E113" t="s">
-        <v>1024</v>
+        <v>704</v>
       </c>
       <c r="F113" t="s">
         <v>7</v>
@@ -5912,13 +5908,13 @@
         <v>9</v>
       </c>
       <c r="B114" t="s">
-        <v>413</v>
+        <v>998</v>
       </c>
       <c r="D114" t="s">
-        <v>106</v>
+        <v>999</v>
       </c>
       <c r="E114" t="s">
-        <v>720</v>
+        <v>1000</v>
       </c>
       <c r="F114" t="s">
         <v>7</v>
@@ -5932,13 +5928,13 @@
         <v>9</v>
       </c>
       <c r="B115" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="D115" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E115" t="s">
-        <v>721</v>
+        <v>705</v>
       </c>
       <c r="F115" t="s">
         <v>7</v>
@@ -5952,13 +5948,13 @@
         <v>9</v>
       </c>
       <c r="B116" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="D116" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E116" t="s">
-        <v>722</v>
+        <v>706</v>
       </c>
       <c r="F116" t="s">
         <v>7</v>
@@ -5972,13 +5968,13 @@
         <v>9</v>
       </c>
       <c r="B117" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="D117" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E117" t="s">
-        <v>723</v>
+        <v>707</v>
       </c>
       <c r="F117" t="s">
         <v>7</v>
@@ -5992,13 +5988,13 @@
         <v>9</v>
       </c>
       <c r="B118" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="D118" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E118" t="s">
-        <v>724</v>
+        <v>708</v>
       </c>
       <c r="F118" t="s">
         <v>7</v>
@@ -6012,13 +6008,13 @@
         <v>9</v>
       </c>
       <c r="B119" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="D119" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E119" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="F119" t="s">
         <v>7</v>
@@ -6032,13 +6028,13 @@
         <v>9</v>
       </c>
       <c r="B120" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="D120" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E120" t="s">
-        <v>726</v>
+        <v>710</v>
       </c>
       <c r="F120" t="s">
         <v>7</v>
@@ -6052,16 +6048,16 @@
         <v>9</v>
       </c>
       <c r="B121" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="D121" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E121" t="s">
-        <v>727</v>
+        <v>711</v>
       </c>
       <c r="F121" t="s">
-        <v>931</v>
+        <v>7</v>
       </c>
       <c r="G121" t="s">
         <v>8</v>
@@ -6072,16 +6068,16 @@
         <v>9</v>
       </c>
       <c r="B122" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="D122" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E122" t="s">
-        <v>728</v>
+        <v>712</v>
       </c>
       <c r="F122" t="s">
-        <v>7</v>
+        <v>910</v>
       </c>
       <c r="G122" t="s">
         <v>8</v>
@@ -6092,13 +6088,13 @@
         <v>9</v>
       </c>
       <c r="B123" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="D123" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E123" t="s">
-        <v>729</v>
+        <v>713</v>
       </c>
       <c r="F123" t="s">
         <v>7</v>
@@ -6112,16 +6108,16 @@
         <v>9</v>
       </c>
       <c r="B124" t="s">
-        <v>965</v>
+        <v>414</v>
       </c>
       <c r="D124" t="s">
-        <v>966</v>
+        <v>114</v>
       </c>
       <c r="E124" t="s">
-        <v>967</v>
+        <v>714</v>
       </c>
       <c r="F124" t="s">
-        <v>931</v>
+        <v>7</v>
       </c>
       <c r="G124" t="s">
         <v>8</v>
@@ -6132,16 +6128,16 @@
         <v>9</v>
       </c>
       <c r="B125" t="s">
-        <v>968</v>
+        <v>944</v>
       </c>
       <c r="D125" t="s">
-        <v>969</v>
+        <v>945</v>
       </c>
       <c r="E125" t="s">
-        <v>970</v>
+        <v>946</v>
       </c>
       <c r="F125" t="s">
-        <v>931</v>
+        <v>910</v>
       </c>
       <c r="G125" t="s">
         <v>8</v>
@@ -6152,16 +6148,16 @@
         <v>9</v>
       </c>
       <c r="B126" t="s">
-        <v>423</v>
+        <v>947</v>
       </c>
       <c r="D126" t="s">
-        <v>116</v>
+        <v>948</v>
       </c>
       <c r="E126" t="s">
-        <v>730</v>
+        <v>949</v>
       </c>
       <c r="F126" t="s">
-        <v>7</v>
+        <v>910</v>
       </c>
       <c r="G126" t="s">
         <v>8</v>
@@ -6172,13 +6168,13 @@
         <v>9</v>
       </c>
       <c r="B127" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="D127" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E127" t="s">
-        <v>731</v>
+        <v>715</v>
       </c>
       <c r="F127" t="s">
         <v>7</v>
@@ -6192,13 +6188,13 @@
         <v>9</v>
       </c>
       <c r="B128" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="D128" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E128" t="s">
-        <v>732</v>
+        <v>716</v>
       </c>
       <c r="F128" t="s">
         <v>7</v>
@@ -6212,16 +6208,16 @@
         <v>9</v>
       </c>
       <c r="B129" t="s">
-        <v>426</v>
+        <v>1060</v>
       </c>
       <c r="D129" t="s">
-        <v>119</v>
+        <v>1061</v>
       </c>
       <c r="E129" t="s">
-        <v>733</v>
+        <v>1062</v>
       </c>
       <c r="F129" t="s">
-        <v>7</v>
+        <v>910</v>
       </c>
       <c r="G129" t="s">
         <v>8</v>
@@ -6232,13 +6228,13 @@
         <v>9</v>
       </c>
       <c r="B130" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="D130" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E130" t="s">
-        <v>734</v>
+        <v>717</v>
       </c>
       <c r="F130" t="s">
         <v>7</v>
@@ -6252,16 +6248,16 @@
         <v>9</v>
       </c>
       <c r="B131" t="s">
-        <v>1042</v>
+        <v>418</v>
       </c>
       <c r="D131" t="s">
-        <v>1043</v>
+        <v>118</v>
       </c>
       <c r="E131" t="s">
-        <v>1044</v>
+        <v>718</v>
       </c>
       <c r="F131" t="s">
-        <v>931</v>
+        <v>7</v>
       </c>
       <c r="G131" t="s">
         <v>8</v>
@@ -6272,13 +6268,13 @@
         <v>9</v>
       </c>
       <c r="B132" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="D132" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E132" t="s">
-        <v>735</v>
+        <v>719</v>
       </c>
       <c r="F132" t="s">
         <v>7</v>
@@ -6292,16 +6288,16 @@
         <v>9</v>
       </c>
       <c r="B133" t="s">
-        <v>429</v>
+        <v>1018</v>
       </c>
       <c r="D133" t="s">
-        <v>122</v>
+        <v>1019</v>
       </c>
       <c r="E133" t="s">
-        <v>736</v>
+        <v>1020</v>
       </c>
       <c r="F133" t="s">
-        <v>7</v>
+        <v>910</v>
       </c>
       <c r="G133" t="s">
         <v>8</v>
@@ -6312,13 +6308,13 @@
         <v>9</v>
       </c>
       <c r="B134" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="D134" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E134" t="s">
-        <v>737</v>
+        <v>720</v>
       </c>
       <c r="F134" t="s">
         <v>7</v>
@@ -6332,13 +6328,13 @@
         <v>9</v>
       </c>
       <c r="B135" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="D135" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E135" t="s">
-        <v>738</v>
+        <v>721</v>
       </c>
       <c r="F135" t="s">
         <v>7</v>
@@ -6352,13 +6348,13 @@
         <v>9</v>
       </c>
       <c r="B136" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="D136" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E136" t="s">
-        <v>739</v>
+        <v>722</v>
       </c>
       <c r="F136" t="s">
         <v>7</v>
@@ -6372,13 +6368,13 @@
         <v>9</v>
       </c>
       <c r="B137" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="D137" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E137" t="s">
-        <v>740</v>
+        <v>723</v>
       </c>
       <c r="F137" t="s">
         <v>7</v>
@@ -6392,13 +6388,13 @@
         <v>9</v>
       </c>
       <c r="B138" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="D138" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E138" t="s">
-        <v>741</v>
+        <v>724</v>
       </c>
       <c r="F138" t="s">
         <v>7</v>
@@ -6412,13 +6408,13 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="D139" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E139" t="s">
-        <v>742</v>
+        <v>725</v>
       </c>
       <c r="F139" t="s">
         <v>7</v>
@@ -6432,13 +6428,13 @@
         <v>9</v>
       </c>
       <c r="B140" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="D140" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E140" t="s">
-        <v>743</v>
+        <v>726</v>
       </c>
       <c r="F140" t="s">
         <v>7</v>
@@ -6452,13 +6448,13 @@
         <v>9</v>
       </c>
       <c r="B141" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="D141" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E141" t="s">
-        <v>744</v>
+        <v>727</v>
       </c>
       <c r="F141" t="s">
         <v>7</v>
@@ -6472,13 +6468,13 @@
         <v>9</v>
       </c>
       <c r="B142" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="D142" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E142" t="s">
-        <v>745</v>
+        <v>728</v>
       </c>
       <c r="F142" t="s">
         <v>7</v>
@@ -6492,13 +6488,13 @@
         <v>9</v>
       </c>
       <c r="B143" t="s">
-        <v>959</v>
+        <v>429</v>
       </c>
       <c r="D143" t="s">
-        <v>960</v>
+        <v>129</v>
       </c>
       <c r="E143" t="s">
-        <v>961</v>
+        <v>729</v>
       </c>
       <c r="F143" t="s">
         <v>7</v>
@@ -6512,13 +6508,16 @@
         <v>9</v>
       </c>
       <c r="B144" t="s">
-        <v>439</v>
+        <v>1063</v>
+      </c>
+      <c r="C144" t="s">
+        <v>1064</v>
       </c>
       <c r="D144" t="s">
-        <v>132</v>
+        <v>1065</v>
       </c>
       <c r="E144" t="s">
-        <v>746</v>
+        <v>1066</v>
       </c>
       <c r="F144" t="s">
         <v>7</v>
@@ -6532,16 +6531,16 @@
         <v>9</v>
       </c>
       <c r="B145" t="s">
-        <v>962</v>
+        <v>430</v>
       </c>
       <c r="D145" t="s">
-        <v>963</v>
+        <v>130</v>
       </c>
       <c r="E145" t="s">
-        <v>964</v>
+        <v>730</v>
       </c>
       <c r="F145" t="s">
-        <v>931</v>
+        <v>7</v>
       </c>
       <c r="G145" t="s">
         <v>8</v>
@@ -6552,13 +6551,13 @@
         <v>9</v>
       </c>
       <c r="B146" t="s">
-        <v>440</v>
+        <v>938</v>
       </c>
       <c r="D146" t="s">
-        <v>133</v>
+        <v>939</v>
       </c>
       <c r="E146" t="s">
-        <v>747</v>
+        <v>940</v>
       </c>
       <c r="F146" t="s">
         <v>7</v>
@@ -6572,13 +6571,13 @@
         <v>9</v>
       </c>
       <c r="B147" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="D147" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E147" t="s">
-        <v>748</v>
+        <v>731</v>
       </c>
       <c r="F147" t="s">
         <v>7</v>
@@ -6592,16 +6591,16 @@
         <v>9</v>
       </c>
       <c r="B148" t="s">
-        <v>442</v>
+        <v>941</v>
       </c>
       <c r="D148" t="s">
-        <v>135</v>
+        <v>942</v>
       </c>
       <c r="E148" t="s">
-        <v>749</v>
+        <v>943</v>
       </c>
       <c r="F148" t="s">
-        <v>7</v>
+        <v>910</v>
       </c>
       <c r="G148" t="s">
         <v>8</v>
@@ -6612,13 +6611,13 @@
         <v>9</v>
       </c>
       <c r="B149" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="D149" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E149" t="s">
-        <v>750</v>
+        <v>732</v>
       </c>
       <c r="F149" t="s">
         <v>7</v>
@@ -6632,13 +6631,13 @@
         <v>9</v>
       </c>
       <c r="B150" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="D150" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E150" t="s">
-        <v>751</v>
+        <v>733</v>
       </c>
       <c r="F150" t="s">
         <v>7</v>
@@ -6652,13 +6651,13 @@
         <v>9</v>
       </c>
       <c r="B151" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="D151" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E151" t="s">
-        <v>752</v>
+        <v>734</v>
       </c>
       <c r="F151" t="s">
         <v>7</v>
@@ -6672,13 +6671,13 @@
         <v>9</v>
       </c>
       <c r="B152" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="D152" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E152" t="s">
-        <v>753</v>
+        <v>735</v>
       </c>
       <c r="F152" t="s">
         <v>7</v>
@@ -6692,13 +6691,13 @@
         <v>9</v>
       </c>
       <c r="B153" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="D153" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E153" t="s">
-        <v>754</v>
+        <v>736</v>
       </c>
       <c r="F153" t="s">
         <v>7</v>
@@ -6712,13 +6711,13 @@
         <v>9</v>
       </c>
       <c r="B154" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="D154" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E154" t="s">
-        <v>755</v>
+        <v>737</v>
       </c>
       <c r="F154" t="s">
         <v>7</v>
@@ -6732,13 +6731,13 @@
         <v>9</v>
       </c>
       <c r="B155" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="D155" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E155" t="s">
-        <v>756</v>
+        <v>738</v>
       </c>
       <c r="F155" t="s">
         <v>7</v>
@@ -6752,13 +6751,13 @@
         <v>9</v>
       </c>
       <c r="B156" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="D156" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E156" t="s">
-        <v>757</v>
+        <v>739</v>
       </c>
       <c r="F156" t="s">
         <v>7</v>
@@ -6772,13 +6771,13 @@
         <v>9</v>
       </c>
       <c r="B157" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="D157" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E157" t="s">
-        <v>758</v>
+        <v>740</v>
       </c>
       <c r="F157" t="s">
         <v>7</v>
@@ -6792,13 +6791,13 @@
         <v>9</v>
       </c>
       <c r="B158" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="D158" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E158" t="s">
-        <v>759</v>
+        <v>741</v>
       </c>
       <c r="F158" t="s">
         <v>7</v>
@@ -6812,13 +6811,13 @@
         <v>9</v>
       </c>
       <c r="B159" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="D159" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E159" t="s">
-        <v>760</v>
+        <v>742</v>
       </c>
       <c r="F159" t="s">
         <v>7</v>
@@ -6832,13 +6831,13 @@
         <v>9</v>
       </c>
       <c r="B160" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="D160" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E160" t="s">
-        <v>761</v>
+        <v>743</v>
       </c>
       <c r="F160" t="s">
         <v>7</v>
@@ -6852,13 +6851,13 @@
         <v>9</v>
       </c>
       <c r="B161" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="D161" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E161" t="s">
-        <v>762</v>
+        <v>744</v>
       </c>
       <c r="F161" t="s">
         <v>7</v>
@@ -6872,13 +6871,13 @@
         <v>9</v>
       </c>
       <c r="B162" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="D162" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E162" t="s">
-        <v>763</v>
+        <v>745</v>
       </c>
       <c r="F162" t="s">
         <v>7</v>
@@ -6892,13 +6891,13 @@
         <v>9</v>
       </c>
       <c r="B163" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="D163" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E163" t="s">
-        <v>764</v>
+        <v>746</v>
       </c>
       <c r="F163" t="s">
         <v>7</v>
@@ -6912,13 +6911,13 @@
         <v>9</v>
       </c>
       <c r="B164" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="D164" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E164" t="s">
-        <v>765</v>
+        <v>747</v>
       </c>
       <c r="F164" t="s">
         <v>7</v>
@@ -6932,13 +6931,13 @@
         <v>9</v>
       </c>
       <c r="B165" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="D165" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E165" t="s">
-        <v>766</v>
+        <v>748</v>
       </c>
       <c r="F165" t="s">
         <v>7</v>
@@ -6952,13 +6951,13 @@
         <v>9</v>
       </c>
       <c r="B166" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="D166" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E166" t="s">
-        <v>767</v>
+        <v>749</v>
       </c>
       <c r="F166" t="s">
         <v>7</v>
@@ -6972,13 +6971,13 @@
         <v>9</v>
       </c>
       <c r="B167" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="D167" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E167" t="s">
-        <v>768</v>
+        <v>750</v>
       </c>
       <c r="F167" t="s">
         <v>7</v>
@@ -6992,16 +6991,16 @@
         <v>9</v>
       </c>
       <c r="B168" t="s">
-        <v>1045</v>
+        <v>451</v>
       </c>
       <c r="D168" t="s">
-        <v>1046</v>
+        <v>151</v>
       </c>
       <c r="E168" t="s">
-        <v>1047</v>
+        <v>751</v>
       </c>
       <c r="F168" t="s">
-        <v>931</v>
+        <v>7</v>
       </c>
       <c r="G168" t="s">
         <v>8</v>
@@ -7012,13 +7011,13 @@
         <v>9</v>
       </c>
       <c r="B169" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="D169" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E169" t="s">
-        <v>769</v>
+        <v>752</v>
       </c>
       <c r="F169" t="s">
         <v>7</v>
@@ -7032,13 +7031,13 @@
         <v>9</v>
       </c>
       <c r="B170" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="D170" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E170" t="s">
-        <v>770</v>
+        <v>753</v>
       </c>
       <c r="F170" t="s">
         <v>7</v>
@@ -7052,16 +7051,16 @@
         <v>9</v>
       </c>
       <c r="B171" t="s">
-        <v>464</v>
+        <v>1021</v>
       </c>
       <c r="D171" t="s">
-        <v>157</v>
+        <v>1022</v>
       </c>
       <c r="E171" t="s">
-        <v>771</v>
+        <v>1023</v>
       </c>
       <c r="F171" t="s">
-        <v>7</v>
+        <v>910</v>
       </c>
       <c r="G171" t="s">
         <v>8</v>
@@ -7072,13 +7071,13 @@
         <v>9</v>
       </c>
       <c r="B172" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="D172" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E172" t="s">
-        <v>772</v>
+        <v>754</v>
       </c>
       <c r="F172" t="s">
         <v>7</v>
@@ -7092,13 +7091,13 @@
         <v>9</v>
       </c>
       <c r="B173" t="s">
-        <v>971</v>
+        <v>455</v>
       </c>
       <c r="D173" t="s">
-        <v>972</v>
+        <v>155</v>
       </c>
       <c r="E173" t="s">
-        <v>973</v>
+        <v>755</v>
       </c>
       <c r="F173" t="s">
         <v>7</v>
@@ -7112,13 +7111,13 @@
         <v>9</v>
       </c>
       <c r="B174" t="s">
-        <v>974</v>
+        <v>456</v>
       </c>
       <c r="D174" t="s">
-        <v>975</v>
+        <v>156</v>
       </c>
       <c r="E174" t="s">
-        <v>976</v>
+        <v>756</v>
       </c>
       <c r="F174" t="s">
         <v>7</v>
@@ -7132,13 +7131,13 @@
         <v>9</v>
       </c>
       <c r="B175" t="s">
-        <v>980</v>
+        <v>1067</v>
       </c>
       <c r="D175" t="s">
-        <v>981</v>
+        <v>1068</v>
       </c>
       <c r="E175" t="s">
-        <v>982</v>
+        <v>1069</v>
       </c>
       <c r="F175" t="s">
         <v>7</v>
@@ -7152,13 +7151,13 @@
         <v>9</v>
       </c>
       <c r="B176" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="D176" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E176" t="s">
-        <v>773</v>
+        <v>757</v>
       </c>
       <c r="F176" t="s">
         <v>7</v>
@@ -7172,16 +7171,16 @@
         <v>9</v>
       </c>
       <c r="B177" t="s">
-        <v>467</v>
+        <v>950</v>
       </c>
       <c r="D177" t="s">
-        <v>160</v>
+        <v>951</v>
       </c>
       <c r="E177" t="s">
-        <v>774</v>
+        <v>952</v>
       </c>
       <c r="F177" t="s">
-        <v>931</v>
+        <v>7</v>
       </c>
       <c r="G177" t="s">
         <v>8</v>
@@ -7192,13 +7191,13 @@
         <v>9</v>
       </c>
       <c r="B178" t="s">
-        <v>468</v>
+        <v>956</v>
       </c>
       <c r="D178" t="s">
-        <v>161</v>
+        <v>957</v>
       </c>
       <c r="E178" t="s">
-        <v>775</v>
+        <v>958</v>
       </c>
       <c r="F178" t="s">
         <v>7</v>
@@ -7212,13 +7211,13 @@
         <v>9</v>
       </c>
       <c r="B179" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="D179" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E179" t="s">
-        <v>776</v>
+        <v>758</v>
       </c>
       <c r="F179" t="s">
         <v>7</v>
@@ -7232,16 +7231,16 @@
         <v>9</v>
       </c>
       <c r="B180" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="D180" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E180" t="s">
-        <v>777</v>
+        <v>759</v>
       </c>
       <c r="F180" t="s">
-        <v>7</v>
+        <v>910</v>
       </c>
       <c r="G180" t="s">
         <v>8</v>
@@ -7252,13 +7251,13 @@
         <v>9</v>
       </c>
       <c r="B181" t="s">
-        <v>983</v>
+        <v>460</v>
       </c>
       <c r="D181" t="s">
-        <v>984</v>
+        <v>160</v>
       </c>
       <c r="E181" t="s">
-        <v>985</v>
+        <v>760</v>
       </c>
       <c r="F181" t="s">
         <v>7</v>
@@ -7272,13 +7271,13 @@
         <v>9</v>
       </c>
       <c r="B182" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="D182" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E182" t="s">
-        <v>778</v>
+        <v>761</v>
       </c>
       <c r="F182" t="s">
         <v>7</v>
@@ -7292,13 +7291,13 @@
         <v>9</v>
       </c>
       <c r="B183" t="s">
-        <v>986</v>
+        <v>462</v>
       </c>
       <c r="D183" t="s">
-        <v>987</v>
+        <v>162</v>
       </c>
       <c r="E183" t="s">
-        <v>988</v>
+        <v>762</v>
       </c>
       <c r="F183" t="s">
         <v>7</v>
@@ -7312,16 +7311,16 @@
         <v>9</v>
       </c>
       <c r="B184" t="s">
-        <v>472</v>
+        <v>959</v>
       </c>
       <c r="D184" t="s">
-        <v>165</v>
+        <v>960</v>
       </c>
       <c r="E184" t="s">
-        <v>779</v>
+        <v>961</v>
       </c>
       <c r="F184" t="s">
-        <v>931</v>
+        <v>7</v>
       </c>
       <c r="G184" t="s">
         <v>8</v>
@@ -7332,13 +7331,13 @@
         <v>9</v>
       </c>
       <c r="B185" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="D185" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E185" t="s">
-        <v>780</v>
+        <v>763</v>
       </c>
       <c r="F185" t="s">
         <v>7</v>
@@ -7352,13 +7351,13 @@
         <v>9</v>
       </c>
       <c r="B186" t="s">
-        <v>474</v>
+        <v>962</v>
       </c>
       <c r="D186" t="s">
-        <v>167</v>
+        <v>963</v>
       </c>
       <c r="E186" t="s">
-        <v>781</v>
+        <v>964</v>
       </c>
       <c r="F186" t="s">
         <v>7</v>
@@ -7372,16 +7371,16 @@
         <v>9</v>
       </c>
       <c r="B187" t="s">
-        <v>989</v>
+        <v>464</v>
       </c>
       <c r="D187" t="s">
-        <v>990</v>
+        <v>164</v>
       </c>
       <c r="E187" t="s">
-        <v>991</v>
+        <v>764</v>
       </c>
       <c r="F187" t="s">
-        <v>7</v>
+        <v>910</v>
       </c>
       <c r="G187" t="s">
         <v>8</v>
@@ -7392,13 +7391,13 @@
         <v>9</v>
       </c>
       <c r="B188" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="D188" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E188" t="s">
-        <v>782</v>
+        <v>765</v>
       </c>
       <c r="F188" t="s">
         <v>7</v>
@@ -7412,13 +7411,13 @@
         <v>9</v>
       </c>
       <c r="B189" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="D189" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E189" t="s">
-        <v>783</v>
+        <v>766</v>
       </c>
       <c r="F189" t="s">
         <v>7</v>
@@ -7432,13 +7431,13 @@
         <v>9</v>
       </c>
       <c r="B190" t="s">
-        <v>1048</v>
+        <v>965</v>
       </c>
       <c r="D190" t="s">
-        <v>1049</v>
+        <v>966</v>
       </c>
       <c r="E190" t="s">
-        <v>1050</v>
+        <v>967</v>
       </c>
       <c r="F190" t="s">
         <v>7</v>
@@ -7452,13 +7451,13 @@
         <v>9</v>
       </c>
       <c r="B191" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="D191" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E191" t="s">
-        <v>784</v>
+        <v>767</v>
       </c>
       <c r="F191" t="s">
         <v>7</v>
@@ -7472,16 +7471,16 @@
         <v>9</v>
       </c>
       <c r="B192" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="D192" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E192" t="s">
-        <v>785</v>
+        <v>768</v>
       </c>
       <c r="F192" t="s">
-        <v>931</v>
+        <v>7</v>
       </c>
       <c r="G192" t="s">
         <v>8</v>
@@ -7492,13 +7491,13 @@
         <v>9</v>
       </c>
       <c r="B193" t="s">
-        <v>1051</v>
+        <v>1024</v>
       </c>
       <c r="D193" t="s">
-        <v>1052</v>
+        <v>1025</v>
       </c>
       <c r="E193" t="s">
-        <v>1053</v>
+        <v>1026</v>
       </c>
       <c r="F193" t="s">
         <v>7</v>
@@ -7512,13 +7511,13 @@
         <v>9</v>
       </c>
       <c r="B194" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="D194" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E194" t="s">
-        <v>786</v>
+        <v>769</v>
       </c>
       <c r="F194" t="s">
         <v>7</v>
@@ -7532,16 +7531,16 @@
         <v>9</v>
       </c>
       <c r="B195" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="D195" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E195" t="s">
-        <v>787</v>
+        <v>770</v>
       </c>
       <c r="F195" t="s">
-        <v>7</v>
+        <v>910</v>
       </c>
       <c r="G195" t="s">
         <v>8</v>
@@ -7552,16 +7551,16 @@
         <v>9</v>
       </c>
       <c r="B196" t="s">
-        <v>481</v>
+        <v>1070</v>
       </c>
       <c r="D196" t="s">
-        <v>174</v>
+        <v>1071</v>
       </c>
       <c r="E196" t="s">
-        <v>788</v>
+        <v>1072</v>
       </c>
       <c r="F196" t="s">
-        <v>931</v>
+        <v>7</v>
       </c>
       <c r="G196" t="s">
         <v>8</v>
@@ -7572,13 +7571,13 @@
         <v>9</v>
       </c>
       <c r="B197" t="s">
-        <v>482</v>
+        <v>1027</v>
       </c>
       <c r="D197" t="s">
-        <v>175</v>
+        <v>1028</v>
       </c>
       <c r="E197" t="s">
-        <v>789</v>
+        <v>1029</v>
       </c>
       <c r="F197" t="s">
         <v>7</v>
@@ -7592,13 +7591,13 @@
         <v>9</v>
       </c>
       <c r="B198" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="D198" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E198" t="s">
-        <v>790</v>
+        <v>771</v>
       </c>
       <c r="F198" t="s">
         <v>7</v>
@@ -7612,16 +7611,16 @@
         <v>9</v>
       </c>
       <c r="B199" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="D199" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E199" t="s">
-        <v>791</v>
+        <v>772</v>
       </c>
       <c r="F199" t="s">
-        <v>931</v>
+        <v>7</v>
       </c>
       <c r="G199" t="s">
         <v>8</v>
@@ -7632,16 +7631,16 @@
         <v>9</v>
       </c>
       <c r="B200" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="D200" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E200" t="s">
-        <v>792</v>
+        <v>773</v>
       </c>
       <c r="F200" t="s">
-        <v>7</v>
+        <v>910</v>
       </c>
       <c r="G200" t="s">
         <v>8</v>
@@ -7652,13 +7651,13 @@
         <v>9</v>
       </c>
       <c r="B201" t="s">
-        <v>995</v>
+        <v>474</v>
       </c>
       <c r="D201" t="s">
-        <v>996</v>
+        <v>174</v>
       </c>
       <c r="E201" t="s">
-        <v>997</v>
+        <v>774</v>
       </c>
       <c r="F201" t="s">
         <v>7</v>
@@ -7672,13 +7671,13 @@
         <v>9</v>
       </c>
       <c r="B202" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="D202" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E202" t="s">
-        <v>793</v>
+        <v>775</v>
       </c>
       <c r="F202" t="s">
         <v>7</v>
@@ -7692,16 +7691,16 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="D203" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E203" t="s">
-        <v>794</v>
+        <v>776</v>
       </c>
       <c r="F203" t="s">
-        <v>7</v>
+        <v>910</v>
       </c>
       <c r="G203" t="s">
         <v>8</v>
@@ -7712,13 +7711,13 @@
         <v>9</v>
       </c>
       <c r="B204" t="s">
-        <v>992</v>
+        <v>477</v>
       </c>
       <c r="D204" t="s">
-        <v>993</v>
+        <v>177</v>
       </c>
       <c r="E204" t="s">
-        <v>994</v>
+        <v>777</v>
       </c>
       <c r="F204" t="s">
         <v>7</v>
@@ -7732,13 +7731,13 @@
         <v>9</v>
       </c>
       <c r="B205" t="s">
-        <v>488</v>
+        <v>971</v>
       </c>
       <c r="D205" t="s">
-        <v>181</v>
+        <v>972</v>
       </c>
       <c r="E205" t="s">
-        <v>795</v>
+        <v>973</v>
       </c>
       <c r="F205" t="s">
         <v>7</v>
@@ -7752,13 +7751,13 @@
         <v>9</v>
       </c>
       <c r="B206" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="D206" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E206" t="s">
-        <v>796</v>
+        <v>778</v>
       </c>
       <c r="F206" t="s">
         <v>7</v>
@@ -7772,13 +7771,13 @@
         <v>9</v>
       </c>
       <c r="B207" t="s">
-        <v>490</v>
+        <v>968</v>
       </c>
       <c r="D207" t="s">
-        <v>183</v>
+        <v>969</v>
       </c>
       <c r="E207" t="s">
-        <v>797</v>
+        <v>970</v>
       </c>
       <c r="F207" t="s">
         <v>7</v>
@@ -7792,13 +7791,13 @@
         <v>9</v>
       </c>
       <c r="B208" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="D208" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E208" t="s">
-        <v>798</v>
+        <v>779</v>
       </c>
       <c r="F208" t="s">
         <v>7</v>
@@ -7812,13 +7811,13 @@
         <v>9</v>
       </c>
       <c r="B209" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="D209" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E209" t="s">
-        <v>799</v>
+        <v>780</v>
       </c>
       <c r="F209" t="s">
         <v>7</v>
@@ -7832,13 +7831,13 @@
         <v>9</v>
       </c>
       <c r="B210" t="s">
-        <v>998</v>
+        <v>481</v>
       </c>
       <c r="D210" t="s">
-        <v>999</v>
+        <v>181</v>
       </c>
       <c r="E210" t="s">
-        <v>1000</v>
+        <v>781</v>
       </c>
       <c r="F210" t="s">
         <v>7</v>
@@ -7852,13 +7851,13 @@
         <v>9</v>
       </c>
       <c r="B211" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="D211" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E211" t="s">
-        <v>800</v>
+        <v>782</v>
       </c>
       <c r="F211" t="s">
         <v>7</v>
@@ -7872,13 +7871,13 @@
         <v>9</v>
       </c>
       <c r="B212" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="D212" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E212" t="s">
-        <v>801</v>
+        <v>783</v>
       </c>
       <c r="F212" t="s">
         <v>7</v>
@@ -7892,13 +7891,13 @@
         <v>9</v>
       </c>
       <c r="B213" t="s">
-        <v>495</v>
+        <v>974</v>
       </c>
       <c r="D213" t="s">
-        <v>188</v>
+        <v>975</v>
       </c>
       <c r="E213" t="s">
-        <v>802</v>
+        <v>976</v>
       </c>
       <c r="F213" t="s">
         <v>7</v>
@@ -7912,16 +7911,16 @@
         <v>9</v>
       </c>
       <c r="B214" t="s">
-        <v>1054</v>
+        <v>484</v>
       </c>
       <c r="D214" t="s">
-        <v>1055</v>
+        <v>184</v>
       </c>
       <c r="E214" t="s">
-        <v>1056</v>
+        <v>784</v>
       </c>
       <c r="F214" t="s">
-        <v>931</v>
+        <v>7</v>
       </c>
       <c r="G214" t="s">
         <v>8</v>
@@ -7932,13 +7931,13 @@
         <v>9</v>
       </c>
       <c r="B215" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="D215" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E215" t="s">
-        <v>803</v>
+        <v>785</v>
       </c>
       <c r="F215" t="s">
         <v>7</v>
@@ -7952,13 +7951,13 @@
         <v>9</v>
       </c>
       <c r="B216" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="D216" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E216" t="s">
-        <v>804</v>
+        <v>786</v>
       </c>
       <c r="F216" t="s">
         <v>7</v>
@@ -7972,16 +7971,16 @@
         <v>9</v>
       </c>
       <c r="B217" t="s">
-        <v>498</v>
+        <v>1030</v>
       </c>
       <c r="D217" t="s">
-        <v>191</v>
+        <v>1031</v>
       </c>
       <c r="E217" t="s">
-        <v>805</v>
+        <v>1032</v>
       </c>
       <c r="F217" t="s">
-        <v>7</v>
+        <v>910</v>
       </c>
       <c r="G217" t="s">
         <v>8</v>
@@ -7992,13 +7991,13 @@
         <v>9</v>
       </c>
       <c r="B218" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="D218" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E218" t="s">
-        <v>806</v>
+        <v>787</v>
       </c>
       <c r="F218" t="s">
         <v>7</v>
@@ -8012,13 +8011,13 @@
         <v>9</v>
       </c>
       <c r="B219" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="D219" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E219" t="s">
-        <v>807</v>
+        <v>788</v>
       </c>
       <c r="F219" t="s">
         <v>7</v>
@@ -8032,13 +8031,13 @@
         <v>9</v>
       </c>
       <c r="B220" t="s">
-        <v>1010</v>
+        <v>489</v>
       </c>
       <c r="D220" t="s">
-        <v>1011</v>
+        <v>189</v>
       </c>
       <c r="E220" t="s">
-        <v>1012</v>
+        <v>789</v>
       </c>
       <c r="F220" t="s">
         <v>7</v>
@@ -8052,16 +8051,13 @@
         <v>9</v>
       </c>
       <c r="B221" t="s">
-        <v>1057</v>
-      </c>
-      <c r="C221" t="s">
-        <v>1058</v>
+        <v>490</v>
       </c>
       <c r="D221" t="s">
-        <v>1059</v>
+        <v>190</v>
       </c>
       <c r="E221" t="s">
-        <v>1060</v>
+        <v>790</v>
       </c>
       <c r="F221" t="s">
         <v>7</v>
@@ -8075,13 +8071,13 @@
         <v>9</v>
       </c>
       <c r="B222" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="D222" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E222" t="s">
-        <v>808</v>
+        <v>791</v>
       </c>
       <c r="F222" t="s">
         <v>7</v>
@@ -8095,13 +8091,13 @@
         <v>9</v>
       </c>
       <c r="B223" t="s">
-        <v>502</v>
+        <v>986</v>
       </c>
       <c r="D223" t="s">
-        <v>195</v>
+        <v>987</v>
       </c>
       <c r="E223" t="s">
-        <v>809</v>
+        <v>988</v>
       </c>
       <c r="F223" t="s">
         <v>7</v>
@@ -8115,13 +8111,16 @@
         <v>9</v>
       </c>
       <c r="B224" t="s">
-        <v>503</v>
+        <v>1033</v>
+      </c>
+      <c r="C224" t="s">
+        <v>1034</v>
       </c>
       <c r="D224" t="s">
-        <v>196</v>
+        <v>1035</v>
       </c>
       <c r="E224" t="s">
-        <v>810</v>
+        <v>1036</v>
       </c>
       <c r="F224" t="s">
         <v>7</v>
@@ -8135,16 +8134,16 @@
         <v>9</v>
       </c>
       <c r="B225" t="s">
-        <v>1061</v>
+        <v>492</v>
       </c>
       <c r="D225" t="s">
-        <v>1062</v>
+        <v>192</v>
       </c>
       <c r="E225" t="s">
-        <v>1063</v>
+        <v>792</v>
       </c>
       <c r="F225" t="s">
-        <v>931</v>
+        <v>7</v>
       </c>
       <c r="G225" t="s">
         <v>8</v>
@@ -8155,16 +8154,16 @@
         <v>9</v>
       </c>
       <c r="B226" t="s">
-        <v>504</v>
+        <v>1073</v>
       </c>
       <c r="D226" t="s">
-        <v>197</v>
+        <v>1074</v>
       </c>
       <c r="E226" t="s">
-        <v>811</v>
+        <v>1075</v>
       </c>
       <c r="F226" t="s">
-        <v>7</v>
+        <v>910</v>
       </c>
       <c r="G226" t="s">
         <v>8</v>
@@ -8175,13 +8174,13 @@
         <v>9</v>
       </c>
       <c r="B227" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="D227" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="E227" t="s">
-        <v>812</v>
+        <v>793</v>
       </c>
       <c r="F227" t="s">
         <v>7</v>
@@ -8195,13 +8194,13 @@
         <v>9</v>
       </c>
       <c r="B228" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="D228" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E228" t="s">
-        <v>813</v>
+        <v>794</v>
       </c>
       <c r="F228" t="s">
         <v>7</v>
@@ -8215,16 +8214,16 @@
         <v>9</v>
       </c>
       <c r="B229" t="s">
-        <v>507</v>
+        <v>1037</v>
       </c>
       <c r="D229" t="s">
-        <v>200</v>
+        <v>1038</v>
       </c>
       <c r="E229" t="s">
-        <v>814</v>
+        <v>1039</v>
       </c>
       <c r="F229" t="s">
-        <v>7</v>
+        <v>910</v>
       </c>
       <c r="G229" t="s">
         <v>8</v>
@@ -8235,13 +8234,13 @@
         <v>9</v>
       </c>
       <c r="B230" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
       <c r="D230" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E230" t="s">
-        <v>815</v>
+        <v>795</v>
       </c>
       <c r="F230" t="s">
         <v>7</v>
@@ -8255,13 +8254,13 @@
         <v>9</v>
       </c>
       <c r="B231" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="D231" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="E231" t="s">
-        <v>816</v>
+        <v>796</v>
       </c>
       <c r="F231" t="s">
         <v>7</v>
@@ -8275,13 +8274,13 @@
         <v>9</v>
       </c>
       <c r="B232" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
       <c r="D232" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E232" t="s">
-        <v>817</v>
+        <v>797</v>
       </c>
       <c r="F232" t="s">
         <v>7</v>
@@ -8295,13 +8294,13 @@
         <v>9</v>
       </c>
       <c r="B233" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="D233" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E233" t="s">
-        <v>818</v>
+        <v>798</v>
       </c>
       <c r="F233" t="s">
         <v>7</v>
@@ -8315,16 +8314,13 @@
         <v>9</v>
       </c>
       <c r="B234" t="s">
-        <v>1064</v>
-      </c>
-      <c r="C234" t="s">
-        <v>1065</v>
+        <v>499</v>
       </c>
       <c r="D234" t="s">
-        <v>1066</v>
+        <v>199</v>
       </c>
       <c r="E234" t="s">
-        <v>1067</v>
+        <v>799</v>
       </c>
       <c r="F234" t="s">
         <v>7</v>
@@ -8338,13 +8334,13 @@
         <v>9</v>
       </c>
       <c r="B235" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="D235" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E235" t="s">
-        <v>819</v>
+        <v>800</v>
       </c>
       <c r="F235" t="s">
         <v>7</v>
@@ -8358,16 +8354,16 @@
         <v>9</v>
       </c>
       <c r="B236" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="D236" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E236" t="s">
-        <v>820</v>
+        <v>801</v>
       </c>
       <c r="F236" t="s">
-        <v>931</v>
+        <v>7</v>
       </c>
       <c r="G236" t="s">
         <v>8</v>
@@ -8378,13 +8374,16 @@
         <v>9</v>
       </c>
       <c r="B237" t="s">
-        <v>514</v>
+        <v>1040</v>
+      </c>
+      <c r="C237" t="s">
+        <v>1041</v>
       </c>
       <c r="D237" t="s">
-        <v>207</v>
+        <v>1042</v>
       </c>
       <c r="E237" t="s">
-        <v>821</v>
+        <v>1043</v>
       </c>
       <c r="F237" t="s">
         <v>7</v>
@@ -8398,13 +8397,13 @@
         <v>9</v>
       </c>
       <c r="B238" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="D238" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="E238" t="s">
-        <v>822</v>
+        <v>802</v>
       </c>
       <c r="F238" t="s">
         <v>7</v>
@@ -8418,13 +8417,13 @@
         <v>9</v>
       </c>
       <c r="B239" t="s">
-        <v>516</v>
+        <v>1076</v>
       </c>
       <c r="D239" t="s">
-        <v>209</v>
+        <v>1077</v>
       </c>
       <c r="E239" t="s">
-        <v>823</v>
+        <v>1078</v>
       </c>
       <c r="F239" t="s">
         <v>7</v>
@@ -8438,16 +8437,16 @@
         <v>9</v>
       </c>
       <c r="B240" t="s">
-        <v>517</v>
+        <v>503</v>
       </c>
       <c r="D240" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="E240" t="s">
-        <v>824</v>
+        <v>803</v>
       </c>
       <c r="F240" t="s">
-        <v>7</v>
+        <v>910</v>
       </c>
       <c r="G240" t="s">
         <v>8</v>
@@ -8458,13 +8457,13 @@
         <v>9</v>
       </c>
       <c r="B241" t="s">
-        <v>518</v>
+        <v>504</v>
       </c>
       <c r="D241" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="E241" t="s">
-        <v>825</v>
+        <v>804</v>
       </c>
       <c r="F241" t="s">
         <v>7</v>
@@ -8478,13 +8477,13 @@
         <v>9</v>
       </c>
       <c r="B242" t="s">
-        <v>519</v>
+        <v>505</v>
       </c>
       <c r="D242" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E242" t="s">
-        <v>826</v>
+        <v>805</v>
       </c>
       <c r="F242" t="s">
         <v>7</v>
@@ -8498,13 +8497,13 @@
         <v>9</v>
       </c>
       <c r="B243" t="s">
-        <v>1068</v>
+        <v>506</v>
       </c>
       <c r="D243" t="s">
-        <v>1069</v>
+        <v>206</v>
       </c>
       <c r="E243" t="s">
-        <v>1070</v>
+        <v>806</v>
       </c>
       <c r="F243" t="s">
         <v>7</v>
@@ -8518,13 +8517,13 @@
         <v>9</v>
       </c>
       <c r="B244" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="D244" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="E244" t="s">
-        <v>827</v>
+        <v>807</v>
       </c>
       <c r="F244" t="s">
         <v>7</v>
@@ -8538,13 +8537,16 @@
         <v>9</v>
       </c>
       <c r="B245" t="s">
-        <v>521</v>
+        <v>1079</v>
+      </c>
+      <c r="C245" t="s">
+        <v>1080</v>
       </c>
       <c r="D245" t="s">
-        <v>214</v>
+        <v>1081</v>
       </c>
       <c r="E245" t="s">
-        <v>828</v>
+        <v>1082</v>
       </c>
       <c r="F245" t="s">
         <v>7</v>
@@ -8558,13 +8560,13 @@
         <v>9</v>
       </c>
       <c r="B246" t="s">
-        <v>522</v>
+        <v>508</v>
       </c>
       <c r="D246" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="E246" t="s">
-        <v>829</v>
+        <v>808</v>
       </c>
       <c r="F246" t="s">
         <v>7</v>
@@ -8578,13 +8580,13 @@
         <v>9</v>
       </c>
       <c r="B247" t="s">
-        <v>523</v>
+        <v>1044</v>
       </c>
       <c r="D247" t="s">
-        <v>216</v>
+        <v>1045</v>
       </c>
       <c r="E247" t="s">
-        <v>830</v>
+        <v>1046</v>
       </c>
       <c r="F247" t="s">
         <v>7</v>
@@ -8598,13 +8600,13 @@
         <v>9</v>
       </c>
       <c r="B248" t="s">
-        <v>524</v>
+        <v>509</v>
       </c>
       <c r="D248" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="E248" t="s">
-        <v>831</v>
+        <v>809</v>
       </c>
       <c r="F248" t="s">
         <v>7</v>
@@ -8618,13 +8620,13 @@
         <v>9</v>
       </c>
       <c r="B249" t="s">
-        <v>525</v>
+        <v>510</v>
       </c>
       <c r="D249" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E249" t="s">
-        <v>832</v>
+        <v>810</v>
       </c>
       <c r="F249" t="s">
         <v>7</v>
@@ -8638,13 +8640,13 @@
         <v>9</v>
       </c>
       <c r="B250" t="s">
-        <v>526</v>
+        <v>511</v>
       </c>
       <c r="D250" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="E250" t="s">
-        <v>833</v>
+        <v>811</v>
       </c>
       <c r="F250" t="s">
         <v>7</v>
@@ -8658,13 +8660,13 @@
         <v>9</v>
       </c>
       <c r="B251" t="s">
-        <v>527</v>
+        <v>512</v>
       </c>
       <c r="D251" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="E251" t="s">
-        <v>834</v>
+        <v>812</v>
       </c>
       <c r="F251" t="s">
         <v>7</v>
@@ -8678,13 +8680,13 @@
         <v>9</v>
       </c>
       <c r="B252" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="D252" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="E252" t="s">
-        <v>835</v>
+        <v>813</v>
       </c>
       <c r="F252" t="s">
         <v>7</v>
@@ -8698,13 +8700,13 @@
         <v>9</v>
       </c>
       <c r="B253" t="s">
-        <v>529</v>
+        <v>514</v>
       </c>
       <c r="D253" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="E253" t="s">
-        <v>836</v>
+        <v>814</v>
       </c>
       <c r="F253" t="s">
         <v>7</v>
@@ -8718,13 +8720,13 @@
         <v>9</v>
       </c>
       <c r="B254" t="s">
-        <v>530</v>
+        <v>515</v>
       </c>
       <c r="D254" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="E254" t="s">
-        <v>837</v>
+        <v>815</v>
       </c>
       <c r="F254" t="s">
         <v>7</v>
@@ -8738,13 +8740,13 @@
         <v>9</v>
       </c>
       <c r="B255" t="s">
-        <v>531</v>
+        <v>516</v>
       </c>
       <c r="D255" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="E255" t="s">
-        <v>838</v>
+        <v>816</v>
       </c>
       <c r="F255" t="s">
         <v>7</v>
@@ -8758,16 +8760,16 @@
         <v>9</v>
       </c>
       <c r="B256" t="s">
-        <v>532</v>
+        <v>517</v>
       </c>
       <c r="D256" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="E256" t="s">
-        <v>839</v>
+        <v>817</v>
       </c>
       <c r="F256" t="s">
-        <v>931</v>
+        <v>7</v>
       </c>
       <c r="G256" t="s">
         <v>8</v>
@@ -8778,13 +8780,13 @@
         <v>9</v>
       </c>
       <c r="B257" t="s">
-        <v>533</v>
+        <v>518</v>
       </c>
       <c r="D257" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="E257" t="s">
-        <v>840</v>
+        <v>818</v>
       </c>
       <c r="F257" t="s">
         <v>7</v>
@@ -8798,13 +8800,13 @@
         <v>9</v>
       </c>
       <c r="B258" t="s">
-        <v>534</v>
+        <v>519</v>
       </c>
       <c r="D258" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="E258" t="s">
-        <v>841</v>
+        <v>819</v>
       </c>
       <c r="F258" t="s">
         <v>7</v>
@@ -8818,13 +8820,13 @@
         <v>9</v>
       </c>
       <c r="B259" t="s">
-        <v>535</v>
+        <v>520</v>
       </c>
       <c r="D259" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="E259" t="s">
-        <v>842</v>
+        <v>820</v>
       </c>
       <c r="F259" t="s">
         <v>7</v>
@@ -8838,16 +8840,16 @@
         <v>9</v>
       </c>
       <c r="B260" t="s">
-        <v>536</v>
+        <v>521</v>
       </c>
       <c r="D260" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="E260" t="s">
-        <v>843</v>
+        <v>821</v>
       </c>
       <c r="F260" t="s">
-        <v>7</v>
+        <v>910</v>
       </c>
       <c r="G260" t="s">
         <v>8</v>
@@ -8858,13 +8860,13 @@
         <v>9</v>
       </c>
       <c r="B261" t="s">
-        <v>537</v>
+        <v>522</v>
       </c>
       <c r="D261" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="E261" t="s">
-        <v>844</v>
+        <v>822</v>
       </c>
       <c r="F261" t="s">
         <v>7</v>
@@ -8878,13 +8880,13 @@
         <v>9</v>
       </c>
       <c r="B262" t="s">
-        <v>538</v>
+        <v>523</v>
       </c>
       <c r="D262" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="E262" t="s">
-        <v>845</v>
+        <v>823</v>
       </c>
       <c r="F262" t="s">
         <v>7</v>
@@ -8898,16 +8900,16 @@
         <v>9</v>
       </c>
       <c r="B263" t="s">
-        <v>539</v>
+        <v>524</v>
       </c>
       <c r="D263" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="E263" t="s">
-        <v>846</v>
+        <v>824</v>
       </c>
       <c r="F263" t="s">
-        <v>931</v>
+        <v>7</v>
       </c>
       <c r="G263" t="s">
         <v>8</v>
@@ -8918,13 +8920,13 @@
         <v>9</v>
       </c>
       <c r="B264" t="s">
-        <v>540</v>
+        <v>525</v>
       </c>
       <c r="D264" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="E264" t="s">
-        <v>847</v>
+        <v>825</v>
       </c>
       <c r="F264" t="s">
         <v>7</v>
@@ -8938,13 +8940,13 @@
         <v>9</v>
       </c>
       <c r="B265" t="s">
-        <v>541</v>
+        <v>526</v>
       </c>
       <c r="D265" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="E265" t="s">
-        <v>848</v>
+        <v>826</v>
       </c>
       <c r="F265" t="s">
         <v>7</v>
@@ -8958,13 +8960,13 @@
         <v>9</v>
       </c>
       <c r="B266" t="s">
-        <v>542</v>
+        <v>527</v>
       </c>
       <c r="D266" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="E266" t="s">
-        <v>849</v>
+        <v>827</v>
       </c>
       <c r="F266" t="s">
         <v>7</v>
@@ -8978,16 +8980,16 @@
         <v>9</v>
       </c>
       <c r="B267" t="s">
-        <v>543</v>
+        <v>528</v>
       </c>
       <c r="D267" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E267" t="s">
-        <v>850</v>
+        <v>828</v>
       </c>
       <c r="F267" t="s">
-        <v>7</v>
+        <v>910</v>
       </c>
       <c r="G267" t="s">
         <v>8</v>
@@ -8998,13 +9000,13 @@
         <v>9</v>
       </c>
       <c r="B268" t="s">
-        <v>544</v>
+        <v>529</v>
       </c>
       <c r="D268" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="E268" t="s">
-        <v>851</v>
+        <v>829</v>
       </c>
       <c r="F268" t="s">
         <v>7</v>
@@ -9018,13 +9020,13 @@
         <v>9</v>
       </c>
       <c r="B269" t="s">
-        <v>545</v>
+        <v>530</v>
       </c>
       <c r="D269" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="E269" t="s">
-        <v>852</v>
+        <v>830</v>
       </c>
       <c r="F269" t="s">
         <v>7</v>
@@ -9038,13 +9040,13 @@
         <v>9</v>
       </c>
       <c r="B270" t="s">
-        <v>546</v>
+        <v>531</v>
       </c>
       <c r="D270" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="E270" t="s">
-        <v>853</v>
+        <v>831</v>
       </c>
       <c r="F270" t="s">
         <v>7</v>
@@ -9058,13 +9060,13 @@
         <v>9</v>
       </c>
       <c r="B271" t="s">
-        <v>547</v>
+        <v>1083</v>
       </c>
       <c r="D271" t="s">
-        <v>240</v>
+        <v>1084</v>
       </c>
       <c r="E271" t="s">
-        <v>854</v>
+        <v>1085</v>
       </c>
       <c r="F271" t="s">
         <v>7</v>
@@ -9078,13 +9080,13 @@
         <v>9</v>
       </c>
       <c r="B272" t="s">
-        <v>548</v>
+        <v>532</v>
       </c>
       <c r="D272" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="E272" t="s">
-        <v>855</v>
+        <v>832</v>
       </c>
       <c r="F272" t="s">
         <v>7</v>
@@ -9098,13 +9100,13 @@
         <v>9</v>
       </c>
       <c r="B273" t="s">
-        <v>549</v>
+        <v>533</v>
       </c>
       <c r="D273" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="E273" t="s">
-        <v>856</v>
+        <v>833</v>
       </c>
       <c r="F273" t="s">
         <v>7</v>
@@ -9118,13 +9120,13 @@
         <v>9</v>
       </c>
       <c r="B274" t="s">
-        <v>550</v>
+        <v>534</v>
       </c>
       <c r="D274" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="E274" t="s">
-        <v>857</v>
+        <v>834</v>
       </c>
       <c r="F274" t="s">
         <v>7</v>
@@ -9138,13 +9140,13 @@
         <v>9</v>
       </c>
       <c r="B275" t="s">
-        <v>551</v>
+        <v>535</v>
       </c>
       <c r="D275" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="E275" t="s">
-        <v>858</v>
+        <v>835</v>
       </c>
       <c r="F275" t="s">
         <v>7</v>
@@ -9158,13 +9160,13 @@
         <v>9</v>
       </c>
       <c r="B276" t="s">
-        <v>552</v>
+        <v>536</v>
       </c>
       <c r="D276" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="E276" t="s">
-        <v>859</v>
+        <v>836</v>
       </c>
       <c r="F276" t="s">
         <v>7</v>
@@ -9178,13 +9180,13 @@
         <v>9</v>
       </c>
       <c r="B277" t="s">
-        <v>553</v>
+        <v>537</v>
       </c>
       <c r="D277" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="E277" t="s">
-        <v>860</v>
+        <v>837</v>
       </c>
       <c r="F277" t="s">
         <v>7</v>
@@ -9198,13 +9200,13 @@
         <v>9</v>
       </c>
       <c r="B278" t="s">
-        <v>554</v>
+        <v>538</v>
       </c>
       <c r="D278" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="E278" t="s">
-        <v>861</v>
+        <v>838</v>
       </c>
       <c r="F278" t="s">
         <v>7</v>
@@ -9218,13 +9220,13 @@
         <v>9</v>
       </c>
       <c r="B279" t="s">
-        <v>1007</v>
+        <v>539</v>
       </c>
       <c r="D279" t="s">
-        <v>1008</v>
+        <v>239</v>
       </c>
       <c r="E279" t="s">
-        <v>1009</v>
+        <v>839</v>
       </c>
       <c r="F279" t="s">
         <v>7</v>
@@ -9238,13 +9240,13 @@
         <v>9</v>
       </c>
       <c r="B280" t="s">
-        <v>555</v>
+        <v>540</v>
       </c>
       <c r="D280" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="E280" t="s">
-        <v>862</v>
+        <v>840</v>
       </c>
       <c r="F280" t="s">
         <v>7</v>
@@ -9258,13 +9260,13 @@
         <v>9</v>
       </c>
       <c r="B281" t="s">
-        <v>556</v>
+        <v>541</v>
       </c>
       <c r="D281" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="E281" t="s">
-        <v>863</v>
+        <v>841</v>
       </c>
       <c r="F281" t="s">
         <v>7</v>
@@ -9278,13 +9280,13 @@
         <v>9</v>
       </c>
       <c r="B282" t="s">
-        <v>557</v>
+        <v>542</v>
       </c>
       <c r="D282" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="E282" t="s">
-        <v>864</v>
+        <v>842</v>
       </c>
       <c r="F282" t="s">
         <v>7</v>
@@ -9298,13 +9300,13 @@
         <v>9</v>
       </c>
       <c r="B283" t="s">
-        <v>558</v>
+        <v>543</v>
       </c>
       <c r="D283" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="E283" t="s">
-        <v>865</v>
+        <v>843</v>
       </c>
       <c r="F283" t="s">
         <v>7</v>
@@ -9318,16 +9320,16 @@
         <v>9</v>
       </c>
       <c r="B284" t="s">
-        <v>1013</v>
+        <v>983</v>
       </c>
       <c r="D284" t="s">
-        <v>1014</v>
+        <v>984</v>
       </c>
       <c r="E284" t="s">
-        <v>1015</v>
+        <v>985</v>
       </c>
       <c r="F284" t="s">
-        <v>931</v>
+        <v>7</v>
       </c>
       <c r="G284" t="s">
         <v>8</v>
@@ -9338,13 +9340,13 @@
         <v>9</v>
       </c>
       <c r="B285" t="s">
-        <v>559</v>
+        <v>544</v>
       </c>
       <c r="D285" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="E285" t="s">
-        <v>866</v>
+        <v>844</v>
       </c>
       <c r="F285" t="s">
         <v>7</v>
@@ -9358,13 +9360,13 @@
         <v>9</v>
       </c>
       <c r="B286" t="s">
-        <v>560</v>
+        <v>545</v>
       </c>
       <c r="D286" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="E286" t="s">
-        <v>867</v>
+        <v>845</v>
       </c>
       <c r="F286" t="s">
         <v>7</v>
@@ -9378,13 +9380,13 @@
         <v>9</v>
       </c>
       <c r="B287" t="s">
-        <v>561</v>
+        <v>546</v>
       </c>
       <c r="D287" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="E287" t="s">
-        <v>868</v>
+        <v>846</v>
       </c>
       <c r="F287" t="s">
         <v>7</v>
@@ -9398,16 +9400,16 @@
         <v>9</v>
       </c>
       <c r="B288" t="s">
-        <v>562</v>
+        <v>547</v>
       </c>
       <c r="D288" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="E288" t="s">
-        <v>869</v>
+        <v>847</v>
       </c>
       <c r="F288" t="s">
-        <v>931</v>
+        <v>7</v>
       </c>
       <c r="G288" t="s">
         <v>8</v>
@@ -9418,16 +9420,16 @@
         <v>9</v>
       </c>
       <c r="B289" t="s">
-        <v>1019</v>
+        <v>989</v>
       </c>
       <c r="D289" t="s">
-        <v>1020</v>
+        <v>990</v>
       </c>
       <c r="E289" t="s">
-        <v>1021</v>
+        <v>991</v>
       </c>
       <c r="F289" t="s">
-        <v>7</v>
+        <v>910</v>
       </c>
       <c r="G289" t="s">
         <v>8</v>
@@ -9438,13 +9440,13 @@
         <v>9</v>
       </c>
       <c r="B290" t="s">
-        <v>563</v>
+        <v>548</v>
       </c>
       <c r="D290" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="E290" t="s">
-        <v>870</v>
+        <v>848</v>
       </c>
       <c r="F290" t="s">
         <v>7</v>
@@ -9458,13 +9460,13 @@
         <v>9</v>
       </c>
       <c r="B291" t="s">
-        <v>564</v>
+        <v>549</v>
       </c>
       <c r="D291" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="E291" t="s">
-        <v>871</v>
+        <v>849</v>
       </c>
       <c r="F291" t="s">
         <v>7</v>
@@ -9478,13 +9480,13 @@
         <v>9</v>
       </c>
       <c r="B292" t="s">
-        <v>565</v>
+        <v>550</v>
       </c>
       <c r="D292" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="E292" t="s">
-        <v>872</v>
+        <v>850</v>
       </c>
       <c r="F292" t="s">
         <v>7</v>
@@ -9498,13 +9500,13 @@
         <v>9</v>
       </c>
       <c r="B293" t="s">
-        <v>566</v>
+        <v>995</v>
       </c>
       <c r="D293" t="s">
-        <v>259</v>
+        <v>996</v>
       </c>
       <c r="E293" t="s">
-        <v>873</v>
+        <v>997</v>
       </c>
       <c r="F293" t="s">
         <v>7</v>
@@ -9518,13 +9520,13 @@
         <v>9</v>
       </c>
       <c r="B294" t="s">
-        <v>567</v>
+        <v>551</v>
       </c>
       <c r="D294" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="E294" t="s">
-        <v>874</v>
+        <v>851</v>
       </c>
       <c r="F294" t="s">
         <v>7</v>
@@ -9538,13 +9540,13 @@
         <v>9</v>
       </c>
       <c r="B295" t="s">
-        <v>568</v>
+        <v>552</v>
       </c>
       <c r="D295" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="E295" t="s">
-        <v>875</v>
+        <v>852</v>
       </c>
       <c r="F295" t="s">
         <v>7</v>
@@ -9558,13 +9560,13 @@
         <v>9</v>
       </c>
       <c r="B296" t="s">
-        <v>569</v>
+        <v>553</v>
       </c>
       <c r="D296" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="E296" t="s">
-        <v>876</v>
+        <v>853</v>
       </c>
       <c r="F296" t="s">
         <v>7</v>
@@ -9578,13 +9580,13 @@
         <v>9</v>
       </c>
       <c r="B297" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
       <c r="D297" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="E297" t="s">
-        <v>877</v>
+        <v>854</v>
       </c>
       <c r="F297" t="s">
         <v>7</v>
@@ -9598,13 +9600,13 @@
         <v>9</v>
       </c>
       <c r="B298" t="s">
-        <v>571</v>
+        <v>555</v>
       </c>
       <c r="D298" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="E298" t="s">
-        <v>878</v>
+        <v>855</v>
       </c>
       <c r="F298" t="s">
         <v>7</v>
@@ -9618,16 +9620,16 @@
         <v>9</v>
       </c>
       <c r="B299" t="s">
-        <v>1016</v>
+        <v>556</v>
       </c>
       <c r="D299" t="s">
-        <v>1017</v>
+        <v>256</v>
       </c>
       <c r="E299" t="s">
-        <v>1018</v>
+        <v>856</v>
       </c>
       <c r="F299" t="s">
-        <v>931</v>
+        <v>7</v>
       </c>
       <c r="G299" t="s">
         <v>8</v>
@@ -9638,13 +9640,13 @@
         <v>9</v>
       </c>
       <c r="B300" t="s">
-        <v>572</v>
+        <v>557</v>
       </c>
       <c r="D300" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="E300" t="s">
-        <v>879</v>
+        <v>857</v>
       </c>
       <c r="F300" t="s">
         <v>7</v>
@@ -9658,13 +9660,13 @@
         <v>9</v>
       </c>
       <c r="B301" t="s">
-        <v>573</v>
+        <v>558</v>
       </c>
       <c r="D301" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="E301" t="s">
-        <v>880</v>
+        <v>858</v>
       </c>
       <c r="F301" t="s">
         <v>7</v>
@@ -9678,13 +9680,13 @@
         <v>9</v>
       </c>
       <c r="B302" t="s">
-        <v>574</v>
+        <v>559</v>
       </c>
       <c r="D302" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="E302" t="s">
-        <v>881</v>
+        <v>859</v>
       </c>
       <c r="F302" t="s">
         <v>7</v>
@@ -9698,16 +9700,16 @@
         <v>9</v>
       </c>
       <c r="B303" t="s">
-        <v>575</v>
+        <v>992</v>
       </c>
       <c r="D303" t="s">
-        <v>268</v>
+        <v>993</v>
       </c>
       <c r="E303" t="s">
-        <v>882</v>
+        <v>994</v>
       </c>
       <c r="F303" t="s">
-        <v>7</v>
+        <v>910</v>
       </c>
       <c r="G303" t="s">
         <v>8</v>
@@ -9718,13 +9720,13 @@
         <v>9</v>
       </c>
       <c r="B304" t="s">
-        <v>576</v>
+        <v>560</v>
       </c>
       <c r="D304" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="E304" t="s">
-        <v>883</v>
+        <v>860</v>
       </c>
       <c r="F304" t="s">
         <v>7</v>
@@ -9738,13 +9740,13 @@
         <v>9</v>
       </c>
       <c r="B305" t="s">
-        <v>577</v>
+        <v>561</v>
       </c>
       <c r="D305" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="E305" t="s">
-        <v>884</v>
+        <v>861</v>
       </c>
       <c r="F305" t="s">
         <v>7</v>
@@ -9758,13 +9760,13 @@
         <v>9</v>
       </c>
       <c r="B306" t="s">
-        <v>578</v>
+        <v>562</v>
       </c>
       <c r="D306" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="E306" t="s">
-        <v>885</v>
+        <v>862</v>
       </c>
       <c r="F306" t="s">
         <v>7</v>
@@ -9778,13 +9780,13 @@
         <v>9</v>
       </c>
       <c r="B307" t="s">
-        <v>579</v>
+        <v>563</v>
       </c>
       <c r="D307" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="E307" t="s">
-        <v>886</v>
+        <v>863</v>
       </c>
       <c r="F307" t="s">
         <v>7</v>
@@ -9798,13 +9800,13 @@
         <v>9</v>
       </c>
       <c r="B308" t="s">
-        <v>580</v>
+        <v>564</v>
       </c>
       <c r="D308" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="E308" t="s">
-        <v>887</v>
+        <v>864</v>
       </c>
       <c r="F308" t="s">
         <v>7</v>
@@ -9818,13 +9820,13 @@
         <v>9</v>
       </c>
       <c r="B309" t="s">
-        <v>581</v>
+        <v>565</v>
       </c>
       <c r="D309" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="E309" t="s">
-        <v>888</v>
+        <v>865</v>
       </c>
       <c r="F309" t="s">
         <v>7</v>
@@ -9838,13 +9840,13 @@
         <v>9</v>
       </c>
       <c r="B310" t="s">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="D310" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="E310" t="s">
-        <v>889</v>
+        <v>866</v>
       </c>
       <c r="F310" t="s">
         <v>7</v>
@@ -9858,13 +9860,13 @@
         <v>9</v>
       </c>
       <c r="B311" t="s">
-        <v>583</v>
+        <v>567</v>
       </c>
       <c r="D311" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="E311" t="s">
-        <v>890</v>
+        <v>867</v>
       </c>
       <c r="F311" t="s">
         <v>7</v>
@@ -9878,13 +9880,13 @@
         <v>9</v>
       </c>
       <c r="B312" t="s">
-        <v>584</v>
+        <v>568</v>
       </c>
       <c r="D312" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="E312" t="s">
-        <v>891</v>
+        <v>868</v>
       </c>
       <c r="F312" t="s">
         <v>7</v>
@@ -9898,13 +9900,13 @@
         <v>9</v>
       </c>
       <c r="B313" t="s">
-        <v>585</v>
+        <v>569</v>
       </c>
       <c r="D313" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="E313" t="s">
-        <v>892</v>
+        <v>869</v>
       </c>
       <c r="F313" t="s">
         <v>7</v>
@@ -9918,13 +9920,13 @@
         <v>9</v>
       </c>
       <c r="B314" t="s">
-        <v>586</v>
+        <v>570</v>
       </c>
       <c r="D314" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="E314" t="s">
-        <v>893</v>
+        <v>870</v>
       </c>
       <c r="F314" t="s">
         <v>7</v>
@@ -9938,13 +9940,13 @@
         <v>9</v>
       </c>
       <c r="B315" t="s">
-        <v>587</v>
+        <v>571</v>
       </c>
       <c r="D315" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="E315" t="s">
-        <v>894</v>
+        <v>871</v>
       </c>
       <c r="F315" t="s">
         <v>7</v>
@@ -9958,13 +9960,13 @@
         <v>9</v>
       </c>
       <c r="B316" t="s">
-        <v>588</v>
+        <v>1086</v>
       </c>
       <c r="D316" t="s">
-        <v>281</v>
+        <v>1087</v>
       </c>
       <c r="E316" t="s">
-        <v>895</v>
+        <v>1088</v>
       </c>
       <c r="F316" t="s">
         <v>7</v>
@@ -9978,13 +9980,13 @@
         <v>9</v>
       </c>
       <c r="B317" t="s">
-        <v>589</v>
+        <v>572</v>
       </c>
       <c r="D317" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="E317" t="s">
-        <v>896</v>
+        <v>872</v>
       </c>
       <c r="F317" t="s">
         <v>7</v>
@@ -9998,13 +10000,13 @@
         <v>9</v>
       </c>
       <c r="B318" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
       <c r="D318" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="E318" t="s">
-        <v>897</v>
+        <v>873</v>
       </c>
       <c r="F318" t="s">
         <v>7</v>
@@ -10018,13 +10020,13 @@
         <v>9</v>
       </c>
       <c r="B319" t="s">
-        <v>591</v>
+        <v>574</v>
       </c>
       <c r="D319" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="E319" t="s">
-        <v>898</v>
+        <v>874</v>
       </c>
       <c r="F319" t="s">
         <v>7</v>
@@ -10038,13 +10040,13 @@
         <v>9</v>
       </c>
       <c r="B320" t="s">
-        <v>592</v>
+        <v>575</v>
       </c>
       <c r="D320" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="E320" t="s">
-        <v>899</v>
+        <v>875</v>
       </c>
       <c r="F320" t="s">
         <v>7</v>
@@ -10058,13 +10060,13 @@
         <v>9</v>
       </c>
       <c r="B321" t="s">
-        <v>593</v>
+        <v>576</v>
       </c>
       <c r="D321" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="E321" t="s">
-        <v>900</v>
+        <v>876</v>
       </c>
       <c r="F321" t="s">
         <v>7</v>
@@ -10078,13 +10080,13 @@
         <v>9</v>
       </c>
       <c r="B322" t="s">
-        <v>594</v>
+        <v>577</v>
       </c>
       <c r="D322" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="E322" t="s">
-        <v>901</v>
+        <v>877</v>
       </c>
       <c r="F322" t="s">
         <v>7</v>
@@ -10098,13 +10100,13 @@
         <v>9</v>
       </c>
       <c r="B323" t="s">
-        <v>595</v>
+        <v>578</v>
       </c>
       <c r="D323" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="E323" t="s">
-        <v>902</v>
+        <v>878</v>
       </c>
       <c r="F323" t="s">
         <v>7</v>
@@ -10118,13 +10120,13 @@
         <v>9</v>
       </c>
       <c r="B324" t="s">
-        <v>596</v>
+        <v>579</v>
       </c>
       <c r="D324" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="E324" t="s">
-        <v>903</v>
+        <v>879</v>
       </c>
       <c r="F324" t="s">
         <v>7</v>
@@ -10138,13 +10140,13 @@
         <v>9</v>
       </c>
       <c r="B325" t="s">
-        <v>597</v>
+        <v>580</v>
       </c>
       <c r="D325" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="E325" t="s">
-        <v>904</v>
+        <v>880</v>
       </c>
       <c r="F325" t="s">
         <v>7</v>
@@ -10158,13 +10160,13 @@
         <v>9</v>
       </c>
       <c r="B326" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="D326" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="E326" t="s">
-        <v>905</v>
+        <v>881</v>
       </c>
       <c r="F326" t="s">
         <v>7</v>
@@ -10178,13 +10180,13 @@
         <v>9</v>
       </c>
       <c r="B327" t="s">
-        <v>599</v>
+        <v>582</v>
       </c>
       <c r="D327" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="E327" t="s">
-        <v>906</v>
+        <v>882</v>
       </c>
       <c r="F327" t="s">
         <v>7</v>
@@ -10198,13 +10200,13 @@
         <v>9</v>
       </c>
       <c r="B328" t="s">
-        <v>600</v>
+        <v>583</v>
       </c>
       <c r="D328" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="E328" t="s">
-        <v>907</v>
+        <v>883</v>
       </c>
       <c r="F328" t="s">
         <v>7</v>
@@ -10218,13 +10220,13 @@
         <v>9</v>
       </c>
       <c r="B329" t="s">
-        <v>601</v>
+        <v>584</v>
       </c>
       <c r="D329" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="E329" t="s">
-        <v>908</v>
+        <v>884</v>
       </c>
       <c r="F329" t="s">
         <v>7</v>
@@ -10238,16 +10240,16 @@
         <v>9</v>
       </c>
       <c r="B330" t="s">
-        <v>602</v>
+        <v>585</v>
       </c>
       <c r="D330" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="E330" t="s">
-        <v>909</v>
+        <v>885</v>
       </c>
       <c r="F330" t="s">
-        <v>7</v>
+        <v>910</v>
       </c>
       <c r="G330" t="s">
         <v>8</v>
@@ -10258,13 +10260,13 @@
         <v>9</v>
       </c>
       <c r="B331" t="s">
-        <v>603</v>
+        <v>586</v>
       </c>
       <c r="D331" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="E331" t="s">
-        <v>910</v>
+        <v>886</v>
       </c>
       <c r="F331" t="s">
         <v>7</v>
@@ -10278,13 +10280,13 @@
         <v>9</v>
       </c>
       <c r="B332" t="s">
-        <v>604</v>
+        <v>587</v>
       </c>
       <c r="D332" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="E332" t="s">
-        <v>911</v>
+        <v>887</v>
       </c>
       <c r="F332" t="s">
         <v>7</v>
@@ -10298,13 +10300,13 @@
         <v>9</v>
       </c>
       <c r="B333" t="s">
-        <v>605</v>
+        <v>588</v>
       </c>
       <c r="D333" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="E333" t="s">
-        <v>912</v>
+        <v>888</v>
       </c>
       <c r="F333" t="s">
         <v>7</v>
@@ -10318,13 +10320,13 @@
         <v>9</v>
       </c>
       <c r="B334" t="s">
-        <v>606</v>
+        <v>589</v>
       </c>
       <c r="D334" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="E334" t="s">
-        <v>913</v>
+        <v>889</v>
       </c>
       <c r="F334" t="s">
         <v>7</v>
@@ -10338,13 +10340,13 @@
         <v>9</v>
       </c>
       <c r="B335" t="s">
-        <v>607</v>
+        <v>590</v>
       </c>
       <c r="D335" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="E335" t="s">
-        <v>914</v>
+        <v>890</v>
       </c>
       <c r="F335" t="s">
         <v>7</v>
@@ -10358,13 +10360,13 @@
         <v>9</v>
       </c>
       <c r="B336" t="s">
-        <v>608</v>
+        <v>591</v>
       </c>
       <c r="D336" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="E336" t="s">
-        <v>915</v>
+        <v>891</v>
       </c>
       <c r="F336" t="s">
         <v>7</v>
@@ -10378,16 +10380,16 @@
         <v>9</v>
       </c>
       <c r="B337" t="s">
-        <v>609</v>
+        <v>592</v>
       </c>
       <c r="D337" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="E337" t="s">
-        <v>916</v>
+        <v>892</v>
       </c>
       <c r="F337" t="s">
-        <v>931</v>
+        <v>7</v>
       </c>
       <c r="G337" t="s">
         <v>8</v>
@@ -10398,13 +10400,13 @@
         <v>9</v>
       </c>
       <c r="B338" t="s">
-        <v>610</v>
+        <v>593</v>
       </c>
       <c r="D338" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="E338" t="s">
-        <v>917</v>
+        <v>893</v>
       </c>
       <c r="F338" t="s">
         <v>7</v>
@@ -10418,13 +10420,13 @@
         <v>9</v>
       </c>
       <c r="B339" t="s">
-        <v>611</v>
+        <v>594</v>
       </c>
       <c r="D339" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="E339" t="s">
-        <v>918</v>
+        <v>894</v>
       </c>
       <c r="F339" t="s">
         <v>7</v>
@@ -10438,19 +10440,16 @@
         <v>9</v>
       </c>
       <c r="B340" t="s">
-        <v>1025</v>
-      </c>
-      <c r="C340" t="s">
-        <v>1026</v>
+        <v>595</v>
       </c>
       <c r="D340" t="s">
-        <v>1027</v>
+        <v>295</v>
       </c>
       <c r="E340" t="s">
-        <v>1028</v>
+        <v>895</v>
       </c>
       <c r="F340" t="s">
-        <v>7</v>
+        <v>910</v>
       </c>
       <c r="G340" t="s">
         <v>8</v>
@@ -10461,13 +10460,13 @@
         <v>9</v>
       </c>
       <c r="B341" t="s">
-        <v>612</v>
+        <v>596</v>
       </c>
       <c r="D341" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="E341" t="s">
-        <v>919</v>
+        <v>896</v>
       </c>
       <c r="F341" t="s">
         <v>7</v>
@@ -10481,16 +10480,16 @@
         <v>9</v>
       </c>
       <c r="B342" t="s">
-        <v>613</v>
+        <v>597</v>
       </c>
       <c r="D342" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="E342" t="s">
-        <v>920</v>
+        <v>897</v>
       </c>
       <c r="F342" t="s">
-        <v>931</v>
+        <v>7</v>
       </c>
       <c r="G342" t="s">
         <v>8</v>
@@ -10501,16 +10500,19 @@
         <v>9</v>
       </c>
       <c r="B343" t="s">
-        <v>1071</v>
+        <v>1001</v>
+      </c>
+      <c r="C343" t="s">
+        <v>1002</v>
       </c>
       <c r="D343" t="s">
-        <v>1072</v>
+        <v>1003</v>
       </c>
       <c r="E343" t="s">
-        <v>1073</v>
+        <v>1004</v>
       </c>
       <c r="F343" t="s">
-        <v>931</v>
+        <v>7</v>
       </c>
       <c r="G343" t="s">
         <v>8</v>
@@ -10521,13 +10523,13 @@
         <v>9</v>
       </c>
       <c r="B344" t="s">
-        <v>614</v>
+        <v>598</v>
       </c>
       <c r="D344" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="E344" t="s">
-        <v>921</v>
+        <v>898</v>
       </c>
       <c r="F344" t="s">
         <v>7</v>
@@ -10541,16 +10543,16 @@
         <v>9</v>
       </c>
       <c r="B345" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="D345" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="E345" t="s">
-        <v>922</v>
+        <v>899</v>
       </c>
       <c r="F345" t="s">
-        <v>7</v>
+        <v>910</v>
       </c>
       <c r="G345" t="s">
         <v>8</v>
@@ -10561,16 +10563,16 @@
         <v>9</v>
       </c>
       <c r="B346" t="s">
-        <v>616</v>
+        <v>1047</v>
       </c>
       <c r="D346" t="s">
-        <v>309</v>
+        <v>1048</v>
       </c>
       <c r="E346" t="s">
-        <v>923</v>
+        <v>1049</v>
       </c>
       <c r="F346" t="s">
-        <v>7</v>
+        <v>910</v>
       </c>
       <c r="G346" t="s">
         <v>8</v>
@@ -10581,13 +10583,13 @@
         <v>9</v>
       </c>
       <c r="B347" t="s">
-        <v>1074</v>
+        <v>600</v>
       </c>
       <c r="D347" t="s">
-        <v>1075</v>
+        <v>300</v>
       </c>
       <c r="E347" t="s">
-        <v>1076</v>
+        <v>900</v>
       </c>
       <c r="F347" t="s">
         <v>7</v>
@@ -10601,13 +10603,13 @@
         <v>9</v>
       </c>
       <c r="B348" t="s">
-        <v>617</v>
+        <v>601</v>
       </c>
       <c r="D348" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="E348" t="s">
-        <v>924</v>
+        <v>901</v>
       </c>
       <c r="F348" t="s">
         <v>7</v>
@@ -10621,13 +10623,13 @@
         <v>9</v>
       </c>
       <c r="B349" t="s">
-        <v>618</v>
+        <v>602</v>
       </c>
       <c r="D349" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="E349" t="s">
-        <v>925</v>
+        <v>902</v>
       </c>
       <c r="F349" t="s">
         <v>7</v>
@@ -10641,13 +10643,13 @@
         <v>9</v>
       </c>
       <c r="B350" t="s">
-        <v>619</v>
+        <v>1050</v>
       </c>
       <c r="D350" t="s">
-        <v>312</v>
+        <v>1051</v>
       </c>
       <c r="E350" t="s">
-        <v>926</v>
+        <v>1052</v>
       </c>
       <c r="F350" t="s">
         <v>7</v>
@@ -10661,13 +10663,13 @@
         <v>9</v>
       </c>
       <c r="B351" t="s">
-        <v>620</v>
+        <v>603</v>
       </c>
       <c r="D351" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="E351" t="s">
-        <v>927</v>
+        <v>903</v>
       </c>
       <c r="F351" t="s">
         <v>7</v>
@@ -10680,20 +10682,19 @@
       <c r="A352" t="s">
         <v>9</v>
       </c>
-      <c r="B352" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="C352" s="1"/>
-      <c r="D352" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="E352" s="1" t="s">
-        <v>928</v>
-      </c>
-      <c r="F352" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G352" s="2" t="s">
+      <c r="B352" t="s">
+        <v>604</v>
+      </c>
+      <c r="D352" t="s">
+        <v>304</v>
+      </c>
+      <c r="E352" t="s">
+        <v>904</v>
+      </c>
+      <c r="F352" t="s">
+        <v>7</v>
+      </c>
+      <c r="G352" t="s">
         <v>8</v>
       </c>
     </row>
@@ -10702,16 +10703,13 @@
         <v>9</v>
       </c>
       <c r="B353" t="s">
-        <v>1077</v>
-      </c>
-      <c r="C353" t="s">
-        <v>1029</v>
+        <v>605</v>
       </c>
       <c r="D353" t="s">
-        <v>1030</v>
+        <v>305</v>
       </c>
       <c r="E353" t="s">
-        <v>1031</v>
+        <v>905</v>
       </c>
       <c r="F353" t="s">
         <v>7</v>
@@ -10725,13 +10723,13 @@
         <v>9</v>
       </c>
       <c r="B354" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
       <c r="D354" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="E354" t="s">
-        <v>929</v>
+        <v>906</v>
       </c>
       <c r="F354" t="s">
         <v>7</v>
@@ -10745,13 +10743,13 @@
         <v>9</v>
       </c>
       <c r="B355" t="s">
-        <v>623</v>
+        <v>607</v>
       </c>
       <c r="D355" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="E355" t="s">
-        <v>930</v>
+        <v>907</v>
       </c>
       <c r="F355" t="s">
         <v>7</v>
@@ -10760,10 +10758,70 @@
         <v>8</v>
       </c>
     </row>
+    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>9</v>
+      </c>
+      <c r="B356" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C356" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D356" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E356" t="s">
+        <v>1007</v>
+      </c>
+      <c r="F356" t="s">
+        <v>7</v>
+      </c>
+      <c r="G356" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>9</v>
+      </c>
+      <c r="B357" t="s">
+        <v>608</v>
+      </c>
+      <c r="D357" t="s">
+        <v>308</v>
+      </c>
+      <c r="E357" t="s">
+        <v>908</v>
+      </c>
+      <c r="F357" t="s">
+        <v>7</v>
+      </c>
+      <c r="G357" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>9</v>
+      </c>
+      <c r="B358" t="s">
+        <v>609</v>
+      </c>
+      <c r="D358" t="s">
+        <v>309</v>
+      </c>
+      <c r="E358" t="s">
+        <v>909</v>
+      </c>
+      <c r="F358" t="s">
+        <v>7</v>
+      </c>
+      <c r="G358" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B352">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
